--- a/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-QA.xlsx
+++ b/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/Downloads/tps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/Dev/Flutter/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8830C3-6B97-7D4C-BB64-5E4307D9B6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE74200-B2EE-DF4F-8D4B-A915F2F8473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1540" windowWidth="48600" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-34880" yWindow="1440" windowWidth="48600" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression Test Plan" sheetId="1" r:id="rId1"/>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>PASS:</t>
-  </si>
-  <si>
-    <t>Feedback feature sends an email and the email is received</t>
   </si>
   <si>
     <t>FAIL:</t>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t>Build version, number, and environment verified on Profile tab - ${APP_VERSION} (${BUILD_NUMBER}) ${BUILD_ENV}</t>
+  </si>
+  <si>
+    <t>Mobile App Support request creates SNOW ticket and email confirmation received</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:V982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1429,13 +1429,13 @@
     </row>
     <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="7" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="3"/>
       <c r="D9" s="27"/>
       <c r="E9" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="20"/>
       <c r="G9" s="27"/>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="3"/>
       <c r="D10" s="27"/>
       <c r="E10" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="27"/>
@@ -1485,13 +1485,13 @@
     </row>
     <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="3"/>
       <c r="D11" s="27"/>
       <c r="E11" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="27"/>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A12" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="47"/>
@@ -1539,13 +1539,13 @@
     </row>
     <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A13" s="41" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="46"/>
       <c r="C13" s="46"/>
       <c r="D13" s="27"/>
       <c r="E13" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="27"/>
@@ -1567,13 +1567,13 @@
     </row>
     <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A14" s="42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="47"/>
       <c r="C14" s="47"/>
       <c r="D14" s="27"/>
       <c r="E14" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="27"/>
@@ -1595,13 +1595,13 @@
     </row>
     <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A15" s="42" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="47"/>
       <c r="C15" s="47"/>
       <c r="D15" s="27"/>
       <c r="E15" s="39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F15" s="26"/>
       <c r="G15" s="27"/>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A16" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="47"/>
       <c r="D16" s="27"/>
       <c r="E16" s="40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="27"/>
@@ -1651,13 +1651,13 @@
     </row>
     <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A17" s="41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
       <c r="D17" s="27"/>
       <c r="E17" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="1"/>
@@ -1678,13 +1678,13 @@
     </row>
     <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A18" s="42" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
       <c r="D18" s="27"/>
       <c r="E18" s="40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -1706,13 +1706,13 @@
     </row>
     <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A19" s="42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="47"/>
       <c r="C19" s="47"/>
       <c r="D19" s="1"/>
       <c r="E19" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1734,13 +1734,13 @@
     </row>
     <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A20" s="42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="47"/>
       <c r="C20" s="47"/>
       <c r="D20" s="1"/>
       <c r="E20" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A21" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="47"/>
       <c r="C21" s="47"/>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A22" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="47"/>
       <c r="C22" s="47"/>
@@ -1814,7 +1814,7 @@
     </row>
     <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A23" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="47"/>
       <c r="C23" s="47"/>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A24" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="47"/>
       <c r="C24" s="47"/>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A25" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="47"/>
       <c r="C25" s="47"/>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A26" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B26" s="47"/>
       <c r="C26" s="47"/>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A27" s="42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27" s="47"/>
       <c r="C27" s="47"/>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A28" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A29" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" s="47"/>
       <c r="C29" s="47"/>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A30" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B30" s="47"/>
       <c r="C30" s="47"/>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A31" s="42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B31" s="47"/>
       <c r="C31" s="47"/>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A32" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="47"/>
       <c r="C32" s="47"/>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A33" s="42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="47"/>
       <c r="C33" s="47"/>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A34" s="42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" s="47"/>
       <c r="C34" s="47"/>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A35" s="42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" s="47"/>
       <c r="C35" s="47"/>
@@ -2145,7 +2145,7 @@
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A36" s="42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="47"/>
       <c r="C36" s="47"/>
@@ -2171,7 +2171,7 @@
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A37" s="42" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" s="47"/>
       <c r="C37" s="47"/>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A38" s="42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="47"/>
       <c r="C38" s="47"/>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A39" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="47"/>
       <c r="C39" s="47"/>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A40" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="46"/>
       <c r="C40" s="46"/>
@@ -2274,7 +2274,7 @@
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A41" s="44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" s="47"/>
       <c r="C41" s="47"/>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A42" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B42" s="47"/>
       <c r="C42" s="47"/>
@@ -2326,7 +2326,7 @@
     </row>
     <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A43" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B43" s="47"/>
       <c r="C43" s="47"/>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A44" s="44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44" s="47"/>
       <c r="C44" s="47"/>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A45" s="44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45" s="47"/>
       <c r="C45" s="47"/>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A46" s="44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46" s="47"/>
       <c r="C46" s="47"/>
@@ -2430,7 +2430,7 @@
     </row>
     <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A47" s="44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B47" s="47"/>
       <c r="C47" s="47"/>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A48" s="41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B48" s="46"/>
       <c r="C48" s="46"/>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A49" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49" s="47"/>
       <c r="C49" s="47"/>
@@ -2508,7 +2508,7 @@
     </row>
     <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A50" s="42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B50" s="47"/>
       <c r="C50" s="47"/>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="51" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A51" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" s="47"/>
       <c r="C51" s="47"/>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="52" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A52" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B52" s="46"/>
       <c r="C52" s="46"/>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="53" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A53" s="42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B53" s="47"/>
       <c r="C53" s="47"/>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="54" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A54" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B54" s="47"/>
       <c r="C54" s="47"/>
@@ -2638,7 +2638,7 @@
     </row>
     <row r="55" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A55" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B55" s="47"/>
       <c r="C55" s="47"/>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="56" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A56" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="57" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A57" s="45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B57" s="46"/>
       <c r="C57" s="46"/>
@@ -2716,7 +2716,7 @@
     </row>
     <row r="58" spans="1:22" ht="15" x14ac:dyDescent="0.15">
       <c r="A58" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B58" s="36"/>
       <c r="C58" s="3"/>
@@ -24935,18 +24935,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25133,18 +25133,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-QA.xlsx
+++ b/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-QA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/Dev/Flutter/campusmobile/scripts/codemagic-ci/testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE74200-B2EE-DF4F-8D4B-A915F2F8473D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041A76AF-137C-F44C-B3D3-7C50DC57EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34880" yWindow="1440" windowWidth="48600" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression Test Plan" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -351,13 +351,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -591,18 +584,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -617,17 +610,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -642,47 +635,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -699,44 +674,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1179,13 +1157,13 @@
   <dimension ref="A1:V982"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="109.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="37" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="23.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="5.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.1640625" style="2" customWidth="1"/>
@@ -1194,10 +1172,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="6" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -1224,21 +1202,20 @@
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:22" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="31"/>
       <c r="E2" s="23" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="12"/>
-      <c r="G2" s="30"/>
+      <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -1259,16 +1236,16 @@
       <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="29"/>
       <c r="C3" s="15"/>
       <c r="D3" s="25"/>
       <c r="E3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="44" t="s">
+      <c r="F3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="27"/>
+      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -1289,16 +1266,16 @@
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="3"/>
       <c r="D4" s="25"/>
       <c r="E4" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="27"/>
+      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1319,16 +1296,16 @@
       <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="3"/>
       <c r="D5" s="25"/>
       <c r="E5" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="27"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1349,12 +1326,10 @@
       <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="27"/>
+      <c r="D6" s="1"/>
+      <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1375,14 +1350,14 @@
       <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="18" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="18"/>
-      <c r="G7" s="27"/>
+      <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1403,14 +1378,14 @@
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="27"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="19"/>
-      <c r="G8" s="27"/>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1431,14 +1406,14 @@
       <c r="A9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="1"/>
       <c r="E9" s="24" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="20"/>
-      <c r="G9" s="27"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1459,14 +1434,14 @@
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="36"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="27"/>
+      <c r="D10" s="1"/>
       <c r="E10" s="24" t="s">
         <v>21</v>
       </c>
       <c r="F10" s="21"/>
-      <c r="G10" s="27"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1487,14 +1462,14 @@
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="36"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="24" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="22"/>
-      <c r="G11" s="27"/>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1512,15 +1487,15 @@
       <c r="V11" s="1"/>
     </row>
     <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A12" s="48" t="s">
+      <c r="A12" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1538,17 +1513,17 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="18" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="18"/>
-      <c r="G13" s="27"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1566,17 +1541,17 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="29" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="27"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1594,17 +1569,17 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="39" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="27"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1622,17 +1597,17 @@
       <c r="V15" s="1"/>
     </row>
     <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="40" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1650,16 +1625,16 @@
       <c r="V16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="39" t="s">
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="27"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1677,17 +1652,17 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="40" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1705,13 +1680,13 @@
       <c r="V18" s="1"/>
     </row>
     <row r="19" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="33" t="s">
         <v>76</v>
       </c>
       <c r="F19" s="1"/>
@@ -1733,13 +1708,13 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="34" t="s">
         <v>77</v>
       </c>
       <c r="F20" s="1"/>
@@ -1761,11 +1736,11 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1787,11 +1762,11 @@
       <c r="V21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1813,11 +1788,11 @@
       <c r="V22" s="1"/>
     </row>
     <row r="23" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1839,11 +1814,11 @@
       <c r="V23" s="1"/>
     </row>
     <row r="24" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1864,11 +1839,11 @@
       <c r="V24" s="1"/>
     </row>
     <row r="25" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1889,11 +1864,11 @@
       <c r="V25" s="1"/>
     </row>
     <row r="26" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1914,11 +1889,11 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1939,11 +1914,11 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A28" s="42" t="s">
+      <c r="A28" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1964,11 +1939,11 @@
       <c r="V28" s="1"/>
     </row>
     <row r="29" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1989,11 +1964,11 @@
       <c r="V29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2014,11 +1989,11 @@
       <c r="V30" s="1"/>
     </row>
     <row r="31" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2040,11 +2015,11 @@
       <c r="V31" s="1"/>
     </row>
     <row r="32" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2066,11 +2041,11 @@
       <c r="V32" s="1"/>
     </row>
     <row r="33" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2092,11 +2067,11 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2118,11 +2093,11 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="47"/>
-      <c r="C35" s="47"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2144,11 +2119,11 @@
       <c r="V35" s="1"/>
     </row>
     <row r="36" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="47"/>
-      <c r="C36" s="47"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2170,11 +2145,11 @@
       <c r="V36" s="1"/>
     </row>
     <row r="37" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
       <c r="D37" s="10"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2195,11 +2170,11 @@
       <c r="V37" s="1"/>
     </row>
     <row r="38" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2221,11 +2196,11 @@
       <c r="V38" s="1"/>
     </row>
     <row r="39" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2247,11 +2222,11 @@
       <c r="V39" s="1"/>
     </row>
     <row r="40" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A40" s="43" t="s">
+      <c r="A40" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2273,11 +2248,11 @@
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="47"/>
-      <c r="C41" s="47"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2299,11 +2274,11 @@
       <c r="V41" s="1"/>
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A42" s="44" t="s">
+      <c r="A42" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="47"/>
-      <c r="C42" s="47"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2325,11 +2300,11 @@
       <c r="V42" s="1"/>
     </row>
     <row r="43" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A43" s="44" t="s">
+      <c r="A43" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="47"/>
-      <c r="C43" s="47"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2351,11 +2326,11 @@
       <c r="V43" s="1"/>
     </row>
     <row r="44" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A44" s="44" t="s">
+      <c r="A44" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2377,11 +2352,11 @@
       <c r="V44" s="1"/>
     </row>
     <row r="45" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A45" s="44" t="s">
+      <c r="A45" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="47"/>
-      <c r="C45" s="47"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2403,11 +2378,11 @@
       <c r="V45" s="1"/>
     </row>
     <row r="46" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A46" s="44" t="s">
+      <c r="A46" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2429,11 +2404,11 @@
       <c r="V46" s="1"/>
     </row>
     <row r="47" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A47" s="44" t="s">
+      <c r="A47" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2455,11 +2430,11 @@
       <c r="V47" s="1"/>
     </row>
     <row r="48" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A48" s="41" t="s">
+      <c r="A48" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="46"/>
-      <c r="C48" s="46"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2481,11 +2456,11 @@
       <c r="V48" s="1"/>
     </row>
     <row r="49" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A49" s="42" t="s">
+      <c r="A49" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="47"/>
-      <c r="C49" s="47"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2507,11 +2482,11 @@
       <c r="V49" s="1"/>
     </row>
     <row r="50" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="47"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2533,11 +2508,11 @@
       <c r="V50" s="1"/>
     </row>
     <row r="51" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A51" s="42" t="s">
+      <c r="A51" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="47"/>
-      <c r="C51" s="47"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2559,11 +2534,11 @@
       <c r="V51" s="1"/>
     </row>
     <row r="52" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A52" s="41" t="s">
+      <c r="A52" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="46"/>
-      <c r="C52" s="46"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="40"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2585,11 +2560,11 @@
       <c r="V52" s="1"/>
     </row>
     <row r="53" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A53" s="42" t="s">
+      <c r="A53" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="47"/>
-      <c r="C53" s="47"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2611,11 +2586,11 @@
       <c r="V53" s="1"/>
     </row>
     <row r="54" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A54" s="42" t="s">
+      <c r="A54" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="47"/>
-      <c r="C54" s="47"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2637,11 +2612,11 @@
       <c r="V54" s="1"/>
     </row>
     <row r="55" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="47"/>
-      <c r="C55" s="47"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2663,11 +2638,11 @@
       <c r="V55" s="1"/>
     </row>
     <row r="56" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="47"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2689,11 +2664,11 @@
       <c r="V56" s="1"/>
     </row>
     <row r="57" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="40"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2715,10 +2690,10 @@
       <c r="V57" s="1"/>
     </row>
     <row r="58" spans="1:22" ht="15" x14ac:dyDescent="0.15">
-      <c r="A58" s="32" t="s">
+      <c r="A58" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="36"/>
+      <c r="B58" s="30"/>
       <c r="C58" s="3"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -2742,7 +2717,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
-      <c r="B59" s="36"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="3"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2766,7 +2741,7 @@
     </row>
     <row r="60" spans="1:22" ht="17" x14ac:dyDescent="0.15">
       <c r="A60" s="11"/>
-      <c r="B60" s="36"/>
+      <c r="B60" s="30"/>
       <c r="C60" s="3"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2790,7 +2765,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
-      <c r="B61" s="36"/>
+      <c r="B61" s="30"/>
       <c r="C61" s="3"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2814,7 +2789,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
-      <c r="B62" s="36"/>
+      <c r="B62" s="30"/>
       <c r="C62" s="3"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2838,7 +2813,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
-      <c r="B63" s="36"/>
+      <c r="B63" s="30"/>
       <c r="C63" s="3"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2862,7 +2837,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
-      <c r="B64" s="36"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="3"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2886,7 +2861,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
-      <c r="B65" s="36"/>
+      <c r="B65" s="30"/>
       <c r="C65" s="3"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2910,7 +2885,7 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
-      <c r="B66" s="36"/>
+      <c r="B66" s="30"/>
       <c r="C66" s="3"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2934,7 +2909,7 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
-      <c r="B67" s="36"/>
+      <c r="B67" s="30"/>
       <c r="C67" s="3"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2958,7 +2933,7 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
-      <c r="B68" s="36"/>
+      <c r="B68" s="30"/>
       <c r="C68" s="3"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2982,7 +2957,7 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
-      <c r="B69" s="36"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="3"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -3006,7 +2981,7 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
-      <c r="B70" s="36"/>
+      <c r="B70" s="30"/>
       <c r="C70" s="3"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3030,7 +3005,7 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
-      <c r="B71" s="36"/>
+      <c r="B71" s="30"/>
       <c r="C71" s="3"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3054,7 +3029,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
-      <c r="B72" s="36"/>
+      <c r="B72" s="30"/>
       <c r="C72" s="3"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3078,7 +3053,7 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
-      <c r="B73" s="36"/>
+      <c r="B73" s="30"/>
       <c r="C73" s="3"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3102,7 +3077,7 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
-      <c r="B74" s="36"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="3"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3126,7 +3101,7 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
-      <c r="B75" s="36"/>
+      <c r="B75" s="30"/>
       <c r="C75" s="3"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3150,7 +3125,7 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
-      <c r="B76" s="36"/>
+      <c r="B76" s="30"/>
       <c r="C76" s="3"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3174,7 +3149,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
-      <c r="B77" s="36"/>
+      <c r="B77" s="30"/>
       <c r="C77" s="3"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3198,7 +3173,7 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
-      <c r="B78" s="36"/>
+      <c r="B78" s="30"/>
       <c r="C78" s="3"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3222,7 +3197,7 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
-      <c r="B79" s="36"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="3"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3246,7 +3221,7 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
-      <c r="B80" s="36"/>
+      <c r="B80" s="30"/>
       <c r="C80" s="3"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3270,7 +3245,7 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
-      <c r="B81" s="36"/>
+      <c r="B81" s="30"/>
       <c r="C81" s="3"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3294,7 +3269,7 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
-      <c r="B82" s="36"/>
+      <c r="B82" s="30"/>
       <c r="C82" s="3"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3318,7 +3293,7 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
-      <c r="B83" s="36"/>
+      <c r="B83" s="30"/>
       <c r="C83" s="3"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3342,7 +3317,7 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
-      <c r="B84" s="36"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="3"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3366,7 +3341,7 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
-      <c r="B85" s="36"/>
+      <c r="B85" s="30"/>
       <c r="C85" s="3"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3390,7 +3365,7 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
-      <c r="B86" s="36"/>
+      <c r="B86" s="30"/>
       <c r="C86" s="3"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3414,7 +3389,7 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
-      <c r="B87" s="36"/>
+      <c r="B87" s="30"/>
       <c r="C87" s="3"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3438,7 +3413,7 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
-      <c r="B88" s="36"/>
+      <c r="B88" s="30"/>
       <c r="C88" s="3"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3462,7 +3437,7 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
-      <c r="B89" s="36"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="3"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3486,7 +3461,7 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
-      <c r="B90" s="36"/>
+      <c r="B90" s="30"/>
       <c r="C90" s="3"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3510,7 +3485,7 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
-      <c r="B91" s="36"/>
+      <c r="B91" s="30"/>
       <c r="C91" s="3"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3534,7 +3509,7 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
-      <c r="B92" s="36"/>
+      <c r="B92" s="30"/>
       <c r="C92" s="3"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3558,7 +3533,7 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
-      <c r="B93" s="36"/>
+      <c r="B93" s="30"/>
       <c r="C93" s="3"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3582,7 +3557,7 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
-      <c r="B94" s="36"/>
+      <c r="B94" s="30"/>
       <c r="C94" s="3"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3606,7 +3581,7 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
-      <c r="B95" s="36"/>
+      <c r="B95" s="30"/>
       <c r="C95" s="3"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3630,7 +3605,7 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
-      <c r="B96" s="36"/>
+      <c r="B96" s="30"/>
       <c r="C96" s="3"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3654,7 +3629,7 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
-      <c r="B97" s="36"/>
+      <c r="B97" s="30"/>
       <c r="C97" s="3"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3678,7 +3653,7 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
-      <c r="B98" s="36"/>
+      <c r="B98" s="30"/>
       <c r="C98" s="3"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3702,7 +3677,7 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
-      <c r="B99" s="36"/>
+      <c r="B99" s="30"/>
       <c r="C99" s="3"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3726,7 +3701,7 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
-      <c r="B100" s="36"/>
+      <c r="B100" s="30"/>
       <c r="C100" s="3"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3750,7 +3725,7 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
-      <c r="B101" s="36"/>
+      <c r="B101" s="30"/>
       <c r="C101" s="3"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3774,7 +3749,7 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
-      <c r="B102" s="36"/>
+      <c r="B102" s="30"/>
       <c r="C102" s="3"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3798,7 +3773,7 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
-      <c r="B103" s="36"/>
+      <c r="B103" s="30"/>
       <c r="C103" s="3"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3822,7 +3797,7 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
-      <c r="B104" s="36"/>
+      <c r="B104" s="30"/>
       <c r="C104" s="3"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3846,7 +3821,7 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
-      <c r="B105" s="36"/>
+      <c r="B105" s="30"/>
       <c r="C105" s="3"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3870,7 +3845,7 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
-      <c r="B106" s="36"/>
+      <c r="B106" s="30"/>
       <c r="C106" s="3"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3894,7 +3869,7 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
-      <c r="B107" s="36"/>
+      <c r="B107" s="30"/>
       <c r="C107" s="3"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3918,7 +3893,7 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
-      <c r="B108" s="36"/>
+      <c r="B108" s="30"/>
       <c r="C108" s="3"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3942,7 +3917,7 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
-      <c r="B109" s="36"/>
+      <c r="B109" s="30"/>
       <c r="C109" s="3"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3966,7 +3941,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
-      <c r="B110" s="36"/>
+      <c r="B110" s="30"/>
       <c r="C110" s="3"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3990,7 +3965,7 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
-      <c r="B111" s="36"/>
+      <c r="B111" s="30"/>
       <c r="C111" s="3"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4014,7 +3989,7 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
-      <c r="B112" s="36"/>
+      <c r="B112" s="30"/>
       <c r="C112" s="3"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4038,7 +4013,7 @@
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
-      <c r="B113" s="36"/>
+      <c r="B113" s="30"/>
       <c r="C113" s="3"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4062,7 +4037,7 @@
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
-      <c r="B114" s="36"/>
+      <c r="B114" s="30"/>
       <c r="C114" s="3"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4086,7 +4061,7 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
-      <c r="B115" s="36"/>
+      <c r="B115" s="30"/>
       <c r="C115" s="3"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4110,7 +4085,7 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
-      <c r="B116" s="36"/>
+      <c r="B116" s="30"/>
       <c r="C116" s="3"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4134,7 +4109,7 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
-      <c r="B117" s="36"/>
+      <c r="B117" s="30"/>
       <c r="C117" s="3"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4158,7 +4133,7 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
-      <c r="B118" s="36"/>
+      <c r="B118" s="30"/>
       <c r="C118" s="3"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4182,7 +4157,7 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
-      <c r="B119" s="36"/>
+      <c r="B119" s="30"/>
       <c r="C119" s="3"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4206,7 +4181,7 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
-      <c r="B120" s="36"/>
+      <c r="B120" s="30"/>
       <c r="C120" s="3"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4230,7 +4205,7 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
-      <c r="B121" s="36"/>
+      <c r="B121" s="30"/>
       <c r="C121" s="3"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4254,7 +4229,7 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
-      <c r="B122" s="36"/>
+      <c r="B122" s="30"/>
       <c r="C122" s="3"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4278,7 +4253,7 @@
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
-      <c r="B123" s="36"/>
+      <c r="B123" s="30"/>
       <c r="C123" s="3"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4302,7 +4277,7 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
-      <c r="B124" s="36"/>
+      <c r="B124" s="30"/>
       <c r="C124" s="3"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4326,7 +4301,7 @@
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
-      <c r="B125" s="36"/>
+      <c r="B125" s="30"/>
       <c r="C125" s="3"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4350,7 +4325,7 @@
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
-      <c r="B126" s="36"/>
+      <c r="B126" s="30"/>
       <c r="C126" s="3"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4374,7 +4349,7 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
-      <c r="B127" s="36"/>
+      <c r="B127" s="30"/>
       <c r="C127" s="3"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4398,7 +4373,7 @@
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
-      <c r="B128" s="36"/>
+      <c r="B128" s="30"/>
       <c r="C128" s="3"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4422,7 +4397,7 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
-      <c r="B129" s="36"/>
+      <c r="B129" s="30"/>
       <c r="C129" s="3"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4446,7 +4421,7 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
-      <c r="B130" s="36"/>
+      <c r="B130" s="30"/>
       <c r="C130" s="3"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4470,7 +4445,7 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
-      <c r="B131" s="36"/>
+      <c r="B131" s="30"/>
       <c r="C131" s="3"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4494,7 +4469,7 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
-      <c r="B132" s="36"/>
+      <c r="B132" s="30"/>
       <c r="C132" s="3"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -4518,7 +4493,7 @@
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
-      <c r="B133" s="36"/>
+      <c r="B133" s="30"/>
       <c r="C133" s="3"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -4542,7 +4517,7 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
-      <c r="B134" s="36"/>
+      <c r="B134" s="30"/>
       <c r="C134" s="3"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -4566,7 +4541,7 @@
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
-      <c r="B135" s="36"/>
+      <c r="B135" s="30"/>
       <c r="C135" s="3"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -4590,7 +4565,7 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
-      <c r="B136" s="36"/>
+      <c r="B136" s="30"/>
       <c r="C136" s="3"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -4614,7 +4589,7 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
-      <c r="B137" s="36"/>
+      <c r="B137" s="30"/>
       <c r="C137" s="3"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -4638,7 +4613,7 @@
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
-      <c r="B138" s="36"/>
+      <c r="B138" s="30"/>
       <c r="C138" s="3"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4662,7 +4637,7 @@
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
-      <c r="B139" s="36"/>
+      <c r="B139" s="30"/>
       <c r="C139" s="3"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4686,7 +4661,7 @@
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
-      <c r="B140" s="36"/>
+      <c r="B140" s="30"/>
       <c r="C140" s="3"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4710,7 +4685,7 @@
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
-      <c r="B141" s="36"/>
+      <c r="B141" s="30"/>
       <c r="C141" s="3"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4734,7 +4709,7 @@
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
-      <c r="B142" s="36"/>
+      <c r="B142" s="30"/>
       <c r="C142" s="3"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4758,7 +4733,7 @@
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
-      <c r="B143" s="36"/>
+      <c r="B143" s="30"/>
       <c r="C143" s="3"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4782,7 +4757,7 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
-      <c r="B144" s="36"/>
+      <c r="B144" s="30"/>
       <c r="C144" s="3"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4806,7 +4781,7 @@
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
-      <c r="B145" s="36"/>
+      <c r="B145" s="30"/>
       <c r="C145" s="3"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4830,7 +4805,7 @@
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
-      <c r="B146" s="36"/>
+      <c r="B146" s="30"/>
       <c r="C146" s="3"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4854,7 +4829,7 @@
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
-      <c r="B147" s="36"/>
+      <c r="B147" s="30"/>
       <c r="C147" s="3"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4878,7 +4853,7 @@
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A148" s="7"/>
-      <c r="B148" s="36"/>
+      <c r="B148" s="30"/>
       <c r="C148" s="3"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4902,7 +4877,7 @@
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
-      <c r="B149" s="36"/>
+      <c r="B149" s="30"/>
       <c r="C149" s="3"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4926,7 +4901,7 @@
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
-      <c r="B150" s="36"/>
+      <c r="B150" s="30"/>
       <c r="C150" s="3"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4950,7 +4925,7 @@
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A151" s="7"/>
-      <c r="B151" s="36"/>
+      <c r="B151" s="30"/>
       <c r="C151" s="3"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4974,7 +4949,7 @@
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A152" s="7"/>
-      <c r="B152" s="36"/>
+      <c r="B152" s="30"/>
       <c r="C152" s="3"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4998,7 +4973,7 @@
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A153" s="7"/>
-      <c r="B153" s="36"/>
+      <c r="B153" s="30"/>
       <c r="C153" s="3"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -5022,7 +4997,7 @@
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A154" s="7"/>
-      <c r="B154" s="36"/>
+      <c r="B154" s="30"/>
       <c r="C154" s="3"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5046,7 +5021,7 @@
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A155" s="7"/>
-      <c r="B155" s="36"/>
+      <c r="B155" s="30"/>
       <c r="C155" s="3"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5070,7 +5045,7 @@
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A156" s="7"/>
-      <c r="B156" s="36"/>
+      <c r="B156" s="30"/>
       <c r="C156" s="3"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -5094,7 +5069,7 @@
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A157" s="7"/>
-      <c r="B157" s="36"/>
+      <c r="B157" s="30"/>
       <c r="C157" s="3"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -5118,7 +5093,7 @@
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A158" s="7"/>
-      <c r="B158" s="36"/>
+      <c r="B158" s="30"/>
       <c r="C158" s="3"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -5142,7 +5117,7 @@
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A159" s="7"/>
-      <c r="B159" s="36"/>
+      <c r="B159" s="30"/>
       <c r="C159" s="3"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -5166,7 +5141,7 @@
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A160" s="7"/>
-      <c r="B160" s="36"/>
+      <c r="B160" s="30"/>
       <c r="C160" s="3"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -5190,7 +5165,7 @@
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A161" s="7"/>
-      <c r="B161" s="36"/>
+      <c r="B161" s="30"/>
       <c r="C161" s="3"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -5214,7 +5189,7 @@
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A162" s="7"/>
-      <c r="B162" s="36"/>
+      <c r="B162" s="30"/>
       <c r="C162" s="3"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -5238,7 +5213,7 @@
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A163" s="7"/>
-      <c r="B163" s="36"/>
+      <c r="B163" s="30"/>
       <c r="C163" s="3"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -5262,7 +5237,7 @@
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A164" s="7"/>
-      <c r="B164" s="36"/>
+      <c r="B164" s="30"/>
       <c r="C164" s="3"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -5286,7 +5261,7 @@
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A165" s="7"/>
-      <c r="B165" s="36"/>
+      <c r="B165" s="30"/>
       <c r="C165" s="3"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -5310,7 +5285,7 @@
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A166" s="7"/>
-      <c r="B166" s="36"/>
+      <c r="B166" s="30"/>
       <c r="C166" s="3"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -5334,7 +5309,7 @@
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A167" s="7"/>
-      <c r="B167" s="36"/>
+      <c r="B167" s="30"/>
       <c r="C167" s="3"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -5358,7 +5333,7 @@
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A168" s="7"/>
-      <c r="B168" s="36"/>
+      <c r="B168" s="30"/>
       <c r="C168" s="3"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -5382,7 +5357,7 @@
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A169" s="7"/>
-      <c r="B169" s="36"/>
+      <c r="B169" s="30"/>
       <c r="C169" s="3"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -5406,7 +5381,7 @@
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A170" s="7"/>
-      <c r="B170" s="36"/>
+      <c r="B170" s="30"/>
       <c r="C170" s="3"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -5430,7 +5405,7 @@
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A171" s="7"/>
-      <c r="B171" s="36"/>
+      <c r="B171" s="30"/>
       <c r="C171" s="3"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -5454,7 +5429,7 @@
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A172" s="7"/>
-      <c r="B172" s="36"/>
+      <c r="B172" s="30"/>
       <c r="C172" s="3"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -5478,7 +5453,7 @@
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A173" s="7"/>
-      <c r="B173" s="36"/>
+      <c r="B173" s="30"/>
       <c r="C173" s="3"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -5502,7 +5477,7 @@
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A174" s="7"/>
-      <c r="B174" s="36"/>
+      <c r="B174" s="30"/>
       <c r="C174" s="3"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -5526,7 +5501,7 @@
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A175" s="7"/>
-      <c r="B175" s="36"/>
+      <c r="B175" s="30"/>
       <c r="C175" s="3"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -5550,7 +5525,7 @@
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A176" s="7"/>
-      <c r="B176" s="36"/>
+      <c r="B176" s="30"/>
       <c r="C176" s="3"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -5574,7 +5549,7 @@
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A177" s="7"/>
-      <c r="B177" s="36"/>
+      <c r="B177" s="30"/>
       <c r="C177" s="3"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -5598,7 +5573,7 @@
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A178" s="7"/>
-      <c r="B178" s="36"/>
+      <c r="B178" s="30"/>
       <c r="C178" s="3"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -5622,7 +5597,7 @@
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A179" s="7"/>
-      <c r="B179" s="36"/>
+      <c r="B179" s="30"/>
       <c r="C179" s="3"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -5646,7 +5621,7 @@
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A180" s="7"/>
-      <c r="B180" s="36"/>
+      <c r="B180" s="30"/>
       <c r="C180" s="3"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5670,7 +5645,7 @@
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A181" s="7"/>
-      <c r="B181" s="36"/>
+      <c r="B181" s="30"/>
       <c r="C181" s="3"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5694,7 +5669,7 @@
     </row>
     <row r="182" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A182" s="7"/>
-      <c r="B182" s="36"/>
+      <c r="B182" s="30"/>
       <c r="C182" s="3"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5718,7 +5693,7 @@
     </row>
     <row r="183" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A183" s="7"/>
-      <c r="B183" s="36"/>
+      <c r="B183" s="30"/>
       <c r="C183" s="3"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5742,7 +5717,7 @@
     </row>
     <row r="184" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A184" s="7"/>
-      <c r="B184" s="36"/>
+      <c r="B184" s="30"/>
       <c r="C184" s="3"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5766,7 +5741,7 @@
     </row>
     <row r="185" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A185" s="7"/>
-      <c r="B185" s="36"/>
+      <c r="B185" s="30"/>
       <c r="C185" s="3"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5790,7 +5765,7 @@
     </row>
     <row r="186" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A186" s="7"/>
-      <c r="B186" s="36"/>
+      <c r="B186" s="30"/>
       <c r="C186" s="3"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5814,7 +5789,7 @@
     </row>
     <row r="187" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A187" s="7"/>
-      <c r="B187" s="36"/>
+      <c r="B187" s="30"/>
       <c r="C187" s="3"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5838,7 +5813,7 @@
     </row>
     <row r="188" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A188" s="7"/>
-      <c r="B188" s="36"/>
+      <c r="B188" s="30"/>
       <c r="C188" s="3"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5862,7 +5837,7 @@
     </row>
     <row r="189" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A189" s="7"/>
-      <c r="B189" s="36"/>
+      <c r="B189" s="30"/>
       <c r="C189" s="3"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5886,7 +5861,7 @@
     </row>
     <row r="190" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A190" s="7"/>
-      <c r="B190" s="36"/>
+      <c r="B190" s="30"/>
       <c r="C190" s="3"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5910,7 +5885,7 @@
     </row>
     <row r="191" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A191" s="7"/>
-      <c r="B191" s="36"/>
+      <c r="B191" s="30"/>
       <c r="C191" s="3"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5934,7 +5909,7 @@
     </row>
     <row r="192" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A192" s="7"/>
-      <c r="B192" s="36"/>
+      <c r="B192" s="30"/>
       <c r="C192" s="3"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5958,7 +5933,7 @@
     </row>
     <row r="193" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A193" s="7"/>
-      <c r="B193" s="36"/>
+      <c r="B193" s="30"/>
       <c r="C193" s="3"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5982,7 +5957,7 @@
     </row>
     <row r="194" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A194" s="7"/>
-      <c r="B194" s="36"/>
+      <c r="B194" s="30"/>
       <c r="C194" s="3"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -6006,7 +5981,7 @@
     </row>
     <row r="195" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A195" s="7"/>
-      <c r="B195" s="36"/>
+      <c r="B195" s="30"/>
       <c r="C195" s="3"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -6030,7 +6005,7 @@
     </row>
     <row r="196" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A196" s="7"/>
-      <c r="B196" s="36"/>
+      <c r="B196" s="30"/>
       <c r="C196" s="3"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -6054,7 +6029,7 @@
     </row>
     <row r="197" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A197" s="7"/>
-      <c r="B197" s="36"/>
+      <c r="B197" s="30"/>
       <c r="C197" s="3"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -6078,7 +6053,7 @@
     </row>
     <row r="198" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A198" s="7"/>
-      <c r="B198" s="36"/>
+      <c r="B198" s="30"/>
       <c r="C198" s="3"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -6102,7 +6077,7 @@
     </row>
     <row r="199" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A199" s="7"/>
-      <c r="B199" s="36"/>
+      <c r="B199" s="30"/>
       <c r="C199" s="3"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -6126,7 +6101,7 @@
     </row>
     <row r="200" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A200" s="7"/>
-      <c r="B200" s="36"/>
+      <c r="B200" s="30"/>
       <c r="C200" s="3"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -6150,7 +6125,7 @@
     </row>
     <row r="201" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A201" s="7"/>
-      <c r="B201" s="36"/>
+      <c r="B201" s="30"/>
       <c r="C201" s="3"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -6174,7 +6149,7 @@
     </row>
     <row r="202" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A202" s="7"/>
-      <c r="B202" s="36"/>
+      <c r="B202" s="30"/>
       <c r="C202" s="3"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -6198,7 +6173,7 @@
     </row>
     <row r="203" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A203" s="7"/>
-      <c r="B203" s="36"/>
+      <c r="B203" s="30"/>
       <c r="C203" s="3"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -6222,7 +6197,7 @@
     </row>
     <row r="204" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A204" s="7"/>
-      <c r="B204" s="36"/>
+      <c r="B204" s="30"/>
       <c r="C204" s="3"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -6246,7 +6221,7 @@
     </row>
     <row r="205" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A205" s="7"/>
-      <c r="B205" s="36"/>
+      <c r="B205" s="30"/>
       <c r="C205" s="3"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -6270,7 +6245,7 @@
     </row>
     <row r="206" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A206" s="7"/>
-      <c r="B206" s="36"/>
+      <c r="B206" s="30"/>
       <c r="C206" s="3"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -6294,7 +6269,7 @@
     </row>
     <row r="207" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A207" s="7"/>
-      <c r="B207" s="36"/>
+      <c r="B207" s="30"/>
       <c r="C207" s="3"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -6318,7 +6293,7 @@
     </row>
     <row r="208" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A208" s="7"/>
-      <c r="B208" s="36"/>
+      <c r="B208" s="30"/>
       <c r="C208" s="3"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -6342,7 +6317,7 @@
     </row>
     <row r="209" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A209" s="7"/>
-      <c r="B209" s="36"/>
+      <c r="B209" s="30"/>
       <c r="C209" s="3"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -6366,7 +6341,7 @@
     </row>
     <row r="210" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A210" s="7"/>
-      <c r="B210" s="36"/>
+      <c r="B210" s="30"/>
       <c r="C210" s="3"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -6390,7 +6365,7 @@
     </row>
     <row r="211" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A211" s="7"/>
-      <c r="B211" s="36"/>
+      <c r="B211" s="30"/>
       <c r="C211" s="3"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -6414,7 +6389,7 @@
     </row>
     <row r="212" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A212" s="7"/>
-      <c r="B212" s="36"/>
+      <c r="B212" s="30"/>
       <c r="C212" s="3"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -6438,7 +6413,7 @@
     </row>
     <row r="213" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A213" s="7"/>
-      <c r="B213" s="36"/>
+      <c r="B213" s="30"/>
       <c r="C213" s="3"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -6462,7 +6437,7 @@
     </row>
     <row r="214" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A214" s="7"/>
-      <c r="B214" s="36"/>
+      <c r="B214" s="30"/>
       <c r="C214" s="3"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -6486,7 +6461,7 @@
     </row>
     <row r="215" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A215" s="7"/>
-      <c r="B215" s="36"/>
+      <c r="B215" s="30"/>
       <c r="C215" s="3"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -6510,7 +6485,7 @@
     </row>
     <row r="216" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A216" s="7"/>
-      <c r="B216" s="36"/>
+      <c r="B216" s="30"/>
       <c r="C216" s="3"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -6534,7 +6509,7 @@
     </row>
     <row r="217" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A217" s="7"/>
-      <c r="B217" s="36"/>
+      <c r="B217" s="30"/>
       <c r="C217" s="3"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -6558,7 +6533,7 @@
     </row>
     <row r="218" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A218" s="7"/>
-      <c r="B218" s="36"/>
+      <c r="B218" s="30"/>
       <c r="C218" s="3"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -6582,7 +6557,7 @@
     </row>
     <row r="219" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A219" s="7"/>
-      <c r="B219" s="36"/>
+      <c r="B219" s="30"/>
       <c r="C219" s="3"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -6606,7 +6581,7 @@
     </row>
     <row r="220" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A220" s="7"/>
-      <c r="B220" s="36"/>
+      <c r="B220" s="30"/>
       <c r="C220" s="3"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -6630,7 +6605,7 @@
     </row>
     <row r="221" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A221" s="7"/>
-      <c r="B221" s="36"/>
+      <c r="B221" s="30"/>
       <c r="C221" s="3"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -6654,7 +6629,7 @@
     </row>
     <row r="222" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A222" s="7"/>
-      <c r="B222" s="36"/>
+      <c r="B222" s="30"/>
       <c r="C222" s="3"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -6678,7 +6653,7 @@
     </row>
     <row r="223" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A223" s="7"/>
-      <c r="B223" s="36"/>
+      <c r="B223" s="30"/>
       <c r="C223" s="3"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6702,7 +6677,7 @@
     </row>
     <row r="224" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A224" s="7"/>
-      <c r="B224" s="36"/>
+      <c r="B224" s="30"/>
       <c r="C224" s="3"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6726,7 +6701,7 @@
     </row>
     <row r="225" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A225" s="7"/>
-      <c r="B225" s="36"/>
+      <c r="B225" s="30"/>
       <c r="C225" s="3"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6750,7 +6725,7 @@
     </row>
     <row r="226" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A226" s="7"/>
-      <c r="B226" s="36"/>
+      <c r="B226" s="30"/>
       <c r="C226" s="3"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6774,7 +6749,7 @@
     </row>
     <row r="227" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A227" s="7"/>
-      <c r="B227" s="36"/>
+      <c r="B227" s="30"/>
       <c r="C227" s="3"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6798,7 +6773,7 @@
     </row>
     <row r="228" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A228" s="7"/>
-      <c r="B228" s="36"/>
+      <c r="B228" s="30"/>
       <c r="C228" s="3"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6822,7 +6797,7 @@
     </row>
     <row r="229" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A229" s="7"/>
-      <c r="B229" s="36"/>
+      <c r="B229" s="30"/>
       <c r="C229" s="3"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6846,7 +6821,7 @@
     </row>
     <row r="230" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A230" s="7"/>
-      <c r="B230" s="36"/>
+      <c r="B230" s="30"/>
       <c r="C230" s="3"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6870,7 +6845,7 @@
     </row>
     <row r="231" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A231" s="7"/>
-      <c r="B231" s="36"/>
+      <c r="B231" s="30"/>
       <c r="C231" s="3"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6894,7 +6869,7 @@
     </row>
     <row r="232" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A232" s="7"/>
-      <c r="B232" s="36"/>
+      <c r="B232" s="30"/>
       <c r="C232" s="3"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6918,7 +6893,7 @@
     </row>
     <row r="233" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A233" s="7"/>
-      <c r="B233" s="36"/>
+      <c r="B233" s="30"/>
       <c r="C233" s="3"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6942,7 +6917,7 @@
     </row>
     <row r="234" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A234" s="7"/>
-      <c r="B234" s="36"/>
+      <c r="B234" s="30"/>
       <c r="C234" s="3"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6966,7 +6941,7 @@
     </row>
     <row r="235" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A235" s="7"/>
-      <c r="B235" s="36"/>
+      <c r="B235" s="30"/>
       <c r="C235" s="3"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6990,7 +6965,7 @@
     </row>
     <row r="236" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A236" s="7"/>
-      <c r="B236" s="36"/>
+      <c r="B236" s="30"/>
       <c r="C236" s="3"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -7014,7 +6989,7 @@
     </row>
     <row r="237" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A237" s="7"/>
-      <c r="B237" s="36"/>
+      <c r="B237" s="30"/>
       <c r="C237" s="3"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -7038,7 +7013,7 @@
     </row>
     <row r="238" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A238" s="7"/>
-      <c r="B238" s="36"/>
+      <c r="B238" s="30"/>
       <c r="C238" s="3"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -7062,7 +7037,7 @@
     </row>
     <row r="239" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A239" s="7"/>
-      <c r="B239" s="36"/>
+      <c r="B239" s="30"/>
       <c r="C239" s="3"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -7086,7 +7061,7 @@
     </row>
     <row r="240" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A240" s="7"/>
-      <c r="B240" s="36"/>
+      <c r="B240" s="30"/>
       <c r="C240" s="3"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -7110,7 +7085,7 @@
     </row>
     <row r="241" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A241" s="7"/>
-      <c r="B241" s="36"/>
+      <c r="B241" s="30"/>
       <c r="C241" s="3"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -7134,7 +7109,7 @@
     </row>
     <row r="242" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A242" s="7"/>
-      <c r="B242" s="36"/>
+      <c r="B242" s="30"/>
       <c r="C242" s="3"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -7158,7 +7133,7 @@
     </row>
     <row r="243" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A243" s="7"/>
-      <c r="B243" s="36"/>
+      <c r="B243" s="30"/>
       <c r="C243" s="3"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -7182,7 +7157,7 @@
     </row>
     <row r="244" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A244" s="7"/>
-      <c r="B244" s="36"/>
+      <c r="B244" s="30"/>
       <c r="C244" s="3"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -7206,7 +7181,7 @@
     </row>
     <row r="245" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A245" s="7"/>
-      <c r="B245" s="36"/>
+      <c r="B245" s="30"/>
       <c r="C245" s="3"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -7230,7 +7205,7 @@
     </row>
     <row r="246" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A246" s="7"/>
-      <c r="B246" s="36"/>
+      <c r="B246" s="30"/>
       <c r="C246" s="3"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -7254,7 +7229,7 @@
     </row>
     <row r="247" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A247" s="7"/>
-      <c r="B247" s="36"/>
+      <c r="B247" s="30"/>
       <c r="C247" s="3"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -7278,7 +7253,7 @@
     </row>
     <row r="248" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A248" s="7"/>
-      <c r="B248" s="36"/>
+      <c r="B248" s="30"/>
       <c r="C248" s="3"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -7302,7 +7277,7 @@
     </row>
     <row r="249" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A249" s="7"/>
-      <c r="B249" s="36"/>
+      <c r="B249" s="30"/>
       <c r="C249" s="3"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -7326,7 +7301,7 @@
     </row>
     <row r="250" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A250" s="7"/>
-      <c r="B250" s="36"/>
+      <c r="B250" s="30"/>
       <c r="C250" s="3"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -7350,7 +7325,7 @@
     </row>
     <row r="251" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A251" s="7"/>
-      <c r="B251" s="36"/>
+      <c r="B251" s="30"/>
       <c r="C251" s="3"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -7374,7 +7349,7 @@
     </row>
     <row r="252" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A252" s="7"/>
-      <c r="B252" s="36"/>
+      <c r="B252" s="30"/>
       <c r="C252" s="3"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -7398,7 +7373,7 @@
     </row>
     <row r="253" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A253" s="7"/>
-      <c r="B253" s="36"/>
+      <c r="B253" s="30"/>
       <c r="C253" s="3"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -7422,7 +7397,7 @@
     </row>
     <row r="254" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A254" s="7"/>
-      <c r="B254" s="36"/>
+      <c r="B254" s="30"/>
       <c r="C254" s="3"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -7446,7 +7421,7 @@
     </row>
     <row r="255" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A255" s="7"/>
-      <c r="B255" s="36"/>
+      <c r="B255" s="30"/>
       <c r="C255" s="3"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -7470,7 +7445,7 @@
     </row>
     <row r="256" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A256" s="7"/>
-      <c r="B256" s="36"/>
+      <c r="B256" s="30"/>
       <c r="C256" s="3"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -7494,7 +7469,7 @@
     </row>
     <row r="257" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A257" s="7"/>
-      <c r="B257" s="36"/>
+      <c r="B257" s="30"/>
       <c r="C257" s="3"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -7518,7 +7493,7 @@
     </row>
     <row r="258" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A258" s="7"/>
-      <c r="B258" s="36"/>
+      <c r="B258" s="30"/>
       <c r="C258" s="3"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -7542,7 +7517,7 @@
     </row>
     <row r="259" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A259" s="7"/>
-      <c r="B259" s="36"/>
+      <c r="B259" s="30"/>
       <c r="C259" s="3"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -7566,7 +7541,7 @@
     </row>
     <row r="260" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A260" s="7"/>
-      <c r="B260" s="36"/>
+      <c r="B260" s="30"/>
       <c r="C260" s="3"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -7590,7 +7565,7 @@
     </row>
     <row r="261" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A261" s="7"/>
-      <c r="B261" s="36"/>
+      <c r="B261" s="30"/>
       <c r="C261" s="3"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -7614,7 +7589,7 @@
     </row>
     <row r="262" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A262" s="7"/>
-      <c r="B262" s="36"/>
+      <c r="B262" s="30"/>
       <c r="C262" s="3"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -7638,7 +7613,7 @@
     </row>
     <row r="263" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A263" s="7"/>
-      <c r="B263" s="36"/>
+      <c r="B263" s="30"/>
       <c r="C263" s="3"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -7662,7 +7637,7 @@
     </row>
     <row r="264" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A264" s="7"/>
-      <c r="B264" s="36"/>
+      <c r="B264" s="30"/>
       <c r="C264" s="3"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -7686,7 +7661,7 @@
     </row>
     <row r="265" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A265" s="7"/>
-      <c r="B265" s="36"/>
+      <c r="B265" s="30"/>
       <c r="C265" s="3"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -7710,7 +7685,7 @@
     </row>
     <row r="266" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A266" s="7"/>
-      <c r="B266" s="36"/>
+      <c r="B266" s="30"/>
       <c r="C266" s="3"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -7734,7 +7709,7 @@
     </row>
     <row r="267" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A267" s="7"/>
-      <c r="B267" s="36"/>
+      <c r="B267" s="30"/>
       <c r="C267" s="3"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -7758,7 +7733,7 @@
     </row>
     <row r="268" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A268" s="7"/>
-      <c r="B268" s="36"/>
+      <c r="B268" s="30"/>
       <c r="C268" s="3"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -7782,7 +7757,7 @@
     </row>
     <row r="269" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A269" s="7"/>
-      <c r="B269" s="36"/>
+      <c r="B269" s="30"/>
       <c r="C269" s="3"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -7806,7 +7781,7 @@
     </row>
     <row r="270" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A270" s="7"/>
-      <c r="B270" s="36"/>
+      <c r="B270" s="30"/>
       <c r="C270" s="3"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7830,7 +7805,7 @@
     </row>
     <row r="271" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A271" s="7"/>
-      <c r="B271" s="36"/>
+      <c r="B271" s="30"/>
       <c r="C271" s="3"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7854,7 +7829,7 @@
     </row>
     <row r="272" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A272" s="7"/>
-      <c r="B272" s="36"/>
+      <c r="B272" s="30"/>
       <c r="C272" s="3"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7878,7 +7853,7 @@
     </row>
     <row r="273" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A273" s="7"/>
-      <c r="B273" s="36"/>
+      <c r="B273" s="30"/>
       <c r="C273" s="3"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7902,7 +7877,7 @@
     </row>
     <row r="274" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A274" s="7"/>
-      <c r="B274" s="36"/>
+      <c r="B274" s="30"/>
       <c r="C274" s="3"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7926,7 +7901,7 @@
     </row>
     <row r="275" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A275" s="7"/>
-      <c r="B275" s="36"/>
+      <c r="B275" s="30"/>
       <c r="C275" s="3"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7950,7 +7925,7 @@
     </row>
     <row r="276" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A276" s="7"/>
-      <c r="B276" s="36"/>
+      <c r="B276" s="30"/>
       <c r="C276" s="3"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7974,7 +7949,7 @@
     </row>
     <row r="277" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A277" s="7"/>
-      <c r="B277" s="36"/>
+      <c r="B277" s="30"/>
       <c r="C277" s="3"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7998,7 +7973,7 @@
     </row>
     <row r="278" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A278" s="7"/>
-      <c r="B278" s="36"/>
+      <c r="B278" s="30"/>
       <c r="C278" s="3"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -8022,7 +7997,7 @@
     </row>
     <row r="279" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A279" s="7"/>
-      <c r="B279" s="36"/>
+      <c r="B279" s="30"/>
       <c r="C279" s="3"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -8046,7 +8021,7 @@
     </row>
     <row r="280" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A280" s="7"/>
-      <c r="B280" s="36"/>
+      <c r="B280" s="30"/>
       <c r="C280" s="3"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -8070,7 +8045,7 @@
     </row>
     <row r="281" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A281" s="7"/>
-      <c r="B281" s="36"/>
+      <c r="B281" s="30"/>
       <c r="C281" s="3"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -8094,7 +8069,7 @@
     </row>
     <row r="282" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A282" s="7"/>
-      <c r="B282" s="36"/>
+      <c r="B282" s="30"/>
       <c r="C282" s="3"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -8118,7 +8093,7 @@
     </row>
     <row r="283" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A283" s="7"/>
-      <c r="B283" s="36"/>
+      <c r="B283" s="30"/>
       <c r="C283" s="3"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -8142,7 +8117,7 @@
     </row>
     <row r="284" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A284" s="7"/>
-      <c r="B284" s="36"/>
+      <c r="B284" s="30"/>
       <c r="C284" s="3"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -8166,7 +8141,7 @@
     </row>
     <row r="285" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A285" s="7"/>
-      <c r="B285" s="36"/>
+      <c r="B285" s="30"/>
       <c r="C285" s="3"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -8190,7 +8165,7 @@
     </row>
     <row r="286" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A286" s="7"/>
-      <c r="B286" s="36"/>
+      <c r="B286" s="30"/>
       <c r="C286" s="3"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -8214,7 +8189,7 @@
     </row>
     <row r="287" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A287" s="7"/>
-      <c r="B287" s="36"/>
+      <c r="B287" s="30"/>
       <c r="C287" s="3"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -8238,7 +8213,7 @@
     </row>
     <row r="288" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A288" s="7"/>
-      <c r="B288" s="36"/>
+      <c r="B288" s="30"/>
       <c r="C288" s="3"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -8262,7 +8237,7 @@
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A289" s="7"/>
-      <c r="B289" s="36"/>
+      <c r="B289" s="30"/>
       <c r="C289" s="3"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -8286,7 +8261,7 @@
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A290" s="7"/>
-      <c r="B290" s="36"/>
+      <c r="B290" s="30"/>
       <c r="C290" s="3"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -8310,7 +8285,7 @@
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A291" s="7"/>
-      <c r="B291" s="36"/>
+      <c r="B291" s="30"/>
       <c r="C291" s="3"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -8334,7 +8309,7 @@
     </row>
     <row r="292" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A292" s="7"/>
-      <c r="B292" s="36"/>
+      <c r="B292" s="30"/>
       <c r="C292" s="3"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -8358,7 +8333,7 @@
     </row>
     <row r="293" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A293" s="7"/>
-      <c r="B293" s="36"/>
+      <c r="B293" s="30"/>
       <c r="C293" s="3"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -8382,7 +8357,7 @@
     </row>
     <row r="294" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A294" s="7"/>
-      <c r="B294" s="36"/>
+      <c r="B294" s="30"/>
       <c r="C294" s="3"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -8406,7 +8381,7 @@
     </row>
     <row r="295" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A295" s="7"/>
-      <c r="B295" s="36"/>
+      <c r="B295" s="30"/>
       <c r="C295" s="3"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -8430,7 +8405,7 @@
     </row>
     <row r="296" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A296" s="7"/>
-      <c r="B296" s="36"/>
+      <c r="B296" s="30"/>
       <c r="C296" s="3"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -8454,7 +8429,7 @@
     </row>
     <row r="297" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A297" s="7"/>
-      <c r="B297" s="36"/>
+      <c r="B297" s="30"/>
       <c r="C297" s="3"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -8478,7 +8453,7 @@
     </row>
     <row r="298" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A298" s="7"/>
-      <c r="B298" s="36"/>
+      <c r="B298" s="30"/>
       <c r="C298" s="3"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -8502,7 +8477,7 @@
     </row>
     <row r="299" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A299" s="7"/>
-      <c r="B299" s="36"/>
+      <c r="B299" s="30"/>
       <c r="C299" s="3"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -8526,7 +8501,7 @@
     </row>
     <row r="300" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A300" s="7"/>
-      <c r="B300" s="36"/>
+      <c r="B300" s="30"/>
       <c r="C300" s="3"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -8550,7 +8525,7 @@
     </row>
     <row r="301" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A301" s="7"/>
-      <c r="B301" s="36"/>
+      <c r="B301" s="30"/>
       <c r="C301" s="3"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -8574,7 +8549,7 @@
     </row>
     <row r="302" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A302" s="7"/>
-      <c r="B302" s="36"/>
+      <c r="B302" s="30"/>
       <c r="C302" s="3"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -8598,7 +8573,7 @@
     </row>
     <row r="303" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A303" s="7"/>
-      <c r="B303" s="36"/>
+      <c r="B303" s="30"/>
       <c r="C303" s="3"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -8622,7 +8597,7 @@
     </row>
     <row r="304" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A304" s="7"/>
-      <c r="B304" s="36"/>
+      <c r="B304" s="30"/>
       <c r="C304" s="3"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -8646,7 +8621,7 @@
     </row>
     <row r="305" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A305" s="7"/>
-      <c r="B305" s="36"/>
+      <c r="B305" s="30"/>
       <c r="C305" s="3"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -8670,7 +8645,7 @@
     </row>
     <row r="306" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A306" s="7"/>
-      <c r="B306" s="36"/>
+      <c r="B306" s="30"/>
       <c r="C306" s="3"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -8694,7 +8669,7 @@
     </row>
     <row r="307" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A307" s="7"/>
-      <c r="B307" s="36"/>
+      <c r="B307" s="30"/>
       <c r="C307" s="3"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -8718,7 +8693,7 @@
     </row>
     <row r="308" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A308" s="7"/>
-      <c r="B308" s="36"/>
+      <c r="B308" s="30"/>
       <c r="C308" s="3"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -8742,7 +8717,7 @@
     </row>
     <row r="309" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A309" s="7"/>
-      <c r="B309" s="36"/>
+      <c r="B309" s="30"/>
       <c r="C309" s="3"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -8766,7 +8741,7 @@
     </row>
     <row r="310" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A310" s="7"/>
-      <c r="B310" s="36"/>
+      <c r="B310" s="30"/>
       <c r="C310" s="3"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -8790,7 +8765,7 @@
     </row>
     <row r="311" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A311" s="7"/>
-      <c r="B311" s="36"/>
+      <c r="B311" s="30"/>
       <c r="C311" s="3"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -8814,7 +8789,7 @@
     </row>
     <row r="312" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A312" s="7"/>
-      <c r="B312" s="36"/>
+      <c r="B312" s="30"/>
       <c r="C312" s="3"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -8838,7 +8813,7 @@
     </row>
     <row r="313" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A313" s="7"/>
-      <c r="B313" s="36"/>
+      <c r="B313" s="30"/>
       <c r="C313" s="3"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -8862,7 +8837,7 @@
     </row>
     <row r="314" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A314" s="7"/>
-      <c r="B314" s="36"/>
+      <c r="B314" s="30"/>
       <c r="C314" s="3"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -8886,7 +8861,7 @@
     </row>
     <row r="315" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A315" s="7"/>
-      <c r="B315" s="36"/>
+      <c r="B315" s="30"/>
       <c r="C315" s="3"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -8910,7 +8885,7 @@
     </row>
     <row r="316" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A316" s="7"/>
-      <c r="B316" s="36"/>
+      <c r="B316" s="30"/>
       <c r="C316" s="3"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -8934,7 +8909,7 @@
     </row>
     <row r="317" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A317" s="7"/>
-      <c r="B317" s="36"/>
+      <c r="B317" s="30"/>
       <c r="C317" s="3"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -8958,7 +8933,7 @@
     </row>
     <row r="318" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A318" s="7"/>
-      <c r="B318" s="36"/>
+      <c r="B318" s="30"/>
       <c r="C318" s="3"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -8982,7 +8957,7 @@
     </row>
     <row r="319" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A319" s="7"/>
-      <c r="B319" s="36"/>
+      <c r="B319" s="30"/>
       <c r="C319" s="3"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -9006,7 +8981,7 @@
     </row>
     <row r="320" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A320" s="7"/>
-      <c r="B320" s="36"/>
+      <c r="B320" s="30"/>
       <c r="C320" s="3"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -9030,7 +9005,7 @@
     </row>
     <row r="321" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A321" s="7"/>
-      <c r="B321" s="36"/>
+      <c r="B321" s="30"/>
       <c r="C321" s="3"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -9054,7 +9029,7 @@
     </row>
     <row r="322" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A322" s="7"/>
-      <c r="B322" s="36"/>
+      <c r="B322" s="30"/>
       <c r="C322" s="3"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -9078,7 +9053,7 @@
     </row>
     <row r="323" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A323" s="7"/>
-      <c r="B323" s="36"/>
+      <c r="B323" s="30"/>
       <c r="C323" s="3"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -9102,7 +9077,7 @@
     </row>
     <row r="324" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A324" s="7"/>
-      <c r="B324" s="36"/>
+      <c r="B324" s="30"/>
       <c r="C324" s="3"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -9126,7 +9101,7 @@
     </row>
     <row r="325" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A325" s="7"/>
-      <c r="B325" s="36"/>
+      <c r="B325" s="30"/>
       <c r="C325" s="3"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -9150,7 +9125,7 @@
     </row>
     <row r="326" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A326" s="7"/>
-      <c r="B326" s="36"/>
+      <c r="B326" s="30"/>
       <c r="C326" s="3"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -9174,7 +9149,7 @@
     </row>
     <row r="327" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A327" s="7"/>
-      <c r="B327" s="36"/>
+      <c r="B327" s="30"/>
       <c r="C327" s="3"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -9198,7 +9173,7 @@
     </row>
     <row r="328" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A328" s="7"/>
-      <c r="B328" s="36"/>
+      <c r="B328" s="30"/>
       <c r="C328" s="3"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -9222,7 +9197,7 @@
     </row>
     <row r="329" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A329" s="7"/>
-      <c r="B329" s="36"/>
+      <c r="B329" s="30"/>
       <c r="C329" s="3"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -9246,7 +9221,7 @@
     </row>
     <row r="330" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A330" s="7"/>
-      <c r="B330" s="36"/>
+      <c r="B330" s="30"/>
       <c r="C330" s="3"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -9270,7 +9245,7 @@
     </row>
     <row r="331" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A331" s="7"/>
-      <c r="B331" s="36"/>
+      <c r="B331" s="30"/>
       <c r="C331" s="3"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -9294,7 +9269,7 @@
     </row>
     <row r="332" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A332" s="7"/>
-      <c r="B332" s="36"/>
+      <c r="B332" s="30"/>
       <c r="C332" s="3"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -9318,7 +9293,7 @@
     </row>
     <row r="333" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A333" s="7"/>
-      <c r="B333" s="36"/>
+      <c r="B333" s="30"/>
       <c r="C333" s="3"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -9342,7 +9317,7 @@
     </row>
     <row r="334" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A334" s="7"/>
-      <c r="B334" s="36"/>
+      <c r="B334" s="30"/>
       <c r="C334" s="3"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -9366,7 +9341,7 @@
     </row>
     <row r="335" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A335" s="7"/>
-      <c r="B335" s="36"/>
+      <c r="B335" s="30"/>
       <c r="C335" s="3"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -9390,7 +9365,7 @@
     </row>
     <row r="336" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A336" s="7"/>
-      <c r="B336" s="36"/>
+      <c r="B336" s="30"/>
       <c r="C336" s="3"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -9414,7 +9389,7 @@
     </row>
     <row r="337" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A337" s="7"/>
-      <c r="B337" s="36"/>
+      <c r="B337" s="30"/>
       <c r="C337" s="3"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -9438,7 +9413,7 @@
     </row>
     <row r="338" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A338" s="7"/>
-      <c r="B338" s="36"/>
+      <c r="B338" s="30"/>
       <c r="C338" s="3"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -9462,7 +9437,7 @@
     </row>
     <row r="339" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A339" s="7"/>
-      <c r="B339" s="36"/>
+      <c r="B339" s="30"/>
       <c r="C339" s="3"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -9486,7 +9461,7 @@
     </row>
     <row r="340" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A340" s="7"/>
-      <c r="B340" s="36"/>
+      <c r="B340" s="30"/>
       <c r="C340" s="3"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -9510,7 +9485,7 @@
     </row>
     <row r="341" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A341" s="7"/>
-      <c r="B341" s="36"/>
+      <c r="B341" s="30"/>
       <c r="C341" s="3"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -9534,7 +9509,7 @@
     </row>
     <row r="342" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A342" s="7"/>
-      <c r="B342" s="36"/>
+      <c r="B342" s="30"/>
       <c r="C342" s="3"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -9558,7 +9533,7 @@
     </row>
     <row r="343" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A343" s="7"/>
-      <c r="B343" s="36"/>
+      <c r="B343" s="30"/>
       <c r="C343" s="3"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -9582,7 +9557,7 @@
     </row>
     <row r="344" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A344" s="7"/>
-      <c r="B344" s="36"/>
+      <c r="B344" s="30"/>
       <c r="C344" s="3"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -9606,7 +9581,7 @@
     </row>
     <row r="345" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A345" s="7"/>
-      <c r="B345" s="36"/>
+      <c r="B345" s="30"/>
       <c r="C345" s="3"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -9630,7 +9605,7 @@
     </row>
     <row r="346" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A346" s="7"/>
-      <c r="B346" s="36"/>
+      <c r="B346" s="30"/>
       <c r="C346" s="3"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -9654,7 +9629,7 @@
     </row>
     <row r="347" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A347" s="7"/>
-      <c r="B347" s="36"/>
+      <c r="B347" s="30"/>
       <c r="C347" s="3"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -9678,7 +9653,7 @@
     </row>
     <row r="348" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A348" s="7"/>
-      <c r="B348" s="36"/>
+      <c r="B348" s="30"/>
       <c r="C348" s="3"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -9702,7 +9677,7 @@
     </row>
     <row r="349" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A349" s="7"/>
-      <c r="B349" s="36"/>
+      <c r="B349" s="30"/>
       <c r="C349" s="3"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -9726,7 +9701,7 @@
     </row>
     <row r="350" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A350" s="7"/>
-      <c r="B350" s="36"/>
+      <c r="B350" s="30"/>
       <c r="C350" s="3"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -9750,7 +9725,7 @@
     </row>
     <row r="351" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A351" s="7"/>
-      <c r="B351" s="36"/>
+      <c r="B351" s="30"/>
       <c r="C351" s="3"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -9774,7 +9749,7 @@
     </row>
     <row r="352" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A352" s="7"/>
-      <c r="B352" s="36"/>
+      <c r="B352" s="30"/>
       <c r="C352" s="3"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -9798,7 +9773,7 @@
     </row>
     <row r="353" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A353" s="7"/>
-      <c r="B353" s="36"/>
+      <c r="B353" s="30"/>
       <c r="C353" s="3"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -9822,7 +9797,7 @@
     </row>
     <row r="354" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A354" s="7"/>
-      <c r="B354" s="36"/>
+      <c r="B354" s="30"/>
       <c r="C354" s="3"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -9846,7 +9821,7 @@
     </row>
     <row r="355" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A355" s="7"/>
-      <c r="B355" s="36"/>
+      <c r="B355" s="30"/>
       <c r="C355" s="3"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -9870,7 +9845,7 @@
     </row>
     <row r="356" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A356" s="7"/>
-      <c r="B356" s="36"/>
+      <c r="B356" s="30"/>
       <c r="C356" s="3"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -9894,7 +9869,7 @@
     </row>
     <row r="357" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A357" s="7"/>
-      <c r="B357" s="36"/>
+      <c r="B357" s="30"/>
       <c r="C357" s="3"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -9918,7 +9893,7 @@
     </row>
     <row r="358" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A358" s="7"/>
-      <c r="B358" s="36"/>
+      <c r="B358" s="30"/>
       <c r="C358" s="3"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -9942,7 +9917,7 @@
     </row>
     <row r="359" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A359" s="7"/>
-      <c r="B359" s="36"/>
+      <c r="B359" s="30"/>
       <c r="C359" s="3"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -9966,7 +9941,7 @@
     </row>
     <row r="360" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A360" s="7"/>
-      <c r="B360" s="36"/>
+      <c r="B360" s="30"/>
       <c r="C360" s="3"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -9990,7 +9965,7 @@
     </row>
     <row r="361" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A361" s="7"/>
-      <c r="B361" s="36"/>
+      <c r="B361" s="30"/>
       <c r="C361" s="3"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -10014,7 +9989,7 @@
     </row>
     <row r="362" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A362" s="7"/>
-      <c r="B362" s="36"/>
+      <c r="B362" s="30"/>
       <c r="C362" s="3"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -10038,7 +10013,7 @@
     </row>
     <row r="363" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A363" s="7"/>
-      <c r="B363" s="36"/>
+      <c r="B363" s="30"/>
       <c r="C363" s="3"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -10062,7 +10037,7 @@
     </row>
     <row r="364" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A364" s="7"/>
-      <c r="B364" s="36"/>
+      <c r="B364" s="30"/>
       <c r="C364" s="3"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -10086,7 +10061,7 @@
     </row>
     <row r="365" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A365" s="7"/>
-      <c r="B365" s="36"/>
+      <c r="B365" s="30"/>
       <c r="C365" s="3"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -10110,7 +10085,7 @@
     </row>
     <row r="366" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A366" s="7"/>
-      <c r="B366" s="36"/>
+      <c r="B366" s="30"/>
       <c r="C366" s="3"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -10134,7 +10109,7 @@
     </row>
     <row r="367" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A367" s="7"/>
-      <c r="B367" s="36"/>
+      <c r="B367" s="30"/>
       <c r="C367" s="3"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -10158,7 +10133,7 @@
     </row>
     <row r="368" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A368" s="7"/>
-      <c r="B368" s="36"/>
+      <c r="B368" s="30"/>
       <c r="C368" s="3"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -10182,7 +10157,7 @@
     </row>
     <row r="369" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A369" s="7"/>
-      <c r="B369" s="36"/>
+      <c r="B369" s="30"/>
       <c r="C369" s="3"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -10206,7 +10181,7 @@
     </row>
     <row r="370" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A370" s="7"/>
-      <c r="B370" s="36"/>
+      <c r="B370" s="30"/>
       <c r="C370" s="3"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -10230,7 +10205,7 @@
     </row>
     <row r="371" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A371" s="7"/>
-      <c r="B371" s="36"/>
+      <c r="B371" s="30"/>
       <c r="C371" s="3"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -10254,7 +10229,7 @@
     </row>
     <row r="372" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A372" s="7"/>
-      <c r="B372" s="36"/>
+      <c r="B372" s="30"/>
       <c r="C372" s="3"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -10278,7 +10253,7 @@
     </row>
     <row r="373" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A373" s="7"/>
-      <c r="B373" s="36"/>
+      <c r="B373" s="30"/>
       <c r="C373" s="3"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -10302,7 +10277,7 @@
     </row>
     <row r="374" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A374" s="7"/>
-      <c r="B374" s="36"/>
+      <c r="B374" s="30"/>
       <c r="C374" s="3"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -10326,7 +10301,7 @@
     </row>
     <row r="375" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A375" s="7"/>
-      <c r="B375" s="36"/>
+      <c r="B375" s="30"/>
       <c r="C375" s="3"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -10350,7 +10325,7 @@
     </row>
     <row r="376" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A376" s="7"/>
-      <c r="B376" s="36"/>
+      <c r="B376" s="30"/>
       <c r="C376" s="3"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -10374,7 +10349,7 @@
     </row>
     <row r="377" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A377" s="7"/>
-      <c r="B377" s="36"/>
+      <c r="B377" s="30"/>
       <c r="C377" s="3"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -10398,7 +10373,7 @@
     </row>
     <row r="378" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A378" s="7"/>
-      <c r="B378" s="36"/>
+      <c r="B378" s="30"/>
       <c r="C378" s="3"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -10422,7 +10397,7 @@
     </row>
     <row r="379" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A379" s="7"/>
-      <c r="B379" s="36"/>
+      <c r="B379" s="30"/>
       <c r="C379" s="3"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -10446,7 +10421,7 @@
     </row>
     <row r="380" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A380" s="7"/>
-      <c r="B380" s="36"/>
+      <c r="B380" s="30"/>
       <c r="C380" s="3"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -10470,7 +10445,7 @@
     </row>
     <row r="381" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A381" s="7"/>
-      <c r="B381" s="36"/>
+      <c r="B381" s="30"/>
       <c r="C381" s="3"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -10494,7 +10469,7 @@
     </row>
     <row r="382" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A382" s="7"/>
-      <c r="B382" s="36"/>
+      <c r="B382" s="30"/>
       <c r="C382" s="3"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -10518,7 +10493,7 @@
     </row>
     <row r="383" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A383" s="7"/>
-      <c r="B383" s="36"/>
+      <c r="B383" s="30"/>
       <c r="C383" s="3"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -10542,7 +10517,7 @@
     </row>
     <row r="384" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A384" s="7"/>
-      <c r="B384" s="36"/>
+      <c r="B384" s="30"/>
       <c r="C384" s="3"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -10566,7 +10541,7 @@
     </row>
     <row r="385" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A385" s="7"/>
-      <c r="B385" s="36"/>
+      <c r="B385" s="30"/>
       <c r="C385" s="3"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -10590,7 +10565,7 @@
     </row>
     <row r="386" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A386" s="7"/>
-      <c r="B386" s="36"/>
+      <c r="B386" s="30"/>
       <c r="C386" s="3"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -10614,7 +10589,7 @@
     </row>
     <row r="387" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A387" s="7"/>
-      <c r="B387" s="36"/>
+      <c r="B387" s="30"/>
       <c r="C387" s="3"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -10638,7 +10613,7 @@
     </row>
     <row r="388" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A388" s="7"/>
-      <c r="B388" s="36"/>
+      <c r="B388" s="30"/>
       <c r="C388" s="3"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -10662,7 +10637,7 @@
     </row>
     <row r="389" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A389" s="7"/>
-      <c r="B389" s="36"/>
+      <c r="B389" s="30"/>
       <c r="C389" s="3"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -10686,7 +10661,7 @@
     </row>
     <row r="390" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A390" s="7"/>
-      <c r="B390" s="36"/>
+      <c r="B390" s="30"/>
       <c r="C390" s="3"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -10710,7 +10685,7 @@
     </row>
     <row r="391" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A391" s="7"/>
-      <c r="B391" s="36"/>
+      <c r="B391" s="30"/>
       <c r="C391" s="3"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -10734,7 +10709,7 @@
     </row>
     <row r="392" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A392" s="7"/>
-      <c r="B392" s="36"/>
+      <c r="B392" s="30"/>
       <c r="C392" s="3"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -10758,7 +10733,7 @@
     </row>
     <row r="393" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A393" s="7"/>
-      <c r="B393" s="36"/>
+      <c r="B393" s="30"/>
       <c r="C393" s="3"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -10782,7 +10757,7 @@
     </row>
     <row r="394" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A394" s="7"/>
-      <c r="B394" s="36"/>
+      <c r="B394" s="30"/>
       <c r="C394" s="3"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -10806,7 +10781,7 @@
     </row>
     <row r="395" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A395" s="7"/>
-      <c r="B395" s="36"/>
+      <c r="B395" s="30"/>
       <c r="C395" s="3"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -10830,7 +10805,7 @@
     </row>
     <row r="396" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A396" s="7"/>
-      <c r="B396" s="36"/>
+      <c r="B396" s="30"/>
       <c r="C396" s="3"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -10854,7 +10829,7 @@
     </row>
     <row r="397" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A397" s="7"/>
-      <c r="B397" s="36"/>
+      <c r="B397" s="30"/>
       <c r="C397" s="3"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -10878,7 +10853,7 @@
     </row>
     <row r="398" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A398" s="7"/>
-      <c r="B398" s="36"/>
+      <c r="B398" s="30"/>
       <c r="C398" s="3"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -10902,7 +10877,7 @@
     </row>
     <row r="399" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A399" s="7"/>
-      <c r="B399" s="36"/>
+      <c r="B399" s="30"/>
       <c r="C399" s="3"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -10926,7 +10901,7 @@
     </row>
     <row r="400" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A400" s="7"/>
-      <c r="B400" s="36"/>
+      <c r="B400" s="30"/>
       <c r="C400" s="3"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -10950,7 +10925,7 @@
     </row>
     <row r="401" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A401" s="7"/>
-      <c r="B401" s="36"/>
+      <c r="B401" s="30"/>
       <c r="C401" s="3"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -10974,7 +10949,7 @@
     </row>
     <row r="402" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A402" s="7"/>
-      <c r="B402" s="36"/>
+      <c r="B402" s="30"/>
       <c r="C402" s="3"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -10998,7 +10973,7 @@
     </row>
     <row r="403" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A403" s="7"/>
-      <c r="B403" s="36"/>
+      <c r="B403" s="30"/>
       <c r="C403" s="3"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -11022,7 +10997,7 @@
     </row>
     <row r="404" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A404" s="7"/>
-      <c r="B404" s="36"/>
+      <c r="B404" s="30"/>
       <c r="C404" s="3"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -11046,7 +11021,7 @@
     </row>
     <row r="405" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A405" s="7"/>
-      <c r="B405" s="36"/>
+      <c r="B405" s="30"/>
       <c r="C405" s="3"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -11070,7 +11045,7 @@
     </row>
     <row r="406" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A406" s="7"/>
-      <c r="B406" s="36"/>
+      <c r="B406" s="30"/>
       <c r="C406" s="3"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -11094,7 +11069,7 @@
     </row>
     <row r="407" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A407" s="7"/>
-      <c r="B407" s="36"/>
+      <c r="B407" s="30"/>
       <c r="C407" s="3"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -11118,7 +11093,7 @@
     </row>
     <row r="408" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A408" s="7"/>
-      <c r="B408" s="36"/>
+      <c r="B408" s="30"/>
       <c r="C408" s="3"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -11142,7 +11117,7 @@
     </row>
     <row r="409" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A409" s="7"/>
-      <c r="B409" s="36"/>
+      <c r="B409" s="30"/>
       <c r="C409" s="3"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -11166,7 +11141,7 @@
     </row>
     <row r="410" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A410" s="7"/>
-      <c r="B410" s="36"/>
+      <c r="B410" s="30"/>
       <c r="C410" s="3"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -11190,7 +11165,7 @@
     </row>
     <row r="411" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A411" s="7"/>
-      <c r="B411" s="36"/>
+      <c r="B411" s="30"/>
       <c r="C411" s="3"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -11214,7 +11189,7 @@
     </row>
     <row r="412" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A412" s="7"/>
-      <c r="B412" s="36"/>
+      <c r="B412" s="30"/>
       <c r="C412" s="3"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -11238,7 +11213,7 @@
     </row>
     <row r="413" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A413" s="7"/>
-      <c r="B413" s="36"/>
+      <c r="B413" s="30"/>
       <c r="C413" s="3"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -11262,7 +11237,7 @@
     </row>
     <row r="414" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A414" s="7"/>
-      <c r="B414" s="36"/>
+      <c r="B414" s="30"/>
       <c r="C414" s="3"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -11286,7 +11261,7 @@
     </row>
     <row r="415" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A415" s="7"/>
-      <c r="B415" s="36"/>
+      <c r="B415" s="30"/>
       <c r="C415" s="3"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -11310,7 +11285,7 @@
     </row>
     <row r="416" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A416" s="7"/>
-      <c r="B416" s="36"/>
+      <c r="B416" s="30"/>
       <c r="C416" s="3"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -11334,7 +11309,7 @@
     </row>
     <row r="417" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A417" s="7"/>
-      <c r="B417" s="36"/>
+      <c r="B417" s="30"/>
       <c r="C417" s="3"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -11358,7 +11333,7 @@
     </row>
     <row r="418" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A418" s="7"/>
-      <c r="B418" s="36"/>
+      <c r="B418" s="30"/>
       <c r="C418" s="3"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -11382,7 +11357,7 @@
     </row>
     <row r="419" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A419" s="7"/>
-      <c r="B419" s="36"/>
+      <c r="B419" s="30"/>
       <c r="C419" s="3"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -11406,7 +11381,7 @@
     </row>
     <row r="420" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A420" s="7"/>
-      <c r="B420" s="36"/>
+      <c r="B420" s="30"/>
       <c r="C420" s="3"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -11430,7 +11405,7 @@
     </row>
     <row r="421" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A421" s="7"/>
-      <c r="B421" s="36"/>
+      <c r="B421" s="30"/>
       <c r="C421" s="3"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -11454,7 +11429,7 @@
     </row>
     <row r="422" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A422" s="7"/>
-      <c r="B422" s="36"/>
+      <c r="B422" s="30"/>
       <c r="C422" s="3"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -11478,7 +11453,7 @@
     </row>
     <row r="423" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A423" s="7"/>
-      <c r="B423" s="36"/>
+      <c r="B423" s="30"/>
       <c r="C423" s="3"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -11502,7 +11477,7 @@
     </row>
     <row r="424" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A424" s="7"/>
-      <c r="B424" s="36"/>
+      <c r="B424" s="30"/>
       <c r="C424" s="3"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -11526,7 +11501,7 @@
     </row>
     <row r="425" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A425" s="7"/>
-      <c r="B425" s="36"/>
+      <c r="B425" s="30"/>
       <c r="C425" s="3"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -11550,7 +11525,7 @@
     </row>
     <row r="426" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A426" s="7"/>
-      <c r="B426" s="36"/>
+      <c r="B426" s="30"/>
       <c r="C426" s="3"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -11574,7 +11549,7 @@
     </row>
     <row r="427" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A427" s="7"/>
-      <c r="B427" s="36"/>
+      <c r="B427" s="30"/>
       <c r="C427" s="3"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -11598,7 +11573,7 @@
     </row>
     <row r="428" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A428" s="7"/>
-      <c r="B428" s="36"/>
+      <c r="B428" s="30"/>
       <c r="C428" s="3"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -11622,7 +11597,7 @@
     </row>
     <row r="429" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A429" s="7"/>
-      <c r="B429" s="36"/>
+      <c r="B429" s="30"/>
       <c r="C429" s="3"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -11646,7 +11621,7 @@
     </row>
     <row r="430" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A430" s="7"/>
-      <c r="B430" s="36"/>
+      <c r="B430" s="30"/>
       <c r="C430" s="3"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -11670,7 +11645,7 @@
     </row>
     <row r="431" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A431" s="7"/>
-      <c r="B431" s="36"/>
+      <c r="B431" s="30"/>
       <c r="C431" s="3"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -11694,7 +11669,7 @@
     </row>
     <row r="432" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A432" s="7"/>
-      <c r="B432" s="36"/>
+      <c r="B432" s="30"/>
       <c r="C432" s="3"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -11718,7 +11693,7 @@
     </row>
     <row r="433" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A433" s="7"/>
-      <c r="B433" s="36"/>
+      <c r="B433" s="30"/>
       <c r="C433" s="3"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -11742,7 +11717,7 @@
     </row>
     <row r="434" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A434" s="7"/>
-      <c r="B434" s="36"/>
+      <c r="B434" s="30"/>
       <c r="C434" s="3"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -11766,7 +11741,7 @@
     </row>
     <row r="435" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A435" s="7"/>
-      <c r="B435" s="36"/>
+      <c r="B435" s="30"/>
       <c r="C435" s="3"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -11790,7 +11765,7 @@
     </row>
     <row r="436" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A436" s="7"/>
-      <c r="B436" s="36"/>
+      <c r="B436" s="30"/>
       <c r="C436" s="3"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -11814,7 +11789,7 @@
     </row>
     <row r="437" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A437" s="7"/>
-      <c r="B437" s="36"/>
+      <c r="B437" s="30"/>
       <c r="C437" s="3"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -11838,7 +11813,7 @@
     </row>
     <row r="438" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A438" s="7"/>
-      <c r="B438" s="36"/>
+      <c r="B438" s="30"/>
       <c r="C438" s="3"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -11862,7 +11837,7 @@
     </row>
     <row r="439" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A439" s="7"/>
-      <c r="B439" s="36"/>
+      <c r="B439" s="30"/>
       <c r="C439" s="3"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -11886,7 +11861,7 @@
     </row>
     <row r="440" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A440" s="7"/>
-      <c r="B440" s="36"/>
+      <c r="B440" s="30"/>
       <c r="C440" s="3"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -11910,7 +11885,7 @@
     </row>
     <row r="441" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A441" s="7"/>
-      <c r="B441" s="36"/>
+      <c r="B441" s="30"/>
       <c r="C441" s="3"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -11934,7 +11909,7 @@
     </row>
     <row r="442" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A442" s="7"/>
-      <c r="B442" s="36"/>
+      <c r="B442" s="30"/>
       <c r="C442" s="3"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -11958,7 +11933,7 @@
     </row>
     <row r="443" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A443" s="7"/>
-      <c r="B443" s="36"/>
+      <c r="B443" s="30"/>
       <c r="C443" s="3"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -11982,7 +11957,7 @@
     </row>
     <row r="444" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A444" s="7"/>
-      <c r="B444" s="36"/>
+      <c r="B444" s="30"/>
       <c r="C444" s="3"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -12006,7 +11981,7 @@
     </row>
     <row r="445" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A445" s="7"/>
-      <c r="B445" s="36"/>
+      <c r="B445" s="30"/>
       <c r="C445" s="3"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -12030,7 +12005,7 @@
     </row>
     <row r="446" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A446" s="7"/>
-      <c r="B446" s="36"/>
+      <c r="B446" s="30"/>
       <c r="C446" s="3"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -12054,7 +12029,7 @@
     </row>
     <row r="447" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A447" s="7"/>
-      <c r="B447" s="36"/>
+      <c r="B447" s="30"/>
       <c r="C447" s="3"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -12078,7 +12053,7 @@
     </row>
     <row r="448" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A448" s="7"/>
-      <c r="B448" s="36"/>
+      <c r="B448" s="30"/>
       <c r="C448" s="3"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -12102,7 +12077,7 @@
     </row>
     <row r="449" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A449" s="7"/>
-      <c r="B449" s="36"/>
+      <c r="B449" s="30"/>
       <c r="C449" s="3"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -12126,7 +12101,7 @@
     </row>
     <row r="450" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A450" s="7"/>
-      <c r="B450" s="36"/>
+      <c r="B450" s="30"/>
       <c r="C450" s="3"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -12150,7 +12125,7 @@
     </row>
     <row r="451" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A451" s="7"/>
-      <c r="B451" s="36"/>
+      <c r="B451" s="30"/>
       <c r="C451" s="3"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -12174,7 +12149,7 @@
     </row>
     <row r="452" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A452" s="7"/>
-      <c r="B452" s="36"/>
+      <c r="B452" s="30"/>
       <c r="C452" s="3"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -12198,7 +12173,7 @@
     </row>
     <row r="453" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A453" s="7"/>
-      <c r="B453" s="36"/>
+      <c r="B453" s="30"/>
       <c r="C453" s="3"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -12222,7 +12197,7 @@
     </row>
     <row r="454" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A454" s="7"/>
-      <c r="B454" s="36"/>
+      <c r="B454" s="30"/>
       <c r="C454" s="3"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -12246,7 +12221,7 @@
     </row>
     <row r="455" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A455" s="7"/>
-      <c r="B455" s="36"/>
+      <c r="B455" s="30"/>
       <c r="C455" s="3"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -12270,7 +12245,7 @@
     </row>
     <row r="456" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A456" s="7"/>
-      <c r="B456" s="36"/>
+      <c r="B456" s="30"/>
       <c r="C456" s="3"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -12294,7 +12269,7 @@
     </row>
     <row r="457" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A457" s="7"/>
-      <c r="B457" s="36"/>
+      <c r="B457" s="30"/>
       <c r="C457" s="3"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -12318,7 +12293,7 @@
     </row>
     <row r="458" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A458" s="7"/>
-      <c r="B458" s="36"/>
+      <c r="B458" s="30"/>
       <c r="C458" s="3"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -12342,7 +12317,7 @@
     </row>
     <row r="459" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A459" s="7"/>
-      <c r="B459" s="36"/>
+      <c r="B459" s="30"/>
       <c r="C459" s="3"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -12366,7 +12341,7 @@
     </row>
     <row r="460" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A460" s="7"/>
-      <c r="B460" s="36"/>
+      <c r="B460" s="30"/>
       <c r="C460" s="3"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -12390,7 +12365,7 @@
     </row>
     <row r="461" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A461" s="7"/>
-      <c r="B461" s="36"/>
+      <c r="B461" s="30"/>
       <c r="C461" s="3"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -12414,7 +12389,7 @@
     </row>
     <row r="462" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A462" s="7"/>
-      <c r="B462" s="36"/>
+      <c r="B462" s="30"/>
       <c r="C462" s="3"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -12438,7 +12413,7 @@
     </row>
     <row r="463" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A463" s="7"/>
-      <c r="B463" s="36"/>
+      <c r="B463" s="30"/>
       <c r="C463" s="3"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -12462,7 +12437,7 @@
     </row>
     <row r="464" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A464" s="7"/>
-      <c r="B464" s="36"/>
+      <c r="B464" s="30"/>
       <c r="C464" s="3"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -12486,7 +12461,7 @@
     </row>
     <row r="465" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A465" s="7"/>
-      <c r="B465" s="36"/>
+      <c r="B465" s="30"/>
       <c r="C465" s="3"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -12510,7 +12485,7 @@
     </row>
     <row r="466" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A466" s="7"/>
-      <c r="B466" s="36"/>
+      <c r="B466" s="30"/>
       <c r="C466" s="3"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -12534,7 +12509,7 @@
     </row>
     <row r="467" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A467" s="7"/>
-      <c r="B467" s="36"/>
+      <c r="B467" s="30"/>
       <c r="C467" s="3"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -12558,7 +12533,7 @@
     </row>
     <row r="468" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A468" s="7"/>
-      <c r="B468" s="36"/>
+      <c r="B468" s="30"/>
       <c r="C468" s="3"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -12582,7 +12557,7 @@
     </row>
     <row r="469" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A469" s="7"/>
-      <c r="B469" s="36"/>
+      <c r="B469" s="30"/>
       <c r="C469" s="3"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -12606,7 +12581,7 @@
     </row>
     <row r="470" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A470" s="7"/>
-      <c r="B470" s="36"/>
+      <c r="B470" s="30"/>
       <c r="C470" s="3"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -12630,7 +12605,7 @@
     </row>
     <row r="471" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A471" s="7"/>
-      <c r="B471" s="36"/>
+      <c r="B471" s="30"/>
       <c r="C471" s="3"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -12654,7 +12629,7 @@
     </row>
     <row r="472" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A472" s="7"/>
-      <c r="B472" s="36"/>
+      <c r="B472" s="30"/>
       <c r="C472" s="3"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -12678,7 +12653,7 @@
     </row>
     <row r="473" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A473" s="7"/>
-      <c r="B473" s="36"/>
+      <c r="B473" s="30"/>
       <c r="C473" s="3"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -12702,7 +12677,7 @@
     </row>
     <row r="474" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A474" s="7"/>
-      <c r="B474" s="36"/>
+      <c r="B474" s="30"/>
       <c r="C474" s="3"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -12726,7 +12701,7 @@
     </row>
     <row r="475" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A475" s="7"/>
-      <c r="B475" s="36"/>
+      <c r="B475" s="30"/>
       <c r="C475" s="3"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -12750,7 +12725,7 @@
     </row>
     <row r="476" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A476" s="7"/>
-      <c r="B476" s="36"/>
+      <c r="B476" s="30"/>
       <c r="C476" s="3"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -12774,7 +12749,7 @@
     </row>
     <row r="477" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A477" s="7"/>
-      <c r="B477" s="36"/>
+      <c r="B477" s="30"/>
       <c r="C477" s="3"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -12798,7 +12773,7 @@
     </row>
     <row r="478" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A478" s="7"/>
-      <c r="B478" s="36"/>
+      <c r="B478" s="30"/>
       <c r="C478" s="3"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -12822,7 +12797,7 @@
     </row>
     <row r="479" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A479" s="7"/>
-      <c r="B479" s="36"/>
+      <c r="B479" s="30"/>
       <c r="C479" s="3"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -12846,7 +12821,7 @@
     </row>
     <row r="480" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A480" s="7"/>
-      <c r="B480" s="36"/>
+      <c r="B480" s="30"/>
       <c r="C480" s="3"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -12870,7 +12845,7 @@
     </row>
     <row r="481" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A481" s="7"/>
-      <c r="B481" s="36"/>
+      <c r="B481" s="30"/>
       <c r="C481" s="3"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -12894,7 +12869,7 @@
     </row>
     <row r="482" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A482" s="7"/>
-      <c r="B482" s="36"/>
+      <c r="B482" s="30"/>
       <c r="C482" s="3"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -12918,7 +12893,7 @@
     </row>
     <row r="483" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A483" s="7"/>
-      <c r="B483" s="36"/>
+      <c r="B483" s="30"/>
       <c r="C483" s="3"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -12942,7 +12917,7 @@
     </row>
     <row r="484" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A484" s="7"/>
-      <c r="B484" s="36"/>
+      <c r="B484" s="30"/>
       <c r="C484" s="3"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -12966,7 +12941,7 @@
     </row>
     <row r="485" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A485" s="7"/>
-      <c r="B485" s="36"/>
+      <c r="B485" s="30"/>
       <c r="C485" s="3"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -12990,7 +12965,7 @@
     </row>
     <row r="486" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A486" s="7"/>
-      <c r="B486" s="36"/>
+      <c r="B486" s="30"/>
       <c r="C486" s="3"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -13014,7 +12989,7 @@
     </row>
     <row r="487" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A487" s="7"/>
-      <c r="B487" s="36"/>
+      <c r="B487" s="30"/>
       <c r="C487" s="3"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -13038,7 +13013,7 @@
     </row>
     <row r="488" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A488" s="7"/>
-      <c r="B488" s="36"/>
+      <c r="B488" s="30"/>
       <c r="C488" s="3"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -13062,7 +13037,7 @@
     </row>
     <row r="489" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A489" s="7"/>
-      <c r="B489" s="36"/>
+      <c r="B489" s="30"/>
       <c r="C489" s="3"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -13086,7 +13061,7 @@
     </row>
     <row r="490" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A490" s="7"/>
-      <c r="B490" s="36"/>
+      <c r="B490" s="30"/>
       <c r="C490" s="3"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -13110,7 +13085,7 @@
     </row>
     <row r="491" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A491" s="7"/>
-      <c r="B491" s="36"/>
+      <c r="B491" s="30"/>
       <c r="C491" s="3"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -13134,7 +13109,7 @@
     </row>
     <row r="492" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A492" s="7"/>
-      <c r="B492" s="36"/>
+      <c r="B492" s="30"/>
       <c r="C492" s="3"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -13158,7 +13133,7 @@
     </row>
     <row r="493" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A493" s="7"/>
-      <c r="B493" s="36"/>
+      <c r="B493" s="30"/>
       <c r="C493" s="3"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -13182,7 +13157,7 @@
     </row>
     <row r="494" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A494" s="7"/>
-      <c r="B494" s="36"/>
+      <c r="B494" s="30"/>
       <c r="C494" s="3"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -13206,7 +13181,7 @@
     </row>
     <row r="495" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A495" s="7"/>
-      <c r="B495" s="36"/>
+      <c r="B495" s="30"/>
       <c r="C495" s="3"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -13230,7 +13205,7 @@
     </row>
     <row r="496" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A496" s="7"/>
-      <c r="B496" s="36"/>
+      <c r="B496" s="30"/>
       <c r="C496" s="3"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -13254,7 +13229,7 @@
     </row>
     <row r="497" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A497" s="7"/>
-      <c r="B497" s="36"/>
+      <c r="B497" s="30"/>
       <c r="C497" s="3"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -13278,7 +13253,7 @@
     </row>
     <row r="498" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A498" s="7"/>
-      <c r="B498" s="36"/>
+      <c r="B498" s="30"/>
       <c r="C498" s="3"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -13302,7 +13277,7 @@
     </row>
     <row r="499" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A499" s="7"/>
-      <c r="B499" s="36"/>
+      <c r="B499" s="30"/>
       <c r="C499" s="3"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -13326,7 +13301,7 @@
     </row>
     <row r="500" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A500" s="7"/>
-      <c r="B500" s="36"/>
+      <c r="B500" s="30"/>
       <c r="C500" s="3"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -13350,7 +13325,7 @@
     </row>
     <row r="501" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A501" s="7"/>
-      <c r="B501" s="36"/>
+      <c r="B501" s="30"/>
       <c r="C501" s="3"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -13374,7 +13349,7 @@
     </row>
     <row r="502" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A502" s="7"/>
-      <c r="B502" s="36"/>
+      <c r="B502" s="30"/>
       <c r="C502" s="3"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -13398,7 +13373,7 @@
     </row>
     <row r="503" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A503" s="7"/>
-      <c r="B503" s="36"/>
+      <c r="B503" s="30"/>
       <c r="C503" s="3"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -13422,7 +13397,7 @@
     </row>
     <row r="504" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A504" s="7"/>
-      <c r="B504" s="36"/>
+      <c r="B504" s="30"/>
       <c r="C504" s="3"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -13446,7 +13421,7 @@
     </row>
     <row r="505" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A505" s="7"/>
-      <c r="B505" s="36"/>
+      <c r="B505" s="30"/>
       <c r="C505" s="3"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -13470,7 +13445,7 @@
     </row>
     <row r="506" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A506" s="7"/>
-      <c r="B506" s="36"/>
+      <c r="B506" s="30"/>
       <c r="C506" s="3"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -13494,7 +13469,7 @@
     </row>
     <row r="507" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A507" s="7"/>
-      <c r="B507" s="36"/>
+      <c r="B507" s="30"/>
       <c r="C507" s="3"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -13518,7 +13493,7 @@
     </row>
     <row r="508" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A508" s="7"/>
-      <c r="B508" s="36"/>
+      <c r="B508" s="30"/>
       <c r="C508" s="3"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -13542,7 +13517,7 @@
     </row>
     <row r="509" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A509" s="7"/>
-      <c r="B509" s="36"/>
+      <c r="B509" s="30"/>
       <c r="C509" s="3"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -13566,7 +13541,7 @@
     </row>
     <row r="510" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A510" s="7"/>
-      <c r="B510" s="36"/>
+      <c r="B510" s="30"/>
       <c r="C510" s="3"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -13590,7 +13565,7 @@
     </row>
     <row r="511" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A511" s="7"/>
-      <c r="B511" s="36"/>
+      <c r="B511" s="30"/>
       <c r="C511" s="3"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -13614,7 +13589,7 @@
     </row>
     <row r="512" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A512" s="7"/>
-      <c r="B512" s="36"/>
+      <c r="B512" s="30"/>
       <c r="C512" s="3"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -13638,7 +13613,7 @@
     </row>
     <row r="513" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A513" s="7"/>
-      <c r="B513" s="36"/>
+      <c r="B513" s="30"/>
       <c r="C513" s="3"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -13662,7 +13637,7 @@
     </row>
     <row r="514" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A514" s="7"/>
-      <c r="B514" s="36"/>
+      <c r="B514" s="30"/>
       <c r="C514" s="3"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -13686,7 +13661,7 @@
     </row>
     <row r="515" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A515" s="7"/>
-      <c r="B515" s="36"/>
+      <c r="B515" s="30"/>
       <c r="C515" s="3"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -13710,7 +13685,7 @@
     </row>
     <row r="516" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A516" s="7"/>
-      <c r="B516" s="36"/>
+      <c r="B516" s="30"/>
       <c r="C516" s="3"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -13734,7 +13709,7 @@
     </row>
     <row r="517" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A517" s="7"/>
-      <c r="B517" s="36"/>
+      <c r="B517" s="30"/>
       <c r="C517" s="3"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -13758,7 +13733,7 @@
     </row>
     <row r="518" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A518" s="7"/>
-      <c r="B518" s="36"/>
+      <c r="B518" s="30"/>
       <c r="C518" s="3"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -13782,7 +13757,7 @@
     </row>
     <row r="519" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A519" s="7"/>
-      <c r="B519" s="36"/>
+      <c r="B519" s="30"/>
       <c r="C519" s="3"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -13806,7 +13781,7 @@
     </row>
     <row r="520" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A520" s="7"/>
-      <c r="B520" s="36"/>
+      <c r="B520" s="30"/>
       <c r="C520" s="3"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -13830,7 +13805,7 @@
     </row>
     <row r="521" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A521" s="7"/>
-      <c r="B521" s="36"/>
+      <c r="B521" s="30"/>
       <c r="C521" s="3"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -13854,7 +13829,7 @@
     </row>
     <row r="522" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A522" s="7"/>
-      <c r="B522" s="36"/>
+      <c r="B522" s="30"/>
       <c r="C522" s="3"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -13878,7 +13853,7 @@
     </row>
     <row r="523" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A523" s="7"/>
-      <c r="B523" s="36"/>
+      <c r="B523" s="30"/>
       <c r="C523" s="3"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -13902,7 +13877,7 @@
     </row>
     <row r="524" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A524" s="7"/>
-      <c r="B524" s="36"/>
+      <c r="B524" s="30"/>
       <c r="C524" s="3"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -13926,7 +13901,7 @@
     </row>
     <row r="525" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A525" s="7"/>
-      <c r="B525" s="36"/>
+      <c r="B525" s="30"/>
       <c r="C525" s="3"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -13950,7 +13925,7 @@
     </row>
     <row r="526" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A526" s="7"/>
-      <c r="B526" s="36"/>
+      <c r="B526" s="30"/>
       <c r="C526" s="3"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -13974,7 +13949,7 @@
     </row>
     <row r="527" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A527" s="7"/>
-      <c r="B527" s="36"/>
+      <c r="B527" s="30"/>
       <c r="C527" s="3"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -13998,7 +13973,7 @@
     </row>
     <row r="528" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A528" s="7"/>
-      <c r="B528" s="36"/>
+      <c r="B528" s="30"/>
       <c r="C528" s="3"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -14022,7 +13997,7 @@
     </row>
     <row r="529" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A529" s="7"/>
-      <c r="B529" s="36"/>
+      <c r="B529" s="30"/>
       <c r="C529" s="3"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -14046,7 +14021,7 @@
     </row>
     <row r="530" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A530" s="7"/>
-      <c r="B530" s="36"/>
+      <c r="B530" s="30"/>
       <c r="C530" s="3"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -14070,7 +14045,7 @@
     </row>
     <row r="531" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A531" s="7"/>
-      <c r="B531" s="36"/>
+      <c r="B531" s="30"/>
       <c r="C531" s="3"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -14094,7 +14069,7 @@
     </row>
     <row r="532" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A532" s="7"/>
-      <c r="B532" s="36"/>
+      <c r="B532" s="30"/>
       <c r="C532" s="3"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -14118,7 +14093,7 @@
     </row>
     <row r="533" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A533" s="7"/>
-      <c r="B533" s="36"/>
+      <c r="B533" s="30"/>
       <c r="C533" s="3"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -14142,7 +14117,7 @@
     </row>
     <row r="534" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A534" s="7"/>
-      <c r="B534" s="36"/>
+      <c r="B534" s="30"/>
       <c r="C534" s="3"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -14166,7 +14141,7 @@
     </row>
     <row r="535" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A535" s="7"/>
-      <c r="B535" s="36"/>
+      <c r="B535" s="30"/>
       <c r="C535" s="3"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -14190,7 +14165,7 @@
     </row>
     <row r="536" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A536" s="7"/>
-      <c r="B536" s="36"/>
+      <c r="B536" s="30"/>
       <c r="C536" s="3"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -14214,7 +14189,7 @@
     </row>
     <row r="537" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A537" s="7"/>
-      <c r="B537" s="36"/>
+      <c r="B537" s="30"/>
       <c r="C537" s="3"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -14238,7 +14213,7 @@
     </row>
     <row r="538" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A538" s="7"/>
-      <c r="B538" s="36"/>
+      <c r="B538" s="30"/>
       <c r="C538" s="3"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -14262,7 +14237,7 @@
     </row>
     <row r="539" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A539" s="7"/>
-      <c r="B539" s="36"/>
+      <c r="B539" s="30"/>
       <c r="C539" s="3"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -14286,7 +14261,7 @@
     </row>
     <row r="540" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A540" s="7"/>
-      <c r="B540" s="36"/>
+      <c r="B540" s="30"/>
       <c r="C540" s="3"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -14310,7 +14285,7 @@
     </row>
     <row r="541" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A541" s="7"/>
-      <c r="B541" s="36"/>
+      <c r="B541" s="30"/>
       <c r="C541" s="3"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -14334,7 +14309,7 @@
     </row>
     <row r="542" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A542" s="7"/>
-      <c r="B542" s="36"/>
+      <c r="B542" s="30"/>
       <c r="C542" s="3"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -14358,7 +14333,7 @@
     </row>
     <row r="543" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A543" s="7"/>
-      <c r="B543" s="36"/>
+      <c r="B543" s="30"/>
       <c r="C543" s="3"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -14382,7 +14357,7 @@
     </row>
     <row r="544" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A544" s="7"/>
-      <c r="B544" s="36"/>
+      <c r="B544" s="30"/>
       <c r="C544" s="3"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -14406,7 +14381,7 @@
     </row>
     <row r="545" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A545" s="7"/>
-      <c r="B545" s="36"/>
+      <c r="B545" s="30"/>
       <c r="C545" s="3"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -14430,7 +14405,7 @@
     </row>
     <row r="546" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A546" s="7"/>
-      <c r="B546" s="36"/>
+      <c r="B546" s="30"/>
       <c r="C546" s="3"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -14454,7 +14429,7 @@
     </row>
     <row r="547" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A547" s="7"/>
-      <c r="B547" s="36"/>
+      <c r="B547" s="30"/>
       <c r="C547" s="3"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -14478,7 +14453,7 @@
     </row>
     <row r="548" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A548" s="7"/>
-      <c r="B548" s="36"/>
+      <c r="B548" s="30"/>
       <c r="C548" s="3"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -14502,7 +14477,7 @@
     </row>
     <row r="549" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A549" s="7"/>
-      <c r="B549" s="36"/>
+      <c r="B549" s="30"/>
       <c r="C549" s="3"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -14526,7 +14501,7 @@
     </row>
     <row r="550" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A550" s="7"/>
-      <c r="B550" s="36"/>
+      <c r="B550" s="30"/>
       <c r="C550" s="3"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -14550,7 +14525,7 @@
     </row>
     <row r="551" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A551" s="7"/>
-      <c r="B551" s="36"/>
+      <c r="B551" s="30"/>
       <c r="C551" s="3"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -14574,7 +14549,7 @@
     </row>
     <row r="552" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A552" s="7"/>
-      <c r="B552" s="36"/>
+      <c r="B552" s="30"/>
       <c r="C552" s="3"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -14598,7 +14573,7 @@
     </row>
     <row r="553" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A553" s="7"/>
-      <c r="B553" s="36"/>
+      <c r="B553" s="30"/>
       <c r="C553" s="3"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -14622,7 +14597,7 @@
     </row>
     <row r="554" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A554" s="7"/>
-      <c r="B554" s="36"/>
+      <c r="B554" s="30"/>
       <c r="C554" s="3"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -14646,7 +14621,7 @@
     </row>
     <row r="555" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A555" s="7"/>
-      <c r="B555" s="36"/>
+      <c r="B555" s="30"/>
       <c r="C555" s="3"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -14670,7 +14645,7 @@
     </row>
     <row r="556" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A556" s="7"/>
-      <c r="B556" s="36"/>
+      <c r="B556" s="30"/>
       <c r="C556" s="3"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -14694,7 +14669,7 @@
     </row>
     <row r="557" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A557" s="7"/>
-      <c r="B557" s="36"/>
+      <c r="B557" s="30"/>
       <c r="C557" s="3"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -14718,7 +14693,7 @@
     </row>
     <row r="558" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A558" s="7"/>
-      <c r="B558" s="36"/>
+      <c r="B558" s="30"/>
       <c r="C558" s="3"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -14742,7 +14717,7 @@
     </row>
     <row r="559" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A559" s="7"/>
-      <c r="B559" s="36"/>
+      <c r="B559" s="30"/>
       <c r="C559" s="3"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -14766,7 +14741,7 @@
     </row>
     <row r="560" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A560" s="7"/>
-      <c r="B560" s="36"/>
+      <c r="B560" s="30"/>
       <c r="C560" s="3"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -14790,7 +14765,7 @@
     </row>
     <row r="561" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A561" s="7"/>
-      <c r="B561" s="36"/>
+      <c r="B561" s="30"/>
       <c r="C561" s="3"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -14814,7 +14789,7 @@
     </row>
     <row r="562" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A562" s="7"/>
-      <c r="B562" s="36"/>
+      <c r="B562" s="30"/>
       <c r="C562" s="3"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -14838,7 +14813,7 @@
     </row>
     <row r="563" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A563" s="7"/>
-      <c r="B563" s="36"/>
+      <c r="B563" s="30"/>
       <c r="C563" s="3"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -14862,7 +14837,7 @@
     </row>
     <row r="564" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A564" s="7"/>
-      <c r="B564" s="36"/>
+      <c r="B564" s="30"/>
       <c r="C564" s="3"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -14886,7 +14861,7 @@
     </row>
     <row r="565" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A565" s="7"/>
-      <c r="B565" s="36"/>
+      <c r="B565" s="30"/>
       <c r="C565" s="3"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -14910,7 +14885,7 @@
     </row>
     <row r="566" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A566" s="7"/>
-      <c r="B566" s="36"/>
+      <c r="B566" s="30"/>
       <c r="C566" s="3"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -14934,7 +14909,7 @@
     </row>
     <row r="567" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A567" s="7"/>
-      <c r="B567" s="36"/>
+      <c r="B567" s="30"/>
       <c r="C567" s="3"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -14958,7 +14933,7 @@
     </row>
     <row r="568" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A568" s="7"/>
-      <c r="B568" s="36"/>
+      <c r="B568" s="30"/>
       <c r="C568" s="3"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -14982,7 +14957,7 @@
     </row>
     <row r="569" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A569" s="7"/>
-      <c r="B569" s="36"/>
+      <c r="B569" s="30"/>
       <c r="C569" s="3"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -15006,7 +14981,7 @@
     </row>
     <row r="570" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A570" s="7"/>
-      <c r="B570" s="36"/>
+      <c r="B570" s="30"/>
       <c r="C570" s="3"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -15030,7 +15005,7 @@
     </row>
     <row r="571" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A571" s="7"/>
-      <c r="B571" s="36"/>
+      <c r="B571" s="30"/>
       <c r="C571" s="3"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -15054,7 +15029,7 @@
     </row>
     <row r="572" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A572" s="7"/>
-      <c r="B572" s="36"/>
+      <c r="B572" s="30"/>
       <c r="C572" s="3"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -15078,7 +15053,7 @@
     </row>
     <row r="573" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A573" s="7"/>
-      <c r="B573" s="36"/>
+      <c r="B573" s="30"/>
       <c r="C573" s="3"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -15102,7 +15077,7 @@
     </row>
     <row r="574" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A574" s="7"/>
-      <c r="B574" s="36"/>
+      <c r="B574" s="30"/>
       <c r="C574" s="3"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -15126,7 +15101,7 @@
     </row>
     <row r="575" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A575" s="7"/>
-      <c r="B575" s="36"/>
+      <c r="B575" s="30"/>
       <c r="C575" s="3"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -15150,7 +15125,7 @@
     </row>
     <row r="576" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A576" s="7"/>
-      <c r="B576" s="36"/>
+      <c r="B576" s="30"/>
       <c r="C576" s="3"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -15174,7 +15149,7 @@
     </row>
     <row r="577" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A577" s="7"/>
-      <c r="B577" s="36"/>
+      <c r="B577" s="30"/>
       <c r="C577" s="3"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -15198,7 +15173,7 @@
     </row>
     <row r="578" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A578" s="7"/>
-      <c r="B578" s="36"/>
+      <c r="B578" s="30"/>
       <c r="C578" s="3"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -15222,7 +15197,7 @@
     </row>
     <row r="579" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A579" s="7"/>
-      <c r="B579" s="36"/>
+      <c r="B579" s="30"/>
       <c r="C579" s="3"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -15246,7 +15221,7 @@
     </row>
     <row r="580" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A580" s="7"/>
-      <c r="B580" s="36"/>
+      <c r="B580" s="30"/>
       <c r="C580" s="3"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -15270,7 +15245,7 @@
     </row>
     <row r="581" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A581" s="7"/>
-      <c r="B581" s="36"/>
+      <c r="B581" s="30"/>
       <c r="C581" s="3"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -15294,7 +15269,7 @@
     </row>
     <row r="582" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A582" s="7"/>
-      <c r="B582" s="36"/>
+      <c r="B582" s="30"/>
       <c r="C582" s="3"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -15318,7 +15293,7 @@
     </row>
     <row r="583" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A583" s="7"/>
-      <c r="B583" s="36"/>
+      <c r="B583" s="30"/>
       <c r="C583" s="3"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -15342,7 +15317,7 @@
     </row>
     <row r="584" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A584" s="7"/>
-      <c r="B584" s="36"/>
+      <c r="B584" s="30"/>
       <c r="C584" s="3"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -15366,7 +15341,7 @@
     </row>
     <row r="585" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A585" s="7"/>
-      <c r="B585" s="36"/>
+      <c r="B585" s="30"/>
       <c r="C585" s="3"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -15390,7 +15365,7 @@
     </row>
     <row r="586" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A586" s="7"/>
-      <c r="B586" s="36"/>
+      <c r="B586" s="30"/>
       <c r="C586" s="3"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -15414,7 +15389,7 @@
     </row>
     <row r="587" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A587" s="7"/>
-      <c r="B587" s="36"/>
+      <c r="B587" s="30"/>
       <c r="C587" s="3"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -15438,7 +15413,7 @@
     </row>
     <row r="588" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A588" s="7"/>
-      <c r="B588" s="36"/>
+      <c r="B588" s="30"/>
       <c r="C588" s="3"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -15462,7 +15437,7 @@
     </row>
     <row r="589" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A589" s="7"/>
-      <c r="B589" s="36"/>
+      <c r="B589" s="30"/>
       <c r="C589" s="3"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -15486,7 +15461,7 @@
     </row>
     <row r="590" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A590" s="7"/>
-      <c r="B590" s="36"/>
+      <c r="B590" s="30"/>
       <c r="C590" s="3"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -15510,7 +15485,7 @@
     </row>
     <row r="591" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A591" s="7"/>
-      <c r="B591" s="36"/>
+      <c r="B591" s="30"/>
       <c r="C591" s="3"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -15534,7 +15509,7 @@
     </row>
     <row r="592" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A592" s="7"/>
-      <c r="B592" s="36"/>
+      <c r="B592" s="30"/>
       <c r="C592" s="3"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -15558,7 +15533,7 @@
     </row>
     <row r="593" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A593" s="7"/>
-      <c r="B593" s="36"/>
+      <c r="B593" s="30"/>
       <c r="C593" s="3"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -15582,7 +15557,7 @@
     </row>
     <row r="594" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A594" s="7"/>
-      <c r="B594" s="36"/>
+      <c r="B594" s="30"/>
       <c r="C594" s="3"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -15606,7 +15581,7 @@
     </row>
     <row r="595" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A595" s="7"/>
-      <c r="B595" s="36"/>
+      <c r="B595" s="30"/>
       <c r="C595" s="3"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -15630,7 +15605,7 @@
     </row>
     <row r="596" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A596" s="7"/>
-      <c r="B596" s="36"/>
+      <c r="B596" s="30"/>
       <c r="C596" s="3"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -15654,7 +15629,7 @@
     </row>
     <row r="597" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A597" s="7"/>
-      <c r="B597" s="36"/>
+      <c r="B597" s="30"/>
       <c r="C597" s="3"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -15678,7 +15653,7 @@
     </row>
     <row r="598" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A598" s="7"/>
-      <c r="B598" s="36"/>
+      <c r="B598" s="30"/>
       <c r="C598" s="3"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -15702,7 +15677,7 @@
     </row>
     <row r="599" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A599" s="7"/>
-      <c r="B599" s="36"/>
+      <c r="B599" s="30"/>
       <c r="C599" s="3"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -15726,7 +15701,7 @@
     </row>
     <row r="600" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A600" s="7"/>
-      <c r="B600" s="36"/>
+      <c r="B600" s="30"/>
       <c r="C600" s="3"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -15750,7 +15725,7 @@
     </row>
     <row r="601" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A601" s="7"/>
-      <c r="B601" s="36"/>
+      <c r="B601" s="30"/>
       <c r="C601" s="3"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -15774,7 +15749,7 @@
     </row>
     <row r="602" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A602" s="7"/>
-      <c r="B602" s="36"/>
+      <c r="B602" s="30"/>
       <c r="C602" s="3"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -15798,7 +15773,7 @@
     </row>
     <row r="603" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A603" s="7"/>
-      <c r="B603" s="36"/>
+      <c r="B603" s="30"/>
       <c r="C603" s="3"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -15822,7 +15797,7 @@
     </row>
     <row r="604" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A604" s="7"/>
-      <c r="B604" s="36"/>
+      <c r="B604" s="30"/>
       <c r="C604" s="3"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -15846,7 +15821,7 @@
     </row>
     <row r="605" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A605" s="7"/>
-      <c r="B605" s="36"/>
+      <c r="B605" s="30"/>
       <c r="C605" s="3"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -15870,7 +15845,7 @@
     </row>
     <row r="606" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A606" s="7"/>
-      <c r="B606" s="36"/>
+      <c r="B606" s="30"/>
       <c r="C606" s="3"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -15894,7 +15869,7 @@
     </row>
     <row r="607" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A607" s="7"/>
-      <c r="B607" s="36"/>
+      <c r="B607" s="30"/>
       <c r="C607" s="3"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -15918,7 +15893,7 @@
     </row>
     <row r="608" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A608" s="7"/>
-      <c r="B608" s="36"/>
+      <c r="B608" s="30"/>
       <c r="C608" s="3"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -15942,7 +15917,7 @@
     </row>
     <row r="609" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A609" s="7"/>
-      <c r="B609" s="36"/>
+      <c r="B609" s="30"/>
       <c r="C609" s="3"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -15966,7 +15941,7 @@
     </row>
     <row r="610" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A610" s="7"/>
-      <c r="B610" s="36"/>
+      <c r="B610" s="30"/>
       <c r="C610" s="3"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -15990,7 +15965,7 @@
     </row>
     <row r="611" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A611" s="7"/>
-      <c r="B611" s="36"/>
+      <c r="B611" s="30"/>
       <c r="C611" s="3"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -16014,7 +15989,7 @@
     </row>
     <row r="612" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A612" s="7"/>
-      <c r="B612" s="36"/>
+      <c r="B612" s="30"/>
       <c r="C612" s="3"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -16038,7 +16013,7 @@
     </row>
     <row r="613" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A613" s="7"/>
-      <c r="B613" s="36"/>
+      <c r="B613" s="30"/>
       <c r="C613" s="3"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -16062,7 +16037,7 @@
     </row>
     <row r="614" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A614" s="7"/>
-      <c r="B614" s="36"/>
+      <c r="B614" s="30"/>
       <c r="C614" s="3"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -16086,7 +16061,7 @@
     </row>
     <row r="615" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A615" s="7"/>
-      <c r="B615" s="36"/>
+      <c r="B615" s="30"/>
       <c r="C615" s="3"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -16110,7 +16085,7 @@
     </row>
     <row r="616" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A616" s="7"/>
-      <c r="B616" s="36"/>
+      <c r="B616" s="30"/>
       <c r="C616" s="3"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -16134,7 +16109,7 @@
     </row>
     <row r="617" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A617" s="7"/>
-      <c r="B617" s="36"/>
+      <c r="B617" s="30"/>
       <c r="C617" s="3"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -16158,7 +16133,7 @@
     </row>
     <row r="618" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A618" s="7"/>
-      <c r="B618" s="36"/>
+      <c r="B618" s="30"/>
       <c r="C618" s="3"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -16182,7 +16157,7 @@
     </row>
     <row r="619" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A619" s="7"/>
-      <c r="B619" s="36"/>
+      <c r="B619" s="30"/>
       <c r="C619" s="3"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -16206,7 +16181,7 @@
     </row>
     <row r="620" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A620" s="7"/>
-      <c r="B620" s="36"/>
+      <c r="B620" s="30"/>
       <c r="C620" s="3"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -16230,7 +16205,7 @@
     </row>
     <row r="621" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A621" s="7"/>
-      <c r="B621" s="36"/>
+      <c r="B621" s="30"/>
       <c r="C621" s="3"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -16254,7 +16229,7 @@
     </row>
     <row r="622" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A622" s="7"/>
-      <c r="B622" s="36"/>
+      <c r="B622" s="30"/>
       <c r="C622" s="3"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -16278,7 +16253,7 @@
     </row>
     <row r="623" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A623" s="7"/>
-      <c r="B623" s="36"/>
+      <c r="B623" s="30"/>
       <c r="C623" s="3"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -16302,7 +16277,7 @@
     </row>
     <row r="624" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A624" s="7"/>
-      <c r="B624" s="36"/>
+      <c r="B624" s="30"/>
       <c r="C624" s="3"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -16326,7 +16301,7 @@
     </row>
     <row r="625" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A625" s="7"/>
-      <c r="B625" s="36"/>
+      <c r="B625" s="30"/>
       <c r="C625" s="3"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -16350,7 +16325,7 @@
     </row>
     <row r="626" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A626" s="7"/>
-      <c r="B626" s="36"/>
+      <c r="B626" s="30"/>
       <c r="C626" s="3"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -16374,7 +16349,7 @@
     </row>
     <row r="627" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A627" s="7"/>
-      <c r="B627" s="36"/>
+      <c r="B627" s="30"/>
       <c r="C627" s="3"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -16398,7 +16373,7 @@
     </row>
     <row r="628" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A628" s="7"/>
-      <c r="B628" s="36"/>
+      <c r="B628" s="30"/>
       <c r="C628" s="3"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -16422,7 +16397,7 @@
     </row>
     <row r="629" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A629" s="7"/>
-      <c r="B629" s="36"/>
+      <c r="B629" s="30"/>
       <c r="C629" s="3"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -16446,7 +16421,7 @@
     </row>
     <row r="630" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A630" s="7"/>
-      <c r="B630" s="36"/>
+      <c r="B630" s="30"/>
       <c r="C630" s="3"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -16470,7 +16445,7 @@
     </row>
     <row r="631" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A631" s="7"/>
-      <c r="B631" s="36"/>
+      <c r="B631" s="30"/>
       <c r="C631" s="3"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -16494,7 +16469,7 @@
     </row>
     <row r="632" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A632" s="7"/>
-      <c r="B632" s="36"/>
+      <c r="B632" s="30"/>
       <c r="C632" s="3"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -16518,7 +16493,7 @@
     </row>
     <row r="633" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A633" s="7"/>
-      <c r="B633" s="36"/>
+      <c r="B633" s="30"/>
       <c r="C633" s="3"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -16542,7 +16517,7 @@
     </row>
     <row r="634" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A634" s="7"/>
-      <c r="B634" s="36"/>
+      <c r="B634" s="30"/>
       <c r="C634" s="3"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -16566,7 +16541,7 @@
     </row>
     <row r="635" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A635" s="7"/>
-      <c r="B635" s="36"/>
+      <c r="B635" s="30"/>
       <c r="C635" s="3"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -16590,7 +16565,7 @@
     </row>
     <row r="636" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A636" s="7"/>
-      <c r="B636" s="36"/>
+      <c r="B636" s="30"/>
       <c r="C636" s="3"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -16614,7 +16589,7 @@
     </row>
     <row r="637" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A637" s="7"/>
-      <c r="B637" s="36"/>
+      <c r="B637" s="30"/>
       <c r="C637" s="3"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -16638,7 +16613,7 @@
     </row>
     <row r="638" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A638" s="7"/>
-      <c r="B638" s="36"/>
+      <c r="B638" s="30"/>
       <c r="C638" s="3"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -16662,7 +16637,7 @@
     </row>
     <row r="639" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A639" s="7"/>
-      <c r="B639" s="36"/>
+      <c r="B639" s="30"/>
       <c r="C639" s="3"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -16686,7 +16661,7 @@
     </row>
     <row r="640" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A640" s="7"/>
-      <c r="B640" s="36"/>
+      <c r="B640" s="30"/>
       <c r="C640" s="3"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -16710,7 +16685,7 @@
     </row>
     <row r="641" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A641" s="7"/>
-      <c r="B641" s="36"/>
+      <c r="B641" s="30"/>
       <c r="C641" s="3"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -16734,7 +16709,7 @@
     </row>
     <row r="642" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A642" s="7"/>
-      <c r="B642" s="36"/>
+      <c r="B642" s="30"/>
       <c r="C642" s="3"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -16758,7 +16733,7 @@
     </row>
     <row r="643" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A643" s="7"/>
-      <c r="B643" s="36"/>
+      <c r="B643" s="30"/>
       <c r="C643" s="3"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -16782,7 +16757,7 @@
     </row>
     <row r="644" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A644" s="7"/>
-      <c r="B644" s="36"/>
+      <c r="B644" s="30"/>
       <c r="C644" s="3"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -16806,7 +16781,7 @@
     </row>
     <row r="645" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A645" s="7"/>
-      <c r="B645" s="36"/>
+      <c r="B645" s="30"/>
       <c r="C645" s="3"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -16830,7 +16805,7 @@
     </row>
     <row r="646" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A646" s="7"/>
-      <c r="B646" s="36"/>
+      <c r="B646" s="30"/>
       <c r="C646" s="3"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -16854,7 +16829,7 @@
     </row>
     <row r="647" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A647" s="7"/>
-      <c r="B647" s="36"/>
+      <c r="B647" s="30"/>
       <c r="C647" s="3"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -16878,7 +16853,7 @@
     </row>
     <row r="648" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A648" s="7"/>
-      <c r="B648" s="36"/>
+      <c r="B648" s="30"/>
       <c r="C648" s="3"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -16902,7 +16877,7 @@
     </row>
     <row r="649" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A649" s="7"/>
-      <c r="B649" s="36"/>
+      <c r="B649" s="30"/>
       <c r="C649" s="3"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -16926,7 +16901,7 @@
     </row>
     <row r="650" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A650" s="7"/>
-      <c r="B650" s="36"/>
+      <c r="B650" s="30"/>
       <c r="C650" s="3"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -16950,7 +16925,7 @@
     </row>
     <row r="651" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A651" s="7"/>
-      <c r="B651" s="36"/>
+      <c r="B651" s="30"/>
       <c r="C651" s="3"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -16974,7 +16949,7 @@
     </row>
     <row r="652" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A652" s="7"/>
-      <c r="B652" s="36"/>
+      <c r="B652" s="30"/>
       <c r="C652" s="3"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -16998,7 +16973,7 @@
     </row>
     <row r="653" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A653" s="7"/>
-      <c r="B653" s="36"/>
+      <c r="B653" s="30"/>
       <c r="C653" s="3"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -17022,7 +16997,7 @@
     </row>
     <row r="654" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A654" s="7"/>
-      <c r="B654" s="36"/>
+      <c r="B654" s="30"/>
       <c r="C654" s="3"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -17046,7 +17021,7 @@
     </row>
     <row r="655" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A655" s="7"/>
-      <c r="B655" s="36"/>
+      <c r="B655" s="30"/>
       <c r="C655" s="3"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -17070,7 +17045,7 @@
     </row>
     <row r="656" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A656" s="7"/>
-      <c r="B656" s="36"/>
+      <c r="B656" s="30"/>
       <c r="C656" s="3"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -17094,7 +17069,7 @@
     </row>
     <row r="657" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A657" s="7"/>
-      <c r="B657" s="36"/>
+      <c r="B657" s="30"/>
       <c r="C657" s="3"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -17118,7 +17093,7 @@
     </row>
     <row r="658" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A658" s="7"/>
-      <c r="B658" s="36"/>
+      <c r="B658" s="30"/>
       <c r="C658" s="3"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -17142,7 +17117,7 @@
     </row>
     <row r="659" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A659" s="7"/>
-      <c r="B659" s="36"/>
+      <c r="B659" s="30"/>
       <c r="C659" s="3"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -17166,7 +17141,7 @@
     </row>
     <row r="660" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A660" s="7"/>
-      <c r="B660" s="36"/>
+      <c r="B660" s="30"/>
       <c r="C660" s="3"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -17190,7 +17165,7 @@
     </row>
     <row r="661" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A661" s="7"/>
-      <c r="B661" s="36"/>
+      <c r="B661" s="30"/>
       <c r="C661" s="3"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -17214,7 +17189,7 @@
     </row>
     <row r="662" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A662" s="7"/>
-      <c r="B662" s="36"/>
+      <c r="B662" s="30"/>
       <c r="C662" s="3"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -17238,7 +17213,7 @@
     </row>
     <row r="663" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A663" s="7"/>
-      <c r="B663" s="36"/>
+      <c r="B663" s="30"/>
       <c r="C663" s="3"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -17262,7 +17237,7 @@
     </row>
     <row r="664" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A664" s="7"/>
-      <c r="B664" s="36"/>
+      <c r="B664" s="30"/>
       <c r="C664" s="3"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -17286,7 +17261,7 @@
     </row>
     <row r="665" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A665" s="7"/>
-      <c r="B665" s="36"/>
+      <c r="B665" s="30"/>
       <c r="C665" s="3"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -17310,7 +17285,7 @@
     </row>
     <row r="666" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A666" s="7"/>
-      <c r="B666" s="36"/>
+      <c r="B666" s="30"/>
       <c r="C666" s="3"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -17334,7 +17309,7 @@
     </row>
     <row r="667" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A667" s="7"/>
-      <c r="B667" s="36"/>
+      <c r="B667" s="30"/>
       <c r="C667" s="3"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -17358,7 +17333,7 @@
     </row>
     <row r="668" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A668" s="7"/>
-      <c r="B668" s="36"/>
+      <c r="B668" s="30"/>
       <c r="C668" s="3"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -17382,7 +17357,7 @@
     </row>
     <row r="669" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A669" s="7"/>
-      <c r="B669" s="36"/>
+      <c r="B669" s="30"/>
       <c r="C669" s="3"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -17406,7 +17381,7 @@
     </row>
     <row r="670" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A670" s="7"/>
-      <c r="B670" s="36"/>
+      <c r="B670" s="30"/>
       <c r="C670" s="3"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -17430,7 +17405,7 @@
     </row>
     <row r="671" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A671" s="7"/>
-      <c r="B671" s="36"/>
+      <c r="B671" s="30"/>
       <c r="C671" s="3"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
@@ -17454,7 +17429,7 @@
     </row>
     <row r="672" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A672" s="7"/>
-      <c r="B672" s="36"/>
+      <c r="B672" s="30"/>
       <c r="C672" s="3"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
@@ -17478,7 +17453,7 @@
     </row>
     <row r="673" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A673" s="7"/>
-      <c r="B673" s="36"/>
+      <c r="B673" s="30"/>
       <c r="C673" s="3"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
@@ -17502,7 +17477,7 @@
     </row>
     <row r="674" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A674" s="7"/>
-      <c r="B674" s="36"/>
+      <c r="B674" s="30"/>
       <c r="C674" s="3"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
@@ -17526,7 +17501,7 @@
     </row>
     <row r="675" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A675" s="7"/>
-      <c r="B675" s="36"/>
+      <c r="B675" s="30"/>
       <c r="C675" s="3"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
@@ -17550,7 +17525,7 @@
     </row>
     <row r="676" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A676" s="7"/>
-      <c r="B676" s="36"/>
+      <c r="B676" s="30"/>
       <c r="C676" s="3"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
@@ -17574,7 +17549,7 @@
     </row>
     <row r="677" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A677" s="7"/>
-      <c r="B677" s="36"/>
+      <c r="B677" s="30"/>
       <c r="C677" s="3"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
@@ -17598,7 +17573,7 @@
     </row>
     <row r="678" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A678" s="7"/>
-      <c r="B678" s="36"/>
+      <c r="B678" s="30"/>
       <c r="C678" s="3"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
@@ -17622,7 +17597,7 @@
     </row>
     <row r="679" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A679" s="7"/>
-      <c r="B679" s="36"/>
+      <c r="B679" s="30"/>
       <c r="C679" s="3"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
@@ -17646,7 +17621,7 @@
     </row>
     <row r="680" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A680" s="7"/>
-      <c r="B680" s="36"/>
+      <c r="B680" s="30"/>
       <c r="C680" s="3"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
@@ -17670,7 +17645,7 @@
     </row>
     <row r="681" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A681" s="7"/>
-      <c r="B681" s="36"/>
+      <c r="B681" s="30"/>
       <c r="C681" s="3"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
@@ -17694,7 +17669,7 @@
     </row>
     <row r="682" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A682" s="7"/>
-      <c r="B682" s="36"/>
+      <c r="B682" s="30"/>
       <c r="C682" s="3"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
@@ -17718,7 +17693,7 @@
     </row>
     <row r="683" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A683" s="7"/>
-      <c r="B683" s="36"/>
+      <c r="B683" s="30"/>
       <c r="C683" s="3"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
@@ -17742,7 +17717,7 @@
     </row>
     <row r="684" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A684" s="7"/>
-      <c r="B684" s="36"/>
+      <c r="B684" s="30"/>
       <c r="C684" s="3"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
@@ -17766,7 +17741,7 @@
     </row>
     <row r="685" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A685" s="7"/>
-      <c r="B685" s="36"/>
+      <c r="B685" s="30"/>
       <c r="C685" s="3"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
@@ -17790,7 +17765,7 @@
     </row>
     <row r="686" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A686" s="7"/>
-      <c r="B686" s="36"/>
+      <c r="B686" s="30"/>
       <c r="C686" s="3"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
@@ -17814,7 +17789,7 @@
     </row>
     <row r="687" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A687" s="7"/>
-      <c r="B687" s="36"/>
+      <c r="B687" s="30"/>
       <c r="C687" s="3"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
@@ -17838,7 +17813,7 @@
     </row>
     <row r="688" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A688" s="7"/>
-      <c r="B688" s="36"/>
+      <c r="B688" s="30"/>
       <c r="C688" s="3"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
@@ -17862,7 +17837,7 @@
     </row>
     <row r="689" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A689" s="7"/>
-      <c r="B689" s="36"/>
+      <c r="B689" s="30"/>
       <c r="C689" s="3"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
@@ -17886,7 +17861,7 @@
     </row>
     <row r="690" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A690" s="7"/>
-      <c r="B690" s="36"/>
+      <c r="B690" s="30"/>
       <c r="C690" s="3"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
@@ -17910,7 +17885,7 @@
     </row>
     <row r="691" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A691" s="7"/>
-      <c r="B691" s="36"/>
+      <c r="B691" s="30"/>
       <c r="C691" s="3"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
@@ -17934,7 +17909,7 @@
     </row>
     <row r="692" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A692" s="7"/>
-      <c r="B692" s="36"/>
+      <c r="B692" s="30"/>
       <c r="C692" s="3"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
@@ -17958,7 +17933,7 @@
     </row>
     <row r="693" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A693" s="7"/>
-      <c r="B693" s="36"/>
+      <c r="B693" s="30"/>
       <c r="C693" s="3"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
@@ -17982,7 +17957,7 @@
     </row>
     <row r="694" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A694" s="7"/>
-      <c r="B694" s="36"/>
+      <c r="B694" s="30"/>
       <c r="C694" s="3"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
@@ -18006,7 +17981,7 @@
     </row>
     <row r="695" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A695" s="7"/>
-      <c r="B695" s="36"/>
+      <c r="B695" s="30"/>
       <c r="C695" s="3"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
@@ -18030,7 +18005,7 @@
     </row>
     <row r="696" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A696" s="7"/>
-      <c r="B696" s="36"/>
+      <c r="B696" s="30"/>
       <c r="C696" s="3"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
@@ -18054,7 +18029,7 @@
     </row>
     <row r="697" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A697" s="7"/>
-      <c r="B697" s="36"/>
+      <c r="B697" s="30"/>
       <c r="C697" s="3"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
@@ -18078,7 +18053,7 @@
     </row>
     <row r="698" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A698" s="7"/>
-      <c r="B698" s="36"/>
+      <c r="B698" s="30"/>
       <c r="C698" s="3"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
@@ -18102,7 +18077,7 @@
     </row>
     <row r="699" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A699" s="7"/>
-      <c r="B699" s="36"/>
+      <c r="B699" s="30"/>
       <c r="C699" s="3"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
@@ -18126,7 +18101,7 @@
     </row>
     <row r="700" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A700" s="7"/>
-      <c r="B700" s="36"/>
+      <c r="B700" s="30"/>
       <c r="C700" s="3"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
@@ -18150,7 +18125,7 @@
     </row>
     <row r="701" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A701" s="7"/>
-      <c r="B701" s="36"/>
+      <c r="B701" s="30"/>
       <c r="C701" s="3"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
@@ -18174,7 +18149,7 @@
     </row>
     <row r="702" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A702" s="7"/>
-      <c r="B702" s="36"/>
+      <c r="B702" s="30"/>
       <c r="C702" s="3"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
@@ -18198,7 +18173,7 @@
     </row>
     <row r="703" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A703" s="7"/>
-      <c r="B703" s="36"/>
+      <c r="B703" s="30"/>
       <c r="C703" s="3"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
@@ -18222,7 +18197,7 @@
     </row>
     <row r="704" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A704" s="7"/>
-      <c r="B704" s="36"/>
+      <c r="B704" s="30"/>
       <c r="C704" s="3"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
@@ -18246,7 +18221,7 @@
     </row>
     <row r="705" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A705" s="7"/>
-      <c r="B705" s="36"/>
+      <c r="B705" s="30"/>
       <c r="C705" s="3"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
@@ -18270,7 +18245,7 @@
     </row>
     <row r="706" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A706" s="7"/>
-      <c r="B706" s="36"/>
+      <c r="B706" s="30"/>
       <c r="C706" s="3"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
@@ -18294,7 +18269,7 @@
     </row>
     <row r="707" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A707" s="7"/>
-      <c r="B707" s="36"/>
+      <c r="B707" s="30"/>
       <c r="C707" s="3"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
@@ -18318,7 +18293,7 @@
     </row>
     <row r="708" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A708" s="7"/>
-      <c r="B708" s="36"/>
+      <c r="B708" s="30"/>
       <c r="C708" s="3"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
@@ -18342,7 +18317,7 @@
     </row>
     <row r="709" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A709" s="7"/>
-      <c r="B709" s="36"/>
+      <c r="B709" s="30"/>
       <c r="C709" s="3"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
@@ -18366,7 +18341,7 @@
     </row>
     <row r="710" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A710" s="7"/>
-      <c r="B710" s="36"/>
+      <c r="B710" s="30"/>
       <c r="C710" s="3"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
@@ -18390,7 +18365,7 @@
     </row>
     <row r="711" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A711" s="7"/>
-      <c r="B711" s="36"/>
+      <c r="B711" s="30"/>
       <c r="C711" s="3"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
@@ -18414,7 +18389,7 @@
     </row>
     <row r="712" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A712" s="7"/>
-      <c r="B712" s="36"/>
+      <c r="B712" s="30"/>
       <c r="C712" s="3"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
@@ -18438,7 +18413,7 @@
     </row>
     <row r="713" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A713" s="7"/>
-      <c r="B713" s="36"/>
+      <c r="B713" s="30"/>
       <c r="C713" s="3"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
@@ -18462,7 +18437,7 @@
     </row>
     <row r="714" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A714" s="7"/>
-      <c r="B714" s="36"/>
+      <c r="B714" s="30"/>
       <c r="C714" s="3"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
@@ -18486,7 +18461,7 @@
     </row>
     <row r="715" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A715" s="7"/>
-      <c r="B715" s="36"/>
+      <c r="B715" s="30"/>
       <c r="C715" s="3"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
@@ -18510,7 +18485,7 @@
     </row>
     <row r="716" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A716" s="7"/>
-      <c r="B716" s="36"/>
+      <c r="B716" s="30"/>
       <c r="C716" s="3"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
@@ -18534,7 +18509,7 @@
     </row>
     <row r="717" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A717" s="7"/>
-      <c r="B717" s="36"/>
+      <c r="B717" s="30"/>
       <c r="C717" s="3"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
@@ -18558,7 +18533,7 @@
     </row>
     <row r="718" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A718" s="7"/>
-      <c r="B718" s="36"/>
+      <c r="B718" s="30"/>
       <c r="C718" s="3"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
@@ -18582,7 +18557,7 @@
     </row>
     <row r="719" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A719" s="7"/>
-      <c r="B719" s="36"/>
+      <c r="B719" s="30"/>
       <c r="C719" s="3"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
@@ -18606,7 +18581,7 @@
     </row>
     <row r="720" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A720" s="7"/>
-      <c r="B720" s="36"/>
+      <c r="B720" s="30"/>
       <c r="C720" s="3"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
@@ -18630,7 +18605,7 @@
     </row>
     <row r="721" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A721" s="7"/>
-      <c r="B721" s="36"/>
+      <c r="B721" s="30"/>
       <c r="C721" s="3"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
@@ -18654,7 +18629,7 @@
     </row>
     <row r="722" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A722" s="7"/>
-      <c r="B722" s="36"/>
+      <c r="B722" s="30"/>
       <c r="C722" s="3"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
@@ -18678,7 +18653,7 @@
     </row>
     <row r="723" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A723" s="7"/>
-      <c r="B723" s="36"/>
+      <c r="B723" s="30"/>
       <c r="C723" s="3"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
@@ -18702,7 +18677,7 @@
     </row>
     <row r="724" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A724" s="7"/>
-      <c r="B724" s="36"/>
+      <c r="B724" s="30"/>
       <c r="C724" s="3"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
@@ -18726,7 +18701,7 @@
     </row>
     <row r="725" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A725" s="7"/>
-      <c r="B725" s="36"/>
+      <c r="B725" s="30"/>
       <c r="C725" s="3"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
@@ -18750,7 +18725,7 @@
     </row>
     <row r="726" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A726" s="7"/>
-      <c r="B726" s="36"/>
+      <c r="B726" s="30"/>
       <c r="C726" s="3"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
@@ -18774,7 +18749,7 @@
     </row>
     <row r="727" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A727" s="7"/>
-      <c r="B727" s="36"/>
+      <c r="B727" s="30"/>
       <c r="C727" s="3"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
@@ -18798,7 +18773,7 @@
     </row>
     <row r="728" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A728" s="7"/>
-      <c r="B728" s="36"/>
+      <c r="B728" s="30"/>
       <c r="C728" s="3"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
@@ -18822,7 +18797,7 @@
     </row>
     <row r="729" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A729" s="7"/>
-      <c r="B729" s="36"/>
+      <c r="B729" s="30"/>
       <c r="C729" s="3"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
@@ -18846,7 +18821,7 @@
     </row>
     <row r="730" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A730" s="7"/>
-      <c r="B730" s="36"/>
+      <c r="B730" s="30"/>
       <c r="C730" s="3"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
@@ -18870,7 +18845,7 @@
     </row>
     <row r="731" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A731" s="7"/>
-      <c r="B731" s="36"/>
+      <c r="B731" s="30"/>
       <c r="C731" s="3"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
@@ -18894,7 +18869,7 @@
     </row>
     <row r="732" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A732" s="7"/>
-      <c r="B732" s="36"/>
+      <c r="B732" s="30"/>
       <c r="C732" s="3"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
@@ -18918,7 +18893,7 @@
     </row>
     <row r="733" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A733" s="7"/>
-      <c r="B733" s="36"/>
+      <c r="B733" s="30"/>
       <c r="C733" s="3"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
@@ -18942,7 +18917,7 @@
     </row>
     <row r="734" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A734" s="7"/>
-      <c r="B734" s="36"/>
+      <c r="B734" s="30"/>
       <c r="C734" s="3"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
@@ -18966,7 +18941,7 @@
     </row>
     <row r="735" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A735" s="7"/>
-      <c r="B735" s="36"/>
+      <c r="B735" s="30"/>
       <c r="C735" s="3"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
@@ -18990,7 +18965,7 @@
     </row>
     <row r="736" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A736" s="7"/>
-      <c r="B736" s="36"/>
+      <c r="B736" s="30"/>
       <c r="C736" s="3"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
@@ -19014,7 +18989,7 @@
     </row>
     <row r="737" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A737" s="7"/>
-      <c r="B737" s="36"/>
+      <c r="B737" s="30"/>
       <c r="C737" s="3"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
@@ -19038,7 +19013,7 @@
     </row>
     <row r="738" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A738" s="7"/>
-      <c r="B738" s="36"/>
+      <c r="B738" s="30"/>
       <c r="C738" s="3"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
@@ -19062,7 +19037,7 @@
     </row>
     <row r="739" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A739" s="7"/>
-      <c r="B739" s="36"/>
+      <c r="B739" s="30"/>
       <c r="C739" s="3"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
@@ -19086,7 +19061,7 @@
     </row>
     <row r="740" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A740" s="7"/>
-      <c r="B740" s="36"/>
+      <c r="B740" s="30"/>
       <c r="C740" s="3"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
@@ -19110,7 +19085,7 @@
     </row>
     <row r="741" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A741" s="7"/>
-      <c r="B741" s="36"/>
+      <c r="B741" s="30"/>
       <c r="C741" s="3"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
@@ -19134,7 +19109,7 @@
     </row>
     <row r="742" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A742" s="7"/>
-      <c r="B742" s="36"/>
+      <c r="B742" s="30"/>
       <c r="C742" s="3"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
@@ -19158,7 +19133,7 @@
     </row>
     <row r="743" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A743" s="7"/>
-      <c r="B743" s="36"/>
+      <c r="B743" s="30"/>
       <c r="C743" s="3"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
@@ -19182,7 +19157,7 @@
     </row>
     <row r="744" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A744" s="7"/>
-      <c r="B744" s="36"/>
+      <c r="B744" s="30"/>
       <c r="C744" s="3"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
@@ -19206,7 +19181,7 @@
     </row>
     <row r="745" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A745" s="7"/>
-      <c r="B745" s="36"/>
+      <c r="B745" s="30"/>
       <c r="C745" s="3"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
@@ -19230,7 +19205,7 @@
     </row>
     <row r="746" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A746" s="7"/>
-      <c r="B746" s="36"/>
+      <c r="B746" s="30"/>
       <c r="C746" s="3"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
@@ -19254,7 +19229,7 @@
     </row>
     <row r="747" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A747" s="7"/>
-      <c r="B747" s="36"/>
+      <c r="B747" s="30"/>
       <c r="C747" s="3"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
@@ -19278,7 +19253,7 @@
     </row>
     <row r="748" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A748" s="7"/>
-      <c r="B748" s="36"/>
+      <c r="B748" s="30"/>
       <c r="C748" s="3"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
@@ -19302,7 +19277,7 @@
     </row>
     <row r="749" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A749" s="7"/>
-      <c r="B749" s="36"/>
+      <c r="B749" s="30"/>
       <c r="C749" s="3"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
@@ -19326,7 +19301,7 @@
     </row>
     <row r="750" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A750" s="7"/>
-      <c r="B750" s="36"/>
+      <c r="B750" s="30"/>
       <c r="C750" s="3"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
@@ -19350,7 +19325,7 @@
     </row>
     <row r="751" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A751" s="7"/>
-      <c r="B751" s="36"/>
+      <c r="B751" s="30"/>
       <c r="C751" s="3"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
@@ -19374,7 +19349,7 @@
     </row>
     <row r="752" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A752" s="7"/>
-      <c r="B752" s="36"/>
+      <c r="B752" s="30"/>
       <c r="C752" s="3"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
@@ -19398,7 +19373,7 @@
     </row>
     <row r="753" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A753" s="7"/>
-      <c r="B753" s="36"/>
+      <c r="B753" s="30"/>
       <c r="C753" s="3"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
@@ -19422,7 +19397,7 @@
     </row>
     <row r="754" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A754" s="7"/>
-      <c r="B754" s="36"/>
+      <c r="B754" s="30"/>
       <c r="C754" s="3"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
@@ -19446,7 +19421,7 @@
     </row>
     <row r="755" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A755" s="7"/>
-      <c r="B755" s="36"/>
+      <c r="B755" s="30"/>
       <c r="C755" s="3"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
@@ -19470,7 +19445,7 @@
     </row>
     <row r="756" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A756" s="7"/>
-      <c r="B756" s="36"/>
+      <c r="B756" s="30"/>
       <c r="C756" s="3"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
@@ -19494,7 +19469,7 @@
     </row>
     <row r="757" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A757" s="7"/>
-      <c r="B757" s="36"/>
+      <c r="B757" s="30"/>
       <c r="C757" s="3"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
@@ -19518,7 +19493,7 @@
     </row>
     <row r="758" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A758" s="7"/>
-      <c r="B758" s="36"/>
+      <c r="B758" s="30"/>
       <c r="C758" s="3"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
@@ -19542,7 +19517,7 @@
     </row>
     <row r="759" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A759" s="7"/>
-      <c r="B759" s="36"/>
+      <c r="B759" s="30"/>
       <c r="C759" s="3"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
@@ -19566,7 +19541,7 @@
     </row>
     <row r="760" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A760" s="7"/>
-      <c r="B760" s="36"/>
+      <c r="B760" s="30"/>
       <c r="C760" s="3"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
@@ -19590,7 +19565,7 @@
     </row>
     <row r="761" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A761" s="7"/>
-      <c r="B761" s="36"/>
+      <c r="B761" s="30"/>
       <c r="C761" s="3"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
@@ -19614,7 +19589,7 @@
     </row>
     <row r="762" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A762" s="7"/>
-      <c r="B762" s="36"/>
+      <c r="B762" s="30"/>
       <c r="C762" s="3"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
@@ -19638,7 +19613,7 @@
     </row>
     <row r="763" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A763" s="7"/>
-      <c r="B763" s="36"/>
+      <c r="B763" s="30"/>
       <c r="C763" s="3"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
@@ -19662,7 +19637,7 @@
     </row>
     <row r="764" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A764" s="7"/>
-      <c r="B764" s="36"/>
+      <c r="B764" s="30"/>
       <c r="C764" s="3"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
@@ -19686,7 +19661,7 @@
     </row>
     <row r="765" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A765" s="7"/>
-      <c r="B765" s="36"/>
+      <c r="B765" s="30"/>
       <c r="C765" s="3"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
@@ -19710,7 +19685,7 @@
     </row>
     <row r="766" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A766" s="7"/>
-      <c r="B766" s="36"/>
+      <c r="B766" s="30"/>
       <c r="C766" s="3"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
@@ -19734,7 +19709,7 @@
     </row>
     <row r="767" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A767" s="7"/>
-      <c r="B767" s="36"/>
+      <c r="B767" s="30"/>
       <c r="C767" s="3"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
@@ -19758,7 +19733,7 @@
     </row>
     <row r="768" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A768" s="7"/>
-      <c r="B768" s="36"/>
+      <c r="B768" s="30"/>
       <c r="C768" s="3"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
@@ -19782,7 +19757,7 @@
     </row>
     <row r="769" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A769" s="7"/>
-      <c r="B769" s="36"/>
+      <c r="B769" s="30"/>
       <c r="C769" s="3"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
@@ -19806,7 +19781,7 @@
     </row>
     <row r="770" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A770" s="7"/>
-      <c r="B770" s="36"/>
+      <c r="B770" s="30"/>
       <c r="C770" s="3"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
@@ -19830,7 +19805,7 @@
     </row>
     <row r="771" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A771" s="7"/>
-      <c r="B771" s="36"/>
+      <c r="B771" s="30"/>
       <c r="C771" s="3"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
@@ -19854,7 +19829,7 @@
     </row>
     <row r="772" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A772" s="7"/>
-      <c r="B772" s="36"/>
+      <c r="B772" s="30"/>
       <c r="C772" s="3"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
@@ -19878,7 +19853,7 @@
     </row>
     <row r="773" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A773" s="7"/>
-      <c r="B773" s="36"/>
+      <c r="B773" s="30"/>
       <c r="C773" s="3"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
@@ -19902,7 +19877,7 @@
     </row>
     <row r="774" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A774" s="7"/>
-      <c r="B774" s="36"/>
+      <c r="B774" s="30"/>
       <c r="C774" s="3"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
@@ -19926,7 +19901,7 @@
     </row>
     <row r="775" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A775" s="7"/>
-      <c r="B775" s="36"/>
+      <c r="B775" s="30"/>
       <c r="C775" s="3"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
@@ -19950,7 +19925,7 @@
     </row>
     <row r="776" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A776" s="7"/>
-      <c r="B776" s="36"/>
+      <c r="B776" s="30"/>
       <c r="C776" s="3"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
@@ -19974,7 +19949,7 @@
     </row>
     <row r="777" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A777" s="7"/>
-      <c r="B777" s="36"/>
+      <c r="B777" s="30"/>
       <c r="C777" s="3"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
@@ -19998,7 +19973,7 @@
     </row>
     <row r="778" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A778" s="7"/>
-      <c r="B778" s="36"/>
+      <c r="B778" s="30"/>
       <c r="C778" s="3"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
@@ -20022,7 +19997,7 @@
     </row>
     <row r="779" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A779" s="7"/>
-      <c r="B779" s="36"/>
+      <c r="B779" s="30"/>
       <c r="C779" s="3"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
@@ -20046,7 +20021,7 @@
     </row>
     <row r="780" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A780" s="7"/>
-      <c r="B780" s="36"/>
+      <c r="B780" s="30"/>
       <c r="C780" s="3"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
@@ -20070,7 +20045,7 @@
     </row>
     <row r="781" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A781" s="7"/>
-      <c r="B781" s="36"/>
+      <c r="B781" s="30"/>
       <c r="C781" s="3"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
@@ -20094,7 +20069,7 @@
     </row>
     <row r="782" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A782" s="7"/>
-      <c r="B782" s="36"/>
+      <c r="B782" s="30"/>
       <c r="C782" s="3"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
@@ -20118,7 +20093,7 @@
     </row>
     <row r="783" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A783" s="7"/>
-      <c r="B783" s="36"/>
+      <c r="B783" s="30"/>
       <c r="C783" s="3"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
@@ -20142,7 +20117,7 @@
     </row>
     <row r="784" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A784" s="7"/>
-      <c r="B784" s="36"/>
+      <c r="B784" s="30"/>
       <c r="C784" s="3"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
@@ -20166,7 +20141,7 @@
     </row>
     <row r="785" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A785" s="7"/>
-      <c r="B785" s="36"/>
+      <c r="B785" s="30"/>
       <c r="C785" s="3"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
@@ -20190,7 +20165,7 @@
     </row>
     <row r="786" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A786" s="7"/>
-      <c r="B786" s="36"/>
+      <c r="B786" s="30"/>
       <c r="C786" s="3"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
@@ -20214,7 +20189,7 @@
     </row>
     <row r="787" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A787" s="7"/>
-      <c r="B787" s="36"/>
+      <c r="B787" s="30"/>
       <c r="C787" s="3"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
@@ -20238,7 +20213,7 @@
     </row>
     <row r="788" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A788" s="7"/>
-      <c r="B788" s="36"/>
+      <c r="B788" s="30"/>
       <c r="C788" s="3"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
@@ -20262,7 +20237,7 @@
     </row>
     <row r="789" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A789" s="7"/>
-      <c r="B789" s="36"/>
+      <c r="B789" s="30"/>
       <c r="C789" s="3"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
@@ -20286,7 +20261,7 @@
     </row>
     <row r="790" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A790" s="7"/>
-      <c r="B790" s="36"/>
+      <c r="B790" s="30"/>
       <c r="C790" s="3"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
@@ -20310,7 +20285,7 @@
     </row>
     <row r="791" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A791" s="7"/>
-      <c r="B791" s="36"/>
+      <c r="B791" s="30"/>
       <c r="C791" s="3"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
@@ -20334,7 +20309,7 @@
     </row>
     <row r="792" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A792" s="7"/>
-      <c r="B792" s="36"/>
+      <c r="B792" s="30"/>
       <c r="C792" s="3"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
@@ -20358,7 +20333,7 @@
     </row>
     <row r="793" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A793" s="7"/>
-      <c r="B793" s="36"/>
+      <c r="B793" s="30"/>
       <c r="C793" s="3"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
@@ -20382,7 +20357,7 @@
     </row>
     <row r="794" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A794" s="7"/>
-      <c r="B794" s="36"/>
+      <c r="B794" s="30"/>
       <c r="C794" s="3"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
@@ -20406,7 +20381,7 @@
     </row>
     <row r="795" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A795" s="7"/>
-      <c r="B795" s="36"/>
+      <c r="B795" s="30"/>
       <c r="C795" s="3"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
@@ -20430,7 +20405,7 @@
     </row>
     <row r="796" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A796" s="7"/>
-      <c r="B796" s="36"/>
+      <c r="B796" s="30"/>
       <c r="C796" s="3"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
@@ -20454,7 +20429,7 @@
     </row>
     <row r="797" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A797" s="7"/>
-      <c r="B797" s="36"/>
+      <c r="B797" s="30"/>
       <c r="C797" s="3"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
@@ -20478,7 +20453,7 @@
     </row>
     <row r="798" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A798" s="7"/>
-      <c r="B798" s="36"/>
+      <c r="B798" s="30"/>
       <c r="C798" s="3"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
@@ -20502,7 +20477,7 @@
     </row>
     <row r="799" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A799" s="7"/>
-      <c r="B799" s="36"/>
+      <c r="B799" s="30"/>
       <c r="C799" s="3"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
@@ -20526,7 +20501,7 @@
     </row>
     <row r="800" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A800" s="7"/>
-      <c r="B800" s="36"/>
+      <c r="B800" s="30"/>
       <c r="C800" s="3"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
@@ -20550,7 +20525,7 @@
     </row>
     <row r="801" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A801" s="7"/>
-      <c r="B801" s="36"/>
+      <c r="B801" s="30"/>
       <c r="C801" s="3"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
@@ -20574,7 +20549,7 @@
     </row>
     <row r="802" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A802" s="7"/>
-      <c r="B802" s="36"/>
+      <c r="B802" s="30"/>
       <c r="C802" s="3"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
@@ -20598,7 +20573,7 @@
     </row>
     <row r="803" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A803" s="7"/>
-      <c r="B803" s="36"/>
+      <c r="B803" s="30"/>
       <c r="C803" s="3"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
@@ -20622,7 +20597,7 @@
     </row>
     <row r="804" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A804" s="7"/>
-      <c r="B804" s="36"/>
+      <c r="B804" s="30"/>
       <c r="C804" s="3"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
@@ -20646,7 +20621,7 @@
     </row>
     <row r="805" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A805" s="7"/>
-      <c r="B805" s="36"/>
+      <c r="B805" s="30"/>
       <c r="C805" s="3"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
@@ -20670,7 +20645,7 @@
     </row>
     <row r="806" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A806" s="7"/>
-      <c r="B806" s="36"/>
+      <c r="B806" s="30"/>
       <c r="C806" s="3"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
@@ -20694,7 +20669,7 @@
     </row>
     <row r="807" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A807" s="7"/>
-      <c r="B807" s="36"/>
+      <c r="B807" s="30"/>
       <c r="C807" s="3"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
@@ -20718,7 +20693,7 @@
     </row>
     <row r="808" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A808" s="7"/>
-      <c r="B808" s="36"/>
+      <c r="B808" s="30"/>
       <c r="C808" s="3"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
@@ -20742,7 +20717,7 @@
     </row>
     <row r="809" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A809" s="7"/>
-      <c r="B809" s="36"/>
+      <c r="B809" s="30"/>
       <c r="C809" s="3"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
@@ -20766,7 +20741,7 @@
     </row>
     <row r="810" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A810" s="7"/>
-      <c r="B810" s="36"/>
+      <c r="B810" s="30"/>
       <c r="C810" s="3"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
@@ -20790,7 +20765,7 @@
     </row>
     <row r="811" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A811" s="7"/>
-      <c r="B811" s="36"/>
+      <c r="B811" s="30"/>
       <c r="C811" s="3"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
@@ -20814,7 +20789,7 @@
     </row>
     <row r="812" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A812" s="7"/>
-      <c r="B812" s="36"/>
+      <c r="B812" s="30"/>
       <c r="C812" s="3"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
@@ -20838,7 +20813,7 @@
     </row>
     <row r="813" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A813" s="7"/>
-      <c r="B813" s="36"/>
+      <c r="B813" s="30"/>
       <c r="C813" s="3"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
@@ -20862,7 +20837,7 @@
     </row>
     <row r="814" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A814" s="7"/>
-      <c r="B814" s="36"/>
+      <c r="B814" s="30"/>
       <c r="C814" s="3"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
@@ -20886,7 +20861,7 @@
     </row>
     <row r="815" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A815" s="7"/>
-      <c r="B815" s="36"/>
+      <c r="B815" s="30"/>
       <c r="C815" s="3"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
@@ -20910,7 +20885,7 @@
     </row>
     <row r="816" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A816" s="7"/>
-      <c r="B816" s="36"/>
+      <c r="B816" s="30"/>
       <c r="C816" s="3"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
@@ -20934,7 +20909,7 @@
     </row>
     <row r="817" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A817" s="7"/>
-      <c r="B817" s="36"/>
+      <c r="B817" s="30"/>
       <c r="C817" s="3"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
@@ -20958,7 +20933,7 @@
     </row>
     <row r="818" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A818" s="7"/>
-      <c r="B818" s="36"/>
+      <c r="B818" s="30"/>
       <c r="C818" s="3"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
@@ -20982,7 +20957,7 @@
     </row>
     <row r="819" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A819" s="7"/>
-      <c r="B819" s="36"/>
+      <c r="B819" s="30"/>
       <c r="C819" s="3"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
@@ -21006,7 +20981,7 @@
     </row>
     <row r="820" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A820" s="7"/>
-      <c r="B820" s="36"/>
+      <c r="B820" s="30"/>
       <c r="C820" s="3"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
@@ -21030,7 +21005,7 @@
     </row>
     <row r="821" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A821" s="7"/>
-      <c r="B821" s="36"/>
+      <c r="B821" s="30"/>
       <c r="C821" s="3"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
@@ -21054,7 +21029,7 @@
     </row>
     <row r="822" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A822" s="7"/>
-      <c r="B822" s="36"/>
+      <c r="B822" s="30"/>
       <c r="C822" s="3"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
@@ -21078,7 +21053,7 @@
     </row>
     <row r="823" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A823" s="7"/>
-      <c r="B823" s="36"/>
+      <c r="B823" s="30"/>
       <c r="C823" s="3"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
@@ -21102,7 +21077,7 @@
     </row>
     <row r="824" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A824" s="7"/>
-      <c r="B824" s="36"/>
+      <c r="B824" s="30"/>
       <c r="C824" s="3"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
@@ -21126,7 +21101,7 @@
     </row>
     <row r="825" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A825" s="7"/>
-      <c r="B825" s="36"/>
+      <c r="B825" s="30"/>
       <c r="C825" s="3"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
@@ -21150,7 +21125,7 @@
     </row>
     <row r="826" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A826" s="7"/>
-      <c r="B826" s="36"/>
+      <c r="B826" s="30"/>
       <c r="C826" s="3"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
@@ -21174,7 +21149,7 @@
     </row>
     <row r="827" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A827" s="7"/>
-      <c r="B827" s="36"/>
+      <c r="B827" s="30"/>
       <c r="C827" s="3"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
@@ -21198,7 +21173,7 @@
     </row>
     <row r="828" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A828" s="7"/>
-      <c r="B828" s="36"/>
+      <c r="B828" s="30"/>
       <c r="C828" s="3"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
@@ -21222,7 +21197,7 @@
     </row>
     <row r="829" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A829" s="7"/>
-      <c r="B829" s="36"/>
+      <c r="B829" s="30"/>
       <c r="C829" s="3"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
@@ -21246,7 +21221,7 @@
     </row>
     <row r="830" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A830" s="7"/>
-      <c r="B830" s="36"/>
+      <c r="B830" s="30"/>
       <c r="C830" s="3"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
@@ -21270,7 +21245,7 @@
     </row>
     <row r="831" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A831" s="7"/>
-      <c r="B831" s="36"/>
+      <c r="B831" s="30"/>
       <c r="C831" s="3"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
@@ -21294,7 +21269,7 @@
     </row>
     <row r="832" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A832" s="7"/>
-      <c r="B832" s="36"/>
+      <c r="B832" s="30"/>
       <c r="C832" s="3"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
@@ -21318,7 +21293,7 @@
     </row>
     <row r="833" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A833" s="7"/>
-      <c r="B833" s="36"/>
+      <c r="B833" s="30"/>
       <c r="C833" s="3"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
@@ -21342,7 +21317,7 @@
     </row>
     <row r="834" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A834" s="7"/>
-      <c r="B834" s="36"/>
+      <c r="B834" s="30"/>
       <c r="C834" s="3"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
@@ -21366,7 +21341,7 @@
     </row>
     <row r="835" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A835" s="7"/>
-      <c r="B835" s="36"/>
+      <c r="B835" s="30"/>
       <c r="C835" s="3"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
@@ -21390,7 +21365,7 @@
     </row>
     <row r="836" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A836" s="7"/>
-      <c r="B836" s="36"/>
+      <c r="B836" s="30"/>
       <c r="C836" s="3"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
@@ -21414,7 +21389,7 @@
     </row>
     <row r="837" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A837" s="7"/>
-      <c r="B837" s="36"/>
+      <c r="B837" s="30"/>
       <c r="C837" s="3"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
@@ -21438,7 +21413,7 @@
     </row>
     <row r="838" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A838" s="7"/>
-      <c r="B838" s="36"/>
+      <c r="B838" s="30"/>
       <c r="C838" s="3"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
@@ -21462,7 +21437,7 @@
     </row>
     <row r="839" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A839" s="7"/>
-      <c r="B839" s="36"/>
+      <c r="B839" s="30"/>
       <c r="C839" s="3"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
@@ -21486,7 +21461,7 @@
     </row>
     <row r="840" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A840" s="7"/>
-      <c r="B840" s="36"/>
+      <c r="B840" s="30"/>
       <c r="C840" s="3"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
@@ -21510,7 +21485,7 @@
     </row>
     <row r="841" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A841" s="7"/>
-      <c r="B841" s="36"/>
+      <c r="B841" s="30"/>
       <c r="C841" s="3"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
@@ -21534,7 +21509,7 @@
     </row>
     <row r="842" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A842" s="7"/>
-      <c r="B842" s="36"/>
+      <c r="B842" s="30"/>
       <c r="C842" s="3"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
@@ -21558,7 +21533,7 @@
     </row>
     <row r="843" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A843" s="7"/>
-      <c r="B843" s="36"/>
+      <c r="B843" s="30"/>
       <c r="C843" s="3"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
@@ -21582,7 +21557,7 @@
     </row>
     <row r="844" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A844" s="7"/>
-      <c r="B844" s="36"/>
+      <c r="B844" s="30"/>
       <c r="C844" s="3"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
@@ -21606,7 +21581,7 @@
     </row>
     <row r="845" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A845" s="7"/>
-      <c r="B845" s="36"/>
+      <c r="B845" s="30"/>
       <c r="C845" s="3"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
@@ -21630,7 +21605,7 @@
     </row>
     <row r="846" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A846" s="7"/>
-      <c r="B846" s="36"/>
+      <c r="B846" s="30"/>
       <c r="C846" s="3"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
@@ -21654,7 +21629,7 @@
     </row>
     <row r="847" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A847" s="7"/>
-      <c r="B847" s="36"/>
+      <c r="B847" s="30"/>
       <c r="C847" s="3"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
@@ -21678,7 +21653,7 @@
     </row>
     <row r="848" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A848" s="7"/>
-      <c r="B848" s="36"/>
+      <c r="B848" s="30"/>
       <c r="C848" s="3"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
@@ -21702,7 +21677,7 @@
     </row>
     <row r="849" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A849" s="7"/>
-      <c r="B849" s="36"/>
+      <c r="B849" s="30"/>
       <c r="C849" s="3"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
@@ -21726,7 +21701,7 @@
     </row>
     <row r="850" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A850" s="7"/>
-      <c r="B850" s="36"/>
+      <c r="B850" s="30"/>
       <c r="C850" s="3"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
@@ -21750,7 +21725,7 @@
     </row>
     <row r="851" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A851" s="7"/>
-      <c r="B851" s="36"/>
+      <c r="B851" s="30"/>
       <c r="C851" s="3"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
@@ -21774,7 +21749,7 @@
     </row>
     <row r="852" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A852" s="7"/>
-      <c r="B852" s="36"/>
+      <c r="B852" s="30"/>
       <c r="C852" s="3"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
@@ -21798,7 +21773,7 @@
     </row>
     <row r="853" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A853" s="7"/>
-      <c r="B853" s="36"/>
+      <c r="B853" s="30"/>
       <c r="C853" s="3"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
@@ -21822,7 +21797,7 @@
     </row>
     <row r="854" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A854" s="7"/>
-      <c r="B854" s="36"/>
+      <c r="B854" s="30"/>
       <c r="C854" s="3"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
@@ -21846,7 +21821,7 @@
     </row>
     <row r="855" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A855" s="7"/>
-      <c r="B855" s="36"/>
+      <c r="B855" s="30"/>
       <c r="C855" s="3"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
@@ -21870,7 +21845,7 @@
     </row>
     <row r="856" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A856" s="7"/>
-      <c r="B856" s="36"/>
+      <c r="B856" s="30"/>
       <c r="C856" s="3"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
@@ -21894,7 +21869,7 @@
     </row>
     <row r="857" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A857" s="7"/>
-      <c r="B857" s="36"/>
+      <c r="B857" s="30"/>
       <c r="C857" s="3"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
@@ -21918,7 +21893,7 @@
     </row>
     <row r="858" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A858" s="7"/>
-      <c r="B858" s="36"/>
+      <c r="B858" s="30"/>
       <c r="C858" s="3"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
@@ -21942,7 +21917,7 @@
     </row>
     <row r="859" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A859" s="7"/>
-      <c r="B859" s="36"/>
+      <c r="B859" s="30"/>
       <c r="C859" s="3"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
@@ -21966,7 +21941,7 @@
     </row>
     <row r="860" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A860" s="7"/>
-      <c r="B860" s="36"/>
+      <c r="B860" s="30"/>
       <c r="C860" s="3"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
@@ -21990,7 +21965,7 @@
     </row>
     <row r="861" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A861" s="7"/>
-      <c r="B861" s="36"/>
+      <c r="B861" s="30"/>
       <c r="C861" s="3"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
@@ -22014,7 +21989,7 @@
     </row>
     <row r="862" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A862" s="7"/>
-      <c r="B862" s="36"/>
+      <c r="B862" s="30"/>
       <c r="C862" s="3"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
@@ -22038,7 +22013,7 @@
     </row>
     <row r="863" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A863" s="7"/>
-      <c r="B863" s="36"/>
+      <c r="B863" s="30"/>
       <c r="C863" s="3"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
@@ -22062,7 +22037,7 @@
     </row>
     <row r="864" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A864" s="7"/>
-      <c r="B864" s="36"/>
+      <c r="B864" s="30"/>
       <c r="C864" s="3"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
@@ -22086,7 +22061,7 @@
     </row>
     <row r="865" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A865" s="7"/>
-      <c r="B865" s="36"/>
+      <c r="B865" s="30"/>
       <c r="C865" s="3"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
@@ -22110,7 +22085,7 @@
     </row>
     <row r="866" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A866" s="7"/>
-      <c r="B866" s="36"/>
+      <c r="B866" s="30"/>
       <c r="C866" s="3"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
@@ -22134,7 +22109,7 @@
     </row>
     <row r="867" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A867" s="7"/>
-      <c r="B867" s="36"/>
+      <c r="B867" s="30"/>
       <c r="C867" s="3"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
@@ -22158,7 +22133,7 @@
     </row>
     <row r="868" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A868" s="7"/>
-      <c r="B868" s="36"/>
+      <c r="B868" s="30"/>
       <c r="C868" s="3"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
@@ -22182,7 +22157,7 @@
     </row>
     <row r="869" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A869" s="7"/>
-      <c r="B869" s="36"/>
+      <c r="B869" s="30"/>
       <c r="C869" s="3"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
@@ -22206,7 +22181,7 @@
     </row>
     <row r="870" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A870" s="7"/>
-      <c r="B870" s="36"/>
+      <c r="B870" s="30"/>
       <c r="C870" s="3"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
@@ -22230,7 +22205,7 @@
     </row>
     <row r="871" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A871" s="7"/>
-      <c r="B871" s="36"/>
+      <c r="B871" s="30"/>
       <c r="C871" s="3"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
@@ -22254,7 +22229,7 @@
     </row>
     <row r="872" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A872" s="7"/>
-      <c r="B872" s="36"/>
+      <c r="B872" s="30"/>
       <c r="C872" s="3"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
@@ -22278,7 +22253,7 @@
     </row>
     <row r="873" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A873" s="7"/>
-      <c r="B873" s="36"/>
+      <c r="B873" s="30"/>
       <c r="C873" s="3"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
@@ -22302,7 +22277,7 @@
     </row>
     <row r="874" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A874" s="7"/>
-      <c r="B874" s="36"/>
+      <c r="B874" s="30"/>
       <c r="C874" s="3"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
@@ -22326,7 +22301,7 @@
     </row>
     <row r="875" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A875" s="7"/>
-      <c r="B875" s="36"/>
+      <c r="B875" s="30"/>
       <c r="C875" s="3"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
@@ -22350,7 +22325,7 @@
     </row>
     <row r="876" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A876" s="7"/>
-      <c r="B876" s="36"/>
+      <c r="B876" s="30"/>
       <c r="C876" s="3"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
@@ -22374,7 +22349,7 @@
     </row>
     <row r="877" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A877" s="7"/>
-      <c r="B877" s="36"/>
+      <c r="B877" s="30"/>
       <c r="C877" s="3"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
@@ -22398,7 +22373,7 @@
     </row>
     <row r="878" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A878" s="7"/>
-      <c r="B878" s="36"/>
+      <c r="B878" s="30"/>
       <c r="C878" s="3"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
@@ -22422,7 +22397,7 @@
     </row>
     <row r="879" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A879" s="7"/>
-      <c r="B879" s="36"/>
+      <c r="B879" s="30"/>
       <c r="C879" s="3"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
@@ -22446,7 +22421,7 @@
     </row>
     <row r="880" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A880" s="7"/>
-      <c r="B880" s="36"/>
+      <c r="B880" s="30"/>
       <c r="C880" s="3"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
@@ -22470,7 +22445,7 @@
     </row>
     <row r="881" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A881" s="7"/>
-      <c r="B881" s="36"/>
+      <c r="B881" s="30"/>
       <c r="C881" s="3"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
@@ -22494,7 +22469,7 @@
     </row>
     <row r="882" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A882" s="7"/>
-      <c r="B882" s="36"/>
+      <c r="B882" s="30"/>
       <c r="C882" s="3"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
@@ -22518,7 +22493,7 @@
     </row>
     <row r="883" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A883" s="7"/>
-      <c r="B883" s="36"/>
+      <c r="B883" s="30"/>
       <c r="C883" s="3"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
@@ -22542,7 +22517,7 @@
     </row>
     <row r="884" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A884" s="7"/>
-      <c r="B884" s="36"/>
+      <c r="B884" s="30"/>
       <c r="C884" s="3"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
@@ -22566,7 +22541,7 @@
     </row>
     <row r="885" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A885" s="7"/>
-      <c r="B885" s="36"/>
+      <c r="B885" s="30"/>
       <c r="C885" s="3"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
@@ -22590,7 +22565,7 @@
     </row>
     <row r="886" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A886" s="7"/>
-      <c r="B886" s="36"/>
+      <c r="B886" s="30"/>
       <c r="C886" s="3"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
@@ -22614,7 +22589,7 @@
     </row>
     <row r="887" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A887" s="7"/>
-      <c r="B887" s="36"/>
+      <c r="B887" s="30"/>
       <c r="C887" s="3"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
@@ -22638,7 +22613,7 @@
     </row>
     <row r="888" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A888" s="7"/>
-      <c r="B888" s="36"/>
+      <c r="B888" s="30"/>
       <c r="C888" s="3"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
@@ -22662,7 +22637,7 @@
     </row>
     <row r="889" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A889" s="7"/>
-      <c r="B889" s="36"/>
+      <c r="B889" s="30"/>
       <c r="C889" s="3"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
@@ -22686,7 +22661,7 @@
     </row>
     <row r="890" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A890" s="7"/>
-      <c r="B890" s="36"/>
+      <c r="B890" s="30"/>
       <c r="C890" s="3"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
@@ -22710,7 +22685,7 @@
     </row>
     <row r="891" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A891" s="7"/>
-      <c r="B891" s="36"/>
+      <c r="B891" s="30"/>
       <c r="C891" s="3"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
@@ -22734,7 +22709,7 @@
     </row>
     <row r="892" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A892" s="7"/>
-      <c r="B892" s="36"/>
+      <c r="B892" s="30"/>
       <c r="C892" s="3"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
@@ -22758,7 +22733,7 @@
     </row>
     <row r="893" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A893" s="7"/>
-      <c r="B893" s="36"/>
+      <c r="B893" s="30"/>
       <c r="C893" s="3"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
@@ -22782,7 +22757,7 @@
     </row>
     <row r="894" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A894" s="7"/>
-      <c r="B894" s="36"/>
+      <c r="B894" s="30"/>
       <c r="C894" s="3"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
@@ -22806,7 +22781,7 @@
     </row>
     <row r="895" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A895" s="7"/>
-      <c r="B895" s="36"/>
+      <c r="B895" s="30"/>
       <c r="C895" s="3"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
@@ -22830,7 +22805,7 @@
     </row>
     <row r="896" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A896" s="7"/>
-      <c r="B896" s="36"/>
+      <c r="B896" s="30"/>
       <c r="C896" s="3"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
@@ -22854,7 +22829,7 @@
     </row>
     <row r="897" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A897" s="7"/>
-      <c r="B897" s="36"/>
+      <c r="B897" s="30"/>
       <c r="C897" s="3"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
@@ -22878,7 +22853,7 @@
     </row>
     <row r="898" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A898" s="7"/>
-      <c r="B898" s="36"/>
+      <c r="B898" s="30"/>
       <c r="C898" s="3"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
@@ -22902,7 +22877,7 @@
     </row>
     <row r="899" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A899" s="7"/>
-      <c r="B899" s="36"/>
+      <c r="B899" s="30"/>
       <c r="C899" s="3"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
@@ -22926,7 +22901,7 @@
     </row>
     <row r="900" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A900" s="7"/>
-      <c r="B900" s="36"/>
+      <c r="B900" s="30"/>
       <c r="C900" s="3"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
@@ -22950,7 +22925,7 @@
     </row>
     <row r="901" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A901" s="7"/>
-      <c r="B901" s="36"/>
+      <c r="B901" s="30"/>
       <c r="C901" s="3"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
@@ -22974,7 +22949,7 @@
     </row>
     <row r="902" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A902" s="7"/>
-      <c r="B902" s="36"/>
+      <c r="B902" s="30"/>
       <c r="C902" s="3"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
@@ -22998,7 +22973,7 @@
     </row>
     <row r="903" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A903" s="7"/>
-      <c r="B903" s="36"/>
+      <c r="B903" s="30"/>
       <c r="C903" s="3"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
@@ -23022,7 +22997,7 @@
     </row>
     <row r="904" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A904" s="7"/>
-      <c r="B904" s="36"/>
+      <c r="B904" s="30"/>
       <c r="C904" s="3"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
@@ -23046,7 +23021,7 @@
     </row>
     <row r="905" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A905" s="7"/>
-      <c r="B905" s="36"/>
+      <c r="B905" s="30"/>
       <c r="C905" s="3"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
@@ -23070,7 +23045,7 @@
     </row>
     <row r="906" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A906" s="7"/>
-      <c r="B906" s="36"/>
+      <c r="B906" s="30"/>
       <c r="C906" s="3"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
@@ -23094,7 +23069,7 @@
     </row>
     <row r="907" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A907" s="7"/>
-      <c r="B907" s="36"/>
+      <c r="B907" s="30"/>
       <c r="C907" s="3"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
@@ -23118,7 +23093,7 @@
     </row>
     <row r="908" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A908" s="7"/>
-      <c r="B908" s="36"/>
+      <c r="B908" s="30"/>
       <c r="C908" s="3"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
@@ -23142,7 +23117,7 @@
     </row>
     <row r="909" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A909" s="7"/>
-      <c r="B909" s="36"/>
+      <c r="B909" s="30"/>
       <c r="C909" s="3"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
@@ -23166,7 +23141,7 @@
     </row>
     <row r="910" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A910" s="7"/>
-      <c r="B910" s="36"/>
+      <c r="B910" s="30"/>
       <c r="C910" s="3"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
@@ -23190,7 +23165,7 @@
     </row>
     <row r="911" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A911" s="7"/>
-      <c r="B911" s="36"/>
+      <c r="B911" s="30"/>
       <c r="C911" s="3"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
@@ -23214,7 +23189,7 @@
     </row>
     <row r="912" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A912" s="7"/>
-      <c r="B912" s="36"/>
+      <c r="B912" s="30"/>
       <c r="C912" s="3"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
@@ -23238,7 +23213,7 @@
     </row>
     <row r="913" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A913" s="7"/>
-      <c r="B913" s="36"/>
+      <c r="B913" s="30"/>
       <c r="C913" s="3"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
@@ -23262,7 +23237,7 @@
     </row>
     <row r="914" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A914" s="7"/>
-      <c r="B914" s="36"/>
+      <c r="B914" s="30"/>
       <c r="C914" s="3"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
@@ -23286,7 +23261,7 @@
     </row>
     <row r="915" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A915" s="7"/>
-      <c r="B915" s="36"/>
+      <c r="B915" s="30"/>
       <c r="C915" s="3"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
@@ -23310,7 +23285,7 @@
     </row>
     <row r="916" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A916" s="7"/>
-      <c r="B916" s="36"/>
+      <c r="B916" s="30"/>
       <c r="C916" s="3"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
@@ -23334,7 +23309,7 @@
     </row>
     <row r="917" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A917" s="7"/>
-      <c r="B917" s="36"/>
+      <c r="B917" s="30"/>
       <c r="C917" s="3"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
@@ -23358,7 +23333,7 @@
     </row>
     <row r="918" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A918" s="7"/>
-      <c r="B918" s="36"/>
+      <c r="B918" s="30"/>
       <c r="C918" s="3"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
@@ -23382,7 +23357,7 @@
     </row>
     <row r="919" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A919" s="7"/>
-      <c r="B919" s="36"/>
+      <c r="B919" s="30"/>
       <c r="C919" s="3"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
@@ -23406,7 +23381,7 @@
     </row>
     <row r="920" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A920" s="7"/>
-      <c r="B920" s="36"/>
+      <c r="B920" s="30"/>
       <c r="C920" s="3"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
@@ -23430,7 +23405,7 @@
     </row>
     <row r="921" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A921" s="7"/>
-      <c r="B921" s="36"/>
+      <c r="B921" s="30"/>
       <c r="C921" s="3"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
@@ -23454,7 +23429,7 @@
     </row>
     <row r="922" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A922" s="7"/>
-      <c r="B922" s="36"/>
+      <c r="B922" s="30"/>
       <c r="C922" s="3"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
@@ -23478,7 +23453,7 @@
     </row>
     <row r="923" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A923" s="7"/>
-      <c r="B923" s="36"/>
+      <c r="B923" s="30"/>
       <c r="C923" s="3"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
@@ -23502,7 +23477,7 @@
     </row>
     <row r="924" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A924" s="7"/>
-      <c r="B924" s="36"/>
+      <c r="B924" s="30"/>
       <c r="C924" s="3"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
@@ -23526,7 +23501,7 @@
     </row>
     <row r="925" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A925" s="7"/>
-      <c r="B925" s="36"/>
+      <c r="B925" s="30"/>
       <c r="C925" s="3"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
@@ -23550,7 +23525,7 @@
     </row>
     <row r="926" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A926" s="7"/>
-      <c r="B926" s="36"/>
+      <c r="B926" s="30"/>
       <c r="C926" s="3"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
@@ -23574,7 +23549,7 @@
     </row>
     <row r="927" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A927" s="7"/>
-      <c r="B927" s="36"/>
+      <c r="B927" s="30"/>
       <c r="C927" s="3"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
@@ -23598,7 +23573,7 @@
     </row>
     <row r="928" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A928" s="7"/>
-      <c r="B928" s="36"/>
+      <c r="B928" s="30"/>
       <c r="C928" s="3"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
@@ -23622,7 +23597,7 @@
     </row>
     <row r="929" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A929" s="7"/>
-      <c r="B929" s="36"/>
+      <c r="B929" s="30"/>
       <c r="C929" s="3"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
@@ -23646,7 +23621,7 @@
     </row>
     <row r="930" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A930" s="7"/>
-      <c r="B930" s="36"/>
+      <c r="B930" s="30"/>
       <c r="C930" s="3"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
@@ -23670,7 +23645,7 @@
     </row>
     <row r="931" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A931" s="7"/>
-      <c r="B931" s="36"/>
+      <c r="B931" s="30"/>
       <c r="C931" s="3"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
@@ -23694,7 +23669,7 @@
     </row>
     <row r="932" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A932" s="7"/>
-      <c r="B932" s="36"/>
+      <c r="B932" s="30"/>
       <c r="C932" s="3"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
@@ -23718,7 +23693,7 @@
     </row>
     <row r="933" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A933" s="7"/>
-      <c r="B933" s="36"/>
+      <c r="B933" s="30"/>
       <c r="C933" s="3"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
@@ -23742,7 +23717,7 @@
     </row>
     <row r="934" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A934" s="7"/>
-      <c r="B934" s="36"/>
+      <c r="B934" s="30"/>
       <c r="C934" s="3"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
@@ -23766,7 +23741,7 @@
     </row>
     <row r="935" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A935" s="7"/>
-      <c r="B935" s="36"/>
+      <c r="B935" s="30"/>
       <c r="C935" s="3"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
@@ -23790,7 +23765,7 @@
     </row>
     <row r="936" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A936" s="7"/>
-      <c r="B936" s="36"/>
+      <c r="B936" s="30"/>
       <c r="C936" s="3"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
@@ -23814,7 +23789,7 @@
     </row>
     <row r="937" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A937" s="7"/>
-      <c r="B937" s="36"/>
+      <c r="B937" s="30"/>
       <c r="C937" s="3"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
@@ -23838,7 +23813,7 @@
     </row>
     <row r="938" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A938" s="7"/>
-      <c r="B938" s="36"/>
+      <c r="B938" s="30"/>
       <c r="C938" s="3"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
@@ -23862,7 +23837,7 @@
     </row>
     <row r="939" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A939" s="7"/>
-      <c r="B939" s="36"/>
+      <c r="B939" s="30"/>
       <c r="C939" s="3"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
@@ -23886,7 +23861,7 @@
     </row>
     <row r="940" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A940" s="7"/>
-      <c r="B940" s="36"/>
+      <c r="B940" s="30"/>
       <c r="C940" s="3"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
@@ -23910,7 +23885,7 @@
     </row>
     <row r="941" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A941" s="7"/>
-      <c r="B941" s="36"/>
+      <c r="B941" s="30"/>
       <c r="C941" s="3"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
@@ -23934,7 +23909,7 @@
     </row>
     <row r="942" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A942" s="7"/>
-      <c r="B942" s="36"/>
+      <c r="B942" s="30"/>
       <c r="C942" s="3"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
@@ -23958,7 +23933,7 @@
     </row>
     <row r="943" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A943" s="7"/>
-      <c r="B943" s="36"/>
+      <c r="B943" s="30"/>
       <c r="C943" s="3"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
@@ -23982,7 +23957,7 @@
     </row>
     <row r="944" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A944" s="7"/>
-      <c r="B944" s="36"/>
+      <c r="B944" s="30"/>
       <c r="C944" s="3"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
@@ -24006,7 +23981,7 @@
     </row>
     <row r="945" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A945" s="7"/>
-      <c r="B945" s="36"/>
+      <c r="B945" s="30"/>
       <c r="C945" s="3"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
@@ -24030,7 +24005,7 @@
     </row>
     <row r="946" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A946" s="7"/>
-      <c r="B946" s="36"/>
+      <c r="B946" s="30"/>
       <c r="C946" s="3"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
@@ -24054,7 +24029,7 @@
     </row>
     <row r="947" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A947" s="7"/>
-      <c r="B947" s="36"/>
+      <c r="B947" s="30"/>
       <c r="C947" s="3"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
@@ -24078,7 +24053,7 @@
     </row>
     <row r="948" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A948" s="7"/>
-      <c r="B948" s="36"/>
+      <c r="B948" s="30"/>
       <c r="C948" s="3"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
@@ -24102,7 +24077,7 @@
     </row>
     <row r="949" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A949" s="7"/>
-      <c r="B949" s="36"/>
+      <c r="B949" s="30"/>
       <c r="C949" s="3"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
@@ -24126,7 +24101,7 @@
     </row>
     <row r="950" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A950" s="7"/>
-      <c r="B950" s="36"/>
+      <c r="B950" s="30"/>
       <c r="C950" s="3"/>
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
@@ -24150,7 +24125,7 @@
     </row>
     <row r="951" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A951" s="7"/>
-      <c r="B951" s="36"/>
+      <c r="B951" s="30"/>
       <c r="C951" s="3"/>
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
@@ -24174,7 +24149,7 @@
     </row>
     <row r="952" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A952" s="7"/>
-      <c r="B952" s="36"/>
+      <c r="B952" s="30"/>
       <c r="C952" s="3"/>
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
@@ -24198,7 +24173,7 @@
     </row>
     <row r="953" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A953" s="7"/>
-      <c r="B953" s="36"/>
+      <c r="B953" s="30"/>
       <c r="C953" s="3"/>
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
@@ -24222,7 +24197,7 @@
     </row>
     <row r="954" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A954" s="7"/>
-      <c r="B954" s="36"/>
+      <c r="B954" s="30"/>
       <c r="C954" s="3"/>
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
@@ -24246,7 +24221,7 @@
     </row>
     <row r="955" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A955" s="7"/>
-      <c r="B955" s="36"/>
+      <c r="B955" s="30"/>
       <c r="C955" s="3"/>
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
@@ -24270,7 +24245,7 @@
     </row>
     <row r="956" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A956" s="7"/>
-      <c r="B956" s="36"/>
+      <c r="B956" s="30"/>
       <c r="C956" s="3"/>
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
@@ -24294,7 +24269,7 @@
     </row>
     <row r="957" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A957" s="7"/>
-      <c r="B957" s="36"/>
+      <c r="B957" s="30"/>
       <c r="C957" s="3"/>
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
@@ -24318,7 +24293,7 @@
     </row>
     <row r="958" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A958" s="7"/>
-      <c r="B958" s="36"/>
+      <c r="B958" s="30"/>
       <c r="C958" s="3"/>
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
@@ -24342,7 +24317,7 @@
     </row>
     <row r="959" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A959" s="7"/>
-      <c r="B959" s="36"/>
+      <c r="B959" s="30"/>
       <c r="C959" s="3"/>
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
@@ -24366,7 +24341,7 @@
     </row>
     <row r="960" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A960" s="7"/>
-      <c r="B960" s="36"/>
+      <c r="B960" s="30"/>
       <c r="C960" s="3"/>
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
@@ -24390,7 +24365,7 @@
     </row>
     <row r="961" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A961" s="7"/>
-      <c r="B961" s="36"/>
+      <c r="B961" s="30"/>
       <c r="C961" s="3"/>
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
@@ -24414,7 +24389,7 @@
     </row>
     <row r="962" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A962" s="7"/>
-      <c r="B962" s="36"/>
+      <c r="B962" s="30"/>
       <c r="C962" s="3"/>
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
@@ -24438,7 +24413,7 @@
     </row>
     <row r="963" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A963" s="7"/>
-      <c r="B963" s="36"/>
+      <c r="B963" s="30"/>
       <c r="C963" s="3"/>
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
@@ -24462,7 +24437,7 @@
     </row>
     <row r="964" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A964" s="7"/>
-      <c r="B964" s="36"/>
+      <c r="B964" s="30"/>
       <c r="C964" s="3"/>
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
@@ -24486,7 +24461,7 @@
     </row>
     <row r="965" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A965" s="7"/>
-      <c r="B965" s="36"/>
+      <c r="B965" s="30"/>
       <c r="C965" s="3"/>
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
@@ -24510,7 +24485,7 @@
     </row>
     <row r="966" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A966" s="7"/>
-      <c r="B966" s="36"/>
+      <c r="B966" s="30"/>
       <c r="C966" s="3"/>
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
@@ -24534,7 +24509,7 @@
     </row>
     <row r="967" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A967" s="7"/>
-      <c r="B967" s="36"/>
+      <c r="B967" s="30"/>
       <c r="C967" s="3"/>
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
@@ -24558,7 +24533,7 @@
     </row>
     <row r="968" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A968" s="7"/>
-      <c r="B968" s="36"/>
+      <c r="B968" s="30"/>
       <c r="C968" s="3"/>
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
@@ -24582,7 +24557,7 @@
     </row>
     <row r="969" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A969" s="7"/>
-      <c r="B969" s="36"/>
+      <c r="B969" s="30"/>
       <c r="C969" s="3"/>
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
@@ -24606,7 +24581,7 @@
     </row>
     <row r="970" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A970" s="7"/>
-      <c r="B970" s="36"/>
+      <c r="B970" s="30"/>
       <c r="C970" s="3"/>
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
@@ -24630,7 +24605,7 @@
     </row>
     <row r="971" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A971" s="7"/>
-      <c r="B971" s="36"/>
+      <c r="B971" s="30"/>
       <c r="C971" s="3"/>
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
@@ -24654,7 +24629,7 @@
     </row>
     <row r="972" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A972" s="7"/>
-      <c r="B972" s="36"/>
+      <c r="B972" s="30"/>
       <c r="C972" s="3"/>
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
@@ -24678,7 +24653,7 @@
     </row>
     <row r="973" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A973" s="7"/>
-      <c r="B973" s="36"/>
+      <c r="B973" s="30"/>
       <c r="C973" s="3"/>
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
@@ -24702,7 +24677,7 @@
     </row>
     <row r="974" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A974" s="7"/>
-      <c r="B974" s="36"/>
+      <c r="B974" s="30"/>
       <c r="C974" s="3"/>
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
@@ -24726,7 +24701,7 @@
     </row>
     <row r="975" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A975" s="7"/>
-      <c r="B975" s="36"/>
+      <c r="B975" s="30"/>
       <c r="C975" s="3"/>
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
@@ -24750,7 +24725,7 @@
     </row>
     <row r="976" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A976" s="7"/>
-      <c r="B976" s="36"/>
+      <c r="B976" s="30"/>
       <c r="C976" s="3"/>
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
@@ -24774,7 +24749,7 @@
     </row>
     <row r="977" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A977" s="7"/>
-      <c r="B977" s="36"/>
+      <c r="B977" s="30"/>
       <c r="C977" s="3"/>
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
@@ -24798,7 +24773,7 @@
     </row>
     <row r="978" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A978" s="7"/>
-      <c r="B978" s="36"/>
+      <c r="B978" s="30"/>
       <c r="C978" s="3"/>
       <c r="D978" s="1"/>
       <c r="E978" s="1"/>
@@ -24822,7 +24797,7 @@
     </row>
     <row r="979" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A979" s="7"/>
-      <c r="B979" s="36"/>
+      <c r="B979" s="30"/>
       <c r="C979" s="3"/>
       <c r="D979" s="1"/>
       <c r="E979" s="1"/>
@@ -24846,7 +24821,7 @@
     </row>
     <row r="980" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A980" s="7"/>
-      <c r="B980" s="36"/>
+      <c r="B980" s="30"/>
       <c r="C980" s="3"/>
       <c r="D980" s="1"/>
       <c r="E980" s="1"/>
@@ -24870,7 +24845,7 @@
     </row>
     <row r="981" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A981" s="7"/>
-      <c r="B981" s="36"/>
+      <c r="B981" s="30"/>
       <c r="C981" s="3"/>
       <c r="D981" s="1"/>
       <c r="E981" s="1"/>
@@ -24894,7 +24869,7 @@
     </row>
     <row r="982" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A982" s="7"/>
-      <c r="B982" s="36"/>
+      <c r="B982" s="30"/>
       <c r="C982" s="3"/>
       <c r="D982" s="1"/>
       <c r="E982" s="1"/>
@@ -24944,12 +24919,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100231ACC10D748F34BAA0C20ABFA72A7EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b60ada5ef74d917189c377d37311689">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a56c8121-053f-455f-842b-cd566811d075" xmlns:ns3="76f06672-c643-4888-a225-c4422b0e89ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f62d863a5068cb9de04048c4fc264cf7" ns2:_="" ns3:_="">
     <xsd:import namespace="a56c8121-053f-455f-842b-cd566811d075"/>
@@ -25132,6 +25101,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}">
   <ds:schemaRefs>
@@ -25141,15 +25116,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C37A5DE0-9FD1-4721-9C30-3A5B42A32EC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25166,4 +25132,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-QA.xlsx
+++ b/scripts/codemagic-ci/testing/Regression-Test-Plan-Template-Android-QA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbryant/UCSD/campusmobile/scripts/codemagic-ci/testing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{041A76AF-137C-F44C-B3D3-7C50DC57EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F51B53F6-C292-4E79-9AC6-AC7640BF8B2E}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{041A76AF-137C-F44C-B3D3-7C50DC57EB3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{370155BA-A1B0-43E7-BC11-1FBA5363962E}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t xml:space="preserve">Regression Test Plan - ${APP_VERSION} - ${BUILD_ENV}  </t>
   </si>
@@ -53,7 +53,43 @@
     <t>Build Info</t>
   </si>
   <si>
-    <t>Time and Date Testing Was Completed:</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">Time and Date Testing Was Complete (Testing must be done between </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>6 AM and 5 PM, Mon-Fri</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>(see "services duty cycle" section on the right side of the testing sheet for more info)</t>
+    </r>
   </si>
   <si>
     <t>mm/dd/yy - 00:00 AM/PM</t>
@@ -170,7 +206,13 @@
     <t>Home view logged in as Student displays Student cards</t>
   </si>
   <si>
+    <t>Services Duty Cycle</t>
+  </si>
+  <si>
     <t>Home view logged in as Staff displays Staff cards</t>
+  </si>
+  <si>
+    <t>Platform Duty Cycle - ESR iPaaS - UCSD Collab (atlassian.net)</t>
   </si>
   <si>
     <t>Native Scanner (not logged in) link navigates to Profile SSO Login</t>
@@ -283,12 +325,15 @@
   <si>
     <t>PASS / FAIL</t>
   </si>
+  <si>
+    <t>Notified test requester that you have completed testing (mark this box green after you have informed the test requester that you have finished testing)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -351,12 +396,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -395,8 +434,31 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +534,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE3AA00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,9 +664,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -628,25 +696,22 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -661,7 +726,7 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -673,32 +738,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -706,26 +759,35 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1167,14 +1229,14 @@
   </sheetPr>
   <dimension ref="A1:V982"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="140" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="109.42578125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="28.5703125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="96.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" style="26" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" style="4" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="2" customWidth="1"/>
     <col min="5" max="5" width="31.140625" style="2" customWidth="1"/>
@@ -1182,19 +1244,19 @@
     <col min="7" max="16384" width="14.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="6" customFormat="1" ht="26.1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:22" s="6" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="9"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
@@ -1212,20 +1274,20 @@
       <c r="U1" s="5"/>
       <c r="V1" s="5"/>
     </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" ht="15.95">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:22" s="6" customFormat="1" ht="15.75">
+      <c r="A2" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="11"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1243,18 +1305,18 @@
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:22" ht="31.5" customHeight="1">
+      <c r="A3" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="23" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="22" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -1278,13 +1340,13 @@
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="15">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="23" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="22" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -1311,10 +1373,10 @@
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="23" t="s">
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="22" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -1341,8 +1403,8 @@
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1365,13 +1427,13 @@
       <c r="A7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="17"/>
+      <c r="F7" s="16"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1393,13 +1455,13 @@
       <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1421,13 +1483,13 @@
       <c r="A9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1449,13 +1511,13 @@
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1477,13 +1539,13 @@
       <c r="A11" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1505,8 +1567,8 @@
       <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
       <c r="D12" s="1"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
@@ -1528,16 +1590,16 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="1:22" ht="28.5">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="17"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1556,16 +1618,16 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="1:22" ht="14.25">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="34" t="s">
+      <c r="E14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="28"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1587,10 +1649,10 @@
       <c r="A15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="31" t="s">
+      <c r="E15" s="27" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="8"/>
@@ -1615,10 +1677,10 @@
       <c r="A16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="28" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="8"/>
@@ -1643,10 +1705,10 @@
       <c r="A17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="27" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="1"/>
@@ -1667,13 +1729,13 @@
       <c r="V17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="14.25">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="28" t="s">
         <v>38</v>
       </c>
       <c r="F18" s="1"/>
@@ -1698,10 +1760,10 @@
       <c r="A19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="31" t="s">
+      <c r="E19" s="27" t="s">
         <v>40</v>
       </c>
       <c r="F19" s="1"/>
@@ -1726,10 +1788,10 @@
       <c r="A20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="28" t="s">
         <v>42</v>
       </c>
       <c r="F20" s="1"/>
@@ -1754,11 +1816,13 @@
       <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="16"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1778,13 +1842,15 @@
     </row>
     <row r="22" spans="1:22" ht="14.25">
       <c r="A22" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="28"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1804,10 +1870,10 @@
     </row>
     <row r="23" spans="1:22" ht="14.25">
       <c r="A23" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1830,10 +1896,10 @@
     </row>
     <row r="24" spans="1:22" ht="14.25">
       <c r="A24" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1855,10 +1921,10 @@
     </row>
     <row r="25" spans="1:22" ht="14.25">
       <c r="A25" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
       <c r="D25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1880,10 +1946,10 @@
     </row>
     <row r="26" spans="1:22" ht="14.25">
       <c r="A26" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1905,10 +1971,10 @@
     </row>
     <row r="27" spans="1:22" ht="14.25">
       <c r="A27" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1930,10 +1996,10 @@
     </row>
     <row r="28" spans="1:22" ht="14.25">
       <c r="A28" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1955,10 +2021,10 @@
     </row>
     <row r="29" spans="1:22" ht="14.25">
       <c r="A29" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
       <c r="D29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1980,10 +2046,10 @@
     </row>
     <row r="30" spans="1:22" ht="14.25">
       <c r="A30" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2005,10 +2071,10 @@
     </row>
     <row r="31" spans="1:22" ht="14.25">
       <c r="A31" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="39"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2031,10 +2097,10 @@
     </row>
     <row r="32" spans="1:22" ht="14.25">
       <c r="A32" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -2057,10 +2123,10 @@
     </row>
     <row r="33" spans="1:22" ht="14.25">
       <c r="A33" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -2083,10 +2149,10 @@
     </row>
     <row r="34" spans="1:22" ht="14.25">
       <c r="A34" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -2109,10 +2175,10 @@
     </row>
     <row r="35" spans="1:22" ht="14.25">
       <c r="A35" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2135,10 +2201,10 @@
     </row>
     <row r="36" spans="1:22" ht="14.25">
       <c r="A36" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
@@ -2161,10 +2227,10 @@
     </row>
     <row r="37" spans="1:22" ht="14.25">
       <c r="A37" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
       <c r="D37" s="10"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2186,10 +2252,10 @@
     </row>
     <row r="38" spans="1:22" ht="14.25">
       <c r="A38" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2212,10 +2278,10 @@
     </row>
     <row r="39" spans="1:22" ht="14.25">
       <c r="A39" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="39"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2238,10 +2304,10 @@
     </row>
     <row r="40" spans="1:22" ht="14.25">
       <c r="A40" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2263,11 +2329,11 @@
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="1:22" ht="14.25">
-      <c r="A41" s="37" t="s">
-        <v>63</v>
+      <c r="A41" s="32" t="s">
+        <v>65</v>
       </c>
-      <c r="B41" s="41"/>
-      <c r="C41" s="41"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
@@ -2290,10 +2356,10 @@
     </row>
     <row r="42" spans="1:22" ht="14.25">
       <c r="A42" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
@@ -2316,10 +2382,10 @@
     </row>
     <row r="43" spans="1:22" ht="14.25">
       <c r="A43" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2342,10 +2408,10 @@
     </row>
     <row r="44" spans="1:22" ht="14.25">
       <c r="A44" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
@@ -2368,10 +2434,10 @@
     </row>
     <row r="45" spans="1:22" ht="14.25">
       <c r="A45" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="39"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
@@ -2394,10 +2460,10 @@
     </row>
     <row r="46" spans="1:22" ht="14.25">
       <c r="A46" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2420,10 +2486,10 @@
     </row>
     <row r="47" spans="1:22" ht="14.25">
       <c r="A47" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="39"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
@@ -2446,10 +2512,10 @@
     </row>
     <row r="48" spans="1:22" ht="14.25">
       <c r="A48" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="34"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
@@ -2471,11 +2537,11 @@
       <c r="V48" s="1"/>
     </row>
     <row r="49" spans="1:22" ht="14.25">
-      <c r="A49" s="36" t="s">
-        <v>71</v>
+      <c r="A49" s="31" t="s">
+        <v>73</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
@@ -2498,10 +2564,10 @@
     </row>
     <row r="50" spans="1:22" ht="14.25">
       <c r="A50" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
+      <c r="B50" s="34"/>
+      <c r="C50" s="34"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2524,10 +2590,10 @@
     </row>
     <row r="51" spans="1:22" ht="14.25">
       <c r="A51" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
-      <c r="B51" s="39"/>
-      <c r="C51" s="39"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
@@ -2550,10 +2616,10 @@
     </row>
     <row r="52" spans="1:22" ht="14.25">
       <c r="A52" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
+      <c r="B52" s="34"/>
+      <c r="C52" s="34"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
@@ -2575,11 +2641,11 @@
       <c r="V52" s="1"/>
     </row>
     <row r="53" spans="1:22" ht="14.25">
-      <c r="A53" s="36" t="s">
-        <v>75</v>
+      <c r="A53" s="31" t="s">
+        <v>77</v>
       </c>
-      <c r="B53" s="41"/>
-      <c r="C53" s="41"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
@@ -2602,10 +2668,10 @@
     </row>
     <row r="54" spans="1:22" ht="14.25">
       <c r="A54" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
-      <c r="B54" s="39"/>
-      <c r="C54" s="39"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
@@ -2628,10 +2694,10 @@
     </row>
     <row r="55" spans="1:22" ht="14.25">
       <c r="A55" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
@@ -2654,10 +2720,10 @@
     </row>
     <row r="56" spans="1:22" ht="14.25">
       <c r="A56" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -2680,10 +2746,10 @@
     </row>
     <row r="57" spans="1:22" ht="14.25">
       <c r="A57" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
-      <c r="B57" s="39"/>
-      <c r="C57" s="39"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
@@ -2705,11 +2771,11 @@
       <c r="V57" s="1"/>
     </row>
     <row r="58" spans="1:22" ht="14.25">
-      <c r="A58" s="38" t="s">
-        <v>80</v>
+      <c r="A58" s="33" t="s">
+        <v>82</v>
       </c>
-      <c r="B58" s="41"/>
-      <c r="C58" s="41"/>
+      <c r="B58" s="36"/>
+      <c r="C58" s="36"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
@@ -2731,10 +2797,10 @@
       <c r="V58" s="1"/>
     </row>
     <row r="59" spans="1:22" ht="14.25">
-      <c r="A59" s="25" t="s">
-        <v>81</v>
+      <c r="A59" s="24" t="s">
+        <v>83</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="25"/>
       <c r="C59" s="3"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -2756,9 +2822,11 @@
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
     </row>
-    <row r="60" spans="1:22" ht="17.100000000000001">
-      <c r="A60" s="11"/>
-      <c r="B60" s="28"/>
+    <row r="60" spans="1:22" ht="31.5" customHeight="1">
+      <c r="A60" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" s="25"/>
       <c r="C60" s="3"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -2782,7 +2850,7 @@
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="7"/>
-      <c r="B61" s="28"/>
+      <c r="B61" s="25"/>
       <c r="C61" s="3"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -2806,7 +2874,7 @@
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="7"/>
-      <c r="B62" s="28"/>
+      <c r="B62" s="25"/>
       <c r="C62" s="3"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -2830,7 +2898,7 @@
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="7"/>
-      <c r="B63" s="28"/>
+      <c r="B63" s="25"/>
       <c r="C63" s="3"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -2854,7 +2922,7 @@
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="7"/>
-      <c r="B64" s="28"/>
+      <c r="B64" s="25"/>
       <c r="C64" s="3"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -2878,7 +2946,7 @@
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="7"/>
-      <c r="B65" s="28"/>
+      <c r="B65" s="25"/>
       <c r="C65" s="3"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -2902,7 +2970,7 @@
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="7"/>
-      <c r="B66" s="28"/>
+      <c r="B66" s="25"/>
       <c r="C66" s="3"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -2926,7 +2994,7 @@
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="7"/>
-      <c r="B67" s="28"/>
+      <c r="B67" s="25"/>
       <c r="C67" s="3"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -2950,7 +3018,7 @@
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="7"/>
-      <c r="B68" s="28"/>
+      <c r="B68" s="25"/>
       <c r="C68" s="3"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -2974,7 +3042,7 @@
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="7"/>
-      <c r="B69" s="28"/>
+      <c r="B69" s="25"/>
       <c r="C69" s="3"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -2998,7 +3066,7 @@
     </row>
     <row r="70" spans="1:22">
       <c r="A70" s="7"/>
-      <c r="B70" s="28"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="3"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -3022,7 +3090,7 @@
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="7"/>
-      <c r="B71" s="28"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="3"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3046,7 +3114,7 @@
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="7"/>
-      <c r="B72" s="28"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="3"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3070,7 +3138,7 @@
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="7"/>
-      <c r="B73" s="28"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="3"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3094,7 +3162,7 @@
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="7"/>
-      <c r="B74" s="28"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="3"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3118,7 +3186,7 @@
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="7"/>
-      <c r="B75" s="28"/>
+      <c r="B75" s="25"/>
       <c r="C75" s="3"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3142,7 +3210,7 @@
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="7"/>
-      <c r="B76" s="28"/>
+      <c r="B76" s="25"/>
       <c r="C76" s="3"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -3166,7 +3234,7 @@
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="7"/>
-      <c r="B77" s="28"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="3"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3190,7 +3258,7 @@
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="7"/>
-      <c r="B78" s="28"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="3"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3214,7 +3282,7 @@
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="7"/>
-      <c r="B79" s="28"/>
+      <c r="B79" s="25"/>
       <c r="C79" s="3"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3238,7 +3306,7 @@
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="7"/>
-      <c r="B80" s="28"/>
+      <c r="B80" s="25"/>
       <c r="C80" s="3"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3262,7 +3330,7 @@
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="7"/>
-      <c r="B81" s="28"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="3"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -3286,7 +3354,7 @@
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="7"/>
-      <c r="B82" s="28"/>
+      <c r="B82" s="25"/>
       <c r="C82" s="3"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -3310,7 +3378,7 @@
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="7"/>
-      <c r="B83" s="28"/>
+      <c r="B83" s="25"/>
       <c r="C83" s="3"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -3334,7 +3402,7 @@
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="7"/>
-      <c r="B84" s="28"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="3"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -3358,7 +3426,7 @@
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="7"/>
-      <c r="B85" s="28"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="3"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -3382,7 +3450,7 @@
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="7"/>
-      <c r="B86" s="28"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="3"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -3406,7 +3474,7 @@
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="7"/>
-      <c r="B87" s="28"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="3"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -3430,7 +3498,7 @@
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="7"/>
-      <c r="B88" s="28"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="3"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -3454,7 +3522,7 @@
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="7"/>
-      <c r="B89" s="28"/>
+      <c r="B89" s="25"/>
       <c r="C89" s="3"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -3478,7 +3546,7 @@
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="7"/>
-      <c r="B90" s="28"/>
+      <c r="B90" s="25"/>
       <c r="C90" s="3"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -3502,7 +3570,7 @@
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="7"/>
-      <c r="B91" s="28"/>
+      <c r="B91" s="25"/>
       <c r="C91" s="3"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
@@ -3526,7 +3594,7 @@
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="7"/>
-      <c r="B92" s="28"/>
+      <c r="B92" s="25"/>
       <c r="C92" s="3"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
@@ -3550,7 +3618,7 @@
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="7"/>
-      <c r="B93" s="28"/>
+      <c r="B93" s="25"/>
       <c r="C93" s="3"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
@@ -3574,7 +3642,7 @@
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="7"/>
-      <c r="B94" s="28"/>
+      <c r="B94" s="25"/>
       <c r="C94" s="3"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
@@ -3598,7 +3666,7 @@
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="7"/>
-      <c r="B95" s="28"/>
+      <c r="B95" s="25"/>
       <c r="C95" s="3"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3622,7 +3690,7 @@
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="7"/>
-      <c r="B96" s="28"/>
+      <c r="B96" s="25"/>
       <c r="C96" s="3"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3646,7 +3714,7 @@
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="7"/>
-      <c r="B97" s="28"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="3"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3670,7 +3738,7 @@
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="7"/>
-      <c r="B98" s="28"/>
+      <c r="B98" s="25"/>
       <c r="C98" s="3"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3694,7 +3762,7 @@
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="7"/>
-      <c r="B99" s="28"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="3"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3718,7 +3786,7 @@
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="7"/>
-      <c r="B100" s="28"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="3"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3742,7 +3810,7 @@
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="7"/>
-      <c r="B101" s="28"/>
+      <c r="B101" s="25"/>
       <c r="C101" s="3"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3766,7 +3834,7 @@
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="7"/>
-      <c r="B102" s="28"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="3"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -3790,7 +3858,7 @@
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="7"/>
-      <c r="B103" s="28"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="3"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -3814,7 +3882,7 @@
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="7"/>
-      <c r="B104" s="28"/>
+      <c r="B104" s="25"/>
       <c r="C104" s="3"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -3838,7 +3906,7 @@
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="7"/>
-      <c r="B105" s="28"/>
+      <c r="B105" s="25"/>
       <c r="C105" s="3"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -3862,7 +3930,7 @@
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="7"/>
-      <c r="B106" s="28"/>
+      <c r="B106" s="25"/>
       <c r="C106" s="3"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
@@ -3886,7 +3954,7 @@
     </row>
     <row r="107" spans="1:22">
       <c r="A107" s="7"/>
-      <c r="B107" s="28"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="3"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
@@ -3910,7 +3978,7 @@
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="7"/>
-      <c r="B108" s="28"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="3"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
@@ -3934,7 +4002,7 @@
     </row>
     <row r="109" spans="1:22">
       <c r="A109" s="7"/>
-      <c r="B109" s="28"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="3"/>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
@@ -3958,7 +4026,7 @@
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="7"/>
-      <c r="B110" s="28"/>
+      <c r="B110" s="25"/>
       <c r="C110" s="3"/>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
@@ -3982,7 +4050,7 @@
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="7"/>
-      <c r="B111" s="28"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="3"/>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
@@ -4006,7 +4074,7 @@
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="7"/>
-      <c r="B112" s="28"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="3"/>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
@@ -4030,7 +4098,7 @@
     </row>
     <row r="113" spans="1:22">
       <c r="A113" s="7"/>
-      <c r="B113" s="28"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="3"/>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
@@ -4054,7 +4122,7 @@
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="7"/>
-      <c r="B114" s="28"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="3"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
@@ -4078,7 +4146,7 @@
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="7"/>
-      <c r="B115" s="28"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="3"/>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
@@ -4102,7 +4170,7 @@
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="7"/>
-      <c r="B116" s="28"/>
+      <c r="B116" s="25"/>
       <c r="C116" s="3"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
@@ -4126,7 +4194,7 @@
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="7"/>
-      <c r="B117" s="28"/>
+      <c r="B117" s="25"/>
       <c r="C117" s="3"/>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
@@ -4150,7 +4218,7 @@
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="7"/>
-      <c r="B118" s="28"/>
+      <c r="B118" s="25"/>
       <c r="C118" s="3"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
@@ -4174,7 +4242,7 @@
     </row>
     <row r="119" spans="1:22">
       <c r="A119" s="7"/>
-      <c r="B119" s="28"/>
+      <c r="B119" s="25"/>
       <c r="C119" s="3"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
@@ -4198,7 +4266,7 @@
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="7"/>
-      <c r="B120" s="28"/>
+      <c r="B120" s="25"/>
       <c r="C120" s="3"/>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -4222,7 +4290,7 @@
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="7"/>
-      <c r="B121" s="28"/>
+      <c r="B121" s="25"/>
       <c r="C121" s="3"/>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
@@ -4246,7 +4314,7 @@
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="7"/>
-      <c r="B122" s="28"/>
+      <c r="B122" s="25"/>
       <c r="C122" s="3"/>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -4270,7 +4338,7 @@
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="7"/>
-      <c r="B123" s="28"/>
+      <c r="B123" s="25"/>
       <c r="C123" s="3"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -4294,7 +4362,7 @@
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="7"/>
-      <c r="B124" s="28"/>
+      <c r="B124" s="25"/>
       <c r="C124" s="3"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
@@ -4318,7 +4386,7 @@
     </row>
     <row r="125" spans="1:22">
       <c r="A125" s="7"/>
-      <c r="B125" s="28"/>
+      <c r="B125" s="25"/>
       <c r="C125" s="3"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
@@ -4342,7 +4410,7 @@
     </row>
     <row r="126" spans="1:22">
       <c r="A126" s="7"/>
-      <c r="B126" s="28"/>
+      <c r="B126" s="25"/>
       <c r="C126" s="3"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
@@ -4366,7 +4434,7 @@
     </row>
     <row r="127" spans="1:22">
       <c r="A127" s="7"/>
-      <c r="B127" s="28"/>
+      <c r="B127" s="25"/>
       <c r="C127" s="3"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
@@ -4390,7 +4458,7 @@
     </row>
     <row r="128" spans="1:22">
       <c r="A128" s="7"/>
-      <c r="B128" s="28"/>
+      <c r="B128" s="25"/>
       <c r="C128" s="3"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
@@ -4414,7 +4482,7 @@
     </row>
     <row r="129" spans="1:22">
       <c r="A129" s="7"/>
-      <c r="B129" s="28"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="3"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
@@ -4438,7 +4506,7 @@
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="7"/>
-      <c r="B130" s="28"/>
+      <c r="B130" s="25"/>
       <c r="C130" s="3"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
@@ -4462,7 +4530,7 @@
     </row>
     <row r="131" spans="1:22">
       <c r="A131" s="7"/>
-      <c r="B131" s="28"/>
+      <c r="B131" s="25"/>
       <c r="C131" s="3"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
@@ -4486,7 +4554,7 @@
     </row>
     <row r="132" spans="1:22">
       <c r="A132" s="7"/>
-      <c r="B132" s="28"/>
+      <c r="B132" s="25"/>
       <c r="C132" s="3"/>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
@@ -4510,7 +4578,7 @@
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="7"/>
-      <c r="B133" s="28"/>
+      <c r="B133" s="25"/>
       <c r="C133" s="3"/>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
@@ -4534,7 +4602,7 @@
     </row>
     <row r="134" spans="1:22">
       <c r="A134" s="7"/>
-      <c r="B134" s="28"/>
+      <c r="B134" s="25"/>
       <c r="C134" s="3"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
@@ -4558,7 +4626,7 @@
     </row>
     <row r="135" spans="1:22">
       <c r="A135" s="7"/>
-      <c r="B135" s="28"/>
+      <c r="B135" s="25"/>
       <c r="C135" s="3"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
@@ -4582,7 +4650,7 @@
     </row>
     <row r="136" spans="1:22">
       <c r="A136" s="7"/>
-      <c r="B136" s="28"/>
+      <c r="B136" s="25"/>
       <c r="C136" s="3"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
@@ -4606,7 +4674,7 @@
     </row>
     <row r="137" spans="1:22">
       <c r="A137" s="7"/>
-      <c r="B137" s="28"/>
+      <c r="B137" s="25"/>
       <c r="C137" s="3"/>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
@@ -4630,7 +4698,7 @@
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="7"/>
-      <c r="B138" s="28"/>
+      <c r="B138" s="25"/>
       <c r="C138" s="3"/>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -4654,7 +4722,7 @@
     </row>
     <row r="139" spans="1:22">
       <c r="A139" s="7"/>
-      <c r="B139" s="28"/>
+      <c r="B139" s="25"/>
       <c r="C139" s="3"/>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -4678,7 +4746,7 @@
     </row>
     <row r="140" spans="1:22">
       <c r="A140" s="7"/>
-      <c r="B140" s="28"/>
+      <c r="B140" s="25"/>
       <c r="C140" s="3"/>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -4702,7 +4770,7 @@
     </row>
     <row r="141" spans="1:22">
       <c r="A141" s="7"/>
-      <c r="B141" s="28"/>
+      <c r="B141" s="25"/>
       <c r="C141" s="3"/>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -4726,7 +4794,7 @@
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="7"/>
-      <c r="B142" s="28"/>
+      <c r="B142" s="25"/>
       <c r="C142" s="3"/>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -4750,7 +4818,7 @@
     </row>
     <row r="143" spans="1:22">
       <c r="A143" s="7"/>
-      <c r="B143" s="28"/>
+      <c r="B143" s="25"/>
       <c r="C143" s="3"/>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -4774,7 +4842,7 @@
     </row>
     <row r="144" spans="1:22">
       <c r="A144" s="7"/>
-      <c r="B144" s="28"/>
+      <c r="B144" s="25"/>
       <c r="C144" s="3"/>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -4798,7 +4866,7 @@
     </row>
     <row r="145" spans="1:22">
       <c r="A145" s="7"/>
-      <c r="B145" s="28"/>
+      <c r="B145" s="25"/>
       <c r="C145" s="3"/>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
@@ -4822,7 +4890,7 @@
     </row>
     <row r="146" spans="1:22">
       <c r="A146" s="7"/>
-      <c r="B146" s="28"/>
+      <c r="B146" s="25"/>
       <c r="C146" s="3"/>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
@@ -4846,7 +4914,7 @@
     </row>
     <row r="147" spans="1:22">
       <c r="A147" s="7"/>
-      <c r="B147" s="28"/>
+      <c r="B147" s="25"/>
       <c r="C147" s="3"/>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
@@ -4870,7 +4938,7 @@
     </row>
     <row r="148" spans="1:22">
       <c r="A148" s="7"/>
-      <c r="B148" s="28"/>
+      <c r="B148" s="25"/>
       <c r="C148" s="3"/>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
@@ -4894,7 +4962,7 @@
     </row>
     <row r="149" spans="1:22">
       <c r="A149" s="7"/>
-      <c r="B149" s="28"/>
+      <c r="B149" s="25"/>
       <c r="C149" s="3"/>
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
@@ -4918,7 +4986,7 @@
     </row>
     <row r="150" spans="1:22">
       <c r="A150" s="7"/>
-      <c r="B150" s="28"/>
+      <c r="B150" s="25"/>
       <c r="C150" s="3"/>
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
@@ -4942,7 +5010,7 @@
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="7"/>
-      <c r="B151" s="28"/>
+      <c r="B151" s="25"/>
       <c r="C151" s="3"/>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
@@ -4966,7 +5034,7 @@
     </row>
     <row r="152" spans="1:22">
       <c r="A152" s="7"/>
-      <c r="B152" s="28"/>
+      <c r="B152" s="25"/>
       <c r="C152" s="3"/>
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
@@ -4990,7 +5058,7 @@
     </row>
     <row r="153" spans="1:22">
       <c r="A153" s="7"/>
-      <c r="B153" s="28"/>
+      <c r="B153" s="25"/>
       <c r="C153" s="3"/>
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
@@ -5014,7 +5082,7 @@
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="7"/>
-      <c r="B154" s="28"/>
+      <c r="B154" s="25"/>
       <c r="C154" s="3"/>
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
@@ -5038,7 +5106,7 @@
     </row>
     <row r="155" spans="1:22">
       <c r="A155" s="7"/>
-      <c r="B155" s="28"/>
+      <c r="B155" s="25"/>
       <c r="C155" s="3"/>
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
@@ -5062,7 +5130,7 @@
     </row>
     <row r="156" spans="1:22">
       <c r="A156" s="7"/>
-      <c r="B156" s="28"/>
+      <c r="B156" s="25"/>
       <c r="C156" s="3"/>
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
@@ -5086,7 +5154,7 @@
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="7"/>
-      <c r="B157" s="28"/>
+      <c r="B157" s="25"/>
       <c r="C157" s="3"/>
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
@@ -5110,7 +5178,7 @@
     </row>
     <row r="158" spans="1:22">
       <c r="A158" s="7"/>
-      <c r="B158" s="28"/>
+      <c r="B158" s="25"/>
       <c r="C158" s="3"/>
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
@@ -5134,7 +5202,7 @@
     </row>
     <row r="159" spans="1:22">
       <c r="A159" s="7"/>
-      <c r="B159" s="28"/>
+      <c r="B159" s="25"/>
       <c r="C159" s="3"/>
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
@@ -5158,7 +5226,7 @@
     </row>
     <row r="160" spans="1:22">
       <c r="A160" s="7"/>
-      <c r="B160" s="28"/>
+      <c r="B160" s="25"/>
       <c r="C160" s="3"/>
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
@@ -5182,7 +5250,7 @@
     </row>
     <row r="161" spans="1:22">
       <c r="A161" s="7"/>
-      <c r="B161" s="28"/>
+      <c r="B161" s="25"/>
       <c r="C161" s="3"/>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
@@ -5206,7 +5274,7 @@
     </row>
     <row r="162" spans="1:22">
       <c r="A162" s="7"/>
-      <c r="B162" s="28"/>
+      <c r="B162" s="25"/>
       <c r="C162" s="3"/>
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
@@ -5230,7 +5298,7 @@
     </row>
     <row r="163" spans="1:22">
       <c r="A163" s="7"/>
-      <c r="B163" s="28"/>
+      <c r="B163" s="25"/>
       <c r="C163" s="3"/>
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
@@ -5254,7 +5322,7 @@
     </row>
     <row r="164" spans="1:22">
       <c r="A164" s="7"/>
-      <c r="B164" s="28"/>
+      <c r="B164" s="25"/>
       <c r="C164" s="3"/>
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
@@ -5278,7 +5346,7 @@
     </row>
     <row r="165" spans="1:22">
       <c r="A165" s="7"/>
-      <c r="B165" s="28"/>
+      <c r="B165" s="25"/>
       <c r="C165" s="3"/>
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
@@ -5302,7 +5370,7 @@
     </row>
     <row r="166" spans="1:22">
       <c r="A166" s="7"/>
-      <c r="B166" s="28"/>
+      <c r="B166" s="25"/>
       <c r="C166" s="3"/>
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
@@ -5326,7 +5394,7 @@
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="7"/>
-      <c r="B167" s="28"/>
+      <c r="B167" s="25"/>
       <c r="C167" s="3"/>
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
@@ -5350,7 +5418,7 @@
     </row>
     <row r="168" spans="1:22">
       <c r="A168" s="7"/>
-      <c r="B168" s="28"/>
+      <c r="B168" s="25"/>
       <c r="C168" s="3"/>
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
@@ -5374,7 +5442,7 @@
     </row>
     <row r="169" spans="1:22">
       <c r="A169" s="7"/>
-      <c r="B169" s="28"/>
+      <c r="B169" s="25"/>
       <c r="C169" s="3"/>
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
@@ -5398,7 +5466,7 @@
     </row>
     <row r="170" spans="1:22">
       <c r="A170" s="7"/>
-      <c r="B170" s="28"/>
+      <c r="B170" s="25"/>
       <c r="C170" s="3"/>
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
@@ -5422,7 +5490,7 @@
     </row>
     <row r="171" spans="1:22">
       <c r="A171" s="7"/>
-      <c r="B171" s="28"/>
+      <c r="B171" s="25"/>
       <c r="C171" s="3"/>
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
@@ -5446,7 +5514,7 @@
     </row>
     <row r="172" spans="1:22">
       <c r="A172" s="7"/>
-      <c r="B172" s="28"/>
+      <c r="B172" s="25"/>
       <c r="C172" s="3"/>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
@@ -5470,7 +5538,7 @@
     </row>
     <row r="173" spans="1:22">
       <c r="A173" s="7"/>
-      <c r="B173" s="28"/>
+      <c r="B173" s="25"/>
       <c r="C173" s="3"/>
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
@@ -5494,7 +5562,7 @@
     </row>
     <row r="174" spans="1:22">
       <c r="A174" s="7"/>
-      <c r="B174" s="28"/>
+      <c r="B174" s="25"/>
       <c r="C174" s="3"/>
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
@@ -5518,7 +5586,7 @@
     </row>
     <row r="175" spans="1:22">
       <c r="A175" s="7"/>
-      <c r="B175" s="28"/>
+      <c r="B175" s="25"/>
       <c r="C175" s="3"/>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
@@ -5542,7 +5610,7 @@
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="7"/>
-      <c r="B176" s="28"/>
+      <c r="B176" s="25"/>
       <c r="C176" s="3"/>
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
@@ -5566,7 +5634,7 @@
     </row>
     <row r="177" spans="1:22">
       <c r="A177" s="7"/>
-      <c r="B177" s="28"/>
+      <c r="B177" s="25"/>
       <c r="C177" s="3"/>
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
@@ -5590,7 +5658,7 @@
     </row>
     <row r="178" spans="1:22">
       <c r="A178" s="7"/>
-      <c r="B178" s="28"/>
+      <c r="B178" s="25"/>
       <c r="C178" s="3"/>
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
@@ -5614,7 +5682,7 @@
     </row>
     <row r="179" spans="1:22">
       <c r="A179" s="7"/>
-      <c r="B179" s="28"/>
+      <c r="B179" s="25"/>
       <c r="C179" s="3"/>
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
@@ -5638,7 +5706,7 @@
     </row>
     <row r="180" spans="1:22">
       <c r="A180" s="7"/>
-      <c r="B180" s="28"/>
+      <c r="B180" s="25"/>
       <c r="C180" s="3"/>
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
@@ -5662,7 +5730,7 @@
     </row>
     <row r="181" spans="1:22">
       <c r="A181" s="7"/>
-      <c r="B181" s="28"/>
+      <c r="B181" s="25"/>
       <c r="C181" s="3"/>
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
@@ -5686,7 +5754,7 @@
     </row>
     <row r="182" spans="1:22">
       <c r="A182" s="7"/>
-      <c r="B182" s="28"/>
+      <c r="B182" s="25"/>
       <c r="C182" s="3"/>
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
@@ -5710,7 +5778,7 @@
     </row>
     <row r="183" spans="1:22">
       <c r="A183" s="7"/>
-      <c r="B183" s="28"/>
+      <c r="B183" s="25"/>
       <c r="C183" s="3"/>
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
@@ -5734,7 +5802,7 @@
     </row>
     <row r="184" spans="1:22">
       <c r="A184" s="7"/>
-      <c r="B184" s="28"/>
+      <c r="B184" s="25"/>
       <c r="C184" s="3"/>
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
@@ -5758,7 +5826,7 @@
     </row>
     <row r="185" spans="1:22">
       <c r="A185" s="7"/>
-      <c r="B185" s="28"/>
+      <c r="B185" s="25"/>
       <c r="C185" s="3"/>
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
@@ -5782,7 +5850,7 @@
     </row>
     <row r="186" spans="1:22">
       <c r="A186" s="7"/>
-      <c r="B186" s="28"/>
+      <c r="B186" s="25"/>
       <c r="C186" s="3"/>
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
@@ -5806,7 +5874,7 @@
     </row>
     <row r="187" spans="1:22">
       <c r="A187" s="7"/>
-      <c r="B187" s="28"/>
+      <c r="B187" s="25"/>
       <c r="C187" s="3"/>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -5830,7 +5898,7 @@
     </row>
     <row r="188" spans="1:22">
       <c r="A188" s="7"/>
-      <c r="B188" s="28"/>
+      <c r="B188" s="25"/>
       <c r="C188" s="3"/>
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
@@ -5854,7 +5922,7 @@
     </row>
     <row r="189" spans="1:22">
       <c r="A189" s="7"/>
-      <c r="B189" s="28"/>
+      <c r="B189" s="25"/>
       <c r="C189" s="3"/>
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
@@ -5878,7 +5946,7 @@
     </row>
     <row r="190" spans="1:22">
       <c r="A190" s="7"/>
-      <c r="B190" s="28"/>
+      <c r="B190" s="25"/>
       <c r="C190" s="3"/>
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
@@ -5902,7 +5970,7 @@
     </row>
     <row r="191" spans="1:22">
       <c r="A191" s="7"/>
-      <c r="B191" s="28"/>
+      <c r="B191" s="25"/>
       <c r="C191" s="3"/>
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
@@ -5926,7 +5994,7 @@
     </row>
     <row r="192" spans="1:22">
       <c r="A192" s="7"/>
-      <c r="B192" s="28"/>
+      <c r="B192" s="25"/>
       <c r="C192" s="3"/>
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
@@ -5950,7 +6018,7 @@
     </row>
     <row r="193" spans="1:22">
       <c r="A193" s="7"/>
-      <c r="B193" s="28"/>
+      <c r="B193" s="25"/>
       <c r="C193" s="3"/>
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
@@ -5974,7 +6042,7 @@
     </row>
     <row r="194" spans="1:22">
       <c r="A194" s="7"/>
-      <c r="B194" s="28"/>
+      <c r="B194" s="25"/>
       <c r="C194" s="3"/>
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
@@ -5998,7 +6066,7 @@
     </row>
     <row r="195" spans="1:22">
       <c r="A195" s="7"/>
-      <c r="B195" s="28"/>
+      <c r="B195" s="25"/>
       <c r="C195" s="3"/>
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
@@ -6022,7 +6090,7 @@
     </row>
     <row r="196" spans="1:22">
       <c r="A196" s="7"/>
-      <c r="B196" s="28"/>
+      <c r="B196" s="25"/>
       <c r="C196" s="3"/>
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
@@ -6046,7 +6114,7 @@
     </row>
     <row r="197" spans="1:22">
       <c r="A197" s="7"/>
-      <c r="B197" s="28"/>
+      <c r="B197" s="25"/>
       <c r="C197" s="3"/>
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
@@ -6070,7 +6138,7 @@
     </row>
     <row r="198" spans="1:22">
       <c r="A198" s="7"/>
-      <c r="B198" s="28"/>
+      <c r="B198" s="25"/>
       <c r="C198" s="3"/>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
@@ -6094,7 +6162,7 @@
     </row>
     <row r="199" spans="1:22">
       <c r="A199" s="7"/>
-      <c r="B199" s="28"/>
+      <c r="B199" s="25"/>
       <c r="C199" s="3"/>
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
@@ -6118,7 +6186,7 @@
     </row>
     <row r="200" spans="1:22">
       <c r="A200" s="7"/>
-      <c r="B200" s="28"/>
+      <c r="B200" s="25"/>
       <c r="C200" s="3"/>
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
@@ -6142,7 +6210,7 @@
     </row>
     <row r="201" spans="1:22">
       <c r="A201" s="7"/>
-      <c r="B201" s="28"/>
+      <c r="B201" s="25"/>
       <c r="C201" s="3"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
@@ -6166,7 +6234,7 @@
     </row>
     <row r="202" spans="1:22">
       <c r="A202" s="7"/>
-      <c r="B202" s="28"/>
+      <c r="B202" s="25"/>
       <c r="C202" s="3"/>
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
@@ -6190,7 +6258,7 @@
     </row>
     <row r="203" spans="1:22">
       <c r="A203" s="7"/>
-      <c r="B203" s="28"/>
+      <c r="B203" s="25"/>
       <c r="C203" s="3"/>
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
@@ -6214,7 +6282,7 @@
     </row>
     <row r="204" spans="1:22">
       <c r="A204" s="7"/>
-      <c r="B204" s="28"/>
+      <c r="B204" s="25"/>
       <c r="C204" s="3"/>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -6238,7 +6306,7 @@
     </row>
     <row r="205" spans="1:22">
       <c r="A205" s="7"/>
-      <c r="B205" s="28"/>
+      <c r="B205" s="25"/>
       <c r="C205" s="3"/>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -6262,7 +6330,7 @@
     </row>
     <row r="206" spans="1:22">
       <c r="A206" s="7"/>
-      <c r="B206" s="28"/>
+      <c r="B206" s="25"/>
       <c r="C206" s="3"/>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -6286,7 +6354,7 @@
     </row>
     <row r="207" spans="1:22">
       <c r="A207" s="7"/>
-      <c r="B207" s="28"/>
+      <c r="B207" s="25"/>
       <c r="C207" s="3"/>
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
@@ -6310,7 +6378,7 @@
     </row>
     <row r="208" spans="1:22">
       <c r="A208" s="7"/>
-      <c r="B208" s="28"/>
+      <c r="B208" s="25"/>
       <c r="C208" s="3"/>
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
@@ -6334,7 +6402,7 @@
     </row>
     <row r="209" spans="1:22">
       <c r="A209" s="7"/>
-      <c r="B209" s="28"/>
+      <c r="B209" s="25"/>
       <c r="C209" s="3"/>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -6358,7 +6426,7 @@
     </row>
     <row r="210" spans="1:22">
       <c r="A210" s="7"/>
-      <c r="B210" s="28"/>
+      <c r="B210" s="25"/>
       <c r="C210" s="3"/>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -6382,7 +6450,7 @@
     </row>
     <row r="211" spans="1:22">
       <c r="A211" s="7"/>
-      <c r="B211" s="28"/>
+      <c r="B211" s="25"/>
       <c r="C211" s="3"/>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -6406,7 +6474,7 @@
     </row>
     <row r="212" spans="1:22">
       <c r="A212" s="7"/>
-      <c r="B212" s="28"/>
+      <c r="B212" s="25"/>
       <c r="C212" s="3"/>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -6430,7 +6498,7 @@
     </row>
     <row r="213" spans="1:22">
       <c r="A213" s="7"/>
-      <c r="B213" s="28"/>
+      <c r="B213" s="25"/>
       <c r="C213" s="3"/>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
@@ -6454,7 +6522,7 @@
     </row>
     <row r="214" spans="1:22">
       <c r="A214" s="7"/>
-      <c r="B214" s="28"/>
+      <c r="B214" s="25"/>
       <c r="C214" s="3"/>
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
@@ -6478,7 +6546,7 @@
     </row>
     <row r="215" spans="1:22">
       <c r="A215" s="7"/>
-      <c r="B215" s="28"/>
+      <c r="B215" s="25"/>
       <c r="C215" s="3"/>
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
@@ -6502,7 +6570,7 @@
     </row>
     <row r="216" spans="1:22">
       <c r="A216" s="7"/>
-      <c r="B216" s="28"/>
+      <c r="B216" s="25"/>
       <c r="C216" s="3"/>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -6526,7 +6594,7 @@
     </row>
     <row r="217" spans="1:22">
       <c r="A217" s="7"/>
-      <c r="B217" s="28"/>
+      <c r="B217" s="25"/>
       <c r="C217" s="3"/>
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
@@ -6550,7 +6618,7 @@
     </row>
     <row r="218" spans="1:22">
       <c r="A218" s="7"/>
-      <c r="B218" s="28"/>
+      <c r="B218" s="25"/>
       <c r="C218" s="3"/>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -6574,7 +6642,7 @@
     </row>
     <row r="219" spans="1:22">
       <c r="A219" s="7"/>
-      <c r="B219" s="28"/>
+      <c r="B219" s="25"/>
       <c r="C219" s="3"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
@@ -6598,7 +6666,7 @@
     </row>
     <row r="220" spans="1:22">
       <c r="A220" s="7"/>
-      <c r="B220" s="28"/>
+      <c r="B220" s="25"/>
       <c r="C220" s="3"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
@@ -6622,7 +6690,7 @@
     </row>
     <row r="221" spans="1:22">
       <c r="A221" s="7"/>
-      <c r="B221" s="28"/>
+      <c r="B221" s="25"/>
       <c r="C221" s="3"/>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -6646,7 +6714,7 @@
     </row>
     <row r="222" spans="1:22">
       <c r="A222" s="7"/>
-      <c r="B222" s="28"/>
+      <c r="B222" s="25"/>
       <c r="C222" s="3"/>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -6670,7 +6738,7 @@
     </row>
     <row r="223" spans="1:22">
       <c r="A223" s="7"/>
-      <c r="B223" s="28"/>
+      <c r="B223" s="25"/>
       <c r="C223" s="3"/>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -6694,7 +6762,7 @@
     </row>
     <row r="224" spans="1:22">
       <c r="A224" s="7"/>
-      <c r="B224" s="28"/>
+      <c r="B224" s="25"/>
       <c r="C224" s="3"/>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -6718,7 +6786,7 @@
     </row>
     <row r="225" spans="1:22">
       <c r="A225" s="7"/>
-      <c r="B225" s="28"/>
+      <c r="B225" s="25"/>
       <c r="C225" s="3"/>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -6742,7 +6810,7 @@
     </row>
     <row r="226" spans="1:22">
       <c r="A226" s="7"/>
-      <c r="B226" s="28"/>
+      <c r="B226" s="25"/>
       <c r="C226" s="3"/>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -6766,7 +6834,7 @@
     </row>
     <row r="227" spans="1:22">
       <c r="A227" s="7"/>
-      <c r="B227" s="28"/>
+      <c r="B227" s="25"/>
       <c r="C227" s="3"/>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
@@ -6790,7 +6858,7 @@
     </row>
     <row r="228" spans="1:22">
       <c r="A228" s="7"/>
-      <c r="B228" s="28"/>
+      <c r="B228" s="25"/>
       <c r="C228" s="3"/>
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
@@ -6814,7 +6882,7 @@
     </row>
     <row r="229" spans="1:22">
       <c r="A229" s="7"/>
-      <c r="B229" s="28"/>
+      <c r="B229" s="25"/>
       <c r="C229" s="3"/>
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
@@ -6838,7 +6906,7 @@
     </row>
     <row r="230" spans="1:22">
       <c r="A230" s="7"/>
-      <c r="B230" s="28"/>
+      <c r="B230" s="25"/>
       <c r="C230" s="3"/>
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
@@ -6862,7 +6930,7 @@
     </row>
     <row r="231" spans="1:22">
       <c r="A231" s="7"/>
-      <c r="B231" s="28"/>
+      <c r="B231" s="25"/>
       <c r="C231" s="3"/>
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
@@ -6886,7 +6954,7 @@
     </row>
     <row r="232" spans="1:22">
       <c r="A232" s="7"/>
-      <c r="B232" s="28"/>
+      <c r="B232" s="25"/>
       <c r="C232" s="3"/>
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
@@ -6910,7 +6978,7 @@
     </row>
     <row r="233" spans="1:22">
       <c r="A233" s="7"/>
-      <c r="B233" s="28"/>
+      <c r="B233" s="25"/>
       <c r="C233" s="3"/>
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
@@ -6934,7 +7002,7 @@
     </row>
     <row r="234" spans="1:22">
       <c r="A234" s="7"/>
-      <c r="B234" s="28"/>
+      <c r="B234" s="25"/>
       <c r="C234" s="3"/>
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
@@ -6958,7 +7026,7 @@
     </row>
     <row r="235" spans="1:22">
       <c r="A235" s="7"/>
-      <c r="B235" s="28"/>
+      <c r="B235" s="25"/>
       <c r="C235" s="3"/>
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
@@ -6982,7 +7050,7 @@
     </row>
     <row r="236" spans="1:22">
       <c r="A236" s="7"/>
-      <c r="B236" s="28"/>
+      <c r="B236" s="25"/>
       <c r="C236" s="3"/>
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
@@ -7006,7 +7074,7 @@
     </row>
     <row r="237" spans="1:22">
       <c r="A237" s="7"/>
-      <c r="B237" s="28"/>
+      <c r="B237" s="25"/>
       <c r="C237" s="3"/>
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
@@ -7030,7 +7098,7 @@
     </row>
     <row r="238" spans="1:22">
       <c r="A238" s="7"/>
-      <c r="B238" s="28"/>
+      <c r="B238" s="25"/>
       <c r="C238" s="3"/>
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
@@ -7054,7 +7122,7 @@
     </row>
     <row r="239" spans="1:22">
       <c r="A239" s="7"/>
-      <c r="B239" s="28"/>
+      <c r="B239" s="25"/>
       <c r="C239" s="3"/>
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
@@ -7078,7 +7146,7 @@
     </row>
     <row r="240" spans="1:22">
       <c r="A240" s="7"/>
-      <c r="B240" s="28"/>
+      <c r="B240" s="25"/>
       <c r="C240" s="3"/>
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
@@ -7102,7 +7170,7 @@
     </row>
     <row r="241" spans="1:22">
       <c r="A241" s="7"/>
-      <c r="B241" s="28"/>
+      <c r="B241" s="25"/>
       <c r="C241" s="3"/>
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
@@ -7126,7 +7194,7 @@
     </row>
     <row r="242" spans="1:22">
       <c r="A242" s="7"/>
-      <c r="B242" s="28"/>
+      <c r="B242" s="25"/>
       <c r="C242" s="3"/>
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
@@ -7150,7 +7218,7 @@
     </row>
     <row r="243" spans="1:22">
       <c r="A243" s="7"/>
-      <c r="B243" s="28"/>
+      <c r="B243" s="25"/>
       <c r="C243" s="3"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
@@ -7174,7 +7242,7 @@
     </row>
     <row r="244" spans="1:22">
       <c r="A244" s="7"/>
-      <c r="B244" s="28"/>
+      <c r="B244" s="25"/>
       <c r="C244" s="3"/>
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
@@ -7198,7 +7266,7 @@
     </row>
     <row r="245" spans="1:22">
       <c r="A245" s="7"/>
-      <c r="B245" s="28"/>
+      <c r="B245" s="25"/>
       <c r="C245" s="3"/>
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
@@ -7222,7 +7290,7 @@
     </row>
     <row r="246" spans="1:22">
       <c r="A246" s="7"/>
-      <c r="B246" s="28"/>
+      <c r="B246" s="25"/>
       <c r="C246" s="3"/>
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
@@ -7246,7 +7314,7 @@
     </row>
     <row r="247" spans="1:22">
       <c r="A247" s="7"/>
-      <c r="B247" s="28"/>
+      <c r="B247" s="25"/>
       <c r="C247" s="3"/>
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
@@ -7270,7 +7338,7 @@
     </row>
     <row r="248" spans="1:22">
       <c r="A248" s="7"/>
-      <c r="B248" s="28"/>
+      <c r="B248" s="25"/>
       <c r="C248" s="3"/>
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
@@ -7294,7 +7362,7 @@
     </row>
     <row r="249" spans="1:22">
       <c r="A249" s="7"/>
-      <c r="B249" s="28"/>
+      <c r="B249" s="25"/>
       <c r="C249" s="3"/>
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
@@ -7318,7 +7386,7 @@
     </row>
     <row r="250" spans="1:22">
       <c r="A250" s="7"/>
-      <c r="B250" s="28"/>
+      <c r="B250" s="25"/>
       <c r="C250" s="3"/>
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
@@ -7342,7 +7410,7 @@
     </row>
     <row r="251" spans="1:22">
       <c r="A251" s="7"/>
-      <c r="B251" s="28"/>
+      <c r="B251" s="25"/>
       <c r="C251" s="3"/>
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
@@ -7366,7 +7434,7 @@
     </row>
     <row r="252" spans="1:22">
       <c r="A252" s="7"/>
-      <c r="B252" s="28"/>
+      <c r="B252" s="25"/>
       <c r="C252" s="3"/>
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
@@ -7390,7 +7458,7 @@
     </row>
     <row r="253" spans="1:22">
       <c r="A253" s="7"/>
-      <c r="B253" s="28"/>
+      <c r="B253" s="25"/>
       <c r="C253" s="3"/>
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
@@ -7414,7 +7482,7 @@
     </row>
     <row r="254" spans="1:22">
       <c r="A254" s="7"/>
-      <c r="B254" s="28"/>
+      <c r="B254" s="25"/>
       <c r="C254" s="3"/>
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
@@ -7438,7 +7506,7 @@
     </row>
     <row r="255" spans="1:22">
       <c r="A255" s="7"/>
-      <c r="B255" s="28"/>
+      <c r="B255" s="25"/>
       <c r="C255" s="3"/>
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
@@ -7462,7 +7530,7 @@
     </row>
     <row r="256" spans="1:22">
       <c r="A256" s="7"/>
-      <c r="B256" s="28"/>
+      <c r="B256" s="25"/>
       <c r="C256" s="3"/>
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
@@ -7486,7 +7554,7 @@
     </row>
     <row r="257" spans="1:22">
       <c r="A257" s="7"/>
-      <c r="B257" s="28"/>
+      <c r="B257" s="25"/>
       <c r="C257" s="3"/>
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
@@ -7510,7 +7578,7 @@
     </row>
     <row r="258" spans="1:22">
       <c r="A258" s="7"/>
-      <c r="B258" s="28"/>
+      <c r="B258" s="25"/>
       <c r="C258" s="3"/>
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
@@ -7534,7 +7602,7 @@
     </row>
     <row r="259" spans="1:22">
       <c r="A259" s="7"/>
-      <c r="B259" s="28"/>
+      <c r="B259" s="25"/>
       <c r="C259" s="3"/>
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
@@ -7558,7 +7626,7 @@
     </row>
     <row r="260" spans="1:22">
       <c r="A260" s="7"/>
-      <c r="B260" s="28"/>
+      <c r="B260" s="25"/>
       <c r="C260" s="3"/>
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
@@ -7582,7 +7650,7 @@
     </row>
     <row r="261" spans="1:22">
       <c r="A261" s="7"/>
-      <c r="B261" s="28"/>
+      <c r="B261" s="25"/>
       <c r="C261" s="3"/>
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
@@ -7606,7 +7674,7 @@
     </row>
     <row r="262" spans="1:22">
       <c r="A262" s="7"/>
-      <c r="B262" s="28"/>
+      <c r="B262" s="25"/>
       <c r="C262" s="3"/>
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
@@ -7630,7 +7698,7 @@
     </row>
     <row r="263" spans="1:22">
       <c r="A263" s="7"/>
-      <c r="B263" s="28"/>
+      <c r="B263" s="25"/>
       <c r="C263" s="3"/>
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
@@ -7654,7 +7722,7 @@
     </row>
     <row r="264" spans="1:22">
       <c r="A264" s="7"/>
-      <c r="B264" s="28"/>
+      <c r="B264" s="25"/>
       <c r="C264" s="3"/>
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
@@ -7678,7 +7746,7 @@
     </row>
     <row r="265" spans="1:22">
       <c r="A265" s="7"/>
-      <c r="B265" s="28"/>
+      <c r="B265" s="25"/>
       <c r="C265" s="3"/>
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
@@ -7702,7 +7770,7 @@
     </row>
     <row r="266" spans="1:22">
       <c r="A266" s="7"/>
-      <c r="B266" s="28"/>
+      <c r="B266" s="25"/>
       <c r="C266" s="3"/>
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
@@ -7726,7 +7794,7 @@
     </row>
     <row r="267" spans="1:22">
       <c r="A267" s="7"/>
-      <c r="B267" s="28"/>
+      <c r="B267" s="25"/>
       <c r="C267" s="3"/>
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
@@ -7750,7 +7818,7 @@
     </row>
     <row r="268" spans="1:22">
       <c r="A268" s="7"/>
-      <c r="B268" s="28"/>
+      <c r="B268" s="25"/>
       <c r="C268" s="3"/>
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
@@ -7774,7 +7842,7 @@
     </row>
     <row r="269" spans="1:22">
       <c r="A269" s="7"/>
-      <c r="B269" s="28"/>
+      <c r="B269" s="25"/>
       <c r="C269" s="3"/>
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
@@ -7798,7 +7866,7 @@
     </row>
     <row r="270" spans="1:22">
       <c r="A270" s="7"/>
-      <c r="B270" s="28"/>
+      <c r="B270" s="25"/>
       <c r="C270" s="3"/>
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
@@ -7822,7 +7890,7 @@
     </row>
     <row r="271" spans="1:22">
       <c r="A271" s="7"/>
-      <c r="B271" s="28"/>
+      <c r="B271" s="25"/>
       <c r="C271" s="3"/>
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
@@ -7846,7 +7914,7 @@
     </row>
     <row r="272" spans="1:22">
       <c r="A272" s="7"/>
-      <c r="B272" s="28"/>
+      <c r="B272" s="25"/>
       <c r="C272" s="3"/>
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
@@ -7870,7 +7938,7 @@
     </row>
     <row r="273" spans="1:22">
       <c r="A273" s="7"/>
-      <c r="B273" s="28"/>
+      <c r="B273" s="25"/>
       <c r="C273" s="3"/>
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
@@ -7894,7 +7962,7 @@
     </row>
     <row r="274" spans="1:22">
       <c r="A274" s="7"/>
-      <c r="B274" s="28"/>
+      <c r="B274" s="25"/>
       <c r="C274" s="3"/>
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
@@ -7918,7 +7986,7 @@
     </row>
     <row r="275" spans="1:22">
       <c r="A275" s="7"/>
-      <c r="B275" s="28"/>
+      <c r="B275" s="25"/>
       <c r="C275" s="3"/>
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
@@ -7942,7 +8010,7 @@
     </row>
     <row r="276" spans="1:22">
       <c r="A276" s="7"/>
-      <c r="B276" s="28"/>
+      <c r="B276" s="25"/>
       <c r="C276" s="3"/>
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
@@ -7966,7 +8034,7 @@
     </row>
     <row r="277" spans="1:22">
       <c r="A277" s="7"/>
-      <c r="B277" s="28"/>
+      <c r="B277" s="25"/>
       <c r="C277" s="3"/>
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
@@ -7990,7 +8058,7 @@
     </row>
     <row r="278" spans="1:22">
       <c r="A278" s="7"/>
-      <c r="B278" s="28"/>
+      <c r="B278" s="25"/>
       <c r="C278" s="3"/>
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
@@ -8014,7 +8082,7 @@
     </row>
     <row r="279" spans="1:22">
       <c r="A279" s="7"/>
-      <c r="B279" s="28"/>
+      <c r="B279" s="25"/>
       <c r="C279" s="3"/>
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
@@ -8038,7 +8106,7 @@
     </row>
     <row r="280" spans="1:22">
       <c r="A280" s="7"/>
-      <c r="B280" s="28"/>
+      <c r="B280" s="25"/>
       <c r="C280" s="3"/>
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
@@ -8062,7 +8130,7 @@
     </row>
     <row r="281" spans="1:22">
       <c r="A281" s="7"/>
-      <c r="B281" s="28"/>
+      <c r="B281" s="25"/>
       <c r="C281" s="3"/>
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
@@ -8086,7 +8154,7 @@
     </row>
     <row r="282" spans="1:22">
       <c r="A282" s="7"/>
-      <c r="B282" s="28"/>
+      <c r="B282" s="25"/>
       <c r="C282" s="3"/>
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
@@ -8110,7 +8178,7 @@
     </row>
     <row r="283" spans="1:22">
       <c r="A283" s="7"/>
-      <c r="B283" s="28"/>
+      <c r="B283" s="25"/>
       <c r="C283" s="3"/>
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
@@ -8134,7 +8202,7 @@
     </row>
     <row r="284" spans="1:22">
       <c r="A284" s="7"/>
-      <c r="B284" s="28"/>
+      <c r="B284" s="25"/>
       <c r="C284" s="3"/>
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
@@ -8158,7 +8226,7 @@
     </row>
     <row r="285" spans="1:22">
       <c r="A285" s="7"/>
-      <c r="B285" s="28"/>
+      <c r="B285" s="25"/>
       <c r="C285" s="3"/>
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
@@ -8182,7 +8250,7 @@
     </row>
     <row r="286" spans="1:22">
       <c r="A286" s="7"/>
-      <c r="B286" s="28"/>
+      <c r="B286" s="25"/>
       <c r="C286" s="3"/>
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
@@ -8206,7 +8274,7 @@
     </row>
     <row r="287" spans="1:22">
       <c r="A287" s="7"/>
-      <c r="B287" s="28"/>
+      <c r="B287" s="25"/>
       <c r="C287" s="3"/>
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
@@ -8230,7 +8298,7 @@
     </row>
     <row r="288" spans="1:22">
       <c r="A288" s="7"/>
-      <c r="B288" s="28"/>
+      <c r="B288" s="25"/>
       <c r="C288" s="3"/>
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
@@ -8254,7 +8322,7 @@
     </row>
     <row r="289" spans="1:22">
       <c r="A289" s="7"/>
-      <c r="B289" s="28"/>
+      <c r="B289" s="25"/>
       <c r="C289" s="3"/>
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
@@ -8278,7 +8346,7 @@
     </row>
     <row r="290" spans="1:22">
       <c r="A290" s="7"/>
-      <c r="B290" s="28"/>
+      <c r="B290" s="25"/>
       <c r="C290" s="3"/>
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
@@ -8302,7 +8370,7 @@
     </row>
     <row r="291" spans="1:22">
       <c r="A291" s="7"/>
-      <c r="B291" s="28"/>
+      <c r="B291" s="25"/>
       <c r="C291" s="3"/>
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
@@ -8326,7 +8394,7 @@
     </row>
     <row r="292" spans="1:22">
       <c r="A292" s="7"/>
-      <c r="B292" s="28"/>
+      <c r="B292" s="25"/>
       <c r="C292" s="3"/>
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
@@ -8350,7 +8418,7 @@
     </row>
     <row r="293" spans="1:22">
       <c r="A293" s="7"/>
-      <c r="B293" s="28"/>
+      <c r="B293" s="25"/>
       <c r="C293" s="3"/>
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
@@ -8374,7 +8442,7 @@
     </row>
     <row r="294" spans="1:22">
       <c r="A294" s="7"/>
-      <c r="B294" s="28"/>
+      <c r="B294" s="25"/>
       <c r="C294" s="3"/>
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
@@ -8398,7 +8466,7 @@
     </row>
     <row r="295" spans="1:22">
       <c r="A295" s="7"/>
-      <c r="B295" s="28"/>
+      <c r="B295" s="25"/>
       <c r="C295" s="3"/>
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
@@ -8422,7 +8490,7 @@
     </row>
     <row r="296" spans="1:22">
       <c r="A296" s="7"/>
-      <c r="B296" s="28"/>
+      <c r="B296" s="25"/>
       <c r="C296" s="3"/>
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
@@ -8446,7 +8514,7 @@
     </row>
     <row r="297" spans="1:22">
       <c r="A297" s="7"/>
-      <c r="B297" s="28"/>
+      <c r="B297" s="25"/>
       <c r="C297" s="3"/>
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
@@ -8470,7 +8538,7 @@
     </row>
     <row r="298" spans="1:22">
       <c r="A298" s="7"/>
-      <c r="B298" s="28"/>
+      <c r="B298" s="25"/>
       <c r="C298" s="3"/>
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
@@ -8494,7 +8562,7 @@
     </row>
     <row r="299" spans="1:22">
       <c r="A299" s="7"/>
-      <c r="B299" s="28"/>
+      <c r="B299" s="25"/>
       <c r="C299" s="3"/>
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
@@ -8518,7 +8586,7 @@
     </row>
     <row r="300" spans="1:22">
       <c r="A300" s="7"/>
-      <c r="B300" s="28"/>
+      <c r="B300" s="25"/>
       <c r="C300" s="3"/>
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
@@ -8542,7 +8610,7 @@
     </row>
     <row r="301" spans="1:22">
       <c r="A301" s="7"/>
-      <c r="B301" s="28"/>
+      <c r="B301" s="25"/>
       <c r="C301" s="3"/>
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
@@ -8566,7 +8634,7 @@
     </row>
     <row r="302" spans="1:22">
       <c r="A302" s="7"/>
-      <c r="B302" s="28"/>
+      <c r="B302" s="25"/>
       <c r="C302" s="3"/>
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
@@ -8590,7 +8658,7 @@
     </row>
     <row r="303" spans="1:22">
       <c r="A303" s="7"/>
-      <c r="B303" s="28"/>
+      <c r="B303" s="25"/>
       <c r="C303" s="3"/>
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
@@ -8614,7 +8682,7 @@
     </row>
     <row r="304" spans="1:22">
       <c r="A304" s="7"/>
-      <c r="B304" s="28"/>
+      <c r="B304" s="25"/>
       <c r="C304" s="3"/>
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
@@ -8638,7 +8706,7 @@
     </row>
     <row r="305" spans="1:22">
       <c r="A305" s="7"/>
-      <c r="B305" s="28"/>
+      <c r="B305" s="25"/>
       <c r="C305" s="3"/>
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
@@ -8662,7 +8730,7 @@
     </row>
     <row r="306" spans="1:22">
       <c r="A306" s="7"/>
-      <c r="B306" s="28"/>
+      <c r="B306" s="25"/>
       <c r="C306" s="3"/>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
@@ -8686,7 +8754,7 @@
     </row>
     <row r="307" spans="1:22">
       <c r="A307" s="7"/>
-      <c r="B307" s="28"/>
+      <c r="B307" s="25"/>
       <c r="C307" s="3"/>
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
@@ -8710,7 +8778,7 @@
     </row>
     <row r="308" spans="1:22">
       <c r="A308" s="7"/>
-      <c r="B308" s="28"/>
+      <c r="B308" s="25"/>
       <c r="C308" s="3"/>
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
@@ -8734,7 +8802,7 @@
     </row>
     <row r="309" spans="1:22">
       <c r="A309" s="7"/>
-      <c r="B309" s="28"/>
+      <c r="B309" s="25"/>
       <c r="C309" s="3"/>
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
@@ -8758,7 +8826,7 @@
     </row>
     <row r="310" spans="1:22">
       <c r="A310" s="7"/>
-      <c r="B310" s="28"/>
+      <c r="B310" s="25"/>
       <c r="C310" s="3"/>
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
@@ -8782,7 +8850,7 @@
     </row>
     <row r="311" spans="1:22">
       <c r="A311" s="7"/>
-      <c r="B311" s="28"/>
+      <c r="B311" s="25"/>
       <c r="C311" s="3"/>
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
@@ -8806,7 +8874,7 @@
     </row>
     <row r="312" spans="1:22">
       <c r="A312" s="7"/>
-      <c r="B312" s="28"/>
+      <c r="B312" s="25"/>
       <c r="C312" s="3"/>
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
@@ -8830,7 +8898,7 @@
     </row>
     <row r="313" spans="1:22">
       <c r="A313" s="7"/>
-      <c r="B313" s="28"/>
+      <c r="B313" s="25"/>
       <c r="C313" s="3"/>
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
@@ -8854,7 +8922,7 @@
     </row>
     <row r="314" spans="1:22">
       <c r="A314" s="7"/>
-      <c r="B314" s="28"/>
+      <c r="B314" s="25"/>
       <c r="C314" s="3"/>
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
@@ -8878,7 +8946,7 @@
     </row>
     <row r="315" spans="1:22">
       <c r="A315" s="7"/>
-      <c r="B315" s="28"/>
+      <c r="B315" s="25"/>
       <c r="C315" s="3"/>
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
@@ -8902,7 +8970,7 @@
     </row>
     <row r="316" spans="1:22">
       <c r="A316" s="7"/>
-      <c r="B316" s="28"/>
+      <c r="B316" s="25"/>
       <c r="C316" s="3"/>
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
@@ -8926,7 +8994,7 @@
     </row>
     <row r="317" spans="1:22">
       <c r="A317" s="7"/>
-      <c r="B317" s="28"/>
+      <c r="B317" s="25"/>
       <c r="C317" s="3"/>
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
@@ -8950,7 +9018,7 @@
     </row>
     <row r="318" spans="1:22">
       <c r="A318" s="7"/>
-      <c r="B318" s="28"/>
+      <c r="B318" s="25"/>
       <c r="C318" s="3"/>
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
@@ -8974,7 +9042,7 @@
     </row>
     <row r="319" spans="1:22">
       <c r="A319" s="7"/>
-      <c r="B319" s="28"/>
+      <c r="B319" s="25"/>
       <c r="C319" s="3"/>
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
@@ -8998,7 +9066,7 @@
     </row>
     <row r="320" spans="1:22">
       <c r="A320" s="7"/>
-      <c r="B320" s="28"/>
+      <c r="B320" s="25"/>
       <c r="C320" s="3"/>
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
@@ -9022,7 +9090,7 @@
     </row>
     <row r="321" spans="1:22">
       <c r="A321" s="7"/>
-      <c r="B321" s="28"/>
+      <c r="B321" s="25"/>
       <c r="C321" s="3"/>
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
@@ -9046,7 +9114,7 @@
     </row>
     <row r="322" spans="1:22">
       <c r="A322" s="7"/>
-      <c r="B322" s="28"/>
+      <c r="B322" s="25"/>
       <c r="C322" s="3"/>
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
@@ -9070,7 +9138,7 @@
     </row>
     <row r="323" spans="1:22">
       <c r="A323" s="7"/>
-      <c r="B323" s="28"/>
+      <c r="B323" s="25"/>
       <c r="C323" s="3"/>
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
@@ -9094,7 +9162,7 @@
     </row>
     <row r="324" spans="1:22">
       <c r="A324" s="7"/>
-      <c r="B324" s="28"/>
+      <c r="B324" s="25"/>
       <c r="C324" s="3"/>
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
@@ -9118,7 +9186,7 @@
     </row>
     <row r="325" spans="1:22">
       <c r="A325" s="7"/>
-      <c r="B325" s="28"/>
+      <c r="B325" s="25"/>
       <c r="C325" s="3"/>
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
@@ -9142,7 +9210,7 @@
     </row>
     <row r="326" spans="1:22">
       <c r="A326" s="7"/>
-      <c r="B326" s="28"/>
+      <c r="B326" s="25"/>
       <c r="C326" s="3"/>
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
@@ -9166,7 +9234,7 @@
     </row>
     <row r="327" spans="1:22">
       <c r="A327" s="7"/>
-      <c r="B327" s="28"/>
+      <c r="B327" s="25"/>
       <c r="C327" s="3"/>
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
@@ -9190,7 +9258,7 @@
     </row>
     <row r="328" spans="1:22">
       <c r="A328" s="7"/>
-      <c r="B328" s="28"/>
+      <c r="B328" s="25"/>
       <c r="C328" s="3"/>
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
@@ -9214,7 +9282,7 @@
     </row>
     <row r="329" spans="1:22">
       <c r="A329" s="7"/>
-      <c r="B329" s="28"/>
+      <c r="B329" s="25"/>
       <c r="C329" s="3"/>
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
@@ -9238,7 +9306,7 @@
     </row>
     <row r="330" spans="1:22">
       <c r="A330" s="7"/>
-      <c r="B330" s="28"/>
+      <c r="B330" s="25"/>
       <c r="C330" s="3"/>
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
@@ -9262,7 +9330,7 @@
     </row>
     <row r="331" spans="1:22">
       <c r="A331" s="7"/>
-      <c r="B331" s="28"/>
+      <c r="B331" s="25"/>
       <c r="C331" s="3"/>
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
@@ -9286,7 +9354,7 @@
     </row>
     <row r="332" spans="1:22">
       <c r="A332" s="7"/>
-      <c r="B332" s="28"/>
+      <c r="B332" s="25"/>
       <c r="C332" s="3"/>
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
@@ -9310,7 +9378,7 @@
     </row>
     <row r="333" spans="1:22">
       <c r="A333" s="7"/>
-      <c r="B333" s="28"/>
+      <c r="B333" s="25"/>
       <c r="C333" s="3"/>
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
@@ -9334,7 +9402,7 @@
     </row>
     <row r="334" spans="1:22">
       <c r="A334" s="7"/>
-      <c r="B334" s="28"/>
+      <c r="B334" s="25"/>
       <c r="C334" s="3"/>
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
@@ -9358,7 +9426,7 @@
     </row>
     <row r="335" spans="1:22">
       <c r="A335" s="7"/>
-      <c r="B335" s="28"/>
+      <c r="B335" s="25"/>
       <c r="C335" s="3"/>
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
@@ -9382,7 +9450,7 @@
     </row>
     <row r="336" spans="1:22">
       <c r="A336" s="7"/>
-      <c r="B336" s="28"/>
+      <c r="B336" s="25"/>
       <c r="C336" s="3"/>
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
@@ -9406,7 +9474,7 @@
     </row>
     <row r="337" spans="1:22">
       <c r="A337" s="7"/>
-      <c r="B337" s="28"/>
+      <c r="B337" s="25"/>
       <c r="C337" s="3"/>
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
@@ -9430,7 +9498,7 @@
     </row>
     <row r="338" spans="1:22">
       <c r="A338" s="7"/>
-      <c r="B338" s="28"/>
+      <c r="B338" s="25"/>
       <c r="C338" s="3"/>
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
@@ -9454,7 +9522,7 @@
     </row>
     <row r="339" spans="1:22">
       <c r="A339" s="7"/>
-      <c r="B339" s="28"/>
+      <c r="B339" s="25"/>
       <c r="C339" s="3"/>
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
@@ -9478,7 +9546,7 @@
     </row>
     <row r="340" spans="1:22">
       <c r="A340" s="7"/>
-      <c r="B340" s="28"/>
+      <c r="B340" s="25"/>
       <c r="C340" s="3"/>
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
@@ -9502,7 +9570,7 @@
     </row>
     <row r="341" spans="1:22">
       <c r="A341" s="7"/>
-      <c r="B341" s="28"/>
+      <c r="B341" s="25"/>
       <c r="C341" s="3"/>
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
@@ -9526,7 +9594,7 @@
     </row>
     <row r="342" spans="1:22">
       <c r="A342" s="7"/>
-      <c r="B342" s="28"/>
+      <c r="B342" s="25"/>
       <c r="C342" s="3"/>
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
@@ -9550,7 +9618,7 @@
     </row>
     <row r="343" spans="1:22">
       <c r="A343" s="7"/>
-      <c r="B343" s="28"/>
+      <c r="B343" s="25"/>
       <c r="C343" s="3"/>
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
@@ -9574,7 +9642,7 @@
     </row>
     <row r="344" spans="1:22">
       <c r="A344" s="7"/>
-      <c r="B344" s="28"/>
+      <c r="B344" s="25"/>
       <c r="C344" s="3"/>
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
@@ -9598,7 +9666,7 @@
     </row>
     <row r="345" spans="1:22">
       <c r="A345" s="7"/>
-      <c r="B345" s="28"/>
+      <c r="B345" s="25"/>
       <c r="C345" s="3"/>
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
@@ -9622,7 +9690,7 @@
     </row>
     <row r="346" spans="1:22">
       <c r="A346" s="7"/>
-      <c r="B346" s="28"/>
+      <c r="B346" s="25"/>
       <c r="C346" s="3"/>
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
@@ -9646,7 +9714,7 @@
     </row>
     <row r="347" spans="1:22">
       <c r="A347" s="7"/>
-      <c r="B347" s="28"/>
+      <c r="B347" s="25"/>
       <c r="C347" s="3"/>
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
@@ -9670,7 +9738,7 @@
     </row>
     <row r="348" spans="1:22">
       <c r="A348" s="7"/>
-      <c r="B348" s="28"/>
+      <c r="B348" s="25"/>
       <c r="C348" s="3"/>
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
@@ -9694,7 +9762,7 @@
     </row>
     <row r="349" spans="1:22">
       <c r="A349" s="7"/>
-      <c r="B349" s="28"/>
+      <c r="B349" s="25"/>
       <c r="C349" s="3"/>
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
@@ -9718,7 +9786,7 @@
     </row>
     <row r="350" spans="1:22">
       <c r="A350" s="7"/>
-      <c r="B350" s="28"/>
+      <c r="B350" s="25"/>
       <c r="C350" s="3"/>
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
@@ -9742,7 +9810,7 @@
     </row>
     <row r="351" spans="1:22">
       <c r="A351" s="7"/>
-      <c r="B351" s="28"/>
+      <c r="B351" s="25"/>
       <c r="C351" s="3"/>
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
@@ -9766,7 +9834,7 @@
     </row>
     <row r="352" spans="1:22">
       <c r="A352" s="7"/>
-      <c r="B352" s="28"/>
+      <c r="B352" s="25"/>
       <c r="C352" s="3"/>
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
@@ -9790,7 +9858,7 @@
     </row>
     <row r="353" spans="1:22">
       <c r="A353" s="7"/>
-      <c r="B353" s="28"/>
+      <c r="B353" s="25"/>
       <c r="C353" s="3"/>
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
@@ -9814,7 +9882,7 @@
     </row>
     <row r="354" spans="1:22">
       <c r="A354" s="7"/>
-      <c r="B354" s="28"/>
+      <c r="B354" s="25"/>
       <c r="C354" s="3"/>
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
@@ -9838,7 +9906,7 @@
     </row>
     <row r="355" spans="1:22">
       <c r="A355" s="7"/>
-      <c r="B355" s="28"/>
+      <c r="B355" s="25"/>
       <c r="C355" s="3"/>
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
@@ -9862,7 +9930,7 @@
     </row>
     <row r="356" spans="1:22">
       <c r="A356" s="7"/>
-      <c r="B356" s="28"/>
+      <c r="B356" s="25"/>
       <c r="C356" s="3"/>
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
@@ -9886,7 +9954,7 @@
     </row>
     <row r="357" spans="1:22">
       <c r="A357" s="7"/>
-      <c r="B357" s="28"/>
+      <c r="B357" s="25"/>
       <c r="C357" s="3"/>
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
@@ -9910,7 +9978,7 @@
     </row>
     <row r="358" spans="1:22">
       <c r="A358" s="7"/>
-      <c r="B358" s="28"/>
+      <c r="B358" s="25"/>
       <c r="C358" s="3"/>
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
@@ -9934,7 +10002,7 @@
     </row>
     <row r="359" spans="1:22">
       <c r="A359" s="7"/>
-      <c r="B359" s="28"/>
+      <c r="B359" s="25"/>
       <c r="C359" s="3"/>
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
@@ -9958,7 +10026,7 @@
     </row>
     <row r="360" spans="1:22">
       <c r="A360" s="7"/>
-      <c r="B360" s="28"/>
+      <c r="B360" s="25"/>
       <c r="C360" s="3"/>
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
@@ -9982,7 +10050,7 @@
     </row>
     <row r="361" spans="1:22">
       <c r="A361" s="7"/>
-      <c r="B361" s="28"/>
+      <c r="B361" s="25"/>
       <c r="C361" s="3"/>
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
@@ -10006,7 +10074,7 @@
     </row>
     <row r="362" spans="1:22">
       <c r="A362" s="7"/>
-      <c r="B362" s="28"/>
+      <c r="B362" s="25"/>
       <c r="C362" s="3"/>
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
@@ -10030,7 +10098,7 @@
     </row>
     <row r="363" spans="1:22">
       <c r="A363" s="7"/>
-      <c r="B363" s="28"/>
+      <c r="B363" s="25"/>
       <c r="C363" s="3"/>
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
@@ -10054,7 +10122,7 @@
     </row>
     <row r="364" spans="1:22">
       <c r="A364" s="7"/>
-      <c r="B364" s="28"/>
+      <c r="B364" s="25"/>
       <c r="C364" s="3"/>
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
@@ -10078,7 +10146,7 @@
     </row>
     <row r="365" spans="1:22">
       <c r="A365" s="7"/>
-      <c r="B365" s="28"/>
+      <c r="B365" s="25"/>
       <c r="C365" s="3"/>
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
@@ -10102,7 +10170,7 @@
     </row>
     <row r="366" spans="1:22">
       <c r="A366" s="7"/>
-      <c r="B366" s="28"/>
+      <c r="B366" s="25"/>
       <c r="C366" s="3"/>
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
@@ -10126,7 +10194,7 @@
     </row>
     <row r="367" spans="1:22">
       <c r="A367" s="7"/>
-      <c r="B367" s="28"/>
+      <c r="B367" s="25"/>
       <c r="C367" s="3"/>
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
@@ -10150,7 +10218,7 @@
     </row>
     <row r="368" spans="1:22">
       <c r="A368" s="7"/>
-      <c r="B368" s="28"/>
+      <c r="B368" s="25"/>
       <c r="C368" s="3"/>
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
@@ -10174,7 +10242,7 @@
     </row>
     <row r="369" spans="1:22">
       <c r="A369" s="7"/>
-      <c r="B369" s="28"/>
+      <c r="B369" s="25"/>
       <c r="C369" s="3"/>
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
@@ -10198,7 +10266,7 @@
     </row>
     <row r="370" spans="1:22">
       <c r="A370" s="7"/>
-      <c r="B370" s="28"/>
+      <c r="B370" s="25"/>
       <c r="C370" s="3"/>
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
@@ -10222,7 +10290,7 @@
     </row>
     <row r="371" spans="1:22">
       <c r="A371" s="7"/>
-      <c r="B371" s="28"/>
+      <c r="B371" s="25"/>
       <c r="C371" s="3"/>
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
@@ -10246,7 +10314,7 @@
     </row>
     <row r="372" spans="1:22">
       <c r="A372" s="7"/>
-      <c r="B372" s="28"/>
+      <c r="B372" s="25"/>
       <c r="C372" s="3"/>
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
@@ -10270,7 +10338,7 @@
     </row>
     <row r="373" spans="1:22">
       <c r="A373" s="7"/>
-      <c r="B373" s="28"/>
+      <c r="B373" s="25"/>
       <c r="C373" s="3"/>
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
@@ -10294,7 +10362,7 @@
     </row>
     <row r="374" spans="1:22">
       <c r="A374" s="7"/>
-      <c r="B374" s="28"/>
+      <c r="B374" s="25"/>
       <c r="C374" s="3"/>
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
@@ -10318,7 +10386,7 @@
     </row>
     <row r="375" spans="1:22">
       <c r="A375" s="7"/>
-      <c r="B375" s="28"/>
+      <c r="B375" s="25"/>
       <c r="C375" s="3"/>
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
@@ -10342,7 +10410,7 @@
     </row>
     <row r="376" spans="1:22">
       <c r="A376" s="7"/>
-      <c r="B376" s="28"/>
+      <c r="B376" s="25"/>
       <c r="C376" s="3"/>
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
@@ -10366,7 +10434,7 @@
     </row>
     <row r="377" spans="1:22">
       <c r="A377" s="7"/>
-      <c r="B377" s="28"/>
+      <c r="B377" s="25"/>
       <c r="C377" s="3"/>
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
@@ -10390,7 +10458,7 @@
     </row>
     <row r="378" spans="1:22">
       <c r="A378" s="7"/>
-      <c r="B378" s="28"/>
+      <c r="B378" s="25"/>
       <c r="C378" s="3"/>
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
@@ -10414,7 +10482,7 @@
     </row>
     <row r="379" spans="1:22">
       <c r="A379" s="7"/>
-      <c r="B379" s="28"/>
+      <c r="B379" s="25"/>
       <c r="C379" s="3"/>
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
@@ -10438,7 +10506,7 @@
     </row>
     <row r="380" spans="1:22">
       <c r="A380" s="7"/>
-      <c r="B380" s="28"/>
+      <c r="B380" s="25"/>
       <c r="C380" s="3"/>
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
@@ -10462,7 +10530,7 @@
     </row>
     <row r="381" spans="1:22">
       <c r="A381" s="7"/>
-      <c r="B381" s="28"/>
+      <c r="B381" s="25"/>
       <c r="C381" s="3"/>
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
@@ -10486,7 +10554,7 @@
     </row>
     <row r="382" spans="1:22">
       <c r="A382" s="7"/>
-      <c r="B382" s="28"/>
+      <c r="B382" s="25"/>
       <c r="C382" s="3"/>
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
@@ -10510,7 +10578,7 @@
     </row>
     <row r="383" spans="1:22">
       <c r="A383" s="7"/>
-      <c r="B383" s="28"/>
+      <c r="B383" s="25"/>
       <c r="C383" s="3"/>
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
@@ -10534,7 +10602,7 @@
     </row>
     <row r="384" spans="1:22">
       <c r="A384" s="7"/>
-      <c r="B384" s="28"/>
+      <c r="B384" s="25"/>
       <c r="C384" s="3"/>
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
@@ -10558,7 +10626,7 @@
     </row>
     <row r="385" spans="1:22">
       <c r="A385" s="7"/>
-      <c r="B385" s="28"/>
+      <c r="B385" s="25"/>
       <c r="C385" s="3"/>
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
@@ -10582,7 +10650,7 @@
     </row>
     <row r="386" spans="1:22">
       <c r="A386" s="7"/>
-      <c r="B386" s="28"/>
+      <c r="B386" s="25"/>
       <c r="C386" s="3"/>
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
@@ -10606,7 +10674,7 @@
     </row>
     <row r="387" spans="1:22">
       <c r="A387" s="7"/>
-      <c r="B387" s="28"/>
+      <c r="B387" s="25"/>
       <c r="C387" s="3"/>
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
@@ -10630,7 +10698,7 @@
     </row>
     <row r="388" spans="1:22">
       <c r="A388" s="7"/>
-      <c r="B388" s="28"/>
+      <c r="B388" s="25"/>
       <c r="C388" s="3"/>
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
@@ -10654,7 +10722,7 @@
     </row>
     <row r="389" spans="1:22">
       <c r="A389" s="7"/>
-      <c r="B389" s="28"/>
+      <c r="B389" s="25"/>
       <c r="C389" s="3"/>
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
@@ -10678,7 +10746,7 @@
     </row>
     <row r="390" spans="1:22">
       <c r="A390" s="7"/>
-      <c r="B390" s="28"/>
+      <c r="B390" s="25"/>
       <c r="C390" s="3"/>
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
@@ -10702,7 +10770,7 @@
     </row>
     <row r="391" spans="1:22">
       <c r="A391" s="7"/>
-      <c r="B391" s="28"/>
+      <c r="B391" s="25"/>
       <c r="C391" s="3"/>
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
@@ -10726,7 +10794,7 @@
     </row>
     <row r="392" spans="1:22">
       <c r="A392" s="7"/>
-      <c r="B392" s="28"/>
+      <c r="B392" s="25"/>
       <c r="C392" s="3"/>
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
@@ -10750,7 +10818,7 @@
     </row>
     <row r="393" spans="1:22">
       <c r="A393" s="7"/>
-      <c r="B393" s="28"/>
+      <c r="B393" s="25"/>
       <c r="C393" s="3"/>
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
@@ -10774,7 +10842,7 @@
     </row>
     <row r="394" spans="1:22">
       <c r="A394" s="7"/>
-      <c r="B394" s="28"/>
+      <c r="B394" s="25"/>
       <c r="C394" s="3"/>
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
@@ -10798,7 +10866,7 @@
     </row>
     <row r="395" spans="1:22">
       <c r="A395" s="7"/>
-      <c r="B395" s="28"/>
+      <c r="B395" s="25"/>
       <c r="C395" s="3"/>
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
@@ -10822,7 +10890,7 @@
     </row>
     <row r="396" spans="1:22">
       <c r="A396" s="7"/>
-      <c r="B396" s="28"/>
+      <c r="B396" s="25"/>
       <c r="C396" s="3"/>
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
@@ -10846,7 +10914,7 @@
     </row>
     <row r="397" spans="1:22">
       <c r="A397" s="7"/>
-      <c r="B397" s="28"/>
+      <c r="B397" s="25"/>
       <c r="C397" s="3"/>
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
@@ -10870,7 +10938,7 @@
     </row>
     <row r="398" spans="1:22">
       <c r="A398" s="7"/>
-      <c r="B398" s="28"/>
+      <c r="B398" s="25"/>
       <c r="C398" s="3"/>
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
@@ -10894,7 +10962,7 @@
     </row>
     <row r="399" spans="1:22">
       <c r="A399" s="7"/>
-      <c r="B399" s="28"/>
+      <c r="B399" s="25"/>
       <c r="C399" s="3"/>
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
@@ -10918,7 +10986,7 @@
     </row>
     <row r="400" spans="1:22">
       <c r="A400" s="7"/>
-      <c r="B400" s="28"/>
+      <c r="B400" s="25"/>
       <c r="C400" s="3"/>
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
@@ -10942,7 +11010,7 @@
     </row>
     <row r="401" spans="1:22">
       <c r="A401" s="7"/>
-      <c r="B401" s="28"/>
+      <c r="B401" s="25"/>
       <c r="C401" s="3"/>
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
@@ -10966,7 +11034,7 @@
     </row>
     <row r="402" spans="1:22">
       <c r="A402" s="7"/>
-      <c r="B402" s="28"/>
+      <c r="B402" s="25"/>
       <c r="C402" s="3"/>
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
@@ -10990,7 +11058,7 @@
     </row>
     <row r="403" spans="1:22">
       <c r="A403" s="7"/>
-      <c r="B403" s="28"/>
+      <c r="B403" s="25"/>
       <c r="C403" s="3"/>
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
@@ -11014,7 +11082,7 @@
     </row>
     <row r="404" spans="1:22">
       <c r="A404" s="7"/>
-      <c r="B404" s="28"/>
+      <c r="B404" s="25"/>
       <c r="C404" s="3"/>
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
@@ -11038,7 +11106,7 @@
     </row>
     <row r="405" spans="1:22">
       <c r="A405" s="7"/>
-      <c r="B405" s="28"/>
+      <c r="B405" s="25"/>
       <c r="C405" s="3"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
@@ -11062,7 +11130,7 @@
     </row>
     <row r="406" spans="1:22">
       <c r="A406" s="7"/>
-      <c r="B406" s="28"/>
+      <c r="B406" s="25"/>
       <c r="C406" s="3"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
@@ -11086,7 +11154,7 @@
     </row>
     <row r="407" spans="1:22">
       <c r="A407" s="7"/>
-      <c r="B407" s="28"/>
+      <c r="B407" s="25"/>
       <c r="C407" s="3"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
@@ -11110,7 +11178,7 @@
     </row>
     <row r="408" spans="1:22">
       <c r="A408" s="7"/>
-      <c r="B408" s="28"/>
+      <c r="B408" s="25"/>
       <c r="C408" s="3"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
@@ -11134,7 +11202,7 @@
     </row>
     <row r="409" spans="1:22">
       <c r="A409" s="7"/>
-      <c r="B409" s="28"/>
+      <c r="B409" s="25"/>
       <c r="C409" s="3"/>
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
@@ -11158,7 +11226,7 @@
     </row>
     <row r="410" spans="1:22">
       <c r="A410" s="7"/>
-      <c r="B410" s="28"/>
+      <c r="B410" s="25"/>
       <c r="C410" s="3"/>
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
@@ -11182,7 +11250,7 @@
     </row>
     <row r="411" spans="1:22">
       <c r="A411" s="7"/>
-      <c r="B411" s="28"/>
+      <c r="B411" s="25"/>
       <c r="C411" s="3"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
@@ -11206,7 +11274,7 @@
     </row>
     <row r="412" spans="1:22">
       <c r="A412" s="7"/>
-      <c r="B412" s="28"/>
+      <c r="B412" s="25"/>
       <c r="C412" s="3"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
@@ -11230,7 +11298,7 @@
     </row>
     <row r="413" spans="1:22">
       <c r="A413" s="7"/>
-      <c r="B413" s="28"/>
+      <c r="B413" s="25"/>
       <c r="C413" s="3"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
@@ -11254,7 +11322,7 @@
     </row>
     <row r="414" spans="1:22">
       <c r="A414" s="7"/>
-      <c r="B414" s="28"/>
+      <c r="B414" s="25"/>
       <c r="C414" s="3"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
@@ -11278,7 +11346,7 @@
     </row>
     <row r="415" spans="1:22">
       <c r="A415" s="7"/>
-      <c r="B415" s="28"/>
+      <c r="B415" s="25"/>
       <c r="C415" s="3"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
@@ -11302,7 +11370,7 @@
     </row>
     <row r="416" spans="1:22">
       <c r="A416" s="7"/>
-      <c r="B416" s="28"/>
+      <c r="B416" s="25"/>
       <c r="C416" s="3"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
@@ -11326,7 +11394,7 @@
     </row>
     <row r="417" spans="1:22">
       <c r="A417" s="7"/>
-      <c r="B417" s="28"/>
+      <c r="B417" s="25"/>
       <c r="C417" s="3"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
@@ -11350,7 +11418,7 @@
     </row>
     <row r="418" spans="1:22">
       <c r="A418" s="7"/>
-      <c r="B418" s="28"/>
+      <c r="B418" s="25"/>
       <c r="C418" s="3"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
@@ -11374,7 +11442,7 @@
     </row>
     <row r="419" spans="1:22">
       <c r="A419" s="7"/>
-      <c r="B419" s="28"/>
+      <c r="B419" s="25"/>
       <c r="C419" s="3"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
@@ -11398,7 +11466,7 @@
     </row>
     <row r="420" spans="1:22">
       <c r="A420" s="7"/>
-      <c r="B420" s="28"/>
+      <c r="B420" s="25"/>
       <c r="C420" s="3"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
@@ -11422,7 +11490,7 @@
     </row>
     <row r="421" spans="1:22">
       <c r="A421" s="7"/>
-      <c r="B421" s="28"/>
+      <c r="B421" s="25"/>
       <c r="C421" s="3"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
@@ -11446,7 +11514,7 @@
     </row>
     <row r="422" spans="1:22">
       <c r="A422" s="7"/>
-      <c r="B422" s="28"/>
+      <c r="B422" s="25"/>
       <c r="C422" s="3"/>
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
@@ -11470,7 +11538,7 @@
     </row>
     <row r="423" spans="1:22">
       <c r="A423" s="7"/>
-      <c r="B423" s="28"/>
+      <c r="B423" s="25"/>
       <c r="C423" s="3"/>
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
@@ -11494,7 +11562,7 @@
     </row>
     <row r="424" spans="1:22">
       <c r="A424" s="7"/>
-      <c r="B424" s="28"/>
+      <c r="B424" s="25"/>
       <c r="C424" s="3"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
@@ -11518,7 +11586,7 @@
     </row>
     <row r="425" spans="1:22">
       <c r="A425" s="7"/>
-      <c r="B425" s="28"/>
+      <c r="B425" s="25"/>
       <c r="C425" s="3"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
@@ -11542,7 +11610,7 @@
     </row>
     <row r="426" spans="1:22">
       <c r="A426" s="7"/>
-      <c r="B426" s="28"/>
+      <c r="B426" s="25"/>
       <c r="C426" s="3"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
@@ -11566,7 +11634,7 @@
     </row>
     <row r="427" spans="1:22">
       <c r="A427" s="7"/>
-      <c r="B427" s="28"/>
+      <c r="B427" s="25"/>
       <c r="C427" s="3"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
@@ -11590,7 +11658,7 @@
     </row>
     <row r="428" spans="1:22">
       <c r="A428" s="7"/>
-      <c r="B428" s="28"/>
+      <c r="B428" s="25"/>
       <c r="C428" s="3"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
@@ -11614,7 +11682,7 @@
     </row>
     <row r="429" spans="1:22">
       <c r="A429" s="7"/>
-      <c r="B429" s="28"/>
+      <c r="B429" s="25"/>
       <c r="C429" s="3"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
@@ -11638,7 +11706,7 @@
     </row>
     <row r="430" spans="1:22">
       <c r="A430" s="7"/>
-      <c r="B430" s="28"/>
+      <c r="B430" s="25"/>
       <c r="C430" s="3"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
@@ -11662,7 +11730,7 @@
     </row>
     <row r="431" spans="1:22">
       <c r="A431" s="7"/>
-      <c r="B431" s="28"/>
+      <c r="B431" s="25"/>
       <c r="C431" s="3"/>
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
@@ -11686,7 +11754,7 @@
     </row>
     <row r="432" spans="1:22">
       <c r="A432" s="7"/>
-      <c r="B432" s="28"/>
+      <c r="B432" s="25"/>
       <c r="C432" s="3"/>
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
@@ -11710,7 +11778,7 @@
     </row>
     <row r="433" spans="1:22">
       <c r="A433" s="7"/>
-      <c r="B433" s="28"/>
+      <c r="B433" s="25"/>
       <c r="C433" s="3"/>
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
@@ -11734,7 +11802,7 @@
     </row>
     <row r="434" spans="1:22">
       <c r="A434" s="7"/>
-      <c r="B434" s="28"/>
+      <c r="B434" s="25"/>
       <c r="C434" s="3"/>
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
@@ -11758,7 +11826,7 @@
     </row>
     <row r="435" spans="1:22">
       <c r="A435" s="7"/>
-      <c r="B435" s="28"/>
+      <c r="B435" s="25"/>
       <c r="C435" s="3"/>
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
@@ -11782,7 +11850,7 @@
     </row>
     <row r="436" spans="1:22">
       <c r="A436" s="7"/>
-      <c r="B436" s="28"/>
+      <c r="B436" s="25"/>
       <c r="C436" s="3"/>
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
@@ -11806,7 +11874,7 @@
     </row>
     <row r="437" spans="1:22">
       <c r="A437" s="7"/>
-      <c r="B437" s="28"/>
+      <c r="B437" s="25"/>
       <c r="C437" s="3"/>
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
@@ -11830,7 +11898,7 @@
     </row>
     <row r="438" spans="1:22">
       <c r="A438" s="7"/>
-      <c r="B438" s="28"/>
+      <c r="B438" s="25"/>
       <c r="C438" s="3"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
@@ -11854,7 +11922,7 @@
     </row>
     <row r="439" spans="1:22">
       <c r="A439" s="7"/>
-      <c r="B439" s="28"/>
+      <c r="B439" s="25"/>
       <c r="C439" s="3"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -11878,7 +11946,7 @@
     </row>
     <row r="440" spans="1:22">
       <c r="A440" s="7"/>
-      <c r="B440" s="28"/>
+      <c r="B440" s="25"/>
       <c r="C440" s="3"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -11902,7 +11970,7 @@
     </row>
     <row r="441" spans="1:22">
       <c r="A441" s="7"/>
-      <c r="B441" s="28"/>
+      <c r="B441" s="25"/>
       <c r="C441" s="3"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -11926,7 +11994,7 @@
     </row>
     <row r="442" spans="1:22">
       <c r="A442" s="7"/>
-      <c r="B442" s="28"/>
+      <c r="B442" s="25"/>
       <c r="C442" s="3"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -11950,7 +12018,7 @@
     </row>
     <row r="443" spans="1:22">
       <c r="A443" s="7"/>
-      <c r="B443" s="28"/>
+      <c r="B443" s="25"/>
       <c r="C443" s="3"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -11974,7 +12042,7 @@
     </row>
     <row r="444" spans="1:22">
       <c r="A444" s="7"/>
-      <c r="B444" s="28"/>
+      <c r="B444" s="25"/>
       <c r="C444" s="3"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -11998,7 +12066,7 @@
     </row>
     <row r="445" spans="1:22">
       <c r="A445" s="7"/>
-      <c r="B445" s="28"/>
+      <c r="B445" s="25"/>
       <c r="C445" s="3"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -12022,7 +12090,7 @@
     </row>
     <row r="446" spans="1:22">
       <c r="A446" s="7"/>
-      <c r="B446" s="28"/>
+      <c r="B446" s="25"/>
       <c r="C446" s="3"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -12046,7 +12114,7 @@
     </row>
     <row r="447" spans="1:22">
       <c r="A447" s="7"/>
-      <c r="B447" s="28"/>
+      <c r="B447" s="25"/>
       <c r="C447" s="3"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -12070,7 +12138,7 @@
     </row>
     <row r="448" spans="1:22">
       <c r="A448" s="7"/>
-      <c r="B448" s="28"/>
+      <c r="B448" s="25"/>
       <c r="C448" s="3"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -12094,7 +12162,7 @@
     </row>
     <row r="449" spans="1:22">
       <c r="A449" s="7"/>
-      <c r="B449" s="28"/>
+      <c r="B449" s="25"/>
       <c r="C449" s="3"/>
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
@@ -12118,7 +12186,7 @@
     </row>
     <row r="450" spans="1:22">
       <c r="A450" s="7"/>
-      <c r="B450" s="28"/>
+      <c r="B450" s="25"/>
       <c r="C450" s="3"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -12142,7 +12210,7 @@
     </row>
     <row r="451" spans="1:22">
       <c r="A451" s="7"/>
-      <c r="B451" s="28"/>
+      <c r="B451" s="25"/>
       <c r="C451" s="3"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -12166,7 +12234,7 @@
     </row>
     <row r="452" spans="1:22">
       <c r="A452" s="7"/>
-      <c r="B452" s="28"/>
+      <c r="B452" s="25"/>
       <c r="C452" s="3"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -12190,7 +12258,7 @@
     </row>
     <row r="453" spans="1:22">
       <c r="A453" s="7"/>
-      <c r="B453" s="28"/>
+      <c r="B453" s="25"/>
       <c r="C453" s="3"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -12214,7 +12282,7 @@
     </row>
     <row r="454" spans="1:22">
       <c r="A454" s="7"/>
-      <c r="B454" s="28"/>
+      <c r="B454" s="25"/>
       <c r="C454" s="3"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -12238,7 +12306,7 @@
     </row>
     <row r="455" spans="1:22">
       <c r="A455" s="7"/>
-      <c r="B455" s="28"/>
+      <c r="B455" s="25"/>
       <c r="C455" s="3"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -12262,7 +12330,7 @@
     </row>
     <row r="456" spans="1:22">
       <c r="A456" s="7"/>
-      <c r="B456" s="28"/>
+      <c r="B456" s="25"/>
       <c r="C456" s="3"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -12286,7 +12354,7 @@
     </row>
     <row r="457" spans="1:22">
       <c r="A457" s="7"/>
-      <c r="B457" s="28"/>
+      <c r="B457" s="25"/>
       <c r="C457" s="3"/>
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
@@ -12310,7 +12378,7 @@
     </row>
     <row r="458" spans="1:22">
       <c r="A458" s="7"/>
-      <c r="B458" s="28"/>
+      <c r="B458" s="25"/>
       <c r="C458" s="3"/>
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
@@ -12334,7 +12402,7 @@
     </row>
     <row r="459" spans="1:22">
       <c r="A459" s="7"/>
-      <c r="B459" s="28"/>
+      <c r="B459" s="25"/>
       <c r="C459" s="3"/>
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
@@ -12358,7 +12426,7 @@
     </row>
     <row r="460" spans="1:22">
       <c r="A460" s="7"/>
-      <c r="B460" s="28"/>
+      <c r="B460" s="25"/>
       <c r="C460" s="3"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -12382,7 +12450,7 @@
     </row>
     <row r="461" spans="1:22">
       <c r="A461" s="7"/>
-      <c r="B461" s="28"/>
+      <c r="B461" s="25"/>
       <c r="C461" s="3"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -12406,7 +12474,7 @@
     </row>
     <row r="462" spans="1:22">
       <c r="A462" s="7"/>
-      <c r="B462" s="28"/>
+      <c r="B462" s="25"/>
       <c r="C462" s="3"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -12430,7 +12498,7 @@
     </row>
     <row r="463" spans="1:22">
       <c r="A463" s="7"/>
-      <c r="B463" s="28"/>
+      <c r="B463" s="25"/>
       <c r="C463" s="3"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -12454,7 +12522,7 @@
     </row>
     <row r="464" spans="1:22">
       <c r="A464" s="7"/>
-      <c r="B464" s="28"/>
+      <c r="B464" s="25"/>
       <c r="C464" s="3"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -12478,7 +12546,7 @@
     </row>
     <row r="465" spans="1:22">
       <c r="A465" s="7"/>
-      <c r="B465" s="28"/>
+      <c r="B465" s="25"/>
       <c r="C465" s="3"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -12502,7 +12570,7 @@
     </row>
     <row r="466" spans="1:22">
       <c r="A466" s="7"/>
-      <c r="B466" s="28"/>
+      <c r="B466" s="25"/>
       <c r="C466" s="3"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -12526,7 +12594,7 @@
     </row>
     <row r="467" spans="1:22">
       <c r="A467" s="7"/>
-      <c r="B467" s="28"/>
+      <c r="B467" s="25"/>
       <c r="C467" s="3"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -12550,7 +12618,7 @@
     </row>
     <row r="468" spans="1:22">
       <c r="A468" s="7"/>
-      <c r="B468" s="28"/>
+      <c r="B468" s="25"/>
       <c r="C468" s="3"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -12574,7 +12642,7 @@
     </row>
     <row r="469" spans="1:22">
       <c r="A469" s="7"/>
-      <c r="B469" s="28"/>
+      <c r="B469" s="25"/>
       <c r="C469" s="3"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -12598,7 +12666,7 @@
     </row>
     <row r="470" spans="1:22">
       <c r="A470" s="7"/>
-      <c r="B470" s="28"/>
+      <c r="B470" s="25"/>
       <c r="C470" s="3"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -12622,7 +12690,7 @@
     </row>
     <row r="471" spans="1:22">
       <c r="A471" s="7"/>
-      <c r="B471" s="28"/>
+      <c r="B471" s="25"/>
       <c r="C471" s="3"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -12646,7 +12714,7 @@
     </row>
     <row r="472" spans="1:22">
       <c r="A472" s="7"/>
-      <c r="B472" s="28"/>
+      <c r="B472" s="25"/>
       <c r="C472" s="3"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -12670,7 +12738,7 @@
     </row>
     <row r="473" spans="1:22">
       <c r="A473" s="7"/>
-      <c r="B473" s="28"/>
+      <c r="B473" s="25"/>
       <c r="C473" s="3"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -12694,7 +12762,7 @@
     </row>
     <row r="474" spans="1:22">
       <c r="A474" s="7"/>
-      <c r="B474" s="28"/>
+      <c r="B474" s="25"/>
       <c r="C474" s="3"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -12718,7 +12786,7 @@
     </row>
     <row r="475" spans="1:22">
       <c r="A475" s="7"/>
-      <c r="B475" s="28"/>
+      <c r="B475" s="25"/>
       <c r="C475" s="3"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -12742,7 +12810,7 @@
     </row>
     <row r="476" spans="1:22">
       <c r="A476" s="7"/>
-      <c r="B476" s="28"/>
+      <c r="B476" s="25"/>
       <c r="C476" s="3"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -12766,7 +12834,7 @@
     </row>
     <row r="477" spans="1:22">
       <c r="A477" s="7"/>
-      <c r="B477" s="28"/>
+      <c r="B477" s="25"/>
       <c r="C477" s="3"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -12790,7 +12858,7 @@
     </row>
     <row r="478" spans="1:22">
       <c r="A478" s="7"/>
-      <c r="B478" s="28"/>
+      <c r="B478" s="25"/>
       <c r="C478" s="3"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -12814,7 +12882,7 @@
     </row>
     <row r="479" spans="1:22">
       <c r="A479" s="7"/>
-      <c r="B479" s="28"/>
+      <c r="B479" s="25"/>
       <c r="C479" s="3"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -12838,7 +12906,7 @@
     </row>
     <row r="480" spans="1:22">
       <c r="A480" s="7"/>
-      <c r="B480" s="28"/>
+      <c r="B480" s="25"/>
       <c r="C480" s="3"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -12862,7 +12930,7 @@
     </row>
     <row r="481" spans="1:22">
       <c r="A481" s="7"/>
-      <c r="B481" s="28"/>
+      <c r="B481" s="25"/>
       <c r="C481" s="3"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -12886,7 +12954,7 @@
     </row>
     <row r="482" spans="1:22">
       <c r="A482" s="7"/>
-      <c r="B482" s="28"/>
+      <c r="B482" s="25"/>
       <c r="C482" s="3"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -12910,7 +12978,7 @@
     </row>
     <row r="483" spans="1:22">
       <c r="A483" s="7"/>
-      <c r="B483" s="28"/>
+      <c r="B483" s="25"/>
       <c r="C483" s="3"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -12934,7 +13002,7 @@
     </row>
     <row r="484" spans="1:22">
       <c r="A484" s="7"/>
-      <c r="B484" s="28"/>
+      <c r="B484" s="25"/>
       <c r="C484" s="3"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -12958,7 +13026,7 @@
     </row>
     <row r="485" spans="1:22">
       <c r="A485" s="7"/>
-      <c r="B485" s="28"/>
+      <c r="B485" s="25"/>
       <c r="C485" s="3"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -12982,7 +13050,7 @@
     </row>
     <row r="486" spans="1:22">
       <c r="A486" s="7"/>
-      <c r="B486" s="28"/>
+      <c r="B486" s="25"/>
       <c r="C486" s="3"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -13006,7 +13074,7 @@
     </row>
     <row r="487" spans="1:22">
       <c r="A487" s="7"/>
-      <c r="B487" s="28"/>
+      <c r="B487" s="25"/>
       <c r="C487" s="3"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -13030,7 +13098,7 @@
     </row>
     <row r="488" spans="1:22">
       <c r="A488" s="7"/>
-      <c r="B488" s="28"/>
+      <c r="B488" s="25"/>
       <c r="C488" s="3"/>
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
@@ -13054,7 +13122,7 @@
     </row>
     <row r="489" spans="1:22">
       <c r="A489" s="7"/>
-      <c r="B489" s="28"/>
+      <c r="B489" s="25"/>
       <c r="C489" s="3"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -13078,7 +13146,7 @@
     </row>
     <row r="490" spans="1:22">
       <c r="A490" s="7"/>
-      <c r="B490" s="28"/>
+      <c r="B490" s="25"/>
       <c r="C490" s="3"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -13102,7 +13170,7 @@
     </row>
     <row r="491" spans="1:22">
       <c r="A491" s="7"/>
-      <c r="B491" s="28"/>
+      <c r="B491" s="25"/>
       <c r="C491" s="3"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -13126,7 +13194,7 @@
     </row>
     <row r="492" spans="1:22">
       <c r="A492" s="7"/>
-      <c r="B492" s="28"/>
+      <c r="B492" s="25"/>
       <c r="C492" s="3"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -13150,7 +13218,7 @@
     </row>
     <row r="493" spans="1:22">
       <c r="A493" s="7"/>
-      <c r="B493" s="28"/>
+      <c r="B493" s="25"/>
       <c r="C493" s="3"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -13174,7 +13242,7 @@
     </row>
     <row r="494" spans="1:22">
       <c r="A494" s="7"/>
-      <c r="B494" s="28"/>
+      <c r="B494" s="25"/>
       <c r="C494" s="3"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -13198,7 +13266,7 @@
     </row>
     <row r="495" spans="1:22">
       <c r="A495" s="7"/>
-      <c r="B495" s="28"/>
+      <c r="B495" s="25"/>
       <c r="C495" s="3"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -13222,7 +13290,7 @@
     </row>
     <row r="496" spans="1:22">
       <c r="A496" s="7"/>
-      <c r="B496" s="28"/>
+      <c r="B496" s="25"/>
       <c r="C496" s="3"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -13246,7 +13314,7 @@
     </row>
     <row r="497" spans="1:22">
       <c r="A497" s="7"/>
-      <c r="B497" s="28"/>
+      <c r="B497" s="25"/>
       <c r="C497" s="3"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -13270,7 +13338,7 @@
     </row>
     <row r="498" spans="1:22">
       <c r="A498" s="7"/>
-      <c r="B498" s="28"/>
+      <c r="B498" s="25"/>
       <c r="C498" s="3"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -13294,7 +13362,7 @@
     </row>
     <row r="499" spans="1:22">
       <c r="A499" s="7"/>
-      <c r="B499" s="28"/>
+      <c r="B499" s="25"/>
       <c r="C499" s="3"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -13318,7 +13386,7 @@
     </row>
     <row r="500" spans="1:22">
       <c r="A500" s="7"/>
-      <c r="B500" s="28"/>
+      <c r="B500" s="25"/>
       <c r="C500" s="3"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -13342,7 +13410,7 @@
     </row>
     <row r="501" spans="1:22">
       <c r="A501" s="7"/>
-      <c r="B501" s="28"/>
+      <c r="B501" s="25"/>
       <c r="C501" s="3"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -13366,7 +13434,7 @@
     </row>
     <row r="502" spans="1:22">
       <c r="A502" s="7"/>
-      <c r="B502" s="28"/>
+      <c r="B502" s="25"/>
       <c r="C502" s="3"/>
       <c r="D502" s="1"/>
       <c r="E502" s="1"/>
@@ -13390,7 +13458,7 @@
     </row>
     <row r="503" spans="1:22">
       <c r="A503" s="7"/>
-      <c r="B503" s="28"/>
+      <c r="B503" s="25"/>
       <c r="C503" s="3"/>
       <c r="D503" s="1"/>
       <c r="E503" s="1"/>
@@ -13414,7 +13482,7 @@
     </row>
     <row r="504" spans="1:22">
       <c r="A504" s="7"/>
-      <c r="B504" s="28"/>
+      <c r="B504" s="25"/>
       <c r="C504" s="3"/>
       <c r="D504" s="1"/>
       <c r="E504" s="1"/>
@@ -13438,7 +13506,7 @@
     </row>
     <row r="505" spans="1:22">
       <c r="A505" s="7"/>
-      <c r="B505" s="28"/>
+      <c r="B505" s="25"/>
       <c r="C505" s="3"/>
       <c r="D505" s="1"/>
       <c r="E505" s="1"/>
@@ -13462,7 +13530,7 @@
     </row>
     <row r="506" spans="1:22">
       <c r="A506" s="7"/>
-      <c r="B506" s="28"/>
+      <c r="B506" s="25"/>
       <c r="C506" s="3"/>
       <c r="D506" s="1"/>
       <c r="E506" s="1"/>
@@ -13486,7 +13554,7 @@
     </row>
     <row r="507" spans="1:22">
       <c r="A507" s="7"/>
-      <c r="B507" s="28"/>
+      <c r="B507" s="25"/>
       <c r="C507" s="3"/>
       <c r="D507" s="1"/>
       <c r="E507" s="1"/>
@@ -13510,7 +13578,7 @@
     </row>
     <row r="508" spans="1:22">
       <c r="A508" s="7"/>
-      <c r="B508" s="28"/>
+      <c r="B508" s="25"/>
       <c r="C508" s="3"/>
       <c r="D508" s="1"/>
       <c r="E508" s="1"/>
@@ -13534,7 +13602,7 @@
     </row>
     <row r="509" spans="1:22">
       <c r="A509" s="7"/>
-      <c r="B509" s="28"/>
+      <c r="B509" s="25"/>
       <c r="C509" s="3"/>
       <c r="D509" s="1"/>
       <c r="E509" s="1"/>
@@ -13558,7 +13626,7 @@
     </row>
     <row r="510" spans="1:22">
       <c r="A510" s="7"/>
-      <c r="B510" s="28"/>
+      <c r="B510" s="25"/>
       <c r="C510" s="3"/>
       <c r="D510" s="1"/>
       <c r="E510" s="1"/>
@@ -13582,7 +13650,7 @@
     </row>
     <row r="511" spans="1:22">
       <c r="A511" s="7"/>
-      <c r="B511" s="28"/>
+      <c r="B511" s="25"/>
       <c r="C511" s="3"/>
       <c r="D511" s="1"/>
       <c r="E511" s="1"/>
@@ -13606,7 +13674,7 @@
     </row>
     <row r="512" spans="1:22">
       <c r="A512" s="7"/>
-      <c r="B512" s="28"/>
+      <c r="B512" s="25"/>
       <c r="C512" s="3"/>
       <c r="D512" s="1"/>
       <c r="E512" s="1"/>
@@ -13630,7 +13698,7 @@
     </row>
     <row r="513" spans="1:22">
       <c r="A513" s="7"/>
-      <c r="B513" s="28"/>
+      <c r="B513" s="25"/>
       <c r="C513" s="3"/>
       <c r="D513" s="1"/>
       <c r="E513" s="1"/>
@@ -13654,7 +13722,7 @@
     </row>
     <row r="514" spans="1:22">
       <c r="A514" s="7"/>
-      <c r="B514" s="28"/>
+      <c r="B514" s="25"/>
       <c r="C514" s="3"/>
       <c r="D514" s="1"/>
       <c r="E514" s="1"/>
@@ -13678,7 +13746,7 @@
     </row>
     <row r="515" spans="1:22">
       <c r="A515" s="7"/>
-      <c r="B515" s="28"/>
+      <c r="B515" s="25"/>
       <c r="C515" s="3"/>
       <c r="D515" s="1"/>
       <c r="E515" s="1"/>
@@ -13702,7 +13770,7 @@
     </row>
     <row r="516" spans="1:22">
       <c r="A516" s="7"/>
-      <c r="B516" s="28"/>
+      <c r="B516" s="25"/>
       <c r="C516" s="3"/>
       <c r="D516" s="1"/>
       <c r="E516" s="1"/>
@@ -13726,7 +13794,7 @@
     </row>
     <row r="517" spans="1:22">
       <c r="A517" s="7"/>
-      <c r="B517" s="28"/>
+      <c r="B517" s="25"/>
       <c r="C517" s="3"/>
       <c r="D517" s="1"/>
       <c r="E517" s="1"/>
@@ -13750,7 +13818,7 @@
     </row>
     <row r="518" spans="1:22">
       <c r="A518" s="7"/>
-      <c r="B518" s="28"/>
+      <c r="B518" s="25"/>
       <c r="C518" s="3"/>
       <c r="D518" s="1"/>
       <c r="E518" s="1"/>
@@ -13774,7 +13842,7 @@
     </row>
     <row r="519" spans="1:22">
       <c r="A519" s="7"/>
-      <c r="B519" s="28"/>
+      <c r="B519" s="25"/>
       <c r="C519" s="3"/>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
@@ -13798,7 +13866,7 @@
     </row>
     <row r="520" spans="1:22">
       <c r="A520" s="7"/>
-      <c r="B520" s="28"/>
+      <c r="B520" s="25"/>
       <c r="C520" s="3"/>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
@@ -13822,7 +13890,7 @@
     </row>
     <row r="521" spans="1:22">
       <c r="A521" s="7"/>
-      <c r="B521" s="28"/>
+      <c r="B521" s="25"/>
       <c r="C521" s="3"/>
       <c r="D521" s="1"/>
       <c r="E521" s="1"/>
@@ -13846,7 +13914,7 @@
     </row>
     <row r="522" spans="1:22">
       <c r="A522" s="7"/>
-      <c r="B522" s="28"/>
+      <c r="B522" s="25"/>
       <c r="C522" s="3"/>
       <c r="D522" s="1"/>
       <c r="E522" s="1"/>
@@ -13870,7 +13938,7 @@
     </row>
     <row r="523" spans="1:22">
       <c r="A523" s="7"/>
-      <c r="B523" s="28"/>
+      <c r="B523" s="25"/>
       <c r="C523" s="3"/>
       <c r="D523" s="1"/>
       <c r="E523" s="1"/>
@@ -13894,7 +13962,7 @@
     </row>
     <row r="524" spans="1:22">
       <c r="A524" s="7"/>
-      <c r="B524" s="28"/>
+      <c r="B524" s="25"/>
       <c r="C524" s="3"/>
       <c r="D524" s="1"/>
       <c r="E524" s="1"/>
@@ -13918,7 +13986,7 @@
     </row>
     <row r="525" spans="1:22">
       <c r="A525" s="7"/>
-      <c r="B525" s="28"/>
+      <c r="B525" s="25"/>
       <c r="C525" s="3"/>
       <c r="D525" s="1"/>
       <c r="E525" s="1"/>
@@ -13942,7 +14010,7 @@
     </row>
     <row r="526" spans="1:22">
       <c r="A526" s="7"/>
-      <c r="B526" s="28"/>
+      <c r="B526" s="25"/>
       <c r="C526" s="3"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
@@ -13966,7 +14034,7 @@
     </row>
     <row r="527" spans="1:22">
       <c r="A527" s="7"/>
-      <c r="B527" s="28"/>
+      <c r="B527" s="25"/>
       <c r="C527" s="3"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
@@ -13990,7 +14058,7 @@
     </row>
     <row r="528" spans="1:22">
       <c r="A528" s="7"/>
-      <c r="B528" s="28"/>
+      <c r="B528" s="25"/>
       <c r="C528" s="3"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
@@ -14014,7 +14082,7 @@
     </row>
     <row r="529" spans="1:22">
       <c r="A529" s="7"/>
-      <c r="B529" s="28"/>
+      <c r="B529" s="25"/>
       <c r="C529" s="3"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
@@ -14038,7 +14106,7 @@
     </row>
     <row r="530" spans="1:22">
       <c r="A530" s="7"/>
-      <c r="B530" s="28"/>
+      <c r="B530" s="25"/>
       <c r="C530" s="3"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
@@ -14062,7 +14130,7 @@
     </row>
     <row r="531" spans="1:22">
       <c r="A531" s="7"/>
-      <c r="B531" s="28"/>
+      <c r="B531" s="25"/>
       <c r="C531" s="3"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
@@ -14086,7 +14154,7 @@
     </row>
     <row r="532" spans="1:22">
       <c r="A532" s="7"/>
-      <c r="B532" s="28"/>
+      <c r="B532" s="25"/>
       <c r="C532" s="3"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
@@ -14110,7 +14178,7 @@
     </row>
     <row r="533" spans="1:22">
       <c r="A533" s="7"/>
-      <c r="B533" s="28"/>
+      <c r="B533" s="25"/>
       <c r="C533" s="3"/>
       <c r="D533" s="1"/>
       <c r="E533" s="1"/>
@@ -14134,7 +14202,7 @@
     </row>
     <row r="534" spans="1:22">
       <c r="A534" s="7"/>
-      <c r="B534" s="28"/>
+      <c r="B534" s="25"/>
       <c r="C534" s="3"/>
       <c r="D534" s="1"/>
       <c r="E534" s="1"/>
@@ -14158,7 +14226,7 @@
     </row>
     <row r="535" spans="1:22">
       <c r="A535" s="7"/>
-      <c r="B535" s="28"/>
+      <c r="B535" s="25"/>
       <c r="C535" s="3"/>
       <c r="D535" s="1"/>
       <c r="E535" s="1"/>
@@ -14182,7 +14250,7 @@
     </row>
     <row r="536" spans="1:22">
       <c r="A536" s="7"/>
-      <c r="B536" s="28"/>
+      <c r="B536" s="25"/>
       <c r="C536" s="3"/>
       <c r="D536" s="1"/>
       <c r="E536" s="1"/>
@@ -14206,7 +14274,7 @@
     </row>
     <row r="537" spans="1:22">
       <c r="A537" s="7"/>
-      <c r="B537" s="28"/>
+      <c r="B537" s="25"/>
       <c r="C537" s="3"/>
       <c r="D537" s="1"/>
       <c r="E537" s="1"/>
@@ -14230,7 +14298,7 @@
     </row>
     <row r="538" spans="1:22">
       <c r="A538" s="7"/>
-      <c r="B538" s="28"/>
+      <c r="B538" s="25"/>
       <c r="C538" s="3"/>
       <c r="D538" s="1"/>
       <c r="E538" s="1"/>
@@ -14254,7 +14322,7 @@
     </row>
     <row r="539" spans="1:22">
       <c r="A539" s="7"/>
-      <c r="B539" s="28"/>
+      <c r="B539" s="25"/>
       <c r="C539" s="3"/>
       <c r="D539" s="1"/>
       <c r="E539" s="1"/>
@@ -14278,7 +14346,7 @@
     </row>
     <row r="540" spans="1:22">
       <c r="A540" s="7"/>
-      <c r="B540" s="28"/>
+      <c r="B540" s="25"/>
       <c r="C540" s="3"/>
       <c r="D540" s="1"/>
       <c r="E540" s="1"/>
@@ -14302,7 +14370,7 @@
     </row>
     <row r="541" spans="1:22">
       <c r="A541" s="7"/>
-      <c r="B541" s="28"/>
+      <c r="B541" s="25"/>
       <c r="C541" s="3"/>
       <c r="D541" s="1"/>
       <c r="E541" s="1"/>
@@ -14326,7 +14394,7 @@
     </row>
     <row r="542" spans="1:22">
       <c r="A542" s="7"/>
-      <c r="B542" s="28"/>
+      <c r="B542" s="25"/>
       <c r="C542" s="3"/>
       <c r="D542" s="1"/>
       <c r="E542" s="1"/>
@@ -14350,7 +14418,7 @@
     </row>
     <row r="543" spans="1:22">
       <c r="A543" s="7"/>
-      <c r="B543" s="28"/>
+      <c r="B543" s="25"/>
       <c r="C543" s="3"/>
       <c r="D543" s="1"/>
       <c r="E543" s="1"/>
@@ -14374,7 +14442,7 @@
     </row>
     <row r="544" spans="1:22">
       <c r="A544" s="7"/>
-      <c r="B544" s="28"/>
+      <c r="B544" s="25"/>
       <c r="C544" s="3"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
@@ -14398,7 +14466,7 @@
     </row>
     <row r="545" spans="1:22">
       <c r="A545" s="7"/>
-      <c r="B545" s="28"/>
+      <c r="B545" s="25"/>
       <c r="C545" s="3"/>
       <c r="D545" s="1"/>
       <c r="E545" s="1"/>
@@ -14422,7 +14490,7 @@
     </row>
     <row r="546" spans="1:22">
       <c r="A546" s="7"/>
-      <c r="B546" s="28"/>
+      <c r="B546" s="25"/>
       <c r="C546" s="3"/>
       <c r="D546" s="1"/>
       <c r="E546" s="1"/>
@@ -14446,7 +14514,7 @@
     </row>
     <row r="547" spans="1:22">
       <c r="A547" s="7"/>
-      <c r="B547" s="28"/>
+      <c r="B547" s="25"/>
       <c r="C547" s="3"/>
       <c r="D547" s="1"/>
       <c r="E547" s="1"/>
@@ -14470,7 +14538,7 @@
     </row>
     <row r="548" spans="1:22">
       <c r="A548" s="7"/>
-      <c r="B548" s="28"/>
+      <c r="B548" s="25"/>
       <c r="C548" s="3"/>
       <c r="D548" s="1"/>
       <c r="E548" s="1"/>
@@ -14494,7 +14562,7 @@
     </row>
     <row r="549" spans="1:22">
       <c r="A549" s="7"/>
-      <c r="B549" s="28"/>
+      <c r="B549" s="25"/>
       <c r="C549" s="3"/>
       <c r="D549" s="1"/>
       <c r="E549" s="1"/>
@@ -14518,7 +14586,7 @@
     </row>
     <row r="550" spans="1:22">
       <c r="A550" s="7"/>
-      <c r="B550" s="28"/>
+      <c r="B550" s="25"/>
       <c r="C550" s="3"/>
       <c r="D550" s="1"/>
       <c r="E550" s="1"/>
@@ -14542,7 +14610,7 @@
     </row>
     <row r="551" spans="1:22">
       <c r="A551" s="7"/>
-      <c r="B551" s="28"/>
+      <c r="B551" s="25"/>
       <c r="C551" s="3"/>
       <c r="D551" s="1"/>
       <c r="E551" s="1"/>
@@ -14566,7 +14634,7 @@
     </row>
     <row r="552" spans="1:22">
       <c r="A552" s="7"/>
-      <c r="B552" s="28"/>
+      <c r="B552" s="25"/>
       <c r="C552" s="3"/>
       <c r="D552" s="1"/>
       <c r="E552" s="1"/>
@@ -14590,7 +14658,7 @@
     </row>
     <row r="553" spans="1:22">
       <c r="A553" s="7"/>
-      <c r="B553" s="28"/>
+      <c r="B553" s="25"/>
       <c r="C553" s="3"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
@@ -14614,7 +14682,7 @@
     </row>
     <row r="554" spans="1:22">
       <c r="A554" s="7"/>
-      <c r="B554" s="28"/>
+      <c r="B554" s="25"/>
       <c r="C554" s="3"/>
       <c r="D554" s="1"/>
       <c r="E554" s="1"/>
@@ -14638,7 +14706,7 @@
     </row>
     <row r="555" spans="1:22">
       <c r="A555" s="7"/>
-      <c r="B555" s="28"/>
+      <c r="B555" s="25"/>
       <c r="C555" s="3"/>
       <c r="D555" s="1"/>
       <c r="E555" s="1"/>
@@ -14662,7 +14730,7 @@
     </row>
     <row r="556" spans="1:22">
       <c r="A556" s="7"/>
-      <c r="B556" s="28"/>
+      <c r="B556" s="25"/>
       <c r="C556" s="3"/>
       <c r="D556" s="1"/>
       <c r="E556" s="1"/>
@@ -14686,7 +14754,7 @@
     </row>
     <row r="557" spans="1:22">
       <c r="A557" s="7"/>
-      <c r="B557" s="28"/>
+      <c r="B557" s="25"/>
       <c r="C557" s="3"/>
       <c r="D557" s="1"/>
       <c r="E557" s="1"/>
@@ -14710,7 +14778,7 @@
     </row>
     <row r="558" spans="1:22">
       <c r="A558" s="7"/>
-      <c r="B558" s="28"/>
+      <c r="B558" s="25"/>
       <c r="C558" s="3"/>
       <c r="D558" s="1"/>
       <c r="E558" s="1"/>
@@ -14734,7 +14802,7 @@
     </row>
     <row r="559" spans="1:22">
       <c r="A559" s="7"/>
-      <c r="B559" s="28"/>
+      <c r="B559" s="25"/>
       <c r="C559" s="3"/>
       <c r="D559" s="1"/>
       <c r="E559" s="1"/>
@@ -14758,7 +14826,7 @@
     </row>
     <row r="560" spans="1:22">
       <c r="A560" s="7"/>
-      <c r="B560" s="28"/>
+      <c r="B560" s="25"/>
       <c r="C560" s="3"/>
       <c r="D560" s="1"/>
       <c r="E560" s="1"/>
@@ -14782,7 +14850,7 @@
     </row>
     <row r="561" spans="1:22">
       <c r="A561" s="7"/>
-      <c r="B561" s="28"/>
+      <c r="B561" s="25"/>
       <c r="C561" s="3"/>
       <c r="D561" s="1"/>
       <c r="E561" s="1"/>
@@ -14806,7 +14874,7 @@
     </row>
     <row r="562" spans="1:22">
       <c r="A562" s="7"/>
-      <c r="B562" s="28"/>
+      <c r="B562" s="25"/>
       <c r="C562" s="3"/>
       <c r="D562" s="1"/>
       <c r="E562" s="1"/>
@@ -14830,7 +14898,7 @@
     </row>
     <row r="563" spans="1:22">
       <c r="A563" s="7"/>
-      <c r="B563" s="28"/>
+      <c r="B563" s="25"/>
       <c r="C563" s="3"/>
       <c r="D563" s="1"/>
       <c r="E563" s="1"/>
@@ -14854,7 +14922,7 @@
     </row>
     <row r="564" spans="1:22">
       <c r="A564" s="7"/>
-      <c r="B564" s="28"/>
+      <c r="B564" s="25"/>
       <c r="C564" s="3"/>
       <c r="D564" s="1"/>
       <c r="E564" s="1"/>
@@ -14878,7 +14946,7 @@
     </row>
     <row r="565" spans="1:22">
       <c r="A565" s="7"/>
-      <c r="B565" s="28"/>
+      <c r="B565" s="25"/>
       <c r="C565" s="3"/>
       <c r="D565" s="1"/>
       <c r="E565" s="1"/>
@@ -14902,7 +14970,7 @@
     </row>
     <row r="566" spans="1:22">
       <c r="A566" s="7"/>
-      <c r="B566" s="28"/>
+      <c r="B566" s="25"/>
       <c r="C566" s="3"/>
       <c r="D566" s="1"/>
       <c r="E566" s="1"/>
@@ -14926,7 +14994,7 @@
     </row>
     <row r="567" spans="1:22">
       <c r="A567" s="7"/>
-      <c r="B567" s="28"/>
+      <c r="B567" s="25"/>
       <c r="C567" s="3"/>
       <c r="D567" s="1"/>
       <c r="E567" s="1"/>
@@ -14950,7 +15018,7 @@
     </row>
     <row r="568" spans="1:22">
       <c r="A568" s="7"/>
-      <c r="B568" s="28"/>
+      <c r="B568" s="25"/>
       <c r="C568" s="3"/>
       <c r="D568" s="1"/>
       <c r="E568" s="1"/>
@@ -14974,7 +15042,7 @@
     </row>
     <row r="569" spans="1:22">
       <c r="A569" s="7"/>
-      <c r="B569" s="28"/>
+      <c r="B569" s="25"/>
       <c r="C569" s="3"/>
       <c r="D569" s="1"/>
       <c r="E569" s="1"/>
@@ -14998,7 +15066,7 @@
     </row>
     <row r="570" spans="1:22">
       <c r="A570" s="7"/>
-      <c r="B570" s="28"/>
+      <c r="B570" s="25"/>
       <c r="C570" s="3"/>
       <c r="D570" s="1"/>
       <c r="E570" s="1"/>
@@ -15022,7 +15090,7 @@
     </row>
     <row r="571" spans="1:22">
       <c r="A571" s="7"/>
-      <c r="B571" s="28"/>
+      <c r="B571" s="25"/>
       <c r="C571" s="3"/>
       <c r="D571" s="1"/>
       <c r="E571" s="1"/>
@@ -15046,7 +15114,7 @@
     </row>
     <row r="572" spans="1:22">
       <c r="A572" s="7"/>
-      <c r="B572" s="28"/>
+      <c r="B572" s="25"/>
       <c r="C572" s="3"/>
       <c r="D572" s="1"/>
       <c r="E572" s="1"/>
@@ -15070,7 +15138,7 @@
     </row>
     <row r="573" spans="1:22">
       <c r="A573" s="7"/>
-      <c r="B573" s="28"/>
+      <c r="B573" s="25"/>
       <c r="C573" s="3"/>
       <c r="D573" s="1"/>
       <c r="E573" s="1"/>
@@ -15094,7 +15162,7 @@
     </row>
     <row r="574" spans="1:22">
       <c r="A574" s="7"/>
-      <c r="B574" s="28"/>
+      <c r="B574" s="25"/>
       <c r="C574" s="3"/>
       <c r="D574" s="1"/>
       <c r="E574" s="1"/>
@@ -15118,7 +15186,7 @@
     </row>
     <row r="575" spans="1:22">
       <c r="A575" s="7"/>
-      <c r="B575" s="28"/>
+      <c r="B575" s="25"/>
       <c r="C575" s="3"/>
       <c r="D575" s="1"/>
       <c r="E575" s="1"/>
@@ -15142,7 +15210,7 @@
     </row>
     <row r="576" spans="1:22">
       <c r="A576" s="7"/>
-      <c r="B576" s="28"/>
+      <c r="B576" s="25"/>
       <c r="C576" s="3"/>
       <c r="D576" s="1"/>
       <c r="E576" s="1"/>
@@ -15166,7 +15234,7 @@
     </row>
     <row r="577" spans="1:22">
       <c r="A577" s="7"/>
-      <c r="B577" s="28"/>
+      <c r="B577" s="25"/>
       <c r="C577" s="3"/>
       <c r="D577" s="1"/>
       <c r="E577" s="1"/>
@@ -15190,7 +15258,7 @@
     </row>
     <row r="578" spans="1:22">
       <c r="A578" s="7"/>
-      <c r="B578" s="28"/>
+      <c r="B578" s="25"/>
       <c r="C578" s="3"/>
       <c r="D578" s="1"/>
       <c r="E578" s="1"/>
@@ -15214,7 +15282,7 @@
     </row>
     <row r="579" spans="1:22">
       <c r="A579" s="7"/>
-      <c r="B579" s="28"/>
+      <c r="B579" s="25"/>
       <c r="C579" s="3"/>
       <c r="D579" s="1"/>
       <c r="E579" s="1"/>
@@ -15238,7 +15306,7 @@
     </row>
     <row r="580" spans="1:22">
       <c r="A580" s="7"/>
-      <c r="B580" s="28"/>
+      <c r="B580" s="25"/>
       <c r="C580" s="3"/>
       <c r="D580" s="1"/>
       <c r="E580" s="1"/>
@@ -15262,7 +15330,7 @@
     </row>
     <row r="581" spans="1:22">
       <c r="A581" s="7"/>
-      <c r="B581" s="28"/>
+      <c r="B581" s="25"/>
       <c r="C581" s="3"/>
       <c r="D581" s="1"/>
       <c r="E581" s="1"/>
@@ -15286,7 +15354,7 @@
     </row>
     <row r="582" spans="1:22">
       <c r="A582" s="7"/>
-      <c r="B582" s="28"/>
+      <c r="B582" s="25"/>
       <c r="C582" s="3"/>
       <c r="D582" s="1"/>
       <c r="E582" s="1"/>
@@ -15310,7 +15378,7 @@
     </row>
     <row r="583" spans="1:22">
       <c r="A583" s="7"/>
-      <c r="B583" s="28"/>
+      <c r="B583" s="25"/>
       <c r="C583" s="3"/>
       <c r="D583" s="1"/>
       <c r="E583" s="1"/>
@@ -15334,7 +15402,7 @@
     </row>
     <row r="584" spans="1:22">
       <c r="A584" s="7"/>
-      <c r="B584" s="28"/>
+      <c r="B584" s="25"/>
       <c r="C584" s="3"/>
       <c r="D584" s="1"/>
       <c r="E584" s="1"/>
@@ -15358,7 +15426,7 @@
     </row>
     <row r="585" spans="1:22">
       <c r="A585" s="7"/>
-      <c r="B585" s="28"/>
+      <c r="B585" s="25"/>
       <c r="C585" s="3"/>
       <c r="D585" s="1"/>
       <c r="E585" s="1"/>
@@ -15382,7 +15450,7 @@
     </row>
     <row r="586" spans="1:22">
       <c r="A586" s="7"/>
-      <c r="B586" s="28"/>
+      <c r="B586" s="25"/>
       <c r="C586" s="3"/>
       <c r="D586" s="1"/>
       <c r="E586" s="1"/>
@@ -15406,7 +15474,7 @@
     </row>
     <row r="587" spans="1:22">
       <c r="A587" s="7"/>
-      <c r="B587" s="28"/>
+      <c r="B587" s="25"/>
       <c r="C587" s="3"/>
       <c r="D587" s="1"/>
       <c r="E587" s="1"/>
@@ -15430,7 +15498,7 @@
     </row>
     <row r="588" spans="1:22">
       <c r="A588" s="7"/>
-      <c r="B588" s="28"/>
+      <c r="B588" s="25"/>
       <c r="C588" s="3"/>
       <c r="D588" s="1"/>
       <c r="E588" s="1"/>
@@ -15454,7 +15522,7 @@
     </row>
     <row r="589" spans="1:22">
       <c r="A589" s="7"/>
-      <c r="B589" s="28"/>
+      <c r="B589" s="25"/>
       <c r="C589" s="3"/>
       <c r="D589" s="1"/>
       <c r="E589" s="1"/>
@@ -15478,7 +15546,7 @@
     </row>
     <row r="590" spans="1:22">
       <c r="A590" s="7"/>
-      <c r="B590" s="28"/>
+      <c r="B590" s="25"/>
       <c r="C590" s="3"/>
       <c r="D590" s="1"/>
       <c r="E590" s="1"/>
@@ -15502,7 +15570,7 @@
     </row>
     <row r="591" spans="1:22">
       <c r="A591" s="7"/>
-      <c r="B591" s="28"/>
+      <c r="B591" s="25"/>
       <c r="C591" s="3"/>
       <c r="D591" s="1"/>
       <c r="E591" s="1"/>
@@ -15526,7 +15594,7 @@
     </row>
     <row r="592" spans="1:22">
       <c r="A592" s="7"/>
-      <c r="B592" s="28"/>
+      <c r="B592" s="25"/>
       <c r="C592" s="3"/>
       <c r="D592" s="1"/>
       <c r="E592" s="1"/>
@@ -15550,7 +15618,7 @@
     </row>
     <row r="593" spans="1:22">
       <c r="A593" s="7"/>
-      <c r="B593" s="28"/>
+      <c r="B593" s="25"/>
       <c r="C593" s="3"/>
       <c r="D593" s="1"/>
       <c r="E593" s="1"/>
@@ -15574,7 +15642,7 @@
     </row>
     <row r="594" spans="1:22">
       <c r="A594" s="7"/>
-      <c r="B594" s="28"/>
+      <c r="B594" s="25"/>
       <c r="C594" s="3"/>
       <c r="D594" s="1"/>
       <c r="E594" s="1"/>
@@ -15598,7 +15666,7 @@
     </row>
     <row r="595" spans="1:22">
       <c r="A595" s="7"/>
-      <c r="B595" s="28"/>
+      <c r="B595" s="25"/>
       <c r="C595" s="3"/>
       <c r="D595" s="1"/>
       <c r="E595" s="1"/>
@@ -15622,7 +15690,7 @@
     </row>
     <row r="596" spans="1:22">
       <c r="A596" s="7"/>
-      <c r="B596" s="28"/>
+      <c r="B596" s="25"/>
       <c r="C596" s="3"/>
       <c r="D596" s="1"/>
       <c r="E596" s="1"/>
@@ -15646,7 +15714,7 @@
     </row>
     <row r="597" spans="1:22">
       <c r="A597" s="7"/>
-      <c r="B597" s="28"/>
+      <c r="B597" s="25"/>
       <c r="C597" s="3"/>
       <c r="D597" s="1"/>
       <c r="E597" s="1"/>
@@ -15670,7 +15738,7 @@
     </row>
     <row r="598" spans="1:22">
       <c r="A598" s="7"/>
-      <c r="B598" s="28"/>
+      <c r="B598" s="25"/>
       <c r="C598" s="3"/>
       <c r="D598" s="1"/>
       <c r="E598" s="1"/>
@@ -15694,7 +15762,7 @@
     </row>
     <row r="599" spans="1:22">
       <c r="A599" s="7"/>
-      <c r="B599" s="28"/>
+      <c r="B599" s="25"/>
       <c r="C599" s="3"/>
       <c r="D599" s="1"/>
       <c r="E599" s="1"/>
@@ -15718,7 +15786,7 @@
     </row>
     <row r="600" spans="1:22">
       <c r="A600" s="7"/>
-      <c r="B600" s="28"/>
+      <c r="B600" s="25"/>
       <c r="C600" s="3"/>
       <c r="D600" s="1"/>
       <c r="E600" s="1"/>
@@ -15742,7 +15810,7 @@
     </row>
     <row r="601" spans="1:22">
       <c r="A601" s="7"/>
-      <c r="B601" s="28"/>
+      <c r="B601" s="25"/>
       <c r="C601" s="3"/>
       <c r="D601" s="1"/>
       <c r="E601" s="1"/>
@@ -15766,7 +15834,7 @@
     </row>
     <row r="602" spans="1:22">
       <c r="A602" s="7"/>
-      <c r="B602" s="28"/>
+      <c r="B602" s="25"/>
       <c r="C602" s="3"/>
       <c r="D602" s="1"/>
       <c r="E602" s="1"/>
@@ -15790,7 +15858,7 @@
     </row>
     <row r="603" spans="1:22">
       <c r="A603" s="7"/>
-      <c r="B603" s="28"/>
+      <c r="B603" s="25"/>
       <c r="C603" s="3"/>
       <c r="D603" s="1"/>
       <c r="E603" s="1"/>
@@ -15814,7 +15882,7 @@
     </row>
     <row r="604" spans="1:22">
       <c r="A604" s="7"/>
-      <c r="B604" s="28"/>
+      <c r="B604" s="25"/>
       <c r="C604" s="3"/>
       <c r="D604" s="1"/>
       <c r="E604" s="1"/>
@@ -15838,7 +15906,7 @@
     </row>
     <row r="605" spans="1:22">
       <c r="A605" s="7"/>
-      <c r="B605" s="28"/>
+      <c r="B605" s="25"/>
       <c r="C605" s="3"/>
       <c r="D605" s="1"/>
       <c r="E605" s="1"/>
@@ -15862,7 +15930,7 @@
     </row>
     <row r="606" spans="1:22">
       <c r="A606" s="7"/>
-      <c r="B606" s="28"/>
+      <c r="B606" s="25"/>
       <c r="C606" s="3"/>
       <c r="D606" s="1"/>
       <c r="E606" s="1"/>
@@ -15886,7 +15954,7 @@
     </row>
     <row r="607" spans="1:22">
       <c r="A607" s="7"/>
-      <c r="B607" s="28"/>
+      <c r="B607" s="25"/>
       <c r="C607" s="3"/>
       <c r="D607" s="1"/>
       <c r="E607" s="1"/>
@@ -15910,7 +15978,7 @@
     </row>
     <row r="608" spans="1:22">
       <c r="A608" s="7"/>
-      <c r="B608" s="28"/>
+      <c r="B608" s="25"/>
       <c r="C608" s="3"/>
       <c r="D608" s="1"/>
       <c r="E608" s="1"/>
@@ -15934,7 +16002,7 @@
     </row>
     <row r="609" spans="1:22">
       <c r="A609" s="7"/>
-      <c r="B609" s="28"/>
+      <c r="B609" s="25"/>
       <c r="C609" s="3"/>
       <c r="D609" s="1"/>
       <c r="E609" s="1"/>
@@ -15958,7 +16026,7 @@
     </row>
     <row r="610" spans="1:22">
       <c r="A610" s="7"/>
-      <c r="B610" s="28"/>
+      <c r="B610" s="25"/>
       <c r="C610" s="3"/>
       <c r="D610" s="1"/>
       <c r="E610" s="1"/>
@@ -15982,7 +16050,7 @@
     </row>
     <row r="611" spans="1:22">
       <c r="A611" s="7"/>
-      <c r="B611" s="28"/>
+      <c r="B611" s="25"/>
       <c r="C611" s="3"/>
       <c r="D611" s="1"/>
       <c r="E611" s="1"/>
@@ -16006,7 +16074,7 @@
     </row>
     <row r="612" spans="1:22">
       <c r="A612" s="7"/>
-      <c r="B612" s="28"/>
+      <c r="B612" s="25"/>
       <c r="C612" s="3"/>
       <c r="D612" s="1"/>
       <c r="E612" s="1"/>
@@ -16030,7 +16098,7 @@
     </row>
     <row r="613" spans="1:22">
       <c r="A613" s="7"/>
-      <c r="B613" s="28"/>
+      <c r="B613" s="25"/>
       <c r="C613" s="3"/>
       <c r="D613" s="1"/>
       <c r="E613" s="1"/>
@@ -16054,7 +16122,7 @@
     </row>
     <row r="614" spans="1:22">
       <c r="A614" s="7"/>
-      <c r="B614" s="28"/>
+      <c r="B614" s="25"/>
       <c r="C614" s="3"/>
       <c r="D614" s="1"/>
       <c r="E614" s="1"/>
@@ -16078,7 +16146,7 @@
     </row>
     <row r="615" spans="1:22">
       <c r="A615" s="7"/>
-      <c r="B615" s="28"/>
+      <c r="B615" s="25"/>
       <c r="C615" s="3"/>
       <c r="D615" s="1"/>
       <c r="E615" s="1"/>
@@ -16102,7 +16170,7 @@
     </row>
     <row r="616" spans="1:22">
       <c r="A616" s="7"/>
-      <c r="B616" s="28"/>
+      <c r="B616" s="25"/>
       <c r="C616" s="3"/>
       <c r="D616" s="1"/>
       <c r="E616" s="1"/>
@@ -16126,7 +16194,7 @@
     </row>
     <row r="617" spans="1:22">
       <c r="A617" s="7"/>
-      <c r="B617" s="28"/>
+      <c r="B617" s="25"/>
       <c r="C617" s="3"/>
       <c r="D617" s="1"/>
       <c r="E617" s="1"/>
@@ -16150,7 +16218,7 @@
     </row>
     <row r="618" spans="1:22">
       <c r="A618" s="7"/>
-      <c r="B618" s="28"/>
+      <c r="B618" s="25"/>
       <c r="C618" s="3"/>
       <c r="D618" s="1"/>
       <c r="E618" s="1"/>
@@ -16174,7 +16242,7 @@
     </row>
     <row r="619" spans="1:22">
       <c r="A619" s="7"/>
-      <c r="B619" s="28"/>
+      <c r="B619" s="25"/>
       <c r="C619" s="3"/>
       <c r="D619" s="1"/>
       <c r="E619" s="1"/>
@@ -16198,7 +16266,7 @@
     </row>
     <row r="620" spans="1:22">
       <c r="A620" s="7"/>
-      <c r="B620" s="28"/>
+      <c r="B620" s="25"/>
       <c r="C620" s="3"/>
       <c r="D620" s="1"/>
       <c r="E620" s="1"/>
@@ -16222,7 +16290,7 @@
     </row>
     <row r="621" spans="1:22">
       <c r="A621" s="7"/>
-      <c r="B621" s="28"/>
+      <c r="B621" s="25"/>
       <c r="C621" s="3"/>
       <c r="D621" s="1"/>
       <c r="E621" s="1"/>
@@ -16246,7 +16314,7 @@
     </row>
     <row r="622" spans="1:22">
       <c r="A622" s="7"/>
-      <c r="B622" s="28"/>
+      <c r="B622" s="25"/>
       <c r="C622" s="3"/>
       <c r="D622" s="1"/>
       <c r="E622" s="1"/>
@@ -16270,7 +16338,7 @@
     </row>
     <row r="623" spans="1:22">
       <c r="A623" s="7"/>
-      <c r="B623" s="28"/>
+      <c r="B623" s="25"/>
       <c r="C623" s="3"/>
       <c r="D623" s="1"/>
       <c r="E623" s="1"/>
@@ -16294,7 +16362,7 @@
     </row>
     <row r="624" spans="1:22">
       <c r="A624" s="7"/>
-      <c r="B624" s="28"/>
+      <c r="B624" s="25"/>
       <c r="C624" s="3"/>
       <c r="D624" s="1"/>
       <c r="E624" s="1"/>
@@ -16318,7 +16386,7 @@
     </row>
     <row r="625" spans="1:22">
       <c r="A625" s="7"/>
-      <c r="B625" s="28"/>
+      <c r="B625" s="25"/>
       <c r="C625" s="3"/>
       <c r="D625" s="1"/>
       <c r="E625" s="1"/>
@@ -16342,7 +16410,7 @@
     </row>
     <row r="626" spans="1:22">
       <c r="A626" s="7"/>
-      <c r="B626" s="28"/>
+      <c r="B626" s="25"/>
       <c r="C626" s="3"/>
       <c r="D626" s="1"/>
       <c r="E626" s="1"/>
@@ -16366,7 +16434,7 @@
     </row>
     <row r="627" spans="1:22">
       <c r="A627" s="7"/>
-      <c r="B627" s="28"/>
+      <c r="B627" s="25"/>
       <c r="C627" s="3"/>
       <c r="D627" s="1"/>
       <c r="E627" s="1"/>
@@ -16390,7 +16458,7 @@
     </row>
     <row r="628" spans="1:22">
       <c r="A628" s="7"/>
-      <c r="B628" s="28"/>
+      <c r="B628" s="25"/>
       <c r="C628" s="3"/>
       <c r="D628" s="1"/>
       <c r="E628" s="1"/>
@@ -16414,7 +16482,7 @@
     </row>
     <row r="629" spans="1:22">
       <c r="A629" s="7"/>
-      <c r="B629" s="28"/>
+      <c r="B629" s="25"/>
       <c r="C629" s="3"/>
       <c r="D629" s="1"/>
       <c r="E629" s="1"/>
@@ -16438,7 +16506,7 @@
     </row>
     <row r="630" spans="1:22">
       <c r="A630" s="7"/>
-      <c r="B630" s="28"/>
+      <c r="B630" s="25"/>
       <c r="C630" s="3"/>
       <c r="D630" s="1"/>
       <c r="E630" s="1"/>
@@ -16462,7 +16530,7 @@
     </row>
     <row r="631" spans="1:22">
       <c r="A631" s="7"/>
-      <c r="B631" s="28"/>
+      <c r="B631" s="25"/>
       <c r="C631" s="3"/>
       <c r="D631" s="1"/>
       <c r="E631" s="1"/>
@@ -16486,7 +16554,7 @@
     </row>
     <row r="632" spans="1:22">
       <c r="A632" s="7"/>
-      <c r="B632" s="28"/>
+      <c r="B632" s="25"/>
       <c r="C632" s="3"/>
       <c r="D632" s="1"/>
       <c r="E632" s="1"/>
@@ -16510,7 +16578,7 @@
     </row>
     <row r="633" spans="1:22">
       <c r="A633" s="7"/>
-      <c r="B633" s="28"/>
+      <c r="B633" s="25"/>
       <c r="C633" s="3"/>
       <c r="D633" s="1"/>
       <c r="E633" s="1"/>
@@ -16534,7 +16602,7 @@
     </row>
     <row r="634" spans="1:22">
       <c r="A634" s="7"/>
-      <c r="B634" s="28"/>
+      <c r="B634" s="25"/>
       <c r="C634" s="3"/>
       <c r="D634" s="1"/>
       <c r="E634" s="1"/>
@@ -16558,7 +16626,7 @@
     </row>
     <row r="635" spans="1:22">
       <c r="A635" s="7"/>
-      <c r="B635" s="28"/>
+      <c r="B635" s="25"/>
       <c r="C635" s="3"/>
       <c r="D635" s="1"/>
       <c r="E635" s="1"/>
@@ -16582,7 +16650,7 @@
     </row>
     <row r="636" spans="1:22">
       <c r="A636" s="7"/>
-      <c r="B636" s="28"/>
+      <c r="B636" s="25"/>
       <c r="C636" s="3"/>
       <c r="D636" s="1"/>
       <c r="E636" s="1"/>
@@ -16606,7 +16674,7 @@
     </row>
     <row r="637" spans="1:22">
       <c r="A637" s="7"/>
-      <c r="B637" s="28"/>
+      <c r="B637" s="25"/>
       <c r="C637" s="3"/>
       <c r="D637" s="1"/>
       <c r="E637" s="1"/>
@@ -16630,7 +16698,7 @@
     </row>
     <row r="638" spans="1:22">
       <c r="A638" s="7"/>
-      <c r="B638" s="28"/>
+      <c r="B638" s="25"/>
       <c r="C638" s="3"/>
       <c r="D638" s="1"/>
       <c r="E638" s="1"/>
@@ -16654,7 +16722,7 @@
     </row>
     <row r="639" spans="1:22">
       <c r="A639" s="7"/>
-      <c r="B639" s="28"/>
+      <c r="B639" s="25"/>
       <c r="C639" s="3"/>
       <c r="D639" s="1"/>
       <c r="E639" s="1"/>
@@ -16678,7 +16746,7 @@
     </row>
     <row r="640" spans="1:22">
       <c r="A640" s="7"/>
-      <c r="B640" s="28"/>
+      <c r="B640" s="25"/>
       <c r="C640" s="3"/>
       <c r="D640" s="1"/>
       <c r="E640" s="1"/>
@@ -16702,7 +16770,7 @@
     </row>
     <row r="641" spans="1:22">
       <c r="A641" s="7"/>
-      <c r="B641" s="28"/>
+      <c r="B641" s="25"/>
       <c r="C641" s="3"/>
       <c r="D641" s="1"/>
       <c r="E641" s="1"/>
@@ -16726,7 +16794,7 @@
     </row>
     <row r="642" spans="1:22">
       <c r="A642" s="7"/>
-      <c r="B642" s="28"/>
+      <c r="B642" s="25"/>
       <c r="C642" s="3"/>
       <c r="D642" s="1"/>
       <c r="E642" s="1"/>
@@ -16750,7 +16818,7 @@
     </row>
     <row r="643" spans="1:22">
       <c r="A643" s="7"/>
-      <c r="B643" s="28"/>
+      <c r="B643" s="25"/>
       <c r="C643" s="3"/>
       <c r="D643" s="1"/>
       <c r="E643" s="1"/>
@@ -16774,7 +16842,7 @@
     </row>
     <row r="644" spans="1:22">
       <c r="A644" s="7"/>
-      <c r="B644" s="28"/>
+      <c r="B644" s="25"/>
       <c r="C644" s="3"/>
       <c r="D644" s="1"/>
       <c r="E644" s="1"/>
@@ -16798,7 +16866,7 @@
     </row>
     <row r="645" spans="1:22">
       <c r="A645" s="7"/>
-      <c r="B645" s="28"/>
+      <c r="B645" s="25"/>
       <c r="C645" s="3"/>
       <c r="D645" s="1"/>
       <c r="E645" s="1"/>
@@ -16822,7 +16890,7 @@
     </row>
     <row r="646" spans="1:22">
       <c r="A646" s="7"/>
-      <c r="B646" s="28"/>
+      <c r="B646" s="25"/>
       <c r="C646" s="3"/>
       <c r="D646" s="1"/>
       <c r="E646" s="1"/>
@@ -16846,7 +16914,7 @@
     </row>
     <row r="647" spans="1:22">
       <c r="A647" s="7"/>
-      <c r="B647" s="28"/>
+      <c r="B647" s="25"/>
       <c r="C647" s="3"/>
       <c r="D647" s="1"/>
       <c r="E647" s="1"/>
@@ -16870,7 +16938,7 @@
     </row>
     <row r="648" spans="1:22">
       <c r="A648" s="7"/>
-      <c r="B648" s="28"/>
+      <c r="B648" s="25"/>
       <c r="C648" s="3"/>
       <c r="D648" s="1"/>
       <c r="E648" s="1"/>
@@ -16894,7 +16962,7 @@
     </row>
     <row r="649" spans="1:22">
       <c r="A649" s="7"/>
-      <c r="B649" s="28"/>
+      <c r="B649" s="25"/>
       <c r="C649" s="3"/>
       <c r="D649" s="1"/>
       <c r="E649" s="1"/>
@@ -16918,7 +16986,7 @@
     </row>
     <row r="650" spans="1:22">
       <c r="A650" s="7"/>
-      <c r="B650" s="28"/>
+      <c r="B650" s="25"/>
       <c r="C650" s="3"/>
       <c r="D650" s="1"/>
       <c r="E650" s="1"/>
@@ -16942,7 +17010,7 @@
     </row>
     <row r="651" spans="1:22">
       <c r="A651" s="7"/>
-      <c r="B651" s="28"/>
+      <c r="B651" s="25"/>
       <c r="C651" s="3"/>
       <c r="D651" s="1"/>
       <c r="E651" s="1"/>
@@ -16966,7 +17034,7 @@
     </row>
     <row r="652" spans="1:22">
       <c r="A652" s="7"/>
-      <c r="B652" s="28"/>
+      <c r="B652" s="25"/>
       <c r="C652" s="3"/>
       <c r="D652" s="1"/>
       <c r="E652" s="1"/>
@@ -16990,7 +17058,7 @@
     </row>
     <row r="653" spans="1:22">
       <c r="A653" s="7"/>
-      <c r="B653" s="28"/>
+      <c r="B653" s="25"/>
       <c r="C653" s="3"/>
       <c r="D653" s="1"/>
       <c r="E653" s="1"/>
@@ -17014,7 +17082,7 @@
     </row>
     <row r="654" spans="1:22">
       <c r="A654" s="7"/>
-      <c r="B654" s="28"/>
+      <c r="B654" s="25"/>
       <c r="C654" s="3"/>
       <c r="D654" s="1"/>
       <c r="E654" s="1"/>
@@ -17038,7 +17106,7 @@
     </row>
     <row r="655" spans="1:22">
       <c r="A655" s="7"/>
-      <c r="B655" s="28"/>
+      <c r="B655" s="25"/>
       <c r="C655" s="3"/>
       <c r="D655" s="1"/>
       <c r="E655" s="1"/>
@@ -17062,7 +17130,7 @@
     </row>
     <row r="656" spans="1:22">
       <c r="A656" s="7"/>
-      <c r="B656" s="28"/>
+      <c r="B656" s="25"/>
       <c r="C656" s="3"/>
       <c r="D656" s="1"/>
       <c r="E656" s="1"/>
@@ -17086,7 +17154,7 @@
     </row>
     <row r="657" spans="1:22">
       <c r="A657" s="7"/>
-      <c r="B657" s="28"/>
+      <c r="B657" s="25"/>
       <c r="C657" s="3"/>
       <c r="D657" s="1"/>
       <c r="E657" s="1"/>
@@ -17110,7 +17178,7 @@
     </row>
     <row r="658" spans="1:22">
       <c r="A658" s="7"/>
-      <c r="B658" s="28"/>
+      <c r="B658" s="25"/>
       <c r="C658" s="3"/>
       <c r="D658" s="1"/>
       <c r="E658" s="1"/>
@@ -17134,7 +17202,7 @@
     </row>
     <row r="659" spans="1:22">
       <c r="A659" s="7"/>
-      <c r="B659" s="28"/>
+      <c r="B659" s="25"/>
       <c r="C659" s="3"/>
       <c r="D659" s="1"/>
       <c r="E659" s="1"/>
@@ -17158,7 +17226,7 @@
     </row>
     <row r="660" spans="1:22">
       <c r="A660" s="7"/>
-      <c r="B660" s="28"/>
+      <c r="B660" s="25"/>
       <c r="C660" s="3"/>
       <c r="D660" s="1"/>
       <c r="E660" s="1"/>
@@ -17182,7 +17250,7 @@
     </row>
     <row r="661" spans="1:22">
       <c r="A661" s="7"/>
-      <c r="B661" s="28"/>
+      <c r="B661" s="25"/>
       <c r="C661" s="3"/>
       <c r="D661" s="1"/>
       <c r="E661" s="1"/>
@@ -17206,7 +17274,7 @@
     </row>
     <row r="662" spans="1:22">
       <c r="A662" s="7"/>
-      <c r="B662" s="28"/>
+      <c r="B662" s="25"/>
       <c r="C662" s="3"/>
       <c r="D662" s="1"/>
       <c r="E662" s="1"/>
@@ -17230,7 +17298,7 @@
     </row>
     <row r="663" spans="1:22">
       <c r="A663" s="7"/>
-      <c r="B663" s="28"/>
+      <c r="B663" s="25"/>
       <c r="C663" s="3"/>
       <c r="D663" s="1"/>
       <c r="E663" s="1"/>
@@ -17254,7 +17322,7 @@
     </row>
     <row r="664" spans="1:22">
       <c r="A664" s="7"/>
-      <c r="B664" s="28"/>
+      <c r="B664" s="25"/>
       <c r="C664" s="3"/>
       <c r="D664" s="1"/>
       <c r="E664" s="1"/>
@@ -17278,7 +17346,7 @@
     </row>
     <row r="665" spans="1:22">
       <c r="A665" s="7"/>
-      <c r="B665" s="28"/>
+      <c r="B665" s="25"/>
       <c r="C665" s="3"/>
       <c r="D665" s="1"/>
       <c r="E665" s="1"/>
@@ -17302,7 +17370,7 @@
     </row>
     <row r="666" spans="1:22">
       <c r="A666" s="7"/>
-      <c r="B666" s="28"/>
+      <c r="B666" s="25"/>
       <c r="C666" s="3"/>
       <c r="D666" s="1"/>
       <c r="E666" s="1"/>
@@ -17326,7 +17394,7 @@
     </row>
     <row r="667" spans="1:22">
       <c r="A667" s="7"/>
-      <c r="B667" s="28"/>
+      <c r="B667" s="25"/>
       <c r="C667" s="3"/>
       <c r="D667" s="1"/>
       <c r="E667" s="1"/>
@@ -17350,7 +17418,7 @@
     </row>
     <row r="668" spans="1:22">
       <c r="A668" s="7"/>
-      <c r="B668" s="28"/>
+      <c r="B668" s="25"/>
       <c r="C668" s="3"/>
       <c r="D668" s="1"/>
       <c r="E668" s="1"/>
@@ -17374,7 +17442,7 @@
     </row>
     <row r="669" spans="1:22">
       <c r="A669" s="7"/>
-      <c r="B669" s="28"/>
+      <c r="B669" s="25"/>
       <c r="C669" s="3"/>
       <c r="D669" s="1"/>
       <c r="E669" s="1"/>
@@ -17398,7 +17466,7 @@
     </row>
     <row r="670" spans="1:22">
       <c r="A670" s="7"/>
-      <c r="B670" s="28"/>
+      <c r="B670" s="25"/>
       <c r="C670" s="3"/>
       <c r="D670" s="1"/>
       <c r="E670" s="1"/>
@@ -17422,7 +17490,7 @@
     </row>
     <row r="671" spans="1:22">
       <c r="A671" s="7"/>
-      <c r="B671" s="28"/>
+      <c r="B671" s="25"/>
       <c r="C671" s="3"/>
       <c r="D671" s="1"/>
       <c r="E671" s="1"/>
@@ -17446,7 +17514,7 @@
     </row>
     <row r="672" spans="1:22">
       <c r="A672" s="7"/>
-      <c r="B672" s="28"/>
+      <c r="B672" s="25"/>
       <c r="C672" s="3"/>
       <c r="D672" s="1"/>
       <c r="E672" s="1"/>
@@ -17470,7 +17538,7 @@
     </row>
     <row r="673" spans="1:22">
       <c r="A673" s="7"/>
-      <c r="B673" s="28"/>
+      <c r="B673" s="25"/>
       <c r="C673" s="3"/>
       <c r="D673" s="1"/>
       <c r="E673" s="1"/>
@@ -17494,7 +17562,7 @@
     </row>
     <row r="674" spans="1:22">
       <c r="A674" s="7"/>
-      <c r="B674" s="28"/>
+      <c r="B674" s="25"/>
       <c r="C674" s="3"/>
       <c r="D674" s="1"/>
       <c r="E674" s="1"/>
@@ -17518,7 +17586,7 @@
     </row>
     <row r="675" spans="1:22">
       <c r="A675" s="7"/>
-      <c r="B675" s="28"/>
+      <c r="B675" s="25"/>
       <c r="C675" s="3"/>
       <c r="D675" s="1"/>
       <c r="E675" s="1"/>
@@ -17542,7 +17610,7 @@
     </row>
     <row r="676" spans="1:22">
       <c r="A676" s="7"/>
-      <c r="B676" s="28"/>
+      <c r="B676" s="25"/>
       <c r="C676" s="3"/>
       <c r="D676" s="1"/>
       <c r="E676" s="1"/>
@@ -17566,7 +17634,7 @@
     </row>
     <row r="677" spans="1:22">
       <c r="A677" s="7"/>
-      <c r="B677" s="28"/>
+      <c r="B677" s="25"/>
       <c r="C677" s="3"/>
       <c r="D677" s="1"/>
       <c r="E677" s="1"/>
@@ -17590,7 +17658,7 @@
     </row>
     <row r="678" spans="1:22">
       <c r="A678" s="7"/>
-      <c r="B678" s="28"/>
+      <c r="B678" s="25"/>
       <c r="C678" s="3"/>
       <c r="D678" s="1"/>
       <c r="E678" s="1"/>
@@ -17614,7 +17682,7 @@
     </row>
     <row r="679" spans="1:22">
       <c r="A679" s="7"/>
-      <c r="B679" s="28"/>
+      <c r="B679" s="25"/>
       <c r="C679" s="3"/>
       <c r="D679" s="1"/>
       <c r="E679" s="1"/>
@@ -17638,7 +17706,7 @@
     </row>
     <row r="680" spans="1:22">
       <c r="A680" s="7"/>
-      <c r="B680" s="28"/>
+      <c r="B680" s="25"/>
       <c r="C680" s="3"/>
       <c r="D680" s="1"/>
       <c r="E680" s="1"/>
@@ -17662,7 +17730,7 @@
     </row>
     <row r="681" spans="1:22">
       <c r="A681" s="7"/>
-      <c r="B681" s="28"/>
+      <c r="B681" s="25"/>
       <c r="C681" s="3"/>
       <c r="D681" s="1"/>
       <c r="E681" s="1"/>
@@ -17686,7 +17754,7 @@
     </row>
     <row r="682" spans="1:22">
       <c r="A682" s="7"/>
-      <c r="B682" s="28"/>
+      <c r="B682" s="25"/>
       <c r="C682" s="3"/>
       <c r="D682" s="1"/>
       <c r="E682" s="1"/>
@@ -17710,7 +17778,7 @@
     </row>
     <row r="683" spans="1:22">
       <c r="A683" s="7"/>
-      <c r="B683" s="28"/>
+      <c r="B683" s="25"/>
       <c r="C683" s="3"/>
       <c r="D683" s="1"/>
       <c r="E683" s="1"/>
@@ -17734,7 +17802,7 @@
     </row>
     <row r="684" spans="1:22">
       <c r="A684" s="7"/>
-      <c r="B684" s="28"/>
+      <c r="B684" s="25"/>
       <c r="C684" s="3"/>
       <c r="D684" s="1"/>
       <c r="E684" s="1"/>
@@ -17758,7 +17826,7 @@
     </row>
     <row r="685" spans="1:22">
       <c r="A685" s="7"/>
-      <c r="B685" s="28"/>
+      <c r="B685" s="25"/>
       <c r="C685" s="3"/>
       <c r="D685" s="1"/>
       <c r="E685" s="1"/>
@@ -17782,7 +17850,7 @@
     </row>
     <row r="686" spans="1:22">
       <c r="A686" s="7"/>
-      <c r="B686" s="28"/>
+      <c r="B686" s="25"/>
       <c r="C686" s="3"/>
       <c r="D686" s="1"/>
       <c r="E686" s="1"/>
@@ -17806,7 +17874,7 @@
     </row>
     <row r="687" spans="1:22">
       <c r="A687" s="7"/>
-      <c r="B687" s="28"/>
+      <c r="B687" s="25"/>
       <c r="C687" s="3"/>
       <c r="D687" s="1"/>
       <c r="E687" s="1"/>
@@ -17830,7 +17898,7 @@
     </row>
     <row r="688" spans="1:22">
       <c r="A688" s="7"/>
-      <c r="B688" s="28"/>
+      <c r="B688" s="25"/>
       <c r="C688" s="3"/>
       <c r="D688" s="1"/>
       <c r="E688" s="1"/>
@@ -17854,7 +17922,7 @@
     </row>
     <row r="689" spans="1:22">
       <c r="A689" s="7"/>
-      <c r="B689" s="28"/>
+      <c r="B689" s="25"/>
       <c r="C689" s="3"/>
       <c r="D689" s="1"/>
       <c r="E689" s="1"/>
@@ -17878,7 +17946,7 @@
     </row>
     <row r="690" spans="1:22">
       <c r="A690" s="7"/>
-      <c r="B690" s="28"/>
+      <c r="B690" s="25"/>
       <c r="C690" s="3"/>
       <c r="D690" s="1"/>
       <c r="E690" s="1"/>
@@ -17902,7 +17970,7 @@
     </row>
     <row r="691" spans="1:22">
       <c r="A691" s="7"/>
-      <c r="B691" s="28"/>
+      <c r="B691" s="25"/>
       <c r="C691" s="3"/>
       <c r="D691" s="1"/>
       <c r="E691" s="1"/>
@@ -17926,7 +17994,7 @@
     </row>
     <row r="692" spans="1:22">
       <c r="A692" s="7"/>
-      <c r="B692" s="28"/>
+      <c r="B692" s="25"/>
       <c r="C692" s="3"/>
       <c r="D692" s="1"/>
       <c r="E692" s="1"/>
@@ -17950,7 +18018,7 @@
     </row>
     <row r="693" spans="1:22">
       <c r="A693" s="7"/>
-      <c r="B693" s="28"/>
+      <c r="B693" s="25"/>
       <c r="C693" s="3"/>
       <c r="D693" s="1"/>
       <c r="E693" s="1"/>
@@ -17974,7 +18042,7 @@
     </row>
     <row r="694" spans="1:22">
       <c r="A694" s="7"/>
-      <c r="B694" s="28"/>
+      <c r="B694" s="25"/>
       <c r="C694" s="3"/>
       <c r="D694" s="1"/>
       <c r="E694" s="1"/>
@@ -17998,7 +18066,7 @@
     </row>
     <row r="695" spans="1:22">
       <c r="A695" s="7"/>
-      <c r="B695" s="28"/>
+      <c r="B695" s="25"/>
       <c r="C695" s="3"/>
       <c r="D695" s="1"/>
       <c r="E695" s="1"/>
@@ -18022,7 +18090,7 @@
     </row>
     <row r="696" spans="1:22">
       <c r="A696" s="7"/>
-      <c r="B696" s="28"/>
+      <c r="B696" s="25"/>
       <c r="C696" s="3"/>
       <c r="D696" s="1"/>
       <c r="E696" s="1"/>
@@ -18046,7 +18114,7 @@
     </row>
     <row r="697" spans="1:22">
       <c r="A697" s="7"/>
-      <c r="B697" s="28"/>
+      <c r="B697" s="25"/>
       <c r="C697" s="3"/>
       <c r="D697" s="1"/>
       <c r="E697" s="1"/>
@@ -18070,7 +18138,7 @@
     </row>
     <row r="698" spans="1:22">
       <c r="A698" s="7"/>
-      <c r="B698" s="28"/>
+      <c r="B698" s="25"/>
       <c r="C698" s="3"/>
       <c r="D698" s="1"/>
       <c r="E698" s="1"/>
@@ -18094,7 +18162,7 @@
     </row>
     <row r="699" spans="1:22">
       <c r="A699" s="7"/>
-      <c r="B699" s="28"/>
+      <c r="B699" s="25"/>
       <c r="C699" s="3"/>
       <c r="D699" s="1"/>
       <c r="E699" s="1"/>
@@ -18118,7 +18186,7 @@
     </row>
     <row r="700" spans="1:22">
       <c r="A700" s="7"/>
-      <c r="B700" s="28"/>
+      <c r="B700" s="25"/>
       <c r="C700" s="3"/>
       <c r="D700" s="1"/>
       <c r="E700" s="1"/>
@@ -18142,7 +18210,7 @@
     </row>
     <row r="701" spans="1:22">
       <c r="A701" s="7"/>
-      <c r="B701" s="28"/>
+      <c r="B701" s="25"/>
       <c r="C701" s="3"/>
       <c r="D701" s="1"/>
       <c r="E701" s="1"/>
@@ -18166,7 +18234,7 @@
     </row>
     <row r="702" spans="1:22">
       <c r="A702" s="7"/>
-      <c r="B702" s="28"/>
+      <c r="B702" s="25"/>
       <c r="C702" s="3"/>
       <c r="D702" s="1"/>
       <c r="E702" s="1"/>
@@ -18190,7 +18258,7 @@
     </row>
     <row r="703" spans="1:22">
       <c r="A703" s="7"/>
-      <c r="B703" s="28"/>
+      <c r="B703" s="25"/>
       <c r="C703" s="3"/>
       <c r="D703" s="1"/>
       <c r="E703" s="1"/>
@@ -18214,7 +18282,7 @@
     </row>
     <row r="704" spans="1:22">
       <c r="A704" s="7"/>
-      <c r="B704" s="28"/>
+      <c r="B704" s="25"/>
       <c r="C704" s="3"/>
       <c r="D704" s="1"/>
       <c r="E704" s="1"/>
@@ -18238,7 +18306,7 @@
     </row>
     <row r="705" spans="1:22">
       <c r="A705" s="7"/>
-      <c r="B705" s="28"/>
+      <c r="B705" s="25"/>
       <c r="C705" s="3"/>
       <c r="D705" s="1"/>
       <c r="E705" s="1"/>
@@ -18262,7 +18330,7 @@
     </row>
     <row r="706" spans="1:22">
       <c r="A706" s="7"/>
-      <c r="B706" s="28"/>
+      <c r="B706" s="25"/>
       <c r="C706" s="3"/>
       <c r="D706" s="1"/>
       <c r="E706" s="1"/>
@@ -18286,7 +18354,7 @@
     </row>
     <row r="707" spans="1:22">
       <c r="A707" s="7"/>
-      <c r="B707" s="28"/>
+      <c r="B707" s="25"/>
       <c r="C707" s="3"/>
       <c r="D707" s="1"/>
       <c r="E707" s="1"/>
@@ -18310,7 +18378,7 @@
     </row>
     <row r="708" spans="1:22">
       <c r="A708" s="7"/>
-      <c r="B708" s="28"/>
+      <c r="B708" s="25"/>
       <c r="C708" s="3"/>
       <c r="D708" s="1"/>
       <c r="E708" s="1"/>
@@ -18334,7 +18402,7 @@
     </row>
     <row r="709" spans="1:22">
       <c r="A709" s="7"/>
-      <c r="B709" s="28"/>
+      <c r="B709" s="25"/>
       <c r="C709" s="3"/>
       <c r="D709" s="1"/>
       <c r="E709" s="1"/>
@@ -18358,7 +18426,7 @@
     </row>
     <row r="710" spans="1:22">
       <c r="A710" s="7"/>
-      <c r="B710" s="28"/>
+      <c r="B710" s="25"/>
       <c r="C710" s="3"/>
       <c r="D710" s="1"/>
       <c r="E710" s="1"/>
@@ -18382,7 +18450,7 @@
     </row>
     <row r="711" spans="1:22">
       <c r="A711" s="7"/>
-      <c r="B711" s="28"/>
+      <c r="B711" s="25"/>
       <c r="C711" s="3"/>
       <c r="D711" s="1"/>
       <c r="E711" s="1"/>
@@ -18406,7 +18474,7 @@
     </row>
     <row r="712" spans="1:22">
       <c r="A712" s="7"/>
-      <c r="B712" s="28"/>
+      <c r="B712" s="25"/>
       <c r="C712" s="3"/>
       <c r="D712" s="1"/>
       <c r="E712" s="1"/>
@@ -18430,7 +18498,7 @@
     </row>
     <row r="713" spans="1:22">
       <c r="A713" s="7"/>
-      <c r="B713" s="28"/>
+      <c r="B713" s="25"/>
       <c r="C713" s="3"/>
       <c r="D713" s="1"/>
       <c r="E713" s="1"/>
@@ -18454,7 +18522,7 @@
     </row>
     <row r="714" spans="1:22">
       <c r="A714" s="7"/>
-      <c r="B714" s="28"/>
+      <c r="B714" s="25"/>
       <c r="C714" s="3"/>
       <c r="D714" s="1"/>
       <c r="E714" s="1"/>
@@ -18478,7 +18546,7 @@
     </row>
     <row r="715" spans="1:22">
       <c r="A715" s="7"/>
-      <c r="B715" s="28"/>
+      <c r="B715" s="25"/>
       <c r="C715" s="3"/>
       <c r="D715" s="1"/>
       <c r="E715" s="1"/>
@@ -18502,7 +18570,7 @@
     </row>
     <row r="716" spans="1:22">
       <c r="A716" s="7"/>
-      <c r="B716" s="28"/>
+      <c r="B716" s="25"/>
       <c r="C716" s="3"/>
       <c r="D716" s="1"/>
       <c r="E716" s="1"/>
@@ -18526,7 +18594,7 @@
     </row>
     <row r="717" spans="1:22">
       <c r="A717" s="7"/>
-      <c r="B717" s="28"/>
+      <c r="B717" s="25"/>
       <c r="C717" s="3"/>
       <c r="D717" s="1"/>
       <c r="E717" s="1"/>
@@ -18550,7 +18618,7 @@
     </row>
     <row r="718" spans="1:22">
       <c r="A718" s="7"/>
-      <c r="B718" s="28"/>
+      <c r="B718" s="25"/>
       <c r="C718" s="3"/>
       <c r="D718" s="1"/>
       <c r="E718" s="1"/>
@@ -18574,7 +18642,7 @@
     </row>
     <row r="719" spans="1:22">
       <c r="A719" s="7"/>
-      <c r="B719" s="28"/>
+      <c r="B719" s="25"/>
       <c r="C719" s="3"/>
       <c r="D719" s="1"/>
       <c r="E719" s="1"/>
@@ -18598,7 +18666,7 @@
     </row>
     <row r="720" spans="1:22">
       <c r="A720" s="7"/>
-      <c r="B720" s="28"/>
+      <c r="B720" s="25"/>
       <c r="C720" s="3"/>
       <c r="D720" s="1"/>
       <c r="E720" s="1"/>
@@ -18622,7 +18690,7 @@
     </row>
     <row r="721" spans="1:22">
       <c r="A721" s="7"/>
-      <c r="B721" s="28"/>
+      <c r="B721" s="25"/>
       <c r="C721" s="3"/>
       <c r="D721" s="1"/>
       <c r="E721" s="1"/>
@@ -18646,7 +18714,7 @@
     </row>
     <row r="722" spans="1:22">
       <c r="A722" s="7"/>
-      <c r="B722" s="28"/>
+      <c r="B722" s="25"/>
       <c r="C722" s="3"/>
       <c r="D722" s="1"/>
       <c r="E722" s="1"/>
@@ -18670,7 +18738,7 @@
     </row>
     <row r="723" spans="1:22">
       <c r="A723" s="7"/>
-      <c r="B723" s="28"/>
+      <c r="B723" s="25"/>
       <c r="C723" s="3"/>
       <c r="D723" s="1"/>
       <c r="E723" s="1"/>
@@ -18694,7 +18762,7 @@
     </row>
     <row r="724" spans="1:22">
       <c r="A724" s="7"/>
-      <c r="B724" s="28"/>
+      <c r="B724" s="25"/>
       <c r="C724" s="3"/>
       <c r="D724" s="1"/>
       <c r="E724" s="1"/>
@@ -18718,7 +18786,7 @@
     </row>
     <row r="725" spans="1:22">
       <c r="A725" s="7"/>
-      <c r="B725" s="28"/>
+      <c r="B725" s="25"/>
       <c r="C725" s="3"/>
       <c r="D725" s="1"/>
       <c r="E725" s="1"/>
@@ -18742,7 +18810,7 @@
     </row>
     <row r="726" spans="1:22">
       <c r="A726" s="7"/>
-      <c r="B726" s="28"/>
+      <c r="B726" s="25"/>
       <c r="C726" s="3"/>
       <c r="D726" s="1"/>
       <c r="E726" s="1"/>
@@ -18766,7 +18834,7 @@
     </row>
     <row r="727" spans="1:22">
       <c r="A727" s="7"/>
-      <c r="B727" s="28"/>
+      <c r="B727" s="25"/>
       <c r="C727" s="3"/>
       <c r="D727" s="1"/>
       <c r="E727" s="1"/>
@@ -18790,7 +18858,7 @@
     </row>
     <row r="728" spans="1:22">
       <c r="A728" s="7"/>
-      <c r="B728" s="28"/>
+      <c r="B728" s="25"/>
       <c r="C728" s="3"/>
       <c r="D728" s="1"/>
       <c r="E728" s="1"/>
@@ -18814,7 +18882,7 @@
     </row>
     <row r="729" spans="1:22">
       <c r="A729" s="7"/>
-      <c r="B729" s="28"/>
+      <c r="B729" s="25"/>
       <c r="C729" s="3"/>
       <c r="D729" s="1"/>
       <c r="E729" s="1"/>
@@ -18838,7 +18906,7 @@
     </row>
     <row r="730" spans="1:22">
       <c r="A730" s="7"/>
-      <c r="B730" s="28"/>
+      <c r="B730" s="25"/>
       <c r="C730" s="3"/>
       <c r="D730" s="1"/>
       <c r="E730" s="1"/>
@@ -18862,7 +18930,7 @@
     </row>
     <row r="731" spans="1:22">
       <c r="A731" s="7"/>
-      <c r="B731" s="28"/>
+      <c r="B731" s="25"/>
       <c r="C731" s="3"/>
       <c r="D731" s="1"/>
       <c r="E731" s="1"/>
@@ -18886,7 +18954,7 @@
     </row>
     <row r="732" spans="1:22">
       <c r="A732" s="7"/>
-      <c r="B732" s="28"/>
+      <c r="B732" s="25"/>
       <c r="C732" s="3"/>
       <c r="D732" s="1"/>
       <c r="E732" s="1"/>
@@ -18910,7 +18978,7 @@
     </row>
     <row r="733" spans="1:22">
       <c r="A733" s="7"/>
-      <c r="B733" s="28"/>
+      <c r="B733" s="25"/>
       <c r="C733" s="3"/>
       <c r="D733" s="1"/>
       <c r="E733" s="1"/>
@@ -18934,7 +19002,7 @@
     </row>
     <row r="734" spans="1:22">
       <c r="A734" s="7"/>
-      <c r="B734" s="28"/>
+      <c r="B734" s="25"/>
       <c r="C734" s="3"/>
       <c r="D734" s="1"/>
       <c r="E734" s="1"/>
@@ -18958,7 +19026,7 @@
     </row>
     <row r="735" spans="1:22">
       <c r="A735" s="7"/>
-      <c r="B735" s="28"/>
+      <c r="B735" s="25"/>
       <c r="C735" s="3"/>
       <c r="D735" s="1"/>
       <c r="E735" s="1"/>
@@ -18982,7 +19050,7 @@
     </row>
     <row r="736" spans="1:22">
       <c r="A736" s="7"/>
-      <c r="B736" s="28"/>
+      <c r="B736" s="25"/>
       <c r="C736" s="3"/>
       <c r="D736" s="1"/>
       <c r="E736" s="1"/>
@@ -19006,7 +19074,7 @@
     </row>
     <row r="737" spans="1:22">
       <c r="A737" s="7"/>
-      <c r="B737" s="28"/>
+      <c r="B737" s="25"/>
       <c r="C737" s="3"/>
       <c r="D737" s="1"/>
       <c r="E737" s="1"/>
@@ -19030,7 +19098,7 @@
     </row>
     <row r="738" spans="1:22">
       <c r="A738" s="7"/>
-      <c r="B738" s="28"/>
+      <c r="B738" s="25"/>
       <c r="C738" s="3"/>
       <c r="D738" s="1"/>
       <c r="E738" s="1"/>
@@ -19054,7 +19122,7 @@
     </row>
     <row r="739" spans="1:22">
       <c r="A739" s="7"/>
-      <c r="B739" s="28"/>
+      <c r="B739" s="25"/>
       <c r="C739" s="3"/>
       <c r="D739" s="1"/>
       <c r="E739" s="1"/>
@@ -19078,7 +19146,7 @@
     </row>
     <row r="740" spans="1:22">
       <c r="A740" s="7"/>
-      <c r="B740" s="28"/>
+      <c r="B740" s="25"/>
       <c r="C740" s="3"/>
       <c r="D740" s="1"/>
       <c r="E740" s="1"/>
@@ -19102,7 +19170,7 @@
     </row>
     <row r="741" spans="1:22">
       <c r="A741" s="7"/>
-      <c r="B741" s="28"/>
+      <c r="B741" s="25"/>
       <c r="C741" s="3"/>
       <c r="D741" s="1"/>
       <c r="E741" s="1"/>
@@ -19126,7 +19194,7 @@
     </row>
     <row r="742" spans="1:22">
       <c r="A742" s="7"/>
-      <c r="B742" s="28"/>
+      <c r="B742" s="25"/>
       <c r="C742" s="3"/>
       <c r="D742" s="1"/>
       <c r="E742" s="1"/>
@@ -19150,7 +19218,7 @@
     </row>
     <row r="743" spans="1:22">
       <c r="A743" s="7"/>
-      <c r="B743" s="28"/>
+      <c r="B743" s="25"/>
       <c r="C743" s="3"/>
       <c r="D743" s="1"/>
       <c r="E743" s="1"/>
@@ -19174,7 +19242,7 @@
     </row>
     <row r="744" spans="1:22">
       <c r="A744" s="7"/>
-      <c r="B744" s="28"/>
+      <c r="B744" s="25"/>
       <c r="C744" s="3"/>
       <c r="D744" s="1"/>
       <c r="E744" s="1"/>
@@ -19198,7 +19266,7 @@
     </row>
     <row r="745" spans="1:22">
       <c r="A745" s="7"/>
-      <c r="B745" s="28"/>
+      <c r="B745" s="25"/>
       <c r="C745" s="3"/>
       <c r="D745" s="1"/>
       <c r="E745" s="1"/>
@@ -19222,7 +19290,7 @@
     </row>
     <row r="746" spans="1:22">
       <c r="A746" s="7"/>
-      <c r="B746" s="28"/>
+      <c r="B746" s="25"/>
       <c r="C746" s="3"/>
       <c r="D746" s="1"/>
       <c r="E746" s="1"/>
@@ -19246,7 +19314,7 @@
     </row>
     <row r="747" spans="1:22">
       <c r="A747" s="7"/>
-      <c r="B747" s="28"/>
+      <c r="B747" s="25"/>
       <c r="C747" s="3"/>
       <c r="D747" s="1"/>
       <c r="E747" s="1"/>
@@ -19270,7 +19338,7 @@
     </row>
     <row r="748" spans="1:22">
       <c r="A748" s="7"/>
-      <c r="B748" s="28"/>
+      <c r="B748" s="25"/>
       <c r="C748" s="3"/>
       <c r="D748" s="1"/>
       <c r="E748" s="1"/>
@@ -19294,7 +19362,7 @@
     </row>
     <row r="749" spans="1:22">
       <c r="A749" s="7"/>
-      <c r="B749" s="28"/>
+      <c r="B749" s="25"/>
       <c r="C749" s="3"/>
       <c r="D749" s="1"/>
       <c r="E749" s="1"/>
@@ -19318,7 +19386,7 @@
     </row>
     <row r="750" spans="1:22">
       <c r="A750" s="7"/>
-      <c r="B750" s="28"/>
+      <c r="B750" s="25"/>
       <c r="C750" s="3"/>
       <c r="D750" s="1"/>
       <c r="E750" s="1"/>
@@ -19342,7 +19410,7 @@
     </row>
     <row r="751" spans="1:22">
       <c r="A751" s="7"/>
-      <c r="B751" s="28"/>
+      <c r="B751" s="25"/>
       <c r="C751" s="3"/>
       <c r="D751" s="1"/>
       <c r="E751" s="1"/>
@@ -19366,7 +19434,7 @@
     </row>
     <row r="752" spans="1:22">
       <c r="A752" s="7"/>
-      <c r="B752" s="28"/>
+      <c r="B752" s="25"/>
       <c r="C752" s="3"/>
       <c r="D752" s="1"/>
       <c r="E752" s="1"/>
@@ -19390,7 +19458,7 @@
     </row>
     <row r="753" spans="1:22">
       <c r="A753" s="7"/>
-      <c r="B753" s="28"/>
+      <c r="B753" s="25"/>
       <c r="C753" s="3"/>
       <c r="D753" s="1"/>
       <c r="E753" s="1"/>
@@ -19414,7 +19482,7 @@
     </row>
     <row r="754" spans="1:22">
       <c r="A754" s="7"/>
-      <c r="B754" s="28"/>
+      <c r="B754" s="25"/>
       <c r="C754" s="3"/>
       <c r="D754" s="1"/>
       <c r="E754" s="1"/>
@@ -19438,7 +19506,7 @@
     </row>
     <row r="755" spans="1:22">
       <c r="A755" s="7"/>
-      <c r="B755" s="28"/>
+      <c r="B755" s="25"/>
       <c r="C755" s="3"/>
       <c r="D755" s="1"/>
       <c r="E755" s="1"/>
@@ -19462,7 +19530,7 @@
     </row>
     <row r="756" spans="1:22">
       <c r="A756" s="7"/>
-      <c r="B756" s="28"/>
+      <c r="B756" s="25"/>
       <c r="C756" s="3"/>
       <c r="D756" s="1"/>
       <c r="E756" s="1"/>
@@ -19486,7 +19554,7 @@
     </row>
     <row r="757" spans="1:22">
       <c r="A757" s="7"/>
-      <c r="B757" s="28"/>
+      <c r="B757" s="25"/>
       <c r="C757" s="3"/>
       <c r="D757" s="1"/>
       <c r="E757" s="1"/>
@@ -19510,7 +19578,7 @@
     </row>
     <row r="758" spans="1:22">
       <c r="A758" s="7"/>
-      <c r="B758" s="28"/>
+      <c r="B758" s="25"/>
       <c r="C758" s="3"/>
       <c r="D758" s="1"/>
       <c r="E758" s="1"/>
@@ -19534,7 +19602,7 @@
     </row>
     <row r="759" spans="1:22">
       <c r="A759" s="7"/>
-      <c r="B759" s="28"/>
+      <c r="B759" s="25"/>
       <c r="C759" s="3"/>
       <c r="D759" s="1"/>
       <c r="E759" s="1"/>
@@ -19558,7 +19626,7 @@
     </row>
     <row r="760" spans="1:22">
       <c r="A760" s="7"/>
-      <c r="B760" s="28"/>
+      <c r="B760" s="25"/>
       <c r="C760" s="3"/>
       <c r="D760" s="1"/>
       <c r="E760" s="1"/>
@@ -19582,7 +19650,7 @@
     </row>
     <row r="761" spans="1:22">
       <c r="A761" s="7"/>
-      <c r="B761" s="28"/>
+      <c r="B761" s="25"/>
       <c r="C761" s="3"/>
       <c r="D761" s="1"/>
       <c r="E761" s="1"/>
@@ -19606,7 +19674,7 @@
     </row>
     <row r="762" spans="1:22">
       <c r="A762" s="7"/>
-      <c r="B762" s="28"/>
+      <c r="B762" s="25"/>
       <c r="C762" s="3"/>
       <c r="D762" s="1"/>
       <c r="E762" s="1"/>
@@ -19630,7 +19698,7 @@
     </row>
     <row r="763" spans="1:22">
       <c r="A763" s="7"/>
-      <c r="B763" s="28"/>
+      <c r="B763" s="25"/>
       <c r="C763" s="3"/>
       <c r="D763" s="1"/>
       <c r="E763" s="1"/>
@@ -19654,7 +19722,7 @@
     </row>
     <row r="764" spans="1:22">
       <c r="A764" s="7"/>
-      <c r="B764" s="28"/>
+      <c r="B764" s="25"/>
       <c r="C764" s="3"/>
       <c r="D764" s="1"/>
       <c r="E764" s="1"/>
@@ -19678,7 +19746,7 @@
     </row>
     <row r="765" spans="1:22">
       <c r="A765" s="7"/>
-      <c r="B765" s="28"/>
+      <c r="B765" s="25"/>
       <c r="C765" s="3"/>
       <c r="D765" s="1"/>
       <c r="E765" s="1"/>
@@ -19702,7 +19770,7 @@
     </row>
     <row r="766" spans="1:22">
       <c r="A766" s="7"/>
-      <c r="B766" s="28"/>
+      <c r="B766" s="25"/>
       <c r="C766" s="3"/>
       <c r="D766" s="1"/>
       <c r="E766" s="1"/>
@@ -19726,7 +19794,7 @@
     </row>
     <row r="767" spans="1:22">
       <c r="A767" s="7"/>
-      <c r="B767" s="28"/>
+      <c r="B767" s="25"/>
       <c r="C767" s="3"/>
       <c r="D767" s="1"/>
       <c r="E767" s="1"/>
@@ -19750,7 +19818,7 @@
     </row>
     <row r="768" spans="1:22">
       <c r="A768" s="7"/>
-      <c r="B768" s="28"/>
+      <c r="B768" s="25"/>
       <c r="C768" s="3"/>
       <c r="D768" s="1"/>
       <c r="E768" s="1"/>
@@ -19774,7 +19842,7 @@
     </row>
     <row r="769" spans="1:22">
       <c r="A769" s="7"/>
-      <c r="B769" s="28"/>
+      <c r="B769" s="25"/>
       <c r="C769" s="3"/>
       <c r="D769" s="1"/>
       <c r="E769" s="1"/>
@@ -19798,7 +19866,7 @@
     </row>
     <row r="770" spans="1:22">
       <c r="A770" s="7"/>
-      <c r="B770" s="28"/>
+      <c r="B770" s="25"/>
       <c r="C770" s="3"/>
       <c r="D770" s="1"/>
       <c r="E770" s="1"/>
@@ -19822,7 +19890,7 @@
     </row>
     <row r="771" spans="1:22">
       <c r="A771" s="7"/>
-      <c r="B771" s="28"/>
+      <c r="B771" s="25"/>
       <c r="C771" s="3"/>
       <c r="D771" s="1"/>
       <c r="E771" s="1"/>
@@ -19846,7 +19914,7 @@
     </row>
     <row r="772" spans="1:22">
       <c r="A772" s="7"/>
-      <c r="B772" s="28"/>
+      <c r="B772" s="25"/>
       <c r="C772" s="3"/>
       <c r="D772" s="1"/>
       <c r="E772" s="1"/>
@@ -19870,7 +19938,7 @@
     </row>
     <row r="773" spans="1:22">
       <c r="A773" s="7"/>
-      <c r="B773" s="28"/>
+      <c r="B773" s="25"/>
       <c r="C773" s="3"/>
       <c r="D773" s="1"/>
       <c r="E773" s="1"/>
@@ -19894,7 +19962,7 @@
     </row>
     <row r="774" spans="1:22">
       <c r="A774" s="7"/>
-      <c r="B774" s="28"/>
+      <c r="B774" s="25"/>
       <c r="C774" s="3"/>
       <c r="D774" s="1"/>
       <c r="E774" s="1"/>
@@ -19918,7 +19986,7 @@
     </row>
     <row r="775" spans="1:22">
       <c r="A775" s="7"/>
-      <c r="B775" s="28"/>
+      <c r="B775" s="25"/>
       <c r="C775" s="3"/>
       <c r="D775" s="1"/>
       <c r="E775" s="1"/>
@@ -19942,7 +20010,7 @@
     </row>
     <row r="776" spans="1:22">
       <c r="A776" s="7"/>
-      <c r="B776" s="28"/>
+      <c r="B776" s="25"/>
       <c r="C776" s="3"/>
       <c r="D776" s="1"/>
       <c r="E776" s="1"/>
@@ -19966,7 +20034,7 @@
     </row>
     <row r="777" spans="1:22">
       <c r="A777" s="7"/>
-      <c r="B777" s="28"/>
+      <c r="B777" s="25"/>
       <c r="C777" s="3"/>
       <c r="D777" s="1"/>
       <c r="E777" s="1"/>
@@ -19990,7 +20058,7 @@
     </row>
     <row r="778" spans="1:22">
       <c r="A778" s="7"/>
-      <c r="B778" s="28"/>
+      <c r="B778" s="25"/>
       <c r="C778" s="3"/>
       <c r="D778" s="1"/>
       <c r="E778" s="1"/>
@@ -20014,7 +20082,7 @@
     </row>
     <row r="779" spans="1:22">
       <c r="A779" s="7"/>
-      <c r="B779" s="28"/>
+      <c r="B779" s="25"/>
       <c r="C779" s="3"/>
       <c r="D779" s="1"/>
       <c r="E779" s="1"/>
@@ -20038,7 +20106,7 @@
     </row>
     <row r="780" spans="1:22">
       <c r="A780" s="7"/>
-      <c r="B780" s="28"/>
+      <c r="B780" s="25"/>
       <c r="C780" s="3"/>
       <c r="D780" s="1"/>
       <c r="E780" s="1"/>
@@ -20062,7 +20130,7 @@
     </row>
     <row r="781" spans="1:22">
       <c r="A781" s="7"/>
-      <c r="B781" s="28"/>
+      <c r="B781" s="25"/>
       <c r="C781" s="3"/>
       <c r="D781" s="1"/>
       <c r="E781" s="1"/>
@@ -20086,7 +20154,7 @@
     </row>
     <row r="782" spans="1:22">
       <c r="A782" s="7"/>
-      <c r="B782" s="28"/>
+      <c r="B782" s="25"/>
       <c r="C782" s="3"/>
       <c r="D782" s="1"/>
       <c r="E782" s="1"/>
@@ -20110,7 +20178,7 @@
     </row>
     <row r="783" spans="1:22">
       <c r="A783" s="7"/>
-      <c r="B783" s="28"/>
+      <c r="B783" s="25"/>
       <c r="C783" s="3"/>
       <c r="D783" s="1"/>
       <c r="E783" s="1"/>
@@ -20134,7 +20202,7 @@
     </row>
     <row r="784" spans="1:22">
       <c r="A784" s="7"/>
-      <c r="B784" s="28"/>
+      <c r="B784" s="25"/>
       <c r="C784" s="3"/>
       <c r="D784" s="1"/>
       <c r="E784" s="1"/>
@@ -20158,7 +20226,7 @@
     </row>
     <row r="785" spans="1:22">
       <c r="A785" s="7"/>
-      <c r="B785" s="28"/>
+      <c r="B785" s="25"/>
       <c r="C785" s="3"/>
       <c r="D785" s="1"/>
       <c r="E785" s="1"/>
@@ -20182,7 +20250,7 @@
     </row>
     <row r="786" spans="1:22">
       <c r="A786" s="7"/>
-      <c r="B786" s="28"/>
+      <c r="B786" s="25"/>
       <c r="C786" s="3"/>
       <c r="D786" s="1"/>
       <c r="E786" s="1"/>
@@ -20206,7 +20274,7 @@
     </row>
     <row r="787" spans="1:22">
       <c r="A787" s="7"/>
-      <c r="B787" s="28"/>
+      <c r="B787" s="25"/>
       <c r="C787" s="3"/>
       <c r="D787" s="1"/>
       <c r="E787" s="1"/>
@@ -20230,7 +20298,7 @@
     </row>
     <row r="788" spans="1:22">
       <c r="A788" s="7"/>
-      <c r="B788" s="28"/>
+      <c r="B788" s="25"/>
       <c r="C788" s="3"/>
       <c r="D788" s="1"/>
       <c r="E788" s="1"/>
@@ -20254,7 +20322,7 @@
     </row>
     <row r="789" spans="1:22">
       <c r="A789" s="7"/>
-      <c r="B789" s="28"/>
+      <c r="B789" s="25"/>
       <c r="C789" s="3"/>
       <c r="D789" s="1"/>
       <c r="E789" s="1"/>
@@ -20278,7 +20346,7 @@
     </row>
     <row r="790" spans="1:22">
       <c r="A790" s="7"/>
-      <c r="B790" s="28"/>
+      <c r="B790" s="25"/>
       <c r="C790" s="3"/>
       <c r="D790" s="1"/>
       <c r="E790" s="1"/>
@@ -20302,7 +20370,7 @@
     </row>
     <row r="791" spans="1:22">
       <c r="A791" s="7"/>
-      <c r="B791" s="28"/>
+      <c r="B791" s="25"/>
       <c r="C791" s="3"/>
       <c r="D791" s="1"/>
       <c r="E791" s="1"/>
@@ -20326,7 +20394,7 @@
     </row>
     <row r="792" spans="1:22">
       <c r="A792" s="7"/>
-      <c r="B792" s="28"/>
+      <c r="B792" s="25"/>
       <c r="C792" s="3"/>
       <c r="D792" s="1"/>
       <c r="E792" s="1"/>
@@ -20350,7 +20418,7 @@
     </row>
     <row r="793" spans="1:22">
       <c r="A793" s="7"/>
-      <c r="B793" s="28"/>
+      <c r="B793" s="25"/>
       <c r="C793" s="3"/>
       <c r="D793" s="1"/>
       <c r="E793" s="1"/>
@@ -20374,7 +20442,7 @@
     </row>
     <row r="794" spans="1:22">
       <c r="A794" s="7"/>
-      <c r="B794" s="28"/>
+      <c r="B794" s="25"/>
       <c r="C794" s="3"/>
       <c r="D794" s="1"/>
       <c r="E794" s="1"/>
@@ -20398,7 +20466,7 @@
     </row>
     <row r="795" spans="1:22">
       <c r="A795" s="7"/>
-      <c r="B795" s="28"/>
+      <c r="B795" s="25"/>
       <c r="C795" s="3"/>
       <c r="D795" s="1"/>
       <c r="E795" s="1"/>
@@ -20422,7 +20490,7 @@
     </row>
     <row r="796" spans="1:22">
       <c r="A796" s="7"/>
-      <c r="B796" s="28"/>
+      <c r="B796" s="25"/>
       <c r="C796" s="3"/>
       <c r="D796" s="1"/>
       <c r="E796" s="1"/>
@@ -20446,7 +20514,7 @@
     </row>
     <row r="797" spans="1:22">
       <c r="A797" s="7"/>
-      <c r="B797" s="28"/>
+      <c r="B797" s="25"/>
       <c r="C797" s="3"/>
       <c r="D797" s="1"/>
       <c r="E797" s="1"/>
@@ -20470,7 +20538,7 @@
     </row>
     <row r="798" spans="1:22">
       <c r="A798" s="7"/>
-      <c r="B798" s="28"/>
+      <c r="B798" s="25"/>
       <c r="C798" s="3"/>
       <c r="D798" s="1"/>
       <c r="E798" s="1"/>
@@ -20494,7 +20562,7 @@
     </row>
     <row r="799" spans="1:22">
       <c r="A799" s="7"/>
-      <c r="B799" s="28"/>
+      <c r="B799" s="25"/>
       <c r="C799" s="3"/>
       <c r="D799" s="1"/>
       <c r="E799" s="1"/>
@@ -20518,7 +20586,7 @@
     </row>
     <row r="800" spans="1:22">
       <c r="A800" s="7"/>
-      <c r="B800" s="28"/>
+      <c r="B800" s="25"/>
       <c r="C800" s="3"/>
       <c r="D800" s="1"/>
       <c r="E800" s="1"/>
@@ -20542,7 +20610,7 @@
     </row>
     <row r="801" spans="1:22">
       <c r="A801" s="7"/>
-      <c r="B801" s="28"/>
+      <c r="B801" s="25"/>
       <c r="C801" s="3"/>
       <c r="D801" s="1"/>
       <c r="E801" s="1"/>
@@ -20566,7 +20634,7 @@
     </row>
     <row r="802" spans="1:22">
       <c r="A802" s="7"/>
-      <c r="B802" s="28"/>
+      <c r="B802" s="25"/>
       <c r="C802" s="3"/>
       <c r="D802" s="1"/>
       <c r="E802" s="1"/>
@@ -20590,7 +20658,7 @@
     </row>
     <row r="803" spans="1:22">
       <c r="A803" s="7"/>
-      <c r="B803" s="28"/>
+      <c r="B803" s="25"/>
       <c r="C803" s="3"/>
       <c r="D803" s="1"/>
       <c r="E803" s="1"/>
@@ -20614,7 +20682,7 @@
     </row>
     <row r="804" spans="1:22">
       <c r="A804" s="7"/>
-      <c r="B804" s="28"/>
+      <c r="B804" s="25"/>
       <c r="C804" s="3"/>
       <c r="D804" s="1"/>
       <c r="E804" s="1"/>
@@ -20638,7 +20706,7 @@
     </row>
     <row r="805" spans="1:22">
       <c r="A805" s="7"/>
-      <c r="B805" s="28"/>
+      <c r="B805" s="25"/>
       <c r="C805" s="3"/>
       <c r="D805" s="1"/>
       <c r="E805" s="1"/>
@@ -20662,7 +20730,7 @@
     </row>
     <row r="806" spans="1:22">
       <c r="A806" s="7"/>
-      <c r="B806" s="28"/>
+      <c r="B806" s="25"/>
       <c r="C806" s="3"/>
       <c r="D806" s="1"/>
       <c r="E806" s="1"/>
@@ -20686,7 +20754,7 @@
     </row>
     <row r="807" spans="1:22">
       <c r="A807" s="7"/>
-      <c r="B807" s="28"/>
+      <c r="B807" s="25"/>
       <c r="C807" s="3"/>
       <c r="D807" s="1"/>
       <c r="E807" s="1"/>
@@ -20710,7 +20778,7 @@
     </row>
     <row r="808" spans="1:22">
       <c r="A808" s="7"/>
-      <c r="B808" s="28"/>
+      <c r="B808" s="25"/>
       <c r="C808" s="3"/>
       <c r="D808" s="1"/>
       <c r="E808" s="1"/>
@@ -20734,7 +20802,7 @@
     </row>
     <row r="809" spans="1:22">
       <c r="A809" s="7"/>
-      <c r="B809" s="28"/>
+      <c r="B809" s="25"/>
       <c r="C809" s="3"/>
       <c r="D809" s="1"/>
       <c r="E809" s="1"/>
@@ -20758,7 +20826,7 @@
     </row>
     <row r="810" spans="1:22">
       <c r="A810" s="7"/>
-      <c r="B810" s="28"/>
+      <c r="B810" s="25"/>
       <c r="C810" s="3"/>
       <c r="D810" s="1"/>
       <c r="E810" s="1"/>
@@ -20782,7 +20850,7 @@
     </row>
     <row r="811" spans="1:22">
       <c r="A811" s="7"/>
-      <c r="B811" s="28"/>
+      <c r="B811" s="25"/>
       <c r="C811" s="3"/>
       <c r="D811" s="1"/>
       <c r="E811" s="1"/>
@@ -20806,7 +20874,7 @@
     </row>
     <row r="812" spans="1:22">
       <c r="A812" s="7"/>
-      <c r="B812" s="28"/>
+      <c r="B812" s="25"/>
       <c r="C812" s="3"/>
       <c r="D812" s="1"/>
       <c r="E812" s="1"/>
@@ -20830,7 +20898,7 @@
     </row>
     <row r="813" spans="1:22">
       <c r="A813" s="7"/>
-      <c r="B813" s="28"/>
+      <c r="B813" s="25"/>
       <c r="C813" s="3"/>
       <c r="D813" s="1"/>
       <c r="E813" s="1"/>
@@ -20854,7 +20922,7 @@
     </row>
     <row r="814" spans="1:22">
       <c r="A814" s="7"/>
-      <c r="B814" s="28"/>
+      <c r="B814" s="25"/>
       <c r="C814" s="3"/>
       <c r="D814" s="1"/>
       <c r="E814" s="1"/>
@@ -20878,7 +20946,7 @@
     </row>
     <row r="815" spans="1:22">
       <c r="A815" s="7"/>
-      <c r="B815" s="28"/>
+      <c r="B815" s="25"/>
       <c r="C815" s="3"/>
       <c r="D815" s="1"/>
       <c r="E815" s="1"/>
@@ -20902,7 +20970,7 @@
     </row>
     <row r="816" spans="1:22">
       <c r="A816" s="7"/>
-      <c r="B816" s="28"/>
+      <c r="B816" s="25"/>
       <c r="C816" s="3"/>
       <c r="D816" s="1"/>
       <c r="E816" s="1"/>
@@ -20926,7 +20994,7 @@
     </row>
     <row r="817" spans="1:22">
       <c r="A817" s="7"/>
-      <c r="B817" s="28"/>
+      <c r="B817" s="25"/>
       <c r="C817" s="3"/>
       <c r="D817" s="1"/>
       <c r="E817" s="1"/>
@@ -20950,7 +21018,7 @@
     </row>
     <row r="818" spans="1:22">
       <c r="A818" s="7"/>
-      <c r="B818" s="28"/>
+      <c r="B818" s="25"/>
       <c r="C818" s="3"/>
       <c r="D818" s="1"/>
       <c r="E818" s="1"/>
@@ -20974,7 +21042,7 @@
     </row>
     <row r="819" spans="1:22">
       <c r="A819" s="7"/>
-      <c r="B819" s="28"/>
+      <c r="B819" s="25"/>
       <c r="C819" s="3"/>
       <c r="D819" s="1"/>
       <c r="E819" s="1"/>
@@ -20998,7 +21066,7 @@
     </row>
     <row r="820" spans="1:22">
       <c r="A820" s="7"/>
-      <c r="B820" s="28"/>
+      <c r="B820" s="25"/>
       <c r="C820" s="3"/>
       <c r="D820" s="1"/>
       <c r="E820" s="1"/>
@@ -21022,7 +21090,7 @@
     </row>
     <row r="821" spans="1:22">
       <c r="A821" s="7"/>
-      <c r="B821" s="28"/>
+      <c r="B821" s="25"/>
       <c r="C821" s="3"/>
       <c r="D821" s="1"/>
       <c r="E821" s="1"/>
@@ -21046,7 +21114,7 @@
     </row>
     <row r="822" spans="1:22">
       <c r="A822" s="7"/>
-      <c r="B822" s="28"/>
+      <c r="B822" s="25"/>
       <c r="C822" s="3"/>
       <c r="D822" s="1"/>
       <c r="E822" s="1"/>
@@ -21070,7 +21138,7 @@
     </row>
     <row r="823" spans="1:22">
       <c r="A823" s="7"/>
-      <c r="B823" s="28"/>
+      <c r="B823" s="25"/>
       <c r="C823" s="3"/>
       <c r="D823" s="1"/>
       <c r="E823" s="1"/>
@@ -21094,7 +21162,7 @@
     </row>
     <row r="824" spans="1:22">
       <c r="A824" s="7"/>
-      <c r="B824" s="28"/>
+      <c r="B824" s="25"/>
       <c r="C824" s="3"/>
       <c r="D824" s="1"/>
       <c r="E824" s="1"/>
@@ -21118,7 +21186,7 @@
     </row>
     <row r="825" spans="1:22">
       <c r="A825" s="7"/>
-      <c r="B825" s="28"/>
+      <c r="B825" s="25"/>
       <c r="C825" s="3"/>
       <c r="D825" s="1"/>
       <c r="E825" s="1"/>
@@ -21142,7 +21210,7 @@
     </row>
     <row r="826" spans="1:22">
       <c r="A826" s="7"/>
-      <c r="B826" s="28"/>
+      <c r="B826" s="25"/>
       <c r="C826" s="3"/>
       <c r="D826" s="1"/>
       <c r="E826" s="1"/>
@@ -21166,7 +21234,7 @@
     </row>
     <row r="827" spans="1:22">
       <c r="A827" s="7"/>
-      <c r="B827" s="28"/>
+      <c r="B827" s="25"/>
       <c r="C827" s="3"/>
       <c r="D827" s="1"/>
       <c r="E827" s="1"/>
@@ -21190,7 +21258,7 @@
     </row>
     <row r="828" spans="1:22">
       <c r="A828" s="7"/>
-      <c r="B828" s="28"/>
+      <c r="B828" s="25"/>
       <c r="C828" s="3"/>
       <c r="D828" s="1"/>
       <c r="E828" s="1"/>
@@ -21214,7 +21282,7 @@
     </row>
     <row r="829" spans="1:22">
       <c r="A829" s="7"/>
-      <c r="B829" s="28"/>
+      <c r="B829" s="25"/>
       <c r="C829" s="3"/>
       <c r="D829" s="1"/>
       <c r="E829" s="1"/>
@@ -21238,7 +21306,7 @@
     </row>
     <row r="830" spans="1:22">
       <c r="A830" s="7"/>
-      <c r="B830" s="28"/>
+      <c r="B830" s="25"/>
       <c r="C830" s="3"/>
       <c r="D830" s="1"/>
       <c r="E830" s="1"/>
@@ -21262,7 +21330,7 @@
     </row>
     <row r="831" spans="1:22">
       <c r="A831" s="7"/>
-      <c r="B831" s="28"/>
+      <c r="B831" s="25"/>
       <c r="C831" s="3"/>
       <c r="D831" s="1"/>
       <c r="E831" s="1"/>
@@ -21286,7 +21354,7 @@
     </row>
     <row r="832" spans="1:22">
       <c r="A832" s="7"/>
-      <c r="B832" s="28"/>
+      <c r="B832" s="25"/>
       <c r="C832" s="3"/>
       <c r="D832" s="1"/>
       <c r="E832" s="1"/>
@@ -21310,7 +21378,7 @@
     </row>
     <row r="833" spans="1:22">
       <c r="A833" s="7"/>
-      <c r="B833" s="28"/>
+      <c r="B833" s="25"/>
       <c r="C833" s="3"/>
       <c r="D833" s="1"/>
       <c r="E833" s="1"/>
@@ -21334,7 +21402,7 @@
     </row>
     <row r="834" spans="1:22">
       <c r="A834" s="7"/>
-      <c r="B834" s="28"/>
+      <c r="B834" s="25"/>
       <c r="C834" s="3"/>
       <c r="D834" s="1"/>
       <c r="E834" s="1"/>
@@ -21358,7 +21426,7 @@
     </row>
     <row r="835" spans="1:22">
       <c r="A835" s="7"/>
-      <c r="B835" s="28"/>
+      <c r="B835" s="25"/>
       <c r="C835" s="3"/>
       <c r="D835" s="1"/>
       <c r="E835" s="1"/>
@@ -21382,7 +21450,7 @@
     </row>
     <row r="836" spans="1:22">
       <c r="A836" s="7"/>
-      <c r="B836" s="28"/>
+      <c r="B836" s="25"/>
       <c r="C836" s="3"/>
       <c r="D836" s="1"/>
       <c r="E836" s="1"/>
@@ -21406,7 +21474,7 @@
     </row>
     <row r="837" spans="1:22">
       <c r="A837" s="7"/>
-      <c r="B837" s="28"/>
+      <c r="B837" s="25"/>
       <c r="C837" s="3"/>
       <c r="D837" s="1"/>
       <c r="E837" s="1"/>
@@ -21430,7 +21498,7 @@
     </row>
     <row r="838" spans="1:22">
       <c r="A838" s="7"/>
-      <c r="B838" s="28"/>
+      <c r="B838" s="25"/>
       <c r="C838" s="3"/>
       <c r="D838" s="1"/>
       <c r="E838" s="1"/>
@@ -21454,7 +21522,7 @@
     </row>
     <row r="839" spans="1:22">
       <c r="A839" s="7"/>
-      <c r="B839" s="28"/>
+      <c r="B839" s="25"/>
       <c r="C839" s="3"/>
       <c r="D839" s="1"/>
       <c r="E839" s="1"/>
@@ -21478,7 +21546,7 @@
     </row>
     <row r="840" spans="1:22">
       <c r="A840" s="7"/>
-      <c r="B840" s="28"/>
+      <c r="B840" s="25"/>
       <c r="C840" s="3"/>
       <c r="D840" s="1"/>
       <c r="E840" s="1"/>
@@ -21502,7 +21570,7 @@
     </row>
     <row r="841" spans="1:22">
       <c r="A841" s="7"/>
-      <c r="B841" s="28"/>
+      <c r="B841" s="25"/>
       <c r="C841" s="3"/>
       <c r="D841" s="1"/>
       <c r="E841" s="1"/>
@@ -21526,7 +21594,7 @@
     </row>
     <row r="842" spans="1:22">
       <c r="A842" s="7"/>
-      <c r="B842" s="28"/>
+      <c r="B842" s="25"/>
       <c r="C842" s="3"/>
       <c r="D842" s="1"/>
       <c r="E842" s="1"/>
@@ -21550,7 +21618,7 @@
     </row>
     <row r="843" spans="1:22">
       <c r="A843" s="7"/>
-      <c r="B843" s="28"/>
+      <c r="B843" s="25"/>
       <c r="C843" s="3"/>
       <c r="D843" s="1"/>
       <c r="E843" s="1"/>
@@ -21574,7 +21642,7 @@
     </row>
     <row r="844" spans="1:22">
       <c r="A844" s="7"/>
-      <c r="B844" s="28"/>
+      <c r="B844" s="25"/>
       <c r="C844" s="3"/>
       <c r="D844" s="1"/>
       <c r="E844" s="1"/>
@@ -21598,7 +21666,7 @@
     </row>
     <row r="845" spans="1:22">
       <c r="A845" s="7"/>
-      <c r="B845" s="28"/>
+      <c r="B845" s="25"/>
       <c r="C845" s="3"/>
       <c r="D845" s="1"/>
       <c r="E845" s="1"/>
@@ -21622,7 +21690,7 @@
     </row>
     <row r="846" spans="1:22">
       <c r="A846" s="7"/>
-      <c r="B846" s="28"/>
+      <c r="B846" s="25"/>
       <c r="C846" s="3"/>
       <c r="D846" s="1"/>
       <c r="E846" s="1"/>
@@ -21646,7 +21714,7 @@
     </row>
     <row r="847" spans="1:22">
       <c r="A847" s="7"/>
-      <c r="B847" s="28"/>
+      <c r="B847" s="25"/>
       <c r="C847" s="3"/>
       <c r="D847" s="1"/>
       <c r="E847" s="1"/>
@@ -21670,7 +21738,7 @@
     </row>
     <row r="848" spans="1:22">
       <c r="A848" s="7"/>
-      <c r="B848" s="28"/>
+      <c r="B848" s="25"/>
       <c r="C848" s="3"/>
       <c r="D848" s="1"/>
       <c r="E848" s="1"/>
@@ -21694,7 +21762,7 @@
     </row>
     <row r="849" spans="1:22">
       <c r="A849" s="7"/>
-      <c r="B849" s="28"/>
+      <c r="B849" s="25"/>
       <c r="C849" s="3"/>
       <c r="D849" s="1"/>
       <c r="E849" s="1"/>
@@ -21718,7 +21786,7 @@
     </row>
     <row r="850" spans="1:22">
       <c r="A850" s="7"/>
-      <c r="B850" s="28"/>
+      <c r="B850" s="25"/>
       <c r="C850" s="3"/>
       <c r="D850" s="1"/>
       <c r="E850" s="1"/>
@@ -21742,7 +21810,7 @@
     </row>
     <row r="851" spans="1:22">
       <c r="A851" s="7"/>
-      <c r="B851" s="28"/>
+      <c r="B851" s="25"/>
       <c r="C851" s="3"/>
       <c r="D851" s="1"/>
       <c r="E851" s="1"/>
@@ -21766,7 +21834,7 @@
     </row>
     <row r="852" spans="1:22">
       <c r="A852" s="7"/>
-      <c r="B852" s="28"/>
+      <c r="B852" s="25"/>
       <c r="C852" s="3"/>
       <c r="D852" s="1"/>
       <c r="E852" s="1"/>
@@ -21790,7 +21858,7 @@
     </row>
     <row r="853" spans="1:22">
       <c r="A853" s="7"/>
-      <c r="B853" s="28"/>
+      <c r="B853" s="25"/>
       <c r="C853" s="3"/>
       <c r="D853" s="1"/>
       <c r="E853" s="1"/>
@@ -21814,7 +21882,7 @@
     </row>
     <row r="854" spans="1:22">
       <c r="A854" s="7"/>
-      <c r="B854" s="28"/>
+      <c r="B854" s="25"/>
       <c r="C854" s="3"/>
       <c r="D854" s="1"/>
       <c r="E854" s="1"/>
@@ -21838,7 +21906,7 @@
     </row>
     <row r="855" spans="1:22">
       <c r="A855" s="7"/>
-      <c r="B855" s="28"/>
+      <c r="B855" s="25"/>
       <c r="C855" s="3"/>
       <c r="D855" s="1"/>
       <c r="E855" s="1"/>
@@ -21862,7 +21930,7 @@
     </row>
     <row r="856" spans="1:22">
       <c r="A856" s="7"/>
-      <c r="B856" s="28"/>
+      <c r="B856" s="25"/>
       <c r="C856" s="3"/>
       <c r="D856" s="1"/>
       <c r="E856" s="1"/>
@@ -21886,7 +21954,7 @@
     </row>
     <row r="857" spans="1:22">
       <c r="A857" s="7"/>
-      <c r="B857" s="28"/>
+      <c r="B857" s="25"/>
       <c r="C857" s="3"/>
       <c r="D857" s="1"/>
       <c r="E857" s="1"/>
@@ -21910,7 +21978,7 @@
     </row>
     <row r="858" spans="1:22">
       <c r="A858" s="7"/>
-      <c r="B858" s="28"/>
+      <c r="B858" s="25"/>
       <c r="C858" s="3"/>
       <c r="D858" s="1"/>
       <c r="E858" s="1"/>
@@ -21934,7 +22002,7 @@
     </row>
     <row r="859" spans="1:22">
       <c r="A859" s="7"/>
-      <c r="B859" s="28"/>
+      <c r="B859" s="25"/>
       <c r="C859" s="3"/>
       <c r="D859" s="1"/>
       <c r="E859" s="1"/>
@@ -21958,7 +22026,7 @@
     </row>
     <row r="860" spans="1:22">
       <c r="A860" s="7"/>
-      <c r="B860" s="28"/>
+      <c r="B860" s="25"/>
       <c r="C860" s="3"/>
       <c r="D860" s="1"/>
       <c r="E860" s="1"/>
@@ -21982,7 +22050,7 @@
     </row>
     <row r="861" spans="1:22">
       <c r="A861" s="7"/>
-      <c r="B861" s="28"/>
+      <c r="B861" s="25"/>
       <c r="C861" s="3"/>
       <c r="D861" s="1"/>
       <c r="E861" s="1"/>
@@ -22006,7 +22074,7 @@
     </row>
     <row r="862" spans="1:22">
       <c r="A862" s="7"/>
-      <c r="B862" s="28"/>
+      <c r="B862" s="25"/>
       <c r="C862" s="3"/>
       <c r="D862" s="1"/>
       <c r="E862" s="1"/>
@@ -22030,7 +22098,7 @@
     </row>
     <row r="863" spans="1:22">
       <c r="A863" s="7"/>
-      <c r="B863" s="28"/>
+      <c r="B863" s="25"/>
       <c r="C863" s="3"/>
       <c r="D863" s="1"/>
       <c r="E863" s="1"/>
@@ -22054,7 +22122,7 @@
     </row>
     <row r="864" spans="1:22">
       <c r="A864" s="7"/>
-      <c r="B864" s="28"/>
+      <c r="B864" s="25"/>
       <c r="C864" s="3"/>
       <c r="D864" s="1"/>
       <c r="E864" s="1"/>
@@ -22078,7 +22146,7 @@
     </row>
     <row r="865" spans="1:22">
       <c r="A865" s="7"/>
-      <c r="B865" s="28"/>
+      <c r="B865" s="25"/>
       <c r="C865" s="3"/>
       <c r="D865" s="1"/>
       <c r="E865" s="1"/>
@@ -22102,7 +22170,7 @@
     </row>
     <row r="866" spans="1:22">
       <c r="A866" s="7"/>
-      <c r="B866" s="28"/>
+      <c r="B866" s="25"/>
       <c r="C866" s="3"/>
       <c r="D866" s="1"/>
       <c r="E866" s="1"/>
@@ -22126,7 +22194,7 @@
     </row>
     <row r="867" spans="1:22">
       <c r="A867" s="7"/>
-      <c r="B867" s="28"/>
+      <c r="B867" s="25"/>
       <c r="C867" s="3"/>
       <c r="D867" s="1"/>
       <c r="E867" s="1"/>
@@ -22150,7 +22218,7 @@
     </row>
     <row r="868" spans="1:22">
       <c r="A868" s="7"/>
-      <c r="B868" s="28"/>
+      <c r="B868" s="25"/>
       <c r="C868" s="3"/>
       <c r="D868" s="1"/>
       <c r="E868" s="1"/>
@@ -22174,7 +22242,7 @@
     </row>
     <row r="869" spans="1:22">
       <c r="A869" s="7"/>
-      <c r="B869" s="28"/>
+      <c r="B869" s="25"/>
       <c r="C869" s="3"/>
       <c r="D869" s="1"/>
       <c r="E869" s="1"/>
@@ -22198,7 +22266,7 @@
     </row>
     <row r="870" spans="1:22">
       <c r="A870" s="7"/>
-      <c r="B870" s="28"/>
+      <c r="B870" s="25"/>
       <c r="C870" s="3"/>
       <c r="D870" s="1"/>
       <c r="E870" s="1"/>
@@ -22222,7 +22290,7 @@
     </row>
     <row r="871" spans="1:22">
       <c r="A871" s="7"/>
-      <c r="B871" s="28"/>
+      <c r="B871" s="25"/>
       <c r="C871" s="3"/>
       <c r="D871" s="1"/>
       <c r="E871" s="1"/>
@@ -22246,7 +22314,7 @@
     </row>
     <row r="872" spans="1:22">
       <c r="A872" s="7"/>
-      <c r="B872" s="28"/>
+      <c r="B872" s="25"/>
       <c r="C872" s="3"/>
       <c r="D872" s="1"/>
       <c r="E872" s="1"/>
@@ -22270,7 +22338,7 @@
     </row>
     <row r="873" spans="1:22">
       <c r="A873" s="7"/>
-      <c r="B873" s="28"/>
+      <c r="B873" s="25"/>
       <c r="C873" s="3"/>
       <c r="D873" s="1"/>
       <c r="E873" s="1"/>
@@ -22294,7 +22362,7 @@
     </row>
     <row r="874" spans="1:22">
       <c r="A874" s="7"/>
-      <c r="B874" s="28"/>
+      <c r="B874" s="25"/>
       <c r="C874" s="3"/>
       <c r="D874" s="1"/>
       <c r="E874" s="1"/>
@@ -22318,7 +22386,7 @@
     </row>
     <row r="875" spans="1:22">
       <c r="A875" s="7"/>
-      <c r="B875" s="28"/>
+      <c r="B875" s="25"/>
       <c r="C875" s="3"/>
       <c r="D875" s="1"/>
       <c r="E875" s="1"/>
@@ -22342,7 +22410,7 @@
     </row>
     <row r="876" spans="1:22">
       <c r="A876" s="7"/>
-      <c r="B876" s="28"/>
+      <c r="B876" s="25"/>
       <c r="C876" s="3"/>
       <c r="D876" s="1"/>
       <c r="E876" s="1"/>
@@ -22366,7 +22434,7 @@
     </row>
     <row r="877" spans="1:22">
       <c r="A877" s="7"/>
-      <c r="B877" s="28"/>
+      <c r="B877" s="25"/>
       <c r="C877" s="3"/>
       <c r="D877" s="1"/>
       <c r="E877" s="1"/>
@@ -22390,7 +22458,7 @@
     </row>
     <row r="878" spans="1:22">
       <c r="A878" s="7"/>
-      <c r="B878" s="28"/>
+      <c r="B878" s="25"/>
       <c r="C878" s="3"/>
       <c r="D878" s="1"/>
       <c r="E878" s="1"/>
@@ -22414,7 +22482,7 @@
     </row>
     <row r="879" spans="1:22">
       <c r="A879" s="7"/>
-      <c r="B879" s="28"/>
+      <c r="B879" s="25"/>
       <c r="C879" s="3"/>
       <c r="D879" s="1"/>
       <c r="E879" s="1"/>
@@ -22438,7 +22506,7 @@
     </row>
     <row r="880" spans="1:22">
       <c r="A880" s="7"/>
-      <c r="B880" s="28"/>
+      <c r="B880" s="25"/>
       <c r="C880" s="3"/>
       <c r="D880" s="1"/>
       <c r="E880" s="1"/>
@@ -22462,7 +22530,7 @@
     </row>
     <row r="881" spans="1:22">
       <c r="A881" s="7"/>
-      <c r="B881" s="28"/>
+      <c r="B881" s="25"/>
       <c r="C881" s="3"/>
       <c r="D881" s="1"/>
       <c r="E881" s="1"/>
@@ -22486,7 +22554,7 @@
     </row>
     <row r="882" spans="1:22">
       <c r="A882" s="7"/>
-      <c r="B882" s="28"/>
+      <c r="B882" s="25"/>
       <c r="C882" s="3"/>
       <c r="D882" s="1"/>
       <c r="E882" s="1"/>
@@ -22510,7 +22578,7 @@
     </row>
     <row r="883" spans="1:22">
       <c r="A883" s="7"/>
-      <c r="B883" s="28"/>
+      <c r="B883" s="25"/>
       <c r="C883" s="3"/>
       <c r="D883" s="1"/>
       <c r="E883" s="1"/>
@@ -22534,7 +22602,7 @@
     </row>
     <row r="884" spans="1:22">
       <c r="A884" s="7"/>
-      <c r="B884" s="28"/>
+      <c r="B884" s="25"/>
       <c r="C884" s="3"/>
       <c r="D884" s="1"/>
       <c r="E884" s="1"/>
@@ -22558,7 +22626,7 @@
     </row>
     <row r="885" spans="1:22">
       <c r="A885" s="7"/>
-      <c r="B885" s="28"/>
+      <c r="B885" s="25"/>
       <c r="C885" s="3"/>
       <c r="D885" s="1"/>
       <c r="E885" s="1"/>
@@ -22582,7 +22650,7 @@
     </row>
     <row r="886" spans="1:22">
       <c r="A886" s="7"/>
-      <c r="B886" s="28"/>
+      <c r="B886" s="25"/>
       <c r="C886" s="3"/>
       <c r="D886" s="1"/>
       <c r="E886" s="1"/>
@@ -22606,7 +22674,7 @@
     </row>
     <row r="887" spans="1:22">
       <c r="A887" s="7"/>
-      <c r="B887" s="28"/>
+      <c r="B887" s="25"/>
       <c r="C887" s="3"/>
       <c r="D887" s="1"/>
       <c r="E887" s="1"/>
@@ -22630,7 +22698,7 @@
     </row>
     <row r="888" spans="1:22">
       <c r="A888" s="7"/>
-      <c r="B888" s="28"/>
+      <c r="B888" s="25"/>
       <c r="C888" s="3"/>
       <c r="D888" s="1"/>
       <c r="E888" s="1"/>
@@ -22654,7 +22722,7 @@
     </row>
     <row r="889" spans="1:22">
       <c r="A889" s="7"/>
-      <c r="B889" s="28"/>
+      <c r="B889" s="25"/>
       <c r="C889" s="3"/>
       <c r="D889" s="1"/>
       <c r="E889" s="1"/>
@@ -22678,7 +22746,7 @@
     </row>
     <row r="890" spans="1:22">
       <c r="A890" s="7"/>
-      <c r="B890" s="28"/>
+      <c r="B890" s="25"/>
       <c r="C890" s="3"/>
       <c r="D890" s="1"/>
       <c r="E890" s="1"/>
@@ -22702,7 +22770,7 @@
     </row>
     <row r="891" spans="1:22">
       <c r="A891" s="7"/>
-      <c r="B891" s="28"/>
+      <c r="B891" s="25"/>
       <c r="C891" s="3"/>
       <c r="D891" s="1"/>
       <c r="E891" s="1"/>
@@ -22726,7 +22794,7 @@
     </row>
     <row r="892" spans="1:22">
       <c r="A892" s="7"/>
-      <c r="B892" s="28"/>
+      <c r="B892" s="25"/>
       <c r="C892" s="3"/>
       <c r="D892" s="1"/>
       <c r="E892" s="1"/>
@@ -22750,7 +22818,7 @@
     </row>
     <row r="893" spans="1:22">
       <c r="A893" s="7"/>
-      <c r="B893" s="28"/>
+      <c r="B893" s="25"/>
       <c r="C893" s="3"/>
       <c r="D893" s="1"/>
       <c r="E893" s="1"/>
@@ -22774,7 +22842,7 @@
     </row>
     <row r="894" spans="1:22">
       <c r="A894" s="7"/>
-      <c r="B894" s="28"/>
+      <c r="B894" s="25"/>
       <c r="C894" s="3"/>
       <c r="D894" s="1"/>
       <c r="E894" s="1"/>
@@ -22798,7 +22866,7 @@
     </row>
     <row r="895" spans="1:22">
       <c r="A895" s="7"/>
-      <c r="B895" s="28"/>
+      <c r="B895" s="25"/>
       <c r="C895" s="3"/>
       <c r="D895" s="1"/>
       <c r="E895" s="1"/>
@@ -22822,7 +22890,7 @@
     </row>
     <row r="896" spans="1:22">
       <c r="A896" s="7"/>
-      <c r="B896" s="28"/>
+      <c r="B896" s="25"/>
       <c r="C896" s="3"/>
       <c r="D896" s="1"/>
       <c r="E896" s="1"/>
@@ -22846,7 +22914,7 @@
     </row>
     <row r="897" spans="1:22">
       <c r="A897" s="7"/>
-      <c r="B897" s="28"/>
+      <c r="B897" s="25"/>
       <c r="C897" s="3"/>
       <c r="D897" s="1"/>
       <c r="E897" s="1"/>
@@ -22870,7 +22938,7 @@
     </row>
     <row r="898" spans="1:22">
       <c r="A898" s="7"/>
-      <c r="B898" s="28"/>
+      <c r="B898" s="25"/>
       <c r="C898" s="3"/>
       <c r="D898" s="1"/>
       <c r="E898" s="1"/>
@@ -22894,7 +22962,7 @@
     </row>
     <row r="899" spans="1:22">
       <c r="A899" s="7"/>
-      <c r="B899" s="28"/>
+      <c r="B899" s="25"/>
       <c r="C899" s="3"/>
       <c r="D899" s="1"/>
       <c r="E899" s="1"/>
@@ -22918,7 +22986,7 @@
     </row>
     <row r="900" spans="1:22">
       <c r="A900" s="7"/>
-      <c r="B900" s="28"/>
+      <c r="B900" s="25"/>
       <c r="C900" s="3"/>
       <c r="D900" s="1"/>
       <c r="E900" s="1"/>
@@ -22942,7 +23010,7 @@
     </row>
     <row r="901" spans="1:22">
       <c r="A901" s="7"/>
-      <c r="B901" s="28"/>
+      <c r="B901" s="25"/>
       <c r="C901" s="3"/>
       <c r="D901" s="1"/>
       <c r="E901" s="1"/>
@@ -22966,7 +23034,7 @@
     </row>
     <row r="902" spans="1:22">
       <c r="A902" s="7"/>
-      <c r="B902" s="28"/>
+      <c r="B902" s="25"/>
       <c r="C902" s="3"/>
       <c r="D902" s="1"/>
       <c r="E902" s="1"/>
@@ -22990,7 +23058,7 @@
     </row>
     <row r="903" spans="1:22">
       <c r="A903" s="7"/>
-      <c r="B903" s="28"/>
+      <c r="B903" s="25"/>
       <c r="C903" s="3"/>
       <c r="D903" s="1"/>
       <c r="E903" s="1"/>
@@ -23014,7 +23082,7 @@
     </row>
     <row r="904" spans="1:22">
       <c r="A904" s="7"/>
-      <c r="B904" s="28"/>
+      <c r="B904" s="25"/>
       <c r="C904" s="3"/>
       <c r="D904" s="1"/>
       <c r="E904" s="1"/>
@@ -23038,7 +23106,7 @@
     </row>
     <row r="905" spans="1:22">
       <c r="A905" s="7"/>
-      <c r="B905" s="28"/>
+      <c r="B905" s="25"/>
       <c r="C905" s="3"/>
       <c r="D905" s="1"/>
       <c r="E905" s="1"/>
@@ -23062,7 +23130,7 @@
     </row>
     <row r="906" spans="1:22">
       <c r="A906" s="7"/>
-      <c r="B906" s="28"/>
+      <c r="B906" s="25"/>
       <c r="C906" s="3"/>
       <c r="D906" s="1"/>
       <c r="E906" s="1"/>
@@ -23086,7 +23154,7 @@
     </row>
     <row r="907" spans="1:22">
       <c r="A907" s="7"/>
-      <c r="B907" s="28"/>
+      <c r="B907" s="25"/>
       <c r="C907" s="3"/>
       <c r="D907" s="1"/>
       <c r="E907" s="1"/>
@@ -23110,7 +23178,7 @@
     </row>
     <row r="908" spans="1:22">
       <c r="A908" s="7"/>
-      <c r="B908" s="28"/>
+      <c r="B908" s="25"/>
       <c r="C908" s="3"/>
       <c r="D908" s="1"/>
       <c r="E908" s="1"/>
@@ -23134,7 +23202,7 @@
     </row>
     <row r="909" spans="1:22">
       <c r="A909" s="7"/>
-      <c r="B909" s="28"/>
+      <c r="B909" s="25"/>
       <c r="C909" s="3"/>
       <c r="D909" s="1"/>
       <c r="E909" s="1"/>
@@ -23158,7 +23226,7 @@
     </row>
     <row r="910" spans="1:22">
       <c r="A910" s="7"/>
-      <c r="B910" s="28"/>
+      <c r="B910" s="25"/>
       <c r="C910" s="3"/>
       <c r="D910" s="1"/>
       <c r="E910" s="1"/>
@@ -23182,7 +23250,7 @@
     </row>
     <row r="911" spans="1:22">
       <c r="A911" s="7"/>
-      <c r="B911" s="28"/>
+      <c r="B911" s="25"/>
       <c r="C911" s="3"/>
       <c r="D911" s="1"/>
       <c r="E911" s="1"/>
@@ -23206,7 +23274,7 @@
     </row>
     <row r="912" spans="1:22">
       <c r="A912" s="7"/>
-      <c r="B912" s="28"/>
+      <c r="B912" s="25"/>
       <c r="C912" s="3"/>
       <c r="D912" s="1"/>
       <c r="E912" s="1"/>
@@ -23230,7 +23298,7 @@
     </row>
     <row r="913" spans="1:22">
       <c r="A913" s="7"/>
-      <c r="B913" s="28"/>
+      <c r="B913" s="25"/>
       <c r="C913" s="3"/>
       <c r="D913" s="1"/>
       <c r="E913" s="1"/>
@@ -23254,7 +23322,7 @@
     </row>
     <row r="914" spans="1:22">
       <c r="A914" s="7"/>
-      <c r="B914" s="28"/>
+      <c r="B914" s="25"/>
       <c r="C914" s="3"/>
       <c r="D914" s="1"/>
       <c r="E914" s="1"/>
@@ -23278,7 +23346,7 @@
     </row>
     <row r="915" spans="1:22">
       <c r="A915" s="7"/>
-      <c r="B915" s="28"/>
+      <c r="B915" s="25"/>
       <c r="C915" s="3"/>
       <c r="D915" s="1"/>
       <c r="E915" s="1"/>
@@ -23302,7 +23370,7 @@
     </row>
     <row r="916" spans="1:22">
       <c r="A916" s="7"/>
-      <c r="B916" s="28"/>
+      <c r="B916" s="25"/>
       <c r="C916" s="3"/>
       <c r="D916" s="1"/>
       <c r="E916" s="1"/>
@@ -23326,7 +23394,7 @@
     </row>
     <row r="917" spans="1:22">
       <c r="A917" s="7"/>
-      <c r="B917" s="28"/>
+      <c r="B917" s="25"/>
       <c r="C917" s="3"/>
       <c r="D917" s="1"/>
       <c r="E917" s="1"/>
@@ -23350,7 +23418,7 @@
     </row>
     <row r="918" spans="1:22">
       <c r="A918" s="7"/>
-      <c r="B918" s="28"/>
+      <c r="B918" s="25"/>
       <c r="C918" s="3"/>
       <c r="D918" s="1"/>
       <c r="E918" s="1"/>
@@ -23374,7 +23442,7 @@
     </row>
     <row r="919" spans="1:22">
       <c r="A919" s="7"/>
-      <c r="B919" s="28"/>
+      <c r="B919" s="25"/>
       <c r="C919" s="3"/>
       <c r="D919" s="1"/>
       <c r="E919" s="1"/>
@@ -23398,7 +23466,7 @@
     </row>
     <row r="920" spans="1:22">
       <c r="A920" s="7"/>
-      <c r="B920" s="28"/>
+      <c r="B920" s="25"/>
       <c r="C920" s="3"/>
       <c r="D920" s="1"/>
       <c r="E920" s="1"/>
@@ -23422,7 +23490,7 @@
     </row>
     <row r="921" spans="1:22">
       <c r="A921" s="7"/>
-      <c r="B921" s="28"/>
+      <c r="B921" s="25"/>
       <c r="C921" s="3"/>
       <c r="D921" s="1"/>
       <c r="E921" s="1"/>
@@ -23446,7 +23514,7 @@
     </row>
     <row r="922" spans="1:22">
       <c r="A922" s="7"/>
-      <c r="B922" s="28"/>
+      <c r="B922" s="25"/>
       <c r="C922" s="3"/>
       <c r="D922" s="1"/>
       <c r="E922" s="1"/>
@@ -23470,7 +23538,7 @@
     </row>
     <row r="923" spans="1:22">
       <c r="A923" s="7"/>
-      <c r="B923" s="28"/>
+      <c r="B923" s="25"/>
       <c r="C923" s="3"/>
       <c r="D923" s="1"/>
       <c r="E923" s="1"/>
@@ -23494,7 +23562,7 @@
     </row>
     <row r="924" spans="1:22">
       <c r="A924" s="7"/>
-      <c r="B924" s="28"/>
+      <c r="B924" s="25"/>
       <c r="C924" s="3"/>
       <c r="D924" s="1"/>
       <c r="E924" s="1"/>
@@ -23518,7 +23586,7 @@
     </row>
     <row r="925" spans="1:22">
       <c r="A925" s="7"/>
-      <c r="B925" s="28"/>
+      <c r="B925" s="25"/>
       <c r="C925" s="3"/>
       <c r="D925" s="1"/>
       <c r="E925" s="1"/>
@@ -23542,7 +23610,7 @@
     </row>
     <row r="926" spans="1:22">
       <c r="A926" s="7"/>
-      <c r="B926" s="28"/>
+      <c r="B926" s="25"/>
       <c r="C926" s="3"/>
       <c r="D926" s="1"/>
       <c r="E926" s="1"/>
@@ -23566,7 +23634,7 @@
     </row>
     <row r="927" spans="1:22">
       <c r="A927" s="7"/>
-      <c r="B927" s="28"/>
+      <c r="B927" s="25"/>
       <c r="C927" s="3"/>
       <c r="D927" s="1"/>
       <c r="E927" s="1"/>
@@ -23590,7 +23658,7 @@
     </row>
     <row r="928" spans="1:22">
       <c r="A928" s="7"/>
-      <c r="B928" s="28"/>
+      <c r="B928" s="25"/>
       <c r="C928" s="3"/>
       <c r="D928" s="1"/>
       <c r="E928" s="1"/>
@@ -23614,7 +23682,7 @@
     </row>
     <row r="929" spans="1:22">
       <c r="A929" s="7"/>
-      <c r="B929" s="28"/>
+      <c r="B929" s="25"/>
       <c r="C929" s="3"/>
       <c r="D929" s="1"/>
       <c r="E929" s="1"/>
@@ -23638,7 +23706,7 @@
     </row>
     <row r="930" spans="1:22">
       <c r="A930" s="7"/>
-      <c r="B930" s="28"/>
+      <c r="B930" s="25"/>
       <c r="C930" s="3"/>
       <c r="D930" s="1"/>
       <c r="E930" s="1"/>
@@ -23662,7 +23730,7 @@
     </row>
     <row r="931" spans="1:22">
       <c r="A931" s="7"/>
-      <c r="B931" s="28"/>
+      <c r="B931" s="25"/>
       <c r="C931" s="3"/>
       <c r="D931" s="1"/>
       <c r="E931" s="1"/>
@@ -23686,7 +23754,7 @@
     </row>
     <row r="932" spans="1:22">
       <c r="A932" s="7"/>
-      <c r="B932" s="28"/>
+      <c r="B932" s="25"/>
       <c r="C932" s="3"/>
       <c r="D932" s="1"/>
       <c r="E932" s="1"/>
@@ -23710,7 +23778,7 @@
     </row>
     <row r="933" spans="1:22">
       <c r="A933" s="7"/>
-      <c r="B933" s="28"/>
+      <c r="B933" s="25"/>
       <c r="C933" s="3"/>
       <c r="D933" s="1"/>
       <c r="E933" s="1"/>
@@ -23734,7 +23802,7 @@
     </row>
     <row r="934" spans="1:22">
       <c r="A934" s="7"/>
-      <c r="B934" s="28"/>
+      <c r="B934" s="25"/>
       <c r="C934" s="3"/>
       <c r="D934" s="1"/>
       <c r="E934" s="1"/>
@@ -23758,7 +23826,7 @@
     </row>
     <row r="935" spans="1:22">
       <c r="A935" s="7"/>
-      <c r="B935" s="28"/>
+      <c r="B935" s="25"/>
       <c r="C935" s="3"/>
       <c r="D935" s="1"/>
       <c r="E935" s="1"/>
@@ -23782,7 +23850,7 @@
     </row>
     <row r="936" spans="1:22">
       <c r="A936" s="7"/>
-      <c r="B936" s="28"/>
+      <c r="B936" s="25"/>
       <c r="C936" s="3"/>
       <c r="D936" s="1"/>
       <c r="E936" s="1"/>
@@ -23806,7 +23874,7 @@
     </row>
     <row r="937" spans="1:22">
       <c r="A937" s="7"/>
-      <c r="B937" s="28"/>
+      <c r="B937" s="25"/>
       <c r="C937" s="3"/>
       <c r="D937" s="1"/>
       <c r="E937" s="1"/>
@@ -23830,7 +23898,7 @@
     </row>
     <row r="938" spans="1:22">
       <c r="A938" s="7"/>
-      <c r="B938" s="28"/>
+      <c r="B938" s="25"/>
       <c r="C938" s="3"/>
       <c r="D938" s="1"/>
       <c r="E938" s="1"/>
@@ -23854,7 +23922,7 @@
     </row>
     <row r="939" spans="1:22">
       <c r="A939" s="7"/>
-      <c r="B939" s="28"/>
+      <c r="B939" s="25"/>
       <c r="C939" s="3"/>
       <c r="D939" s="1"/>
       <c r="E939" s="1"/>
@@ -23878,7 +23946,7 @@
     </row>
     <row r="940" spans="1:22">
       <c r="A940" s="7"/>
-      <c r="B940" s="28"/>
+      <c r="B940" s="25"/>
       <c r="C940" s="3"/>
       <c r="D940" s="1"/>
       <c r="E940" s="1"/>
@@ -23902,7 +23970,7 @@
     </row>
     <row r="941" spans="1:22">
       <c r="A941" s="7"/>
-      <c r="B941" s="28"/>
+      <c r="B941" s="25"/>
       <c r="C941" s="3"/>
       <c r="D941" s="1"/>
       <c r="E941" s="1"/>
@@ -23926,7 +23994,7 @@
     </row>
     <row r="942" spans="1:22">
       <c r="A942" s="7"/>
-      <c r="B942" s="28"/>
+      <c r="B942" s="25"/>
       <c r="C942" s="3"/>
       <c r="D942" s="1"/>
       <c r="E942" s="1"/>
@@ -23950,7 +24018,7 @@
     </row>
     <row r="943" spans="1:22">
       <c r="A943" s="7"/>
-      <c r="B943" s="28"/>
+      <c r="B943" s="25"/>
       <c r="C943" s="3"/>
       <c r="D943" s="1"/>
       <c r="E943" s="1"/>
@@ -23974,7 +24042,7 @@
     </row>
     <row r="944" spans="1:22">
       <c r="A944" s="7"/>
-      <c r="B944" s="28"/>
+      <c r="B944" s="25"/>
       <c r="C944" s="3"/>
       <c r="D944" s="1"/>
       <c r="E944" s="1"/>
@@ -23998,7 +24066,7 @@
     </row>
     <row r="945" spans="1:22">
       <c r="A945" s="7"/>
-      <c r="B945" s="28"/>
+      <c r="B945" s="25"/>
       <c r="C945" s="3"/>
       <c r="D945" s="1"/>
       <c r="E945" s="1"/>
@@ -24022,7 +24090,7 @@
     </row>
     <row r="946" spans="1:22">
       <c r="A946" s="7"/>
-      <c r="B946" s="28"/>
+      <c r="B946" s="25"/>
       <c r="C946" s="3"/>
       <c r="D946" s="1"/>
       <c r="E946" s="1"/>
@@ -24046,7 +24114,7 @@
     </row>
     <row r="947" spans="1:22">
       <c r="A947" s="7"/>
-      <c r="B947" s="28"/>
+      <c r="B947" s="25"/>
       <c r="C947" s="3"/>
       <c r="D947" s="1"/>
       <c r="E947" s="1"/>
@@ -24070,7 +24138,7 @@
     </row>
     <row r="948" spans="1:22">
       <c r="A948" s="7"/>
-      <c r="B948" s="28"/>
+      <c r="B948" s="25"/>
       <c r="C948" s="3"/>
       <c r="D948" s="1"/>
       <c r="E948" s="1"/>
@@ -24094,7 +24162,7 @@
     </row>
     <row r="949" spans="1:22">
       <c r="A949" s="7"/>
-      <c r="B949" s="28"/>
+      <c r="B949" s="25"/>
       <c r="C949" s="3"/>
       <c r="D949" s="1"/>
       <c r="E949" s="1"/>
@@ -24118,7 +24186,7 @@
     </row>
     <row r="950" spans="1:22">
       <c r="A950" s="7"/>
-      <c r="B950" s="28"/>
+      <c r="B950" s="25"/>
       <c r="C950" s="3"/>
       <c r="D950" s="1"/>
       <c r="E950" s="1"/>
@@ -24142,7 +24210,7 @@
     </row>
     <row r="951" spans="1:22">
       <c r="A951" s="7"/>
-      <c r="B951" s="28"/>
+      <c r="B951" s="25"/>
       <c r="C951" s="3"/>
       <c r="D951" s="1"/>
       <c r="E951" s="1"/>
@@ -24166,7 +24234,7 @@
     </row>
     <row r="952" spans="1:22">
       <c r="A952" s="7"/>
-      <c r="B952" s="28"/>
+      <c r="B952" s="25"/>
       <c r="C952" s="3"/>
       <c r="D952" s="1"/>
       <c r="E952" s="1"/>
@@ -24190,7 +24258,7 @@
     </row>
     <row r="953" spans="1:22">
       <c r="A953" s="7"/>
-      <c r="B953" s="28"/>
+      <c r="B953" s="25"/>
       <c r="C953" s="3"/>
       <c r="D953" s="1"/>
       <c r="E953" s="1"/>
@@ -24214,7 +24282,7 @@
     </row>
     <row r="954" spans="1:22">
       <c r="A954" s="7"/>
-      <c r="B954" s="28"/>
+      <c r="B954" s="25"/>
       <c r="C954" s="3"/>
       <c r="D954" s="1"/>
       <c r="E954" s="1"/>
@@ -24238,7 +24306,7 @@
     </row>
     <row r="955" spans="1:22">
       <c r="A955" s="7"/>
-      <c r="B955" s="28"/>
+      <c r="B955" s="25"/>
       <c r="C955" s="3"/>
       <c r="D955" s="1"/>
       <c r="E955" s="1"/>
@@ -24262,7 +24330,7 @@
     </row>
     <row r="956" spans="1:22">
       <c r="A956" s="7"/>
-      <c r="B956" s="28"/>
+      <c r="B956" s="25"/>
       <c r="C956" s="3"/>
       <c r="D956" s="1"/>
       <c r="E956" s="1"/>
@@ -24286,7 +24354,7 @@
     </row>
     <row r="957" spans="1:22">
       <c r="A957" s="7"/>
-      <c r="B957" s="28"/>
+      <c r="B957" s="25"/>
       <c r="C957" s="3"/>
       <c r="D957" s="1"/>
       <c r="E957" s="1"/>
@@ -24310,7 +24378,7 @@
     </row>
     <row r="958" spans="1:22">
       <c r="A958" s="7"/>
-      <c r="B958" s="28"/>
+      <c r="B958" s="25"/>
       <c r="C958" s="3"/>
       <c r="D958" s="1"/>
       <c r="E958" s="1"/>
@@ -24334,7 +24402,7 @@
     </row>
     <row r="959" spans="1:22">
       <c r="A959" s="7"/>
-      <c r="B959" s="28"/>
+      <c r="B959" s="25"/>
       <c r="C959" s="3"/>
       <c r="D959" s="1"/>
       <c r="E959" s="1"/>
@@ -24358,7 +24426,7 @@
     </row>
     <row r="960" spans="1:22">
       <c r="A960" s="7"/>
-      <c r="B960" s="28"/>
+      <c r="B960" s="25"/>
       <c r="C960" s="3"/>
       <c r="D960" s="1"/>
       <c r="E960" s="1"/>
@@ -24382,7 +24450,7 @@
     </row>
     <row r="961" spans="1:22">
       <c r="A961" s="7"/>
-      <c r="B961" s="28"/>
+      <c r="B961" s="25"/>
       <c r="C961" s="3"/>
       <c r="D961" s="1"/>
       <c r="E961" s="1"/>
@@ -24406,7 +24474,7 @@
     </row>
     <row r="962" spans="1:22">
       <c r="A962" s="7"/>
-      <c r="B962" s="28"/>
+      <c r="B962" s="25"/>
       <c r="C962" s="3"/>
       <c r="D962" s="1"/>
       <c r="E962" s="1"/>
@@ -24430,7 +24498,7 @@
     </row>
     <row r="963" spans="1:22">
       <c r="A963" s="7"/>
-      <c r="B963" s="28"/>
+      <c r="B963" s="25"/>
       <c r="C963" s="3"/>
       <c r="D963" s="1"/>
       <c r="E963" s="1"/>
@@ -24454,7 +24522,7 @@
     </row>
     <row r="964" spans="1:22">
       <c r="A964" s="7"/>
-      <c r="B964" s="28"/>
+      <c r="B964" s="25"/>
       <c r="C964" s="3"/>
       <c r="D964" s="1"/>
       <c r="E964" s="1"/>
@@ -24478,7 +24546,7 @@
     </row>
     <row r="965" spans="1:22">
       <c r="A965" s="7"/>
-      <c r="B965" s="28"/>
+      <c r="B965" s="25"/>
       <c r="C965" s="3"/>
       <c r="D965" s="1"/>
       <c r="E965" s="1"/>
@@ -24502,7 +24570,7 @@
     </row>
     <row r="966" spans="1:22">
       <c r="A966" s="7"/>
-      <c r="B966" s="28"/>
+      <c r="B966" s="25"/>
       <c r="C966" s="3"/>
       <c r="D966" s="1"/>
       <c r="E966" s="1"/>
@@ -24526,7 +24594,7 @@
     </row>
     <row r="967" spans="1:22">
       <c r="A967" s="7"/>
-      <c r="B967" s="28"/>
+      <c r="B967" s="25"/>
       <c r="C967" s="3"/>
       <c r="D967" s="1"/>
       <c r="E967" s="1"/>
@@ -24550,7 +24618,7 @@
     </row>
     <row r="968" spans="1:22">
       <c r="A968" s="7"/>
-      <c r="B968" s="28"/>
+      <c r="B968" s="25"/>
       <c r="C968" s="3"/>
       <c r="D968" s="1"/>
       <c r="E968" s="1"/>
@@ -24574,7 +24642,7 @@
     </row>
     <row r="969" spans="1:22">
       <c r="A969" s="7"/>
-      <c r="B969" s="28"/>
+      <c r="B969" s="25"/>
       <c r="C969" s="3"/>
       <c r="D969" s="1"/>
       <c r="E969" s="1"/>
@@ -24598,7 +24666,7 @@
     </row>
     <row r="970" spans="1:22">
       <c r="A970" s="7"/>
-      <c r="B970" s="28"/>
+      <c r="B970" s="25"/>
       <c r="C970" s="3"/>
       <c r="D970" s="1"/>
       <c r="E970" s="1"/>
@@ -24622,7 +24690,7 @@
     </row>
     <row r="971" spans="1:22">
       <c r="A971" s="7"/>
-      <c r="B971" s="28"/>
+      <c r="B971" s="25"/>
       <c r="C971" s="3"/>
       <c r="D971" s="1"/>
       <c r="E971" s="1"/>
@@ -24646,7 +24714,7 @@
     </row>
     <row r="972" spans="1:22">
       <c r="A972" s="7"/>
-      <c r="B972" s="28"/>
+      <c r="B972" s="25"/>
       <c r="C972" s="3"/>
       <c r="D972" s="1"/>
       <c r="E972" s="1"/>
@@ -24670,7 +24738,7 @@
     </row>
     <row r="973" spans="1:22">
       <c r="A973" s="7"/>
-      <c r="B973" s="28"/>
+      <c r="B973" s="25"/>
       <c r="C973" s="3"/>
       <c r="D973" s="1"/>
       <c r="E973" s="1"/>
@@ -24694,7 +24762,7 @@
     </row>
     <row r="974" spans="1:22">
       <c r="A974" s="7"/>
-      <c r="B974" s="28"/>
+      <c r="B974" s="25"/>
       <c r="C974" s="3"/>
       <c r="D974" s="1"/>
       <c r="E974" s="1"/>
@@ -24718,7 +24786,7 @@
     </row>
     <row r="975" spans="1:22">
       <c r="A975" s="7"/>
-      <c r="B975" s="28"/>
+      <c r="B975" s="25"/>
       <c r="C975" s="3"/>
       <c r="D975" s="1"/>
       <c r="E975" s="1"/>
@@ -24742,7 +24810,7 @@
     </row>
     <row r="976" spans="1:22">
       <c r="A976" s="7"/>
-      <c r="B976" s="28"/>
+      <c r="B976" s="25"/>
       <c r="C976" s="3"/>
       <c r="D976" s="1"/>
       <c r="E976" s="1"/>
@@ -24766,7 +24834,7 @@
     </row>
     <row r="977" spans="1:22">
       <c r="A977" s="7"/>
-      <c r="B977" s="28"/>
+      <c r="B977" s="25"/>
       <c r="C977" s="3"/>
       <c r="D977" s="1"/>
       <c r="E977" s="1"/>
@@ -24790,7 +24858,7 @@
     </row>
     <row r="978" spans="1:22">
       <c r="A978" s="7"/>
-      <c r="B978" s="28"/>
+      <c r="B978" s="25"/>
       <c r="C978" s="3"/>
       <c r="D978" s="1"/>
       <c r="E978" s="1"/>
@@ -24814,7 +24882,7 @@
     </row>
     <row r="979" spans="1:22">
       <c r="A979" s="7"/>
-      <c r="B979" s="28"/>
+      <c r="B979" s="25"/>
       <c r="C979" s="3"/>
       <c r="D979" s="1"/>
       <c r="E979" s="1"/>
@@ -24838,7 +24906,7 @@
     </row>
     <row r="980" spans="1:22">
       <c r="A980" s="7"/>
-      <c r="B980" s="28"/>
+      <c r="B980" s="25"/>
       <c r="C980" s="3"/>
       <c r="D980" s="1"/>
       <c r="E980" s="1"/>
@@ -24862,7 +24930,7 @@
     </row>
     <row r="981" spans="1:22">
       <c r="A981" s="7"/>
-      <c r="B981" s="28"/>
+      <c r="B981" s="25"/>
       <c r="C981" s="3"/>
       <c r="D981" s="1"/>
       <c r="E981" s="1"/>
@@ -24886,7 +24954,7 @@
     </row>
     <row r="982" spans="1:22">
       <c r="A982" s="7"/>
-      <c r="B982" s="28"/>
+      <c r="B982" s="25"/>
       <c r="C982" s="3"/>
       <c r="D982" s="1"/>
       <c r="E982" s="1"/>
@@ -24918,10 +24986,11 @@
     <hyperlink ref="E19" r:id="rId5" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_datamatrix.html?barcode=EekmuNvCT" xr:uid="{B3CD29E4-E538-1647-AA61-880ADCDC4AC7}"/>
     <hyperlink ref="E20" r:id="rId6" display="https://mobile.ucsd.edu/_tools/barcode-generator/custom_datamatrix.html?barcode=inv@l1d!" xr:uid="{35BF5404-B2A9-4D4C-9C7A-93207CA523A2}"/>
     <hyperlink ref="E14" r:id="rId7" xr:uid="{F4CAC432-3C6E-4A4A-AEB9-0A171E955FEA}"/>
+    <hyperlink ref="E22" r:id="rId8" xr:uid="{D0F36DB5-A0F2-462B-BD4B-3327BF436FC5}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -24936,12 +25005,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100231ACC10D748F34BAA0C20ABFA72A7EA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b60ada5ef74d917189c377d37311689">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a56c8121-053f-455f-842b-cd566811d075" xmlns:ns3="76f06672-c643-4888-a225-c4422b0e89ee" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f62d863a5068cb9de04048c4fc264cf7" ns2:_="" ns3:_="">
     <xsd:import namespace="a56c8121-053f-455f-842b-cd566811d075"/>
@@ -25124,14 +25187,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AF01965-4B53-4043-B5ED-A531E4D3A7B2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C37A5DE0-9FD1-4721-9C30-3A5B42A32EC8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C37A5DE0-9FD1-4721-9C30-3A5B42A32EC8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8F950C44-5D9B-4216-BB47-9736F024226A}"/>
 </file>